--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Execution_Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Validation part" sheetId="4" r:id="rId2"/>
+    <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
+    <sheet name="Execution_Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Validation part" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="85">
   <si>
     <t>Execution</t>
   </si>
@@ -222,13 +223,61 @@
   </si>
   <si>
     <t>Sno</t>
+  </si>
+  <si>
+    <t>971520001714</t>
+  </si>
+  <si>
+    <t>Product_ID</t>
+  </si>
+  <si>
+    <t>Recharge_Coupon</t>
+  </si>
+  <si>
+    <t>SMS_COUNT</t>
+  </si>
+  <si>
+    <t>Test_Device</t>
+  </si>
+  <si>
+    <t>device1</t>
+  </si>
+  <si>
+    <t>USSD_OPT_IN</t>
+  </si>
+  <si>
+    <t>USSD_OPT_OUT</t>
+  </si>
+  <si>
+    <t>USSD_Recharge</t>
+  </si>
+  <si>
+    <t>USSD_Long_Code</t>
+  </si>
+  <si>
+    <t>USSD_Short_Code</t>
+  </si>
+  <si>
+    <t>189348653076336</t>
+  </si>
+  <si>
+    <t>971520002069</t>
+  </si>
+  <si>
+    <t>Test Sending message</t>
+  </si>
+  <si>
+    <t>0520002069</t>
+  </si>
+  <si>
+    <t>device2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +306,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +332,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -295,11 +362,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -322,6 +402,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +716,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2">
+        <v>820</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2">
+        <v>820</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="13"/>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="13"/>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="8">
+        <v>20</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="13"/>
+      <c r="S6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="13"/>
+      <c r="S7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="13"/>
+      <c r="T9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="T10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="T11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="T12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="U13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$R$4:$R$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+      <formula1>$U$6:$U$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
+      <formula1>$W$6:$W$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
+      <formula1>$Y$6:$Y$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+      <formula1>$S$5:$S$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+      <formula1>$V$6:$V$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>$T$5:$T$12</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -885,7 +1462,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>15</v>
@@ -1036,12 +1613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="84">
   <si>
     <t>Execution</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Test_Device</t>
-  </si>
-  <si>
-    <t>device1</t>
   </si>
   <si>
     <t>USSD_OPT_IN</t>
@@ -719,7 +716,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -806,13 +803,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>69</v>
@@ -837,13 +834,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>69</v>
@@ -868,10 +865,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -881,7 +878,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="8"/>
@@ -902,13 +899,13 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -935,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>22</v>
@@ -961,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -975,7 +972,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="8">
         <v>20</v>
@@ -989,19 +986,19 @@
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y6" s="6" t="s">
         <v>34</v>
@@ -1015,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1031,10 +1028,10 @@
       <c r="I7" s="18"/>
       <c r="J7" s="8"/>
       <c r="K7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
@@ -1045,19 +1042,19 @@
         <v>15</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="6" t="s">
         <v>35</v>
@@ -1065,13 +1062,13 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -1093,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>17</v>
@@ -1110,13 +1107,13 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="85">
   <si>
     <t>Execution</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>device2</t>
+  </si>
+  <si>
+    <t>device1</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -797,19 +800,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>69</v>
@@ -1062,7 +1065,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1107,7 +1110,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -1615,7 +1618,7 @@
   <dimension ref="E4:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -277,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +317,13 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -379,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -412,6 +419,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,12 +727,12 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
@@ -812,7 +820,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>69</v>
@@ -837,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>75</v>
@@ -868,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>76</v>
@@ -908,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -961,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -1617,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1741,7 +1749,7 @@
         <v>67</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>67</v>
@@ -1767,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>67</v>
@@ -1809,7 +1817,7 @@
       <c r="E10" s="11">
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1825,20 +1833,20 @@
         <v>5</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="5:13">
       <c r="E11" s="11">
         <v>7</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1867,7 +1875,7 @@
       <c r="E12" s="11">
         <v>8</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1880,13 +1888,13 @@
         <v>67</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>67</v>
@@ -1899,5 +1907,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="181">
   <si>
     <t>Execution</t>
   </si>
@@ -228,9 +228,6 @@
     <t>971520001714</t>
   </si>
   <si>
-    <t>Product_ID</t>
-  </si>
-  <si>
     <t>Recharge_Coupon</t>
   </si>
   <si>
@@ -271,6 +268,297 @@
   </si>
   <si>
     <t>device1</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>200MB+200MB Social AED25_OnceOff</t>
+  </si>
+  <si>
+    <t>500MB+500MB Social AED55_OnceOff</t>
+  </si>
+  <si>
+    <t>1.1GB+1.1GB Social AED110_OnceOff</t>
+  </si>
+  <si>
+    <t>5GB+3GB Social AED210_OnceOff</t>
+  </si>
+  <si>
+    <t>25GB+15GB Social AED525_OnceOff</t>
+  </si>
+  <si>
+    <t>200MB+200MB Social AED25_Rec</t>
+  </si>
+  <si>
+    <t>500MB+500MB Social AED55_Rec</t>
+  </si>
+  <si>
+    <t>1.1GB+1.1GB Social AED110_Rec</t>
+  </si>
+  <si>
+    <t>5GB+3GB Social AED210_Rec</t>
+  </si>
+  <si>
+    <t>25GB+15GB Social AED525_Rec</t>
+  </si>
+  <si>
+    <t>Daily 60 MB for AED 2</t>
+  </si>
+  <si>
+    <t>Daily 150 MB for AED 4</t>
+  </si>
+  <si>
+    <t>Daily 100 MB for AED 3</t>
+  </si>
+  <si>
+    <t>2min&amp;30MB AED3 Day</t>
+  </si>
+  <si>
+    <t>25min&amp;250MB AED25 Week</t>
+  </si>
+  <si>
+    <t>15min&amp;750MB AED35 Mon</t>
+  </si>
+  <si>
+    <t>30min&amp;1.5GB AED50 Mon</t>
+  </si>
+  <si>
+    <t>100min&amp;3GB AED100 Mon</t>
+  </si>
+  <si>
+    <t>150min&amp;6GB AED150 Mon</t>
+  </si>
+  <si>
+    <t>Special Social 25GB Data Bundle Recurrent</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec1_FlexiChat_AED25</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec2_FlexiSocial_AED50</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec3_FlexiSocial_AED100</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec5_FlexiAll_AED100</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec6_FlexiAll_AED200</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec7_FlexiAll_AED150</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec1_NatMin_AED1</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec2_FlexChat_AED2</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec3_FlexSocial_AED3</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec4_FlexAll_AED5</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily1_AED1</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily2_AED2</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily3_AED3</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily4_AED5</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly1_AED25</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly2_AED50</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly3_AED100</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly5_AED100</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly6_AED200</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly7_AED150</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly1_AED20</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly2_AED50</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly3_AED100</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi3_AED2</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi5_AED3</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi8_AED5</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_Flexi25_AED25</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_Flexi60_AED50</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_National50_AED25</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_National110_AED50</t>
+  </si>
+  <si>
+    <t>SFTier1</t>
+  </si>
+  <si>
+    <t>SFTier2</t>
+  </si>
+  <si>
+    <t>SFTier3</t>
+  </si>
+  <si>
+    <t>Weekly International SMS Bundle</t>
+  </si>
+  <si>
+    <t>Monthly International SMS Bundle</t>
+  </si>
+  <si>
+    <t>TPRenewal</t>
+  </si>
+  <si>
+    <t>TouristPBundle1</t>
+  </si>
+  <si>
+    <t>TouristPBundle2</t>
+  </si>
+  <si>
+    <t>TouristPBundle3</t>
+  </si>
+  <si>
+    <t>International Minutes2</t>
+  </si>
+  <si>
+    <t>IDDDailyBundle</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM1</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM2</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM3</t>
+  </si>
+  <si>
+    <t>Daily Unlimited Social Bundle</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataD1</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataD2</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM1</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM2</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM3</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM4</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM1XL</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM2XL</t>
+  </si>
+  <si>
+    <t>NPPVBSub_NPPVoiceD1</t>
+  </si>
+  <si>
+    <t>NPPVBSub_NPPVoiceM1</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP1</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP2</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP3</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP4</t>
+  </si>
+  <si>
+    <t>GlobalZone</t>
+  </si>
+  <si>
+    <t>BB300MB</t>
+  </si>
+  <si>
+    <t>BB1GB</t>
+  </si>
+  <si>
+    <t>BB5GB</t>
+  </si>
+  <si>
+    <t>BB25GB</t>
+  </si>
+  <si>
+    <t>BBSoc</t>
+  </si>
+  <si>
+    <t>NPPBBAct</t>
+  </si>
+  <si>
+    <t>Start_Stop_Phase1</t>
+  </si>
+  <si>
+    <t>Start_Stop_Phase2</t>
+  </si>
+  <si>
+    <t>NewAloActivation</t>
+  </si>
+  <si>
+    <t>KBChatnCallRec</t>
+  </si>
+  <si>
+    <t>KDLifeStyleRec</t>
+  </si>
+  <si>
+    <t>KBChatnCallSingle</t>
+  </si>
+  <si>
+    <t>KDLifeStyleSingle</t>
+  </si>
+  <si>
+    <t>ICP_Mercury</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>Call Home for Less</t>
   </si>
 </sst>
 </file>
@@ -346,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -382,11 +670,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -420,6 +751,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -738,7 +1084,7 @@
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.90625" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.90625" customWidth="1"/>
@@ -756,9 +1102,10 @@
     <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:26" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -766,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -778,10 +1125,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>51</v>
@@ -796,7 +1143,7 @@
         <v>55</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>57</v>
@@ -806,27 +1153,27 @@
       </c>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="2">
-        <v>820</v>
+      <c r="G2" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -837,7 +1184,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -845,19 +1192,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="2">
-        <v>820</v>
+      <c r="G3" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -868,7 +1215,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -876,10 +1223,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -889,7 +1236,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="8"/>
@@ -908,7 +1255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -916,7 +1263,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -943,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>22</v>
@@ -960,8 +1307,11 @@
       <c r="Y5" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -969,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -983,7 +1333,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" s="8">
         <v>20</v>
@@ -997,25 +1347,28 @@
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y6" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -1023,7 +1376,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1039,10 +1392,10 @@
       <c r="I7" s="18"/>
       <c r="J7" s="8"/>
       <c r="K7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
@@ -1053,25 +1406,28 @@
         <v>15</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y7" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1084,9 +1440,7 @@
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="13" t="s">
         <v>69</v>
       </c>
@@ -1101,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>17</v>
@@ -1115,10 +1469,13 @@
       <c r="W8" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -1129,9 +1486,7 @@
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="13" t="s">
         <v>69</v>
       </c>
@@ -1150,38 +1505,493 @@
       <c r="U9" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="T10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="T11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="T12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="U13" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="Z13" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="Z14" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="Z15" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="Z16" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="26:26">
+      <c r="Z17" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="26:26" ht="15" thickBot="1">
+      <c r="Z18" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="26:26" ht="15" thickBot="1">
+      <c r="Z19" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="26:26" ht="15" thickBot="1">
+      <c r="Z20" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="26:26" ht="15" thickBot="1">
+      <c r="Z21" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="26:26" ht="15" thickBot="1">
+      <c r="Z22" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="26:26" ht="15" thickBot="1">
+      <c r="Z23" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="26:26" ht="15" thickBot="1">
+      <c r="Z24" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="26:26" ht="15" thickBot="1">
+      <c r="Z25" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="26:26" ht="15" thickBot="1">
+      <c r="Z26" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="26:26" ht="15" thickBot="1">
+      <c r="Z27" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="26:26" ht="15" thickBot="1">
+      <c r="Z28" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="26:26" ht="15" thickBot="1">
+      <c r="Z29" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="26:26" ht="15" thickBot="1">
+      <c r="Z30" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="26:26" ht="15" thickBot="1">
+      <c r="Z31" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="26:26" ht="15" thickBot="1">
+      <c r="Z32" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="26:26" ht="15" thickBot="1">
+      <c r="Z33" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="26:26" ht="15" thickBot="1">
+      <c r="Z34" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="26:26" ht="15" thickBot="1">
+      <c r="Z35" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="26:26" ht="15" thickBot="1">
+      <c r="Z36" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="26:26" ht="15" thickBot="1">
+      <c r="Z37" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="26:26" ht="15" thickBot="1">
+      <c r="Z38" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="26:26" ht="15" thickBot="1">
+      <c r="Z39" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="26:26" ht="15" thickBot="1">
+      <c r="Z40" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="26:26" ht="15" thickBot="1">
+      <c r="Z41" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="26:26" ht="15" thickBot="1">
+      <c r="Z42" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="26:26" ht="15" thickBot="1">
+      <c r="Z43" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="26:26" ht="15" thickBot="1">
+      <c r="Z44" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="26:26" ht="15" thickBot="1">
+      <c r="Z45" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="26:26" ht="15" thickBot="1">
+      <c r="Z46" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="26:26" ht="15" thickBot="1">
+      <c r="Z47" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="26:26" ht="15" thickBot="1">
+      <c r="Z48" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="26:26" ht="15" thickBot="1">
+      <c r="Z49" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="26:26" ht="15" thickBot="1">
+      <c r="Z50" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="26:26" ht="15" thickBot="1">
+      <c r="Z51" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="26:26" ht="15" thickBot="1">
+      <c r="Z52" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="26:26" ht="15" thickBot="1">
+      <c r="Z53" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="26:26" ht="15" thickBot="1">
+      <c r="Z54" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="26:26" ht="15" thickBot="1">
+      <c r="Z55" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="26:26" ht="15" thickBot="1">
+      <c r="Z56" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="26:26" ht="15" thickBot="1">
+      <c r="Z57" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="26:26" ht="15" thickBot="1">
+      <c r="Z58" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="26:26" ht="15" thickBot="1">
+      <c r="Z59" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="26:26" ht="15" thickBot="1">
+      <c r="Z60" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="26:26" ht="15" thickBot="1">
+      <c r="Z61" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="26:26" ht="15" thickBot="1">
+      <c r="Z62" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="26:26" ht="15" thickBot="1">
+      <c r="Z63" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="26:26" ht="15" thickBot="1">
+      <c r="Z64" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="26:26" ht="15" thickBot="1">
+      <c r="Z65" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="26:26" ht="15" thickBot="1">
+      <c r="Z66" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="26:26" ht="15" thickBot="1">
+      <c r="Z67" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="26:26" ht="15" thickBot="1">
+      <c r="Z68" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="26:26" ht="15" thickBot="1">
+      <c r="Z69" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="26:26" ht="15" thickBot="1">
+      <c r="Z70" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="26:26" ht="15" thickBot="1">
+      <c r="Z71" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="26:26" ht="15" thickBot="1">
+      <c r="Z72" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="26:26" ht="15" thickBot="1">
+      <c r="Z73" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="26:26" ht="15" thickBot="1">
+      <c r="Z74" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="26:26" ht="15" thickBot="1">
+      <c r="Z75" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="26:26" ht="15" thickBot="1">
+      <c r="Z76" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="26:26" ht="15" thickBot="1">
+      <c r="Z77" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="26:26" ht="15" thickBot="1">
+      <c r="Z78" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="26:26" ht="15" thickBot="1">
+      <c r="Z79" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="26:26" ht="15" thickBot="1">
+      <c r="Z80" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="26:26" ht="15" thickBot="1">
+      <c r="Z81" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="26:26" ht="15" thickBot="1">
+      <c r="Z82" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="26:26" ht="15" thickBot="1">
+      <c r="Z83" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="26:26" ht="15" thickBot="1">
+      <c r="Z84" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="26:26" ht="15" thickBot="1">
+      <c r="Z85" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="26:26" ht="15" thickBot="1">
+      <c r="Z86" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="26:26" ht="15" thickBot="1">
+      <c r="Z87" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="26:26" ht="15" thickBot="1">
+      <c r="Z88" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="26:26" ht="15" thickBot="1">
+      <c r="Z89" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="26:26" ht="15" thickBot="1">
+      <c r="Z90" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="26:26" ht="15" thickBot="1">
+      <c r="Z91" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="26:26" ht="15" thickBot="1">
+      <c r="Z92" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="26:26" ht="15" thickBot="1">
+      <c r="Z93" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="26:26" ht="15" thickBot="1">
+      <c r="Z94" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="26:26" ht="15" thickBot="1">
+      <c r="Z95" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="26:26" ht="15" thickBot="1">
+      <c r="Z96" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="26:26" ht="15" thickBot="1">
+      <c r="Z97" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="26:26" ht="15" thickBot="1">
+      <c r="Z98" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="26:26" ht="15" thickBot="1">
+      <c r="Z99" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="26:26" ht="15" thickBot="1">
+      <c r="Z100" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="26:26">
+      <c r="Z101" s="25" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>$R$4:$R$5</formula1>
     </dataValidation>
@@ -1203,6 +2013,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>$T$5:$T$12</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>$Z$6:$Z$101</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1214,7 +2027,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1470,7 +2283,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>15</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1167,7 +1167,7 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>69</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="215">
   <si>
     <t>Execution</t>
   </si>
@@ -228,9 +228,6 @@
     <t>971520001714</t>
   </si>
   <si>
-    <t>Product_ID</t>
-  </si>
-  <si>
     <t>Recharge_Coupon</t>
   </si>
   <si>
@@ -264,20 +261,413 @@
     <t>971520002069</t>
   </si>
   <si>
-    <t>Test Sending message</t>
-  </si>
-  <si>
     <t>0520002069</t>
   </si>
   <si>
-    <t>device2</t>
+    <t>200MB+200MB Social AED25_OnceOff</t>
+  </si>
+  <si>
+    <t>500MB+500MB Social AED55_OnceOff</t>
+  </si>
+  <si>
+    <t>1.1GB+1.1GB Social AED110_OnceOff</t>
+  </si>
+  <si>
+    <t>5GB+3GB Social AED210_OnceOff</t>
+  </si>
+  <si>
+    <t>25GB+15GB Social AED525_OnceOff</t>
+  </si>
+  <si>
+    <t>200MB+200MB Social AED25_Rec</t>
+  </si>
+  <si>
+    <t>500MB+500MB Social AED55_Rec</t>
+  </si>
+  <si>
+    <t>1.1GB+1.1GB Social AED110_Rec</t>
+  </si>
+  <si>
+    <t>5GB+3GB Social AED210_Rec</t>
+  </si>
+  <si>
+    <t>25GB+15GB Social AED525_Rec</t>
+  </si>
+  <si>
+    <t>Daily 60 MB for AED 2</t>
+  </si>
+  <si>
+    <t>Daily 150 MB for AED 4</t>
+  </si>
+  <si>
+    <t>Daily 100 MB for AED 3</t>
+  </si>
+  <si>
+    <t>2min&amp;30MB AED3 Day</t>
+  </si>
+  <si>
+    <t>25min&amp;250MB AED25 Week</t>
+  </si>
+  <si>
+    <t>15min&amp;750MB AED35 Mon</t>
+  </si>
+  <si>
+    <t>30min&amp;1.5GB AED50 Mon</t>
+  </si>
+  <si>
+    <t>100min&amp;3GB AED100 Mon</t>
+  </si>
+  <si>
+    <t>150min&amp;6GB AED150 Mon</t>
+  </si>
+  <si>
+    <t>Special Social 25GB Data Bundle Recurrent</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec1_FlexiChat_AED25</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec2_FlexiSocial_AED50</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec3_FlexiSocial_AED100</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec5_FlexiAll_AED100</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec6_FlexiAll_AED200</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec7_FlexiAll_AED150</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec1_NatMin_AED1</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec2_FlexChat_AED2</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec3_FlexSocial_AED3</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec4_FlexAll_AED5</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily1_AED1</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily2_AED2</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily3_AED3</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily4_AED5</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly1_AED25</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly2_AED50</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly3_AED100</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly5_AED100</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly6_AED200</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly7_AED150</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly1_AED20</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly2_AED50</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly3_AED100</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi3_AED2</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi5_AED3</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi8_AED5</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_Flexi25_AED25</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_Flexi60_AED50</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_National50_AED25</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_National110_AED50</t>
+  </si>
+  <si>
+    <t>SFTier1</t>
+  </si>
+  <si>
+    <t>SFTier2</t>
+  </si>
+  <si>
+    <t>SFTier3</t>
+  </si>
+  <si>
+    <t>Weekly International SMS Bundle</t>
+  </si>
+  <si>
+    <t>Monthly International SMS Bundle</t>
+  </si>
+  <si>
+    <t>TPRenewal</t>
+  </si>
+  <si>
+    <t>TouristPBundle1</t>
+  </si>
+  <si>
+    <t>TouristPBundle2</t>
+  </si>
+  <si>
+    <t>TouristPBundle3</t>
+  </si>
+  <si>
+    <t>International Minutes2</t>
+  </si>
+  <si>
+    <t>IDDDailyBundle</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM1</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM2</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM3</t>
+  </si>
+  <si>
+    <t>Daily Unlimited Social Bundle</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataD1</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataD2</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM1</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM2</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM3</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM4</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM1XL</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM2XL</t>
+  </si>
+  <si>
+    <t>NPPVBSub_NPPVoiceD1</t>
+  </si>
+  <si>
+    <t>NPPVBSub_NPPVoiceM1</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP1</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP2</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP3</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP4</t>
+  </si>
+  <si>
+    <t>GlobalZone</t>
+  </si>
+  <si>
+    <t>BB300MB</t>
+  </si>
+  <si>
+    <t>BB1GB</t>
+  </si>
+  <si>
+    <t>BB5GB</t>
+  </si>
+  <si>
+    <t>BB25GB</t>
+  </si>
+  <si>
+    <t>BBSoc</t>
+  </si>
+  <si>
+    <t>NPPBBAct</t>
+  </si>
+  <si>
+    <t>Start_Stop_Phase1</t>
+  </si>
+  <si>
+    <t>Start_Stop_Phase2</t>
+  </si>
+  <si>
+    <t>NewAloActivation</t>
+  </si>
+  <si>
+    <t>KBChatnCallRec</t>
+  </si>
+  <si>
+    <t>KDLifeStyleRec</t>
+  </si>
+  <si>
+    <t>KBChatnCallSingle</t>
+  </si>
+  <si>
+    <t>KDLifeStyleSingle</t>
+  </si>
+  <si>
+    <t>ICP_Mercury</t>
+  </si>
+  <si>
+    <t>IDD Rate Cutters</t>
+  </si>
+  <si>
+    <t>SpecialSocial25GBDataBundle</t>
+  </si>
+  <si>
+    <t>Nepal Offer</t>
+  </si>
+  <si>
+    <t>HappinessSIM</t>
+  </si>
+  <si>
+    <t>Data24hBundle</t>
+  </si>
+  <si>
+    <t>DailyRoamDataPack</t>
+  </si>
+  <si>
+    <t>WeeklyRoamDataPack</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDaily</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMonthly</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMPlus</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubDaily</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubWeekly</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubMonthly</t>
+  </si>
+  <si>
+    <t>RoamGCCDAct</t>
+  </si>
+  <si>
+    <t>RoamGCCDNRAct</t>
+  </si>
+  <si>
+    <t>RoamGCCWAct</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDRec</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDO</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSW</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSM</t>
+  </si>
+  <si>
+    <t>IntCommunity</t>
+  </si>
+  <si>
+    <t>SeamlessCallback</t>
+  </si>
+  <si>
+    <t>Campaign Management</t>
+  </si>
+  <si>
+    <t>Post Call Notification</t>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>BronzeMPromo</t>
+  </si>
+  <si>
+    <t>Roaming Hajj Bundles</t>
+  </si>
+  <si>
+    <t>Data Bundles-Roaming Data Bundles</t>
+  </si>
+  <si>
+    <t>NonstopDailyDBundle3AED</t>
+  </si>
+  <si>
+    <t>NonstopMonthlyDBundle50AED</t>
+  </si>
+  <si>
+    <t>HotSpotActive</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDailyRec</t>
+  </si>
+  <si>
+    <t>Local_PPU</t>
+  </si>
+  <si>
+    <t>Roaming_PPU_A_B_GCC</t>
+  </si>
+  <si>
+    <t>Data_Credit_Protection</t>
+  </si>
+  <si>
+    <t>Call Home for Less</t>
+  </si>
+  <si>
+    <t>PRODUCT NAME</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +708,10 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Ericsson Hilda"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -339,7 +733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,11 +769,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -412,6 +834,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -748,9 +1185,10 @@
     <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:26" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -758,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -770,10 +1208,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>51</v>
@@ -788,7 +1226,7 @@
         <v>55</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>57</v>
@@ -798,7 +1236,7 @@
       </c>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -806,19 +1244,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="2">
-        <v>820</v>
+      <c r="G2" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -829,7 +1267,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -837,19 +1275,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="2">
-        <v>820</v>
+      <c r="G3" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -860,7 +1298,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -868,10 +1306,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -881,7 +1319,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="8"/>
@@ -900,15 +1338,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -935,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>22</v>
@@ -952,8 +1390,11 @@
       <c r="Y5" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -961,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -975,7 +1416,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="8">
         <v>20</v>
@@ -989,33 +1430,36 @@
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y6" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1031,10 +1475,10 @@
       <c r="I7" s="18"/>
       <c r="J7" s="8"/>
       <c r="K7" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
@@ -1045,25 +1489,28 @@
         <v>15</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1071,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -1093,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>17</v>
@@ -1107,8 +1554,11 @@
       <c r="W8" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1116,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -1142,41 +1592,678 @@
       <c r="U9" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="T10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="T11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="T12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="U13" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="Z13" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="Z14" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="Z15" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="Z16" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="26:26">
+      <c r="Z17" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="26:26">
+      <c r="Z18" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="26:26" ht="15" thickBot="1">
+      <c r="Z19" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="26:26" ht="15" thickBot="1">
+      <c r="Z20" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="26:26" ht="15" thickBot="1">
+      <c r="Z21" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="26:26" ht="15" thickBot="1">
+      <c r="Z22" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="26:26" ht="15" thickBot="1">
+      <c r="Z23" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="26:26" ht="15" thickBot="1">
+      <c r="Z24" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="26:26" ht="15" thickBot="1">
+      <c r="Z25" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="26:26" ht="15" thickBot="1">
+      <c r="Z26" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="26:26" ht="15" thickBot="1">
+      <c r="Z27" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="26:26" ht="15" thickBot="1">
+      <c r="Z28" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="26:26" ht="15" thickBot="1">
+      <c r="Z29" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="26:26" ht="15" thickBot="1">
+      <c r="Z30" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="26:26" ht="15" thickBot="1">
+      <c r="Z31" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="26:26" ht="15" thickBot="1">
+      <c r="Z32" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="26:26" ht="15" thickBot="1">
+      <c r="Z33" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="26:26" ht="15" thickBot="1">
+      <c r="Z34" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="26:26" ht="15" thickBot="1">
+      <c r="Z35" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="26:26" ht="15" thickBot="1">
+      <c r="Z36" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="26:26" ht="15" thickBot="1">
+      <c r="Z37" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="26:26" ht="15" thickBot="1">
+      <c r="Z38" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="26:26" ht="15" thickBot="1">
+      <c r="Z39" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="26:26" ht="15" thickBot="1">
+      <c r="Z40" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="26:26" ht="15" thickBot="1">
+      <c r="Z41" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="26:26" ht="15" thickBot="1">
+      <c r="Z42" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="26:26" ht="15" thickBot="1">
+      <c r="Z43" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="26:26" ht="15" thickBot="1">
+      <c r="Z44" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="26:26" ht="15" thickBot="1">
+      <c r="Z45" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="26:26" ht="15" thickBot="1">
+      <c r="Z46" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="26:26" ht="15" thickBot="1">
+      <c r="Z47" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="26:26" ht="15" thickBot="1">
+      <c r="Z48" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="26:26" ht="15" thickBot="1">
+      <c r="Z49" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="26:26" ht="15" thickBot="1">
+      <c r="Z50" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="26:26" ht="15" thickBot="1">
+      <c r="Z51" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="26:26" ht="15" thickBot="1">
+      <c r="Z52" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="26:26" ht="15" thickBot="1">
+      <c r="Z53" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="26:26" ht="15" thickBot="1">
+      <c r="Z54" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="26:26" ht="15" thickBot="1">
+      <c r="Z55" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="26:26" ht="15" thickBot="1">
+      <c r="Z56" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="26:26" ht="15" thickBot="1">
+      <c r="Z57" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="26:26" ht="15" thickBot="1">
+      <c r="Z58" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="26:26" ht="15" thickBot="1">
+      <c r="Z59" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="26:26" ht="15" thickBot="1">
+      <c r="Z60" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="26:26" ht="15" thickBot="1">
+      <c r="Z61" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="26:26" ht="15" thickBot="1">
+      <c r="Z62" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="26:26" ht="15" thickBot="1">
+      <c r="Z63" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="26:26" ht="15" thickBot="1">
+      <c r="Z64" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="26:26" ht="15" thickBot="1">
+      <c r="Z65" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="26:26" ht="15" thickBot="1">
+      <c r="Z66" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="26:26" ht="15" thickBot="1">
+      <c r="Z67" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="26:26" ht="15" thickBot="1">
+      <c r="Z68" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="26:26" ht="15" thickBot="1">
+      <c r="Z69" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="26:26" ht="15" thickBot="1">
+      <c r="Z70" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="26:26" ht="15" thickBot="1">
+      <c r="Z71" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="26:26" ht="15" thickBot="1">
+      <c r="Z72" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="26:26" ht="15" thickBot="1">
+      <c r="Z73" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="26:26" ht="15" thickBot="1">
+      <c r="Z74" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="26:26" ht="15" thickBot="1">
+      <c r="Z75" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="26:26" ht="15" thickBot="1">
+      <c r="Z76" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="26:26" ht="15" thickBot="1">
+      <c r="Z77" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="26:26" ht="15" thickBot="1">
+      <c r="Z78" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="26:26" ht="15" thickBot="1">
+      <c r="Z79" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="26:26" ht="15" thickBot="1">
+      <c r="Z80" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="26:26" ht="15" thickBot="1">
+      <c r="Z81" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="26:26" ht="15" thickBot="1">
+      <c r="Z82" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="26:26" ht="15" thickBot="1">
+      <c r="Z83" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="26:26" ht="15" thickBot="1">
+      <c r="Z84" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="26:26" ht="15" thickBot="1">
+      <c r="Z85" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="26:26" ht="15" thickBot="1">
+      <c r="Z86" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="26:26" ht="15" thickBot="1">
+      <c r="Z87" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="26:26" ht="15" thickBot="1">
+      <c r="Z88" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="26:26" ht="15" thickBot="1">
+      <c r="Z89" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="26:26" ht="15" thickBot="1">
+      <c r="Z90" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="26:26" ht="15" thickBot="1">
+      <c r="Z91" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="26:26" ht="15" thickBot="1">
+      <c r="Z92" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="26:26" ht="15" thickBot="1">
+      <c r="Z93" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="26:26" ht="15" thickBot="1">
+      <c r="Z94" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="26:26" ht="15" thickBot="1">
+      <c r="Z95" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="26:26" ht="15" thickBot="1">
+      <c r="Z96" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="26:26" ht="15" thickBot="1">
+      <c r="Z97" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="26:26" ht="15" thickBot="1">
+      <c r="Z98" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="26:26" ht="15" thickBot="1">
+      <c r="Z99" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="26:26" ht="15" thickBot="1">
+      <c r="Z100" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="26:26" ht="15" thickBot="1">
+      <c r="Z101" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="26:26" ht="15" thickBot="1">
+      <c r="Z102" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="26:26" ht="15" thickBot="1">
+      <c r="Z103" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="26:26" ht="15" thickBot="1">
+      <c r="Z104" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="26:26" ht="15" thickBot="1">
+      <c r="Z105" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="26:26" ht="15" thickBot="1">
+      <c r="Z106" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="26:26" ht="15" thickBot="1">
+      <c r="Z107" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="26:26" ht="15" thickBot="1">
+      <c r="Z108" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="26:26" ht="15" thickBot="1">
+      <c r="Z109" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="26:26" ht="15" thickBot="1">
+      <c r="Z110" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="26:26" ht="15" thickBot="1">
+      <c r="Z111" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="26:26" ht="15" thickBot="1">
+      <c r="Z112" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="26:26" ht="15" thickBot="1">
+      <c r="Z113" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="26:26" ht="15" thickBot="1">
+      <c r="Z114" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="26:26" ht="15" thickBot="1">
+      <c r="Z115" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="26:26" ht="15" thickBot="1">
+      <c r="Z116" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="26:26" ht="15" thickBot="1">
+      <c r="Z117" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="26:26" ht="15" thickBot="1">
+      <c r="Z118" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="26:26" ht="15" thickBot="1">
+      <c r="Z119" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="26:26" ht="15" thickBot="1">
+      <c r="Z120" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="26:26" ht="15" thickBot="1">
+      <c r="Z121" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="26:26" ht="15" thickBot="1">
+      <c r="Z122" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="123" spans="26:26" ht="15" thickBot="1">
+      <c r="Z123" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="26:26" ht="15" thickBot="1">
+      <c r="Z124" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="26:26" ht="15" thickBot="1">
+      <c r="Z125" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="26:26" ht="15" thickBot="1">
+      <c r="Z126" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="26:26" ht="15" thickBot="1">
+      <c r="Z127" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="26:26" ht="15" thickBot="1">
+      <c r="Z128" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="26:26" ht="15" thickBot="1">
+      <c r="Z129" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="26:26" ht="15" thickBot="1">
+      <c r="Z130" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="26:26" ht="15" thickBot="1">
+      <c r="Z131" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="26:26" ht="15" thickBot="1">
+      <c r="Z132" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="26:26" ht="15" thickBot="1">
+      <c r="Z133" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="26:26" ht="15" thickBot="1">
+      <c r="Z134" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="26:26" ht="15" thickBot="1">
+      <c r="Z135" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="26:26" ht="15" thickBot="1">
+      <c r="Z136" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137" spans="26:26" ht="15" thickBot="1">
+      <c r="Z137" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="26:26" ht="15" thickBot="1">
+      <c r="Z138" s="23" t="s">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$4:$R$5</formula1>
-    </dataValidation>
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
       <formula1>$U$6:$U$13</formula1>
     </dataValidation>
@@ -1192,8 +2279,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
       <formula1>$V$6:$V$7</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$R$4:$R$5</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>$T$5:$T$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>$Z$6:$Z$138</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1462,7 +2555,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>15</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
     <sheet name="Execution_Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Validation part" sheetId="4" r:id="rId3"/>
+    <sheet name="Credentials" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="210">
   <si>
     <t>Execution</t>
   </si>
@@ -559,12 +560,99 @@
   </si>
   <si>
     <t>Call Home for Less</t>
+  </si>
+  <si>
+    <t>/cluster/storage/no-backup/ccn/CcnStorage1/CCNCDR44/archive/</t>
+  </si>
+  <si>
+    <t>CCNtasuser@123</t>
+  </si>
+  <si>
+    <t>tasuser</t>
+  </si>
+  <si>
+    <t>10.95.213.132</t>
+  </si>
+  <si>
+    <t>CCN1</t>
+  </si>
+  <si>
+    <t>/cluster/storage/no-backup/ccn/CcnStorage0/CCNCDR44/archive/</t>
+  </si>
+  <si>
+    <t>CCN0</t>
+  </si>
+  <si>
+    <t>/var/opt/air/datarecords/backup_CDR/</t>
+  </si>
+  <si>
+    <t>Ericssondu@123</t>
+  </si>
+  <si>
+    <t>10.95.214.166</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>/home/tasuser</t>
+  </si>
+  <si>
+    <t>10.95.214.22</t>
+  </si>
+  <si>
+    <t>OCC2</t>
+  </si>
+  <si>
+    <t>10.95.214.21</t>
+  </si>
+  <si>
+    <t>OCC1</t>
+  </si>
+  <si>
+    <t>/var/opt/fds/CDR/archive/</t>
+  </si>
+  <si>
+    <t>10.95.214.6</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>/data/fdp/logs/defaultCircle</t>
+  </si>
+  <si>
+    <t>VenuReddyGaddam</t>
+  </si>
+  <si>
+    <t>10.95.214.72</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>Wait_Time</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>IP_HostName</t>
+  </si>
+  <si>
+    <t>Unix_System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -614,7 +702,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +719,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -717,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -766,6 +860,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,36 +1168,36 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1570,417 +1665,417 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="26:26" ht="15" thickBot="1">
+    <row r="18" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z18" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="26:26" ht="15" thickBot="1">
+    <row r="19" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z19" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="26:26" ht="15" thickBot="1">
+    <row r="20" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z20" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="26:26" ht="15" thickBot="1">
+    <row r="21" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z21" s="23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="26:26" ht="15" thickBot="1">
+    <row r="22" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z22" s="23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="26:26" ht="15" thickBot="1">
+    <row r="23" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z23" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="26:26" ht="15" thickBot="1">
+    <row r="24" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z24" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="26:26" ht="15" thickBot="1">
+    <row r="25" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z25" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="26:26" ht="15" thickBot="1">
+    <row r="26" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z26" s="24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="26:26" ht="15" thickBot="1">
+    <row r="27" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z27" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="26:26" ht="15" thickBot="1">
+    <row r="28" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z28" s="24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="26:26" ht="15" thickBot="1">
+    <row r="29" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z29" s="24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="26:26" ht="15" thickBot="1">
+    <row r="30" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z30" s="24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="26:26" ht="15" thickBot="1">
+    <row r="31" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z31" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="26:26" ht="15" thickBot="1">
+    <row r="32" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z32" s="24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="26:26" ht="15" thickBot="1">
+    <row r="33" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z33" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="26:26" ht="15" thickBot="1">
+    <row r="34" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z34" s="24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="26:26" ht="15" thickBot="1">
+    <row r="35" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z35" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="26:26" ht="15" thickBot="1">
+    <row r="36" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z36" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="26:26" ht="15" thickBot="1">
+    <row r="37" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z37" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="26:26" ht="15" thickBot="1">
+    <row r="38" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z38" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="26:26" ht="15" thickBot="1">
+    <row r="39" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z39" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="26:26" ht="15" thickBot="1">
+    <row r="40" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z40" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="26:26" ht="15" thickBot="1">
+    <row r="41" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z41" s="24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="26:26" ht="15" thickBot="1">
+    <row r="42" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z42" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="26:26" ht="15" thickBot="1">
+    <row r="43" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z43" s="24" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="26:26" ht="15" thickBot="1">
+    <row r="44" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z44" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="26:26" ht="15" thickBot="1">
+    <row r="45" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z45" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="26:26" ht="15" thickBot="1">
+    <row r="46" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z46" s="24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="26:26" ht="15" thickBot="1">
+    <row r="47" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z47" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="26:26" ht="15" thickBot="1">
+    <row r="48" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z48" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="26:26" ht="15" thickBot="1">
+    <row r="49" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z49" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="26:26" ht="15" thickBot="1">
+    <row r="50" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z50" s="24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="26:26" ht="15" thickBot="1">
+    <row r="51" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z51" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="26:26" ht="15" thickBot="1">
+    <row r="52" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z52" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="26:26" ht="15" thickBot="1">
+    <row r="53" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z53" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="26:26" ht="15" thickBot="1">
+    <row r="54" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z54" s="24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="26:26" ht="15" thickBot="1">
+    <row r="55" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z55" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="26:26" ht="15" thickBot="1">
+    <row r="56" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z56" s="24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="26:26" ht="15" thickBot="1">
+    <row r="57" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z57" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="26:26" ht="15" thickBot="1">
+    <row r="58" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z58" s="24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="26:26" ht="15" thickBot="1">
+    <row r="59" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z59" s="24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="26:26" ht="15" thickBot="1">
+    <row r="60" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z60" s="24" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="26:26" ht="15" thickBot="1">
+    <row r="61" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z61" s="24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="26:26" ht="15" thickBot="1">
+    <row r="62" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z62" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="26:26" ht="15" thickBot="1">
+    <row r="63" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z63" s="24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="26:26" ht="15" thickBot="1">
+    <row r="64" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z64" s="24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="26:26" ht="15" thickBot="1">
+    <row r="65" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z65" s="24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="26:26" ht="15" thickBot="1">
+    <row r="66" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z66" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="26:26" ht="15" thickBot="1">
+    <row r="67" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z67" s="24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="26:26" ht="15" thickBot="1">
+    <row r="68" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z68" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="26:26" ht="15" thickBot="1">
+    <row r="69" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z69" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="26:26" ht="15" thickBot="1">
+    <row r="70" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z70" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="26:26" ht="15" thickBot="1">
+    <row r="71" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z71" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="26:26" ht="15" thickBot="1">
+    <row r="72" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z72" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="26:26" ht="15" thickBot="1">
+    <row r="73" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z73" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="26:26" ht="15" thickBot="1">
+    <row r="74" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z74" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="26:26" ht="15" thickBot="1">
+    <row r="75" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z75" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="26:26" ht="15" thickBot="1">
+    <row r="76" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z76" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="26:26" ht="15" thickBot="1">
+    <row r="77" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z77" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="26:26" ht="15" thickBot="1">
+    <row r="78" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z78" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="26:26" ht="15" thickBot="1">
+    <row r="79" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z79" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="26:26" ht="15" thickBot="1">
+    <row r="80" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z80" s="24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="26:26" ht="15" thickBot="1">
+    <row r="81" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z81" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="26:26" ht="15" thickBot="1">
+    <row r="82" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z82" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="26:26" ht="15" thickBot="1">
+    <row r="83" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z83" s="24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="26:26" ht="15" thickBot="1">
+    <row r="84" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z84" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="26:26" ht="15" thickBot="1">
+    <row r="85" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z85" s="24" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="26:26" ht="15" thickBot="1">
+    <row r="86" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z86" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="26:26" ht="15" thickBot="1">
+    <row r="87" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z87" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="26:26" ht="15" thickBot="1">
+    <row r="88" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z88" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="26:26" ht="15" thickBot="1">
+    <row r="89" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z89" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="26:26" ht="15" thickBot="1">
+    <row r="90" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z90" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="26:26" ht="15" thickBot="1">
+    <row r="91" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z91" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="26:26" ht="15" thickBot="1">
+    <row r="92" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z92" s="24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="26:26" ht="15" thickBot="1">
+    <row r="93" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z93" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="26:26" ht="15" thickBot="1">
+    <row r="94" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z94" s="24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="26:26" ht="15" thickBot="1">
+    <row r="95" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z95" s="24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="26:26" ht="15" thickBot="1">
+    <row r="96" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z96" s="24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="26:26" ht="15" thickBot="1">
+    <row r="97" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z97" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="26:26" ht="15" thickBot="1">
+    <row r="98" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z98" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="26:26" ht="15" thickBot="1">
+    <row r="99" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z99" s="24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="26:26" ht="15" thickBot="1">
+    <row r="100" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z100" s="24" t="s">
         <v>178</v>
       </c>
@@ -2030,24 +2125,24 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="27.90625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.36328125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="15.54296875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1">
@@ -2442,14 +2537,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="3.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:13">
@@ -2722,4 +2817,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="215">
   <si>
     <t>Execution</t>
   </si>
@@ -237,6 +237,9 @@
     <t>Test_Device</t>
   </si>
   <si>
+    <t>device1</t>
+  </si>
+  <si>
     <t>USSD_OPT_IN</t>
   </si>
   <si>
@@ -258,21 +261,9 @@
     <t>971520002069</t>
   </si>
   <si>
-    <t>Test Sending message</t>
-  </si>
-  <si>
     <t>0520002069</t>
   </si>
   <si>
-    <t>device2</t>
-  </si>
-  <si>
-    <t>device1</t>
-  </si>
-  <si>
-    <t>PRODUCT_NAME</t>
-  </si>
-  <si>
     <t>200MB+200MB Social AED25_OnceOff</t>
   </si>
   <si>
@@ -555,10 +546,121 @@
     <t>ICP_Mercury</t>
   </si>
   <si>
+    <t>IDD Rate Cutters</t>
+  </si>
+  <si>
+    <t>SpecialSocial25GBDataBundle</t>
+  </si>
+  <si>
+    <t>Nepal Offer</t>
+  </si>
+  <si>
+    <t>HappinessSIM</t>
+  </si>
+  <si>
+    <t>Data24hBundle</t>
+  </si>
+  <si>
+    <t>DailyRoamDataPack</t>
+  </si>
+  <si>
+    <t>WeeklyRoamDataPack</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDaily</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMonthly</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMPlus</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubDaily</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubWeekly</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubMonthly</t>
+  </si>
+  <si>
+    <t>RoamGCCDAct</t>
+  </si>
+  <si>
+    <t>RoamGCCDNRAct</t>
+  </si>
+  <si>
+    <t>RoamGCCWAct</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDRec</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDO</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSW</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSM</t>
+  </si>
+  <si>
+    <t>IntCommunity</t>
+  </si>
+  <si>
+    <t>SeamlessCallback</t>
+  </si>
+  <si>
+    <t>Campaign Management</t>
+  </si>
+  <si>
+    <t>Post Call Notification</t>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>BronzeMPromo</t>
+  </si>
+  <si>
+    <t>Roaming Hajj Bundles</t>
+  </si>
+  <si>
+    <t>Data Bundles-Roaming Data Bundles</t>
+  </si>
+  <si>
+    <t>NonstopDailyDBundle3AED</t>
+  </si>
+  <si>
+    <t>NonstopMonthlyDBundle50AED</t>
+  </si>
+  <si>
+    <t>HotSpotActive</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDailyRec</t>
+  </si>
+  <si>
+    <t>Local_PPU</t>
+  </si>
+  <si>
+    <t>Roaming_PPU_A_B_GCC</t>
+  </si>
+  <si>
+    <t>Data_Credit_Protection</t>
+  </si>
+  <si>
+    <t>Call Home for Less</t>
+  </si>
+  <si>
+    <t>PRODUCT NAME</t>
+  </si>
+  <si>
     <t>Product_Name</t>
   </si>
   <si>
-    <t>Call Home for Less</t>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -607,11 +709,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Ericsson Hilda"/>
     </font>
   </fonts>
   <fills count="4">
@@ -634,7 +733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -698,26 +797,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -750,7 +834,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -763,8 +846,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,21 +1153,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.90625" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.90625" customWidth="1"/>
@@ -1096,13 +1179,13 @@
     <col min="16" max="17" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.54296875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.90625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.36328125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="38.453125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1125,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>70</v>
@@ -1155,16 +1238,16 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>77</v>
@@ -1173,7 +1256,7 @@
         <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -1186,25 +1269,25 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -1217,16 +1300,16 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -1236,7 +1319,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="8"/>
@@ -1257,13 +1340,13 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1290,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>22</v>
@@ -1308,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1319,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -1333,7 +1416,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" s="8">
         <v>20</v>
@@ -1347,36 +1430,36 @@
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Z6" s="21" t="s">
-        <v>85</v>
+      <c r="Z6" s="24" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1392,10 +1475,10 @@
       <c r="I7" s="18"/>
       <c r="J7" s="8"/>
       <c r="K7" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
@@ -1406,25 +1489,25 @@
         <v>15</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Z7" s="21" t="s">
-        <v>86</v>
+      <c r="Z7" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1435,12 +1518,14 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>69</v>
       </c>
@@ -1469,8 +1554,8 @@
       <c r="W8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="21" t="s">
-        <v>87</v>
+      <c r="Z8" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1481,12 +1566,14 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="F9" s="13" t="s">
         <v>69</v>
       </c>
@@ -1505,8 +1592,8 @@
       <c r="U9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z9" s="21" t="s">
-        <v>88</v>
+      <c r="Z9" s="20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1516,8 +1603,8 @@
       <c r="U10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="21" t="s">
-        <v>89</v>
+      <c r="Z10" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1527,8 +1614,8 @@
       <c r="U11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="21" t="s">
-        <v>90</v>
+      <c r="Z11" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1538,463 +1625,645 @@
       <c r="U12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Z12" s="21" t="s">
-        <v>91</v>
+      <c r="Z12" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="U13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Z13" s="21" t="s">
+      <c r="Z13" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="Z14" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="Z15" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="Z16" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="26:26">
+      <c r="Z17" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="Z14" s="21" t="s">
+    <row r="18" spans="26:26">
+      <c r="Z18" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="Z15" s="21" t="s">
+    <row r="19" spans="26:26" ht="15" thickBot="1">
+      <c r="Z19" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
-      <c r="Z16" s="21" t="s">
+    <row r="20" spans="26:26" ht="15" thickBot="1">
+      <c r="Z20" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="26:26">
-      <c r="Z17" s="21" t="s">
+    <row r="21" spans="26:26" ht="15" thickBot="1">
+      <c r="Z21" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="26:26" ht="15" thickBot="1">
-      <c r="Z18" s="21" t="s">
+    <row r="22" spans="26:26" ht="15" thickBot="1">
+      <c r="Z22" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="26:26" ht="15" thickBot="1">
-      <c r="Z19" s="22" t="s">
+    <row r="23" spans="26:26" ht="15" thickBot="1">
+      <c r="Z23" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="26:26" ht="15" thickBot="1">
-      <c r="Z20" s="23" t="s">
+    <row r="24" spans="26:26" ht="15" thickBot="1">
+      <c r="Z24" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="26:26" ht="15" thickBot="1">
-      <c r="Z21" s="23" t="s">
+    <row r="25" spans="26:26" ht="15" thickBot="1">
+      <c r="Z25" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="26:26" ht="15" thickBot="1">
-      <c r="Z22" s="23" t="s">
+    <row r="26" spans="26:26" ht="15" thickBot="1">
+      <c r="Z26" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="26:26" ht="15" thickBot="1">
-      <c r="Z23" s="23" t="s">
+    <row r="27" spans="26:26" ht="15" thickBot="1">
+      <c r="Z27" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="26:26" ht="15" thickBot="1">
-      <c r="Z24" s="23" t="s">
+    <row r="28" spans="26:26" ht="15" thickBot="1">
+      <c r="Z28" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="26:26" ht="15" thickBot="1">
-      <c r="Z25" s="23" t="s">
+    <row r="29" spans="26:26" ht="15" thickBot="1">
+      <c r="Z29" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="26:26" ht="15" thickBot="1">
-      <c r="Z26" s="24" t="s">
+    <row r="30" spans="26:26" ht="15" thickBot="1">
+      <c r="Z30" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="26:26" ht="15" thickBot="1">
-      <c r="Z27" s="24" t="s">
+    <row r="31" spans="26:26" ht="15" thickBot="1">
+      <c r="Z31" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="26:26" ht="15" thickBot="1">
-      <c r="Z28" s="24" t="s">
+    <row r="32" spans="26:26" ht="15" thickBot="1">
+      <c r="Z32" s="23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="26:26" ht="15" thickBot="1">
-      <c r="Z29" s="24" t="s">
+    <row r="33" spans="26:26" ht="15" thickBot="1">
+      <c r="Z33" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="26:26" ht="15" thickBot="1">
-      <c r="Z30" s="24" t="s">
+    <row r="34" spans="26:26" ht="15" thickBot="1">
+      <c r="Z34" s="23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="26:26" ht="15" thickBot="1">
-      <c r="Z31" s="24" t="s">
+    <row r="35" spans="26:26" ht="15" thickBot="1">
+      <c r="Z35" s="23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="26:26" ht="15" thickBot="1">
-      <c r="Z32" s="24" t="s">
+    <row r="36" spans="26:26" ht="15" thickBot="1">
+      <c r="Z36" s="23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="26:26" ht="15" thickBot="1">
-      <c r="Z33" s="24" t="s">
+    <row r="37" spans="26:26" ht="15" thickBot="1">
+      <c r="Z37" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="26:26" ht="15" thickBot="1">
-      <c r="Z34" s="24" t="s">
+    <row r="38" spans="26:26" ht="15" thickBot="1">
+      <c r="Z38" s="23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="26:26" ht="15" thickBot="1">
-      <c r="Z35" s="24" t="s">
+    <row r="39" spans="26:26" ht="15" thickBot="1">
+      <c r="Z39" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="26:26" ht="15" thickBot="1">
-      <c r="Z36" s="24" t="s">
+    <row r="40" spans="26:26" ht="15" thickBot="1">
+      <c r="Z40" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="26:26" ht="15" thickBot="1">
-      <c r="Z37" s="24" t="s">
+    <row r="41" spans="26:26" ht="15" thickBot="1">
+      <c r="Z41" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="26:26" ht="15" thickBot="1">
-      <c r="Z38" s="24" t="s">
+    <row r="42" spans="26:26" ht="15" thickBot="1">
+      <c r="Z42" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="26:26" ht="15" thickBot="1">
-      <c r="Z39" s="24" t="s">
+    <row r="43" spans="26:26" ht="15" thickBot="1">
+      <c r="Z43" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="26:26" ht="15" thickBot="1">
-      <c r="Z40" s="24" t="s">
+    <row r="44" spans="26:26" ht="15" thickBot="1">
+      <c r="Z44" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="26:26" ht="15" thickBot="1">
-      <c r="Z41" s="24" t="s">
+    <row r="45" spans="26:26" ht="15" thickBot="1">
+      <c r="Z45" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="26:26" ht="15" thickBot="1">
-      <c r="Z42" s="24" t="s">
+    <row r="46" spans="26:26" ht="15" thickBot="1">
+      <c r="Z46" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="26:26" ht="15" thickBot="1">
-      <c r="Z43" s="24" t="s">
+    <row r="47" spans="26:26" ht="15" thickBot="1">
+      <c r="Z47" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="26:26" ht="15" thickBot="1">
-      <c r="Z44" s="24" t="s">
+    <row r="48" spans="26:26" ht="15" thickBot="1">
+      <c r="Z48" s="23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="26:26" ht="15" thickBot="1">
-      <c r="Z45" s="24" t="s">
+    <row r="49" spans="26:26" ht="15" thickBot="1">
+      <c r="Z49" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="26:26" ht="15" thickBot="1">
-      <c r="Z46" s="24" t="s">
+    <row r="50" spans="26:26" ht="15" thickBot="1">
+      <c r="Z50" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="26:26" ht="15" thickBot="1">
-      <c r="Z47" s="24" t="s">
+    <row r="51" spans="26:26" ht="15" thickBot="1">
+      <c r="Z51" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="26:26" ht="15" thickBot="1">
-      <c r="Z48" s="24" t="s">
+    <row r="52" spans="26:26" ht="15" thickBot="1">
+      <c r="Z52" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="26:26" ht="15" thickBot="1">
-      <c r="Z49" s="24" t="s">
+    <row r="53" spans="26:26" ht="15" thickBot="1">
+      <c r="Z53" s="23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="26:26" ht="15" thickBot="1">
-      <c r="Z50" s="24" t="s">
+    <row r="54" spans="26:26" ht="15" thickBot="1">
+      <c r="Z54" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="26:26" ht="15" thickBot="1">
-      <c r="Z51" s="24" t="s">
+    <row r="55" spans="26:26" ht="15" thickBot="1">
+      <c r="Z55" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="26:26" ht="15" thickBot="1">
-      <c r="Z52" s="24" t="s">
+    <row r="56" spans="26:26" ht="15" thickBot="1">
+      <c r="Z56" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="26:26" ht="15" thickBot="1">
-      <c r="Z53" s="24" t="s">
+    <row r="57" spans="26:26" ht="15" thickBot="1">
+      <c r="Z57" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="26:26" ht="15" thickBot="1">
-      <c r="Z54" s="24" t="s">
+    <row r="58" spans="26:26" ht="15" thickBot="1">
+      <c r="Z58" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="26:26" ht="15" thickBot="1">
-      <c r="Z55" s="24" t="s">
+    <row r="59" spans="26:26" ht="15" thickBot="1">
+      <c r="Z59" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="26:26" ht="15" thickBot="1">
-      <c r="Z56" s="24" t="s">
+    <row r="60" spans="26:26" ht="15" thickBot="1">
+      <c r="Z60" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="26:26" ht="15" thickBot="1">
-      <c r="Z57" s="24" t="s">
+    <row r="61" spans="26:26" ht="15" thickBot="1">
+      <c r="Z61" s="23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="26:26" ht="15" thickBot="1">
-      <c r="Z58" s="24" t="s">
+    <row r="62" spans="26:26" ht="15" thickBot="1">
+      <c r="Z62" s="23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="26:26" ht="15" thickBot="1">
-      <c r="Z59" s="24" t="s">
+    <row r="63" spans="26:26" ht="15" thickBot="1">
+      <c r="Z63" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="26:26" ht="15" thickBot="1">
-      <c r="Z60" s="24" t="s">
+    <row r="64" spans="26:26" ht="15" thickBot="1">
+      <c r="Z64" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="26:26" ht="15" thickBot="1">
-      <c r="Z61" s="24" t="s">
+    <row r="65" spans="26:26" ht="15" thickBot="1">
+      <c r="Z65" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="26:26" ht="15" thickBot="1">
-      <c r="Z62" s="24" t="s">
+    <row r="66" spans="26:26" ht="15" thickBot="1">
+      <c r="Z66" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="26:26" ht="15" thickBot="1">
-      <c r="Z63" s="24" t="s">
+    <row r="67" spans="26:26" ht="15" thickBot="1">
+      <c r="Z67" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="26:26" ht="15" thickBot="1">
-      <c r="Z64" s="24" t="s">
+    <row r="68" spans="26:26" ht="15" thickBot="1">
+      <c r="Z68" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="26:26" ht="15" thickBot="1">
-      <c r="Z65" s="24" t="s">
+    <row r="69" spans="26:26" ht="15" thickBot="1">
+      <c r="Z69" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="26:26" ht="15" thickBot="1">
-      <c r="Z66" s="24" t="s">
+    <row r="70" spans="26:26" ht="15" thickBot="1">
+      <c r="Z70" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="26:26" ht="15" thickBot="1">
-      <c r="Z67" s="24" t="s">
+    <row r="71" spans="26:26" ht="15" thickBot="1">
+      <c r="Z71" s="23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="26:26" ht="15" thickBot="1">
-      <c r="Z68" s="24" t="s">
+    <row r="72" spans="26:26" ht="15" thickBot="1">
+      <c r="Z72" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="26:26" ht="15" thickBot="1">
-      <c r="Z69" s="24" t="s">
+    <row r="73" spans="26:26" ht="15" thickBot="1">
+      <c r="Z73" s="23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="26:26" ht="15" thickBot="1">
-      <c r="Z70" s="24" t="s">
+    <row r="74" spans="26:26" ht="15" thickBot="1">
+      <c r="Z74" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="26:26" ht="15" thickBot="1">
-      <c r="Z71" s="24" t="s">
+    <row r="75" spans="26:26" ht="15" thickBot="1">
+      <c r="Z75" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="26:26" ht="15" thickBot="1">
-      <c r="Z72" s="24" t="s">
+    <row r="76" spans="26:26" ht="15" thickBot="1">
+      <c r="Z76" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="26:26" ht="15" thickBot="1">
-      <c r="Z73" s="24" t="s">
+    <row r="77" spans="26:26" ht="15" thickBot="1">
+      <c r="Z77" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="26:26" ht="15" thickBot="1">
-      <c r="Z74" s="24" t="s">
+    <row r="78" spans="26:26" ht="15" thickBot="1">
+      <c r="Z78" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="26:26" ht="15" thickBot="1">
-      <c r="Z75" s="24" t="s">
+    <row r="79" spans="26:26" ht="15" thickBot="1">
+      <c r="Z79" s="23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="26:26" ht="15" thickBot="1">
-      <c r="Z76" s="24" t="s">
+    <row r="80" spans="26:26" ht="15" thickBot="1">
+      <c r="Z80" s="23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="26:26" ht="15" thickBot="1">
-      <c r="Z77" s="24" t="s">
+    <row r="81" spans="26:26" ht="15" thickBot="1">
+      <c r="Z81" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="26:26" ht="15" thickBot="1">
-      <c r="Z78" s="24" t="s">
+    <row r="82" spans="26:26" ht="15" thickBot="1">
+      <c r="Z82" s="23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="26:26" ht="15" thickBot="1">
-      <c r="Z79" s="24" t="s">
+    <row r="83" spans="26:26" ht="15" thickBot="1">
+      <c r="Z83" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="26:26" ht="15" thickBot="1">
-      <c r="Z80" s="24" t="s">
+    <row r="84" spans="26:26" ht="15" thickBot="1">
+      <c r="Z84" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="26:26" ht="15" thickBot="1">
-      <c r="Z81" s="24" t="s">
+    <row r="85" spans="26:26" ht="15" thickBot="1">
+      <c r="Z85" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="26:26" ht="15" thickBot="1">
-      <c r="Z82" s="24" t="s">
+    <row r="86" spans="26:26" ht="15" thickBot="1">
+      <c r="Z86" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="26:26" ht="15" thickBot="1">
-      <c r="Z83" s="24" t="s">
+    <row r="87" spans="26:26" ht="15" thickBot="1">
+      <c r="Z87" s="23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="26:26" ht="15" thickBot="1">
-      <c r="Z84" s="24" t="s">
+    <row r="88" spans="26:26" ht="15" thickBot="1">
+      <c r="Z88" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="26:26" ht="15" thickBot="1">
-      <c r="Z85" s="24" t="s">
+    <row r="89" spans="26:26" ht="15" thickBot="1">
+      <c r="Z89" s="23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="26:26" ht="15" thickBot="1">
-      <c r="Z86" s="24" t="s">
+    <row r="90" spans="26:26" ht="15" thickBot="1">
+      <c r="Z90" s="23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="26:26" ht="15" thickBot="1">
-      <c r="Z87" s="24" t="s">
+    <row r="91" spans="26:26" ht="15" thickBot="1">
+      <c r="Z91" s="23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="26:26" ht="15" thickBot="1">
-      <c r="Z88" s="24" t="s">
+    <row r="92" spans="26:26" ht="15" thickBot="1">
+      <c r="Z92" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="26:26" ht="15" thickBot="1">
+      <c r="Z93" s="23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="26:26" ht="15" thickBot="1">
-      <c r="Z89" s="24" t="s">
+    <row r="94" spans="26:26" ht="15" thickBot="1">
+      <c r="Z94" s="23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="26:26" ht="15" thickBot="1">
-      <c r="Z90" s="24" t="s">
+    <row r="95" spans="26:26" ht="15" thickBot="1">
+      <c r="Z95" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="26:26" ht="15" thickBot="1">
-      <c r="Z91" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="26:26" ht="15" thickBot="1">
-      <c r="Z92" s="24" t="s">
+    <row r="96" spans="26:26" ht="15" thickBot="1">
+      <c r="Z96" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="26:26" ht="15" thickBot="1">
-      <c r="Z93" s="24" t="s">
+    <row r="97" spans="26:26" ht="15" thickBot="1">
+      <c r="Z97" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="26:26" ht="15" thickBot="1">
-      <c r="Z94" s="24" t="s">
+    <row r="98" spans="26:26" ht="15" thickBot="1">
+      <c r="Z98" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="26:26" ht="15" thickBot="1">
-      <c r="Z95" s="24" t="s">
+    <row r="99" spans="26:26" ht="15" thickBot="1">
+      <c r="Z99" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="26:26" ht="15" thickBot="1">
-      <c r="Z96" s="24" t="s">
+    <row r="100" spans="26:26" ht="15" thickBot="1">
+      <c r="Z100" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="26:26" ht="15" thickBot="1">
-      <c r="Z97" s="24" t="s">
+    <row r="101" spans="26:26" ht="15" thickBot="1">
+      <c r="Z101" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="26:26" ht="15" thickBot="1">
-      <c r="Z98" s="24" t="s">
+    <row r="102" spans="26:26" ht="15" thickBot="1">
+      <c r="Z102" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="26:26" ht="15" thickBot="1">
-      <c r="Z99" s="24" t="s">
+    <row r="103" spans="26:26" ht="15" thickBot="1">
+      <c r="Z103" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="26:26" ht="15" thickBot="1">
-      <c r="Z100" s="24" t="s">
+    <row r="104" spans="26:26" ht="15" thickBot="1">
+      <c r="Z104" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="26:26">
-      <c r="Z101" s="25" t="s">
+    <row r="105" spans="26:26" ht="15" thickBot="1">
+      <c r="Z105" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="26:26" ht="15" thickBot="1">
+      <c r="Z106" s="23" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="26:26" ht="15" thickBot="1">
+      <c r="Z107" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="26:26" ht="15" thickBot="1">
+      <c r="Z108" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="26:26" ht="15" thickBot="1">
+      <c r="Z109" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="26:26" ht="15" thickBot="1">
+      <c r="Z110" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="26:26" ht="15" thickBot="1">
+      <c r="Z111" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="26:26" ht="15" thickBot="1">
+      <c r="Z112" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="26:26" ht="15" thickBot="1">
+      <c r="Z113" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="26:26" ht="15" thickBot="1">
+      <c r="Z114" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="26:26" ht="15" thickBot="1">
+      <c r="Z115" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="26:26" ht="15" thickBot="1">
+      <c r="Z116" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="26:26" ht="15" thickBot="1">
+      <c r="Z117" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="26:26" ht="15" thickBot="1">
+      <c r="Z118" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="26:26" ht="15" thickBot="1">
+      <c r="Z119" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="26:26" ht="15" thickBot="1">
+      <c r="Z120" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="26:26" ht="15" thickBot="1">
+      <c r="Z121" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="26:26" ht="15" thickBot="1">
+      <c r="Z122" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="123" spans="26:26" ht="15" thickBot="1">
+      <c r="Z123" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="26:26" ht="15" thickBot="1">
+      <c r="Z124" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="26:26" ht="15" thickBot="1">
+      <c r="Z125" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="26:26" ht="15" thickBot="1">
+      <c r="Z126" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="26:26" ht="15" thickBot="1">
+      <c r="Z127" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="26:26" ht="15" thickBot="1">
+      <c r="Z128" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="26:26" ht="15" thickBot="1">
+      <c r="Z129" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="26:26" ht="15" thickBot="1">
+      <c r="Z130" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="26:26" ht="15" thickBot="1">
+      <c r="Z131" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="26:26" ht="15" thickBot="1">
+      <c r="Z132" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="26:26" ht="15" thickBot="1">
+      <c r="Z133" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="26:26" ht="15" thickBot="1">
+      <c r="Z134" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="26:26" ht="15" thickBot="1">
+      <c r="Z135" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="26:26" ht="15" thickBot="1">
+      <c r="Z136" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137" spans="26:26" ht="15" thickBot="1">
+      <c r="Z137" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="26:26" ht="15" thickBot="1">
+      <c r="Z138" s="23" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$4:$R$5</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
       <formula1>$U$6:$U$13</formula1>
     </dataValidation>
@@ -2010,11 +2279,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
       <formula1>$V$6:$V$7</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$R$4:$R$5</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>$T$5:$T$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>$Z$6:$Z$101</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>$Z$6:$Z$138</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2027,7 +2299,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2438,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2562,7 +2834,7 @@
         <v>67</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>67</v>
@@ -2588,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>67</v>
@@ -2630,7 +2902,7 @@
       <c r="E10" s="11">
         <v>6</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2646,20 +2918,20 @@
         <v>5</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="5:13">
       <c r="E11" s="11">
         <v>7</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2688,7 +2960,7 @@
       <c r="E12" s="11">
         <v>8</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2701,13 +2973,13 @@
         <v>67</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>67</v>
@@ -2720,6 +2992,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:Z138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="T1" sqref="T1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1179,13 +1179,13 @@
     <col min="16" max="17" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.54296875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.90625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.36328125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="38.453125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="211">
   <si>
     <t>Execution</t>
   </si>
@@ -619,15 +619,6 @@
     <t>SDP</t>
   </si>
   <si>
-    <t>/data/fdp/logs/defaultCircle</t>
-  </si>
-  <si>
-    <t>VenuReddyGaddam</t>
-  </si>
-  <si>
-    <t>10.95.214.72</t>
-  </si>
-  <si>
     <t>CIS</t>
   </si>
   <si>
@@ -647,6 +638,18 @@
   </si>
   <si>
     <t>Unix_System</t>
+  </si>
+  <si>
+    <t>10.95.214.9</t>
+  </si>
+  <si>
+    <t>atos</t>
+  </si>
+  <si>
+    <t>ericsson</t>
+  </si>
+  <si>
+    <t>/data/edr_enrichment/sftpcompleted</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2823,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2838,42 +2841,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2893,7 +2896,7 @@
         <v>197</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2913,7 +2916,7 @@
         <v>192</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2953,7 +2956,7 @@
         <v>188</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2973,7 +2976,7 @@
         <v>186</v>
       </c>
       <c r="F7">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
-    <sheet name="Execution_Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Validation part" sheetId="4" r:id="rId3"/>
+    <sheet name="Credentials" sheetId="6" r:id="rId2"/>
+    <sheet name="Execution_Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Validation part" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="244">
   <si>
     <t>Execution</t>
   </si>
@@ -661,6 +662,93 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Unix_System</t>
+  </si>
+  <si>
+    <t>IP_HostName</t>
+  </si>
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Wait_Time</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>10.95.214.6</t>
+  </si>
+  <si>
+    <t>tasuser</t>
+  </si>
+  <si>
+    <t>Ericssondu@123</t>
+  </si>
+  <si>
+    <t>/var/opt/fds/CDR/archive/</t>
+  </si>
+  <si>
+    <t>OCC1</t>
+  </si>
+  <si>
+    <t>10.95.214.21</t>
+  </si>
+  <si>
+    <t>/home/tasuser</t>
+  </si>
+  <si>
+    <t>OCC2</t>
+  </si>
+  <si>
+    <t>10.95.214.22</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>10.95.214.166</t>
+  </si>
+  <si>
+    <t>/var/opt/air/datarecords/backup_CDR/</t>
+  </si>
+  <si>
+    <t>CCN0</t>
+  </si>
+  <si>
+    <t>10.95.213.132</t>
+  </si>
+  <si>
+    <t>CCNtasuser@123</t>
+  </si>
+  <si>
+    <t>/cluster/storage/no-backup/ccn/CcnStorage0/CCNCDR44/archive/</t>
+  </si>
+  <si>
+    <t>CCN1</t>
+  </si>
+  <si>
+    <t>/cluster/storage/no-backup/ccn/CcnStorage1/CCNCDR44/archive/</t>
+  </si>
+  <si>
+    <t>10.95.214.72</t>
+  </si>
+  <si>
+    <t>/data/fdp/logs/defaultCircle</t>
+  </si>
+  <si>
+    <t>VenuReddyGaddam</t>
   </si>
 </sst>
 </file>
@@ -713,7 +801,7 @@
       <name val="Ericsson Hilda"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +818,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -801,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -849,6 +943,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:Z1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1238,7 +1334,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1250,7 +1346,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>69</v>
@@ -1300,7 +1396,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1340,7 +1436,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1453,7 +1549,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -2296,6 +2392,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2706,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:M12"/>
   <sheetViews>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="215">
   <si>
     <t>Execution</t>
   </si>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:Z138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:Z1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1183,7 +1183,7 @@
     <col min="21" max="21" width="27.90625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.36328125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="38.453125" hidden="1" customWidth="1"/>
   </cols>
@@ -1281,7 +1281,7 @@
         <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>69</v>
@@ -1441,8 +1441,8 @@
       <c r="W6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="17" t="s">
-        <v>78</v>
+      <c r="X6" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="Y6" s="6" t="s">
         <v>34</v>
@@ -1499,9 +1499,6 @@
       </c>
       <c r="W7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="X7" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="Y7" s="6" t="s">
         <v>35</v>
@@ -2276,9 +2273,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
       <formula1>$S$5:$S$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
-      <formula1>$V$6:$V$7</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>$R$4:$R$5</formula1>
     </dataValidation>
@@ -2287,6 +2281,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>$Z$6:$Z$138</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+      <formula1>$X$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="245">
   <si>
     <t>Execution</t>
   </si>
@@ -742,13 +742,16 @@
     <t>/cluster/storage/no-backup/ccn/CcnStorage1/CCNCDR44/archive/</t>
   </si>
   <si>
-    <t>10.95.214.72</t>
-  </si>
-  <si>
-    <t>/data/fdp/logs/defaultCircle</t>
-  </si>
-  <si>
-    <t>VenuReddyGaddam</t>
+    <t>10.95.214.9</t>
+  </si>
+  <si>
+    <t>atos</t>
+  </si>
+  <si>
+    <t>ericsson</t>
+  </si>
+  <si>
+    <t>/data/edr_enrichment/sftpcompleted</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1255,7 @@
   <dimension ref="A1:Z138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2395,7 +2398,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2431,20 +2434,20 @@
       <c r="A2" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>243</v>
-      </c>
       <c r="E2" s="25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F2" s="25">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2569,6 +2572,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -9,15 +9,14 @@
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
     <sheet name="Credentials" sheetId="6" r:id="rId2"/>
-    <sheet name="Execution_Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Validation part" sheetId="4" r:id="rId4"/>
+    <sheet name="Validation part" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="237">
   <si>
     <t>Execution</t>
   </si>
@@ -100,12 +99,6 @@
     <t>OPT_IN/OPT OUT</t>
   </si>
   <si>
-    <t>Long Code</t>
-  </si>
-  <si>
-    <t>Short Code</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -157,28 +150,10 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Parameter1</t>
-  </si>
-  <si>
-    <t>Parameter2</t>
-  </si>
-  <si>
-    <t>Parameter3</t>
-  </si>
-  <si>
-    <t>Parameter4</t>
-  </si>
-  <si>
-    <t>Recharge Coupon</t>
-  </si>
-  <si>
     <t>Call_TO_MSISDN</t>
   </si>
   <si>
     <t>CALL_DURATION</t>
-  </si>
-  <si>
-    <t>Product_ID (dropdown)</t>
   </si>
   <si>
     <t>RECEIVER_MSISDN</t>
@@ -1255,7 +1230,7 @@
   <dimension ref="A1:Z138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="V1" sqref="V1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1282,7 +1257,7 @@
     <col min="21" max="21" width="27.90625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.36328125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="38.453125" hidden="1" customWidth="1"/>
   </cols>
@@ -1295,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1307,55 +1282,55 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -1368,25 +1343,25 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -1399,26 +1374,26 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="8"/>
@@ -1428,33 +1403,33 @@
       <c r="N4" s="2"/>
       <c r="O4" s="13"/>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="18"/>
@@ -1466,13 +1441,13 @@
       <c r="N5" s="2"/>
       <c r="O5" s="13"/>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>22</v>
@@ -1490,32 +1465,32 @@
         <v>21</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J6" s="8">
         <v>20</v>
@@ -1529,55 +1504,55 @@
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z6" s="24" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="13"/>
       <c r="I7" s="18"/>
       <c r="J7" s="8"/>
       <c r="K7" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
@@ -1588,45 +1563,45 @@
         <v>15</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="13"/>
@@ -1639,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>17</v>
@@ -1648,33 +1623,33 @@
         <v>21</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="18"/>
@@ -1689,10 +1664,10 @@
         <v>22</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1700,10 +1675,10 @@
         <v>23</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1711,10 +1686,10 @@
         <v>24</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1722,643 +1697,643 @@
         <v>25</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="U13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z13" s="20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="Z14" s="20" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="Z15" s="20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="Z16" s="20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="26:26">
       <c r="Z17" s="20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="26:26">
       <c r="Z18" s="20" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="26:26" ht="15" thickBot="1">
       <c r="Z19" s="20" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="26:26" ht="15" thickBot="1">
       <c r="Z20" s="21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="26:26" ht="15" thickBot="1">
       <c r="Z21" s="22" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="26:26" ht="15" thickBot="1">
       <c r="Z22" s="22" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="26:26" ht="15" thickBot="1">
       <c r="Z23" s="22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="26:26" ht="15" thickBot="1">
       <c r="Z24" s="22" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="26:26" ht="15" thickBot="1">
       <c r="Z25" s="22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="26:26" ht="15" thickBot="1">
       <c r="Z26" s="22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="26:26" ht="15" thickBot="1">
       <c r="Z27" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="26:26" ht="15" thickBot="1">
       <c r="Z28" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="26:26" ht="15" thickBot="1">
       <c r="Z29" s="23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="26:26" ht="15" thickBot="1">
       <c r="Z30" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="26:26" ht="15" thickBot="1">
       <c r="Z31" s="23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="26:26" ht="15" thickBot="1">
       <c r="Z32" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="26:26" ht="15" thickBot="1">
       <c r="Z33" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="26:26" ht="15" thickBot="1">
       <c r="Z34" s="23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="26:26" ht="15" thickBot="1">
       <c r="Z35" s="23" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="26:26" ht="15" thickBot="1">
       <c r="Z36" s="23" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="26:26" ht="15" thickBot="1">
       <c r="Z37" s="23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="26:26" ht="15" thickBot="1">
       <c r="Z38" s="23" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="26:26" ht="15" thickBot="1">
       <c r="Z39" s="23" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="26:26" ht="15" thickBot="1">
       <c r="Z40" s="23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="26:26" ht="15" thickBot="1">
       <c r="Z41" s="23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="26:26" ht="15" thickBot="1">
       <c r="Z42" s="23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="26:26" ht="15" thickBot="1">
       <c r="Z43" s="23" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="26:26" ht="15" thickBot="1">
       <c r="Z44" s="23" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="26:26" ht="15" thickBot="1">
       <c r="Z45" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="26:26" ht="15" thickBot="1">
       <c r="Z46" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="26:26" ht="15" thickBot="1">
       <c r="Z47" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="26:26" ht="15" thickBot="1">
       <c r="Z48" s="23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="26:26" ht="15" thickBot="1">
       <c r="Z49" s="23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="26:26" ht="15" thickBot="1">
       <c r="Z50" s="23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="26:26" ht="15" thickBot="1">
       <c r="Z51" s="23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="26:26" ht="15" thickBot="1">
       <c r="Z52" s="23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="26:26" ht="15" thickBot="1">
       <c r="Z53" s="23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="26:26" ht="15" thickBot="1">
       <c r="Z54" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="26:26" ht="15" thickBot="1">
       <c r="Z55" s="23" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="26:26" ht="15" thickBot="1">
       <c r="Z56" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="26:26" ht="15" thickBot="1">
       <c r="Z57" s="23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="26:26" ht="15" thickBot="1">
       <c r="Z58" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="26:26" ht="15" thickBot="1">
       <c r="Z59" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="26:26" ht="15" thickBot="1">
       <c r="Z60" s="23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="26:26" ht="15" thickBot="1">
       <c r="Z61" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="26:26" ht="15" thickBot="1">
       <c r="Z62" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="26:26" ht="15" thickBot="1">
       <c r="Z63" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="26:26" ht="15" thickBot="1">
       <c r="Z64" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="26:26" ht="15" thickBot="1">
       <c r="Z65" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="26:26" ht="15" thickBot="1">
       <c r="Z66" s="23" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="26:26" ht="15" thickBot="1">
       <c r="Z67" s="23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="26:26" ht="15" thickBot="1">
       <c r="Z68" s="23" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="26:26" ht="15" thickBot="1">
       <c r="Z69" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="26:26" ht="15" thickBot="1">
       <c r="Z70" s="23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="26:26" ht="15" thickBot="1">
       <c r="Z71" s="23" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="26:26" ht="15" thickBot="1">
       <c r="Z72" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="26:26" ht="15" thickBot="1">
       <c r="Z73" s="23" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="26:26" ht="15" thickBot="1">
       <c r="Z74" s="23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="26:26" ht="15" thickBot="1">
       <c r="Z75" s="23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="26:26" ht="15" thickBot="1">
       <c r="Z76" s="23" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="26:26" ht="15" thickBot="1">
       <c r="Z77" s="23" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="26:26" ht="15" thickBot="1">
       <c r="Z78" s="23" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="26:26" ht="15" thickBot="1">
       <c r="Z79" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="26:26" ht="15" thickBot="1">
       <c r="Z80" s="23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="26:26" ht="15" thickBot="1">
       <c r="Z81" s="23" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="26:26" ht="15" thickBot="1">
       <c r="Z82" s="23" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="26:26" ht="15" thickBot="1">
       <c r="Z83" s="23" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="26:26" ht="15" thickBot="1">
       <c r="Z84" s="23" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="26:26" ht="15" thickBot="1">
       <c r="Z85" s="23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="26:26" ht="15" thickBot="1">
       <c r="Z86" s="23" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="26:26" ht="15" thickBot="1">
       <c r="Z87" s="23" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="26:26" ht="15" thickBot="1">
       <c r="Z88" s="23" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="26:26" ht="15" thickBot="1">
       <c r="Z89" s="23" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="26:26" ht="15" thickBot="1">
       <c r="Z90" s="23" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="26:26" ht="15" thickBot="1">
       <c r="Z91" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="26:26" ht="15" thickBot="1">
       <c r="Z92" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="26:26" ht="15" thickBot="1">
       <c r="Z93" s="23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="26:26" ht="15" thickBot="1">
       <c r="Z94" s="23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="26:26" ht="15" thickBot="1">
       <c r="Z95" s="23" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="26:26" ht="15" thickBot="1">
       <c r="Z96" s="23" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="23" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="23" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="23" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="23" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="23" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="23" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="23" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="23" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="23" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="23" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="23" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="23" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="23" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="23" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="23" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="23" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="23" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="23" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="23" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="23" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="23" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="26:26" ht="15" thickBot="1">
       <c r="Z138" s="23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2375,9 +2350,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
       <formula1>$S$5:$S$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
-      <formula1>$V$6:$V$7</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>$R$4:$R$5</formula1>
     </dataValidation>
@@ -2386,6 +2358,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>$Z$6:$Z$138</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+      <formula1>$V$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2398,7 +2373,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2412,162 +2387,162 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F2" s="25">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="25" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F3" s="25">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="25" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F4" s="25">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F5" s="25">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="25" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F6" s="25">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="25" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F7" s="25">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="25" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F8" s="25">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2577,418 +2552,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="27.90625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.36328125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="15.54296875" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="N10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="N11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="N12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="O13" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$N$5:$N$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
-      <formula1>$P$6:$P$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>$M$5:$M$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>$S$6:$S$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>$Q$6:$Q$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>$O$6:$O$13</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$L$4:$L$5</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:M12"/>
   <sheetViews>
@@ -3008,31 +2571,31 @@
   <sheetData>
     <row r="4" spans="5:13">
       <c r="E4" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="5:13">
@@ -3058,10 +2621,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="5:13">
@@ -3087,10 +2650,10 @@
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="5:13">
@@ -3107,19 +2670,19 @@
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="5:13">
@@ -3130,22 +2693,22 @@
         <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>5</v>
@@ -3159,22 +2722,22 @@
         <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>5</v>
@@ -3188,13 +2751,13 @@
         <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>5</v>
@@ -3203,10 +2766,10 @@
         <v>5</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="5:13">
@@ -3217,13 +2780,13 @@
         <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>5</v>
@@ -3235,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="5:13">
@@ -3246,25 +2809,25 @@
         <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
@@ -1229,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V1" sqref="V1:Z1048576"/>
     </sheetView>
   </sheetViews>
@@ -2372,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:Z138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:Z1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2373,7 +2373,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2422,7 +2422,7 @@
         <v>236</v>
       </c>
       <c r="F2" s="25">
-        <v>200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
     <sheet name="Credentials" sheetId="6" r:id="rId2"/>
-    <sheet name="Validation part" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="221">
   <si>
     <t>Execution</t>
   </si>
@@ -33,9 +32,6 @@
     <t>MSISDN</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>TC_001</t>
   </si>
   <si>
@@ -72,15 +68,6 @@
     <t>Recharge_More_Credit</t>
   </si>
   <si>
-    <t>OPT IN</t>
-  </si>
-  <si>
-    <t>OPT OUT</t>
-  </si>
-  <si>
-    <t>RECHARGE</t>
-  </si>
-  <si>
     <t>LIVE USAGE DATA</t>
   </si>
   <si>
@@ -120,9 +107,6 @@
     <t>DATA_SOCIAL</t>
   </si>
   <si>
-    <t>Voice_Roaming - Local_Du_Direct</t>
-  </si>
-  <si>
     <t>Voice_Roaming - Local_Etisalat</t>
   </si>
   <si>
@@ -171,36 +155,6 @@
     <t>Hide this field</t>
   </si>
   <si>
-    <t>CIS API</t>
-  </si>
-  <si>
-    <t>CS API</t>
-  </si>
-  <si>
-    <t>CIS EDR</t>
-  </si>
-  <si>
-    <t>SDP CDR</t>
-  </si>
-  <si>
-    <t>OCC CDR</t>
-  </si>
-  <si>
-    <t>AIR CDR</t>
-  </si>
-  <si>
-    <t>CCN CDR</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Sno</t>
-  </si>
-  <si>
     <t>971520001714</t>
   </si>
   <si>
@@ -247,9 +201,6 @@
   </si>
   <si>
     <t>1.1GB+1.1GB Social AED110_OnceOff</t>
-  </si>
-  <si>
-    <t>5GB+3GB Social AED210_OnceOff</t>
   </si>
   <si>
     <t>25GB+15GB Social AED525_OnceOff</t>
@@ -873,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -887,15 +838,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1227,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z138"/>
+  <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1240,16 +1182,16 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
     <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
@@ -1270,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1278,1089 +1220,1078 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="19"/>
+      <c r="O1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+        <v>187</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="13"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="13"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="15"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="13"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="13"/>
+      <c r="O3" s="10"/>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="13"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="13"/>
+      <c r="O4" s="10"/>
       <c r="R4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="13"/>
+      <c r="F5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="8">
+        <v>20</v>
+      </c>
+      <c r="K5" s="10"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="13"/>
-      <c r="R5" t="s">
-        <v>43</v>
-      </c>
+      <c r="O5" s="10"/>
       <c r="S5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>204</v>
+        <v>12</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="8">
-        <v>20</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" s="13"/>
+      <c r="O6" s="10"/>
       <c r="S6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>69</v>
+        <v>35</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>203</v>
+        <v>29</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>61</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="13"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="S7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z7" s="20" t="s">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="10"/>
       <c r="T8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="20" t="s">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="13"/>
-      <c r="T9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z9" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:26">
       <c r="T10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z10" s="20" t="s">
-        <v>77</v>
+        <v>30</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="T11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="U12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="Z13" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="Z14" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="Z15" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="Z16" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="26:26">
+      <c r="Z17" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="26:26" ht="15" thickBot="1">
+      <c r="Z18" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="26:26" ht="15" thickBot="1">
+      <c r="Z19" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="26:26" ht="15" thickBot="1">
+      <c r="Z20" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="26:26" ht="15" thickBot="1">
+      <c r="Z21" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="26:26" ht="15" thickBot="1">
+      <c r="Z22" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="26:26" ht="15" thickBot="1">
+      <c r="Z23" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="26:26" ht="15" thickBot="1">
+      <c r="Z24" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="26:26" ht="15" thickBot="1">
+      <c r="Z25" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="26:26" ht="15" thickBot="1">
+      <c r="Z26" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="T12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z12" s="20" t="s">
+    <row r="27" spans="26:26" ht="15" thickBot="1">
+      <c r="Z27" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="U13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z13" s="20" t="s">
+    <row r="28" spans="26:26" ht="15" thickBot="1">
+      <c r="Z28" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="Z14" s="20" t="s">
+    <row r="29" spans="26:26" ht="15" thickBot="1">
+      <c r="Z29" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="Z15" s="20" t="s">
+    <row r="30" spans="26:26" ht="15" thickBot="1">
+      <c r="Z30" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
-      <c r="Z16" s="20" t="s">
+    <row r="31" spans="26:26" ht="15" thickBot="1">
+      <c r="Z31" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="26:26">
-      <c r="Z17" s="20" t="s">
+    <row r="32" spans="26:26" ht="15" thickBot="1">
+      <c r="Z32" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="26:26">
-      <c r="Z18" s="20" t="s">
+    <row r="33" spans="26:26" ht="15" thickBot="1">
+      <c r="Z33" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="26:26" ht="15" thickBot="1">
-      <c r="Z19" s="20" t="s">
+    <row r="34" spans="26:26" ht="15" thickBot="1">
+      <c r="Z34" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="26:26" ht="15" thickBot="1">
-      <c r="Z20" s="21" t="s">
+    <row r="35" spans="26:26" ht="15" thickBot="1">
+      <c r="Z35" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="26:26" ht="15" thickBot="1">
-      <c r="Z21" s="22" t="s">
+    <row r="36" spans="26:26" ht="15" thickBot="1">
+      <c r="Z36" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="26:26" ht="15" thickBot="1">
-      <c r="Z22" s="22" t="s">
+    <row r="37" spans="26:26" ht="15" thickBot="1">
+      <c r="Z37" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="26:26" ht="15" thickBot="1">
-      <c r="Z23" s="22" t="s">
+    <row r="38" spans="26:26" ht="15" thickBot="1">
+      <c r="Z38" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="26:26" ht="15" thickBot="1">
-      <c r="Z24" s="22" t="s">
+    <row r="39" spans="26:26" ht="15" thickBot="1">
+      <c r="Z39" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="26:26" ht="15" thickBot="1">
-      <c r="Z25" s="22" t="s">
+    <row r="40" spans="26:26" ht="15" thickBot="1">
+      <c r="Z40" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="26:26" ht="15" thickBot="1">
-      <c r="Z26" s="22" t="s">
+    <row r="41" spans="26:26" ht="15" thickBot="1">
+      <c r="Z41" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="26:26" ht="15" thickBot="1">
-      <c r="Z27" s="23" t="s">
+    <row r="42" spans="26:26" ht="15" thickBot="1">
+      <c r="Z42" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="26:26" ht="15" thickBot="1">
-      <c r="Z28" s="23" t="s">
+    <row r="43" spans="26:26" ht="15" thickBot="1">
+      <c r="Z43" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="26:26" ht="15" thickBot="1">
-      <c r="Z29" s="23" t="s">
+    <row r="44" spans="26:26" ht="15" thickBot="1">
+      <c r="Z44" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="26:26" ht="15" thickBot="1">
-      <c r="Z30" s="23" t="s">
+    <row r="45" spans="26:26" ht="15" thickBot="1">
+      <c r="Z45" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="26:26" ht="15" thickBot="1">
-      <c r="Z31" s="23" t="s">
+    <row r="46" spans="26:26" ht="15" thickBot="1">
+      <c r="Z46" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="26:26" ht="15" thickBot="1">
-      <c r="Z32" s="23" t="s">
+    <row r="47" spans="26:26" ht="15" thickBot="1">
+      <c r="Z47" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="26:26" ht="15" thickBot="1">
-      <c r="Z33" s="23" t="s">
+    <row r="48" spans="26:26" ht="15" thickBot="1">
+      <c r="Z48" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="26:26" ht="15" thickBot="1">
-      <c r="Z34" s="23" t="s">
+    <row r="49" spans="26:26" ht="15" thickBot="1">
+      <c r="Z49" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="26:26" ht="15" thickBot="1">
-      <c r="Z35" s="23" t="s">
+    <row r="50" spans="26:26" ht="15" thickBot="1">
+      <c r="Z50" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="26:26" ht="15" thickBot="1">
-      <c r="Z36" s="23" t="s">
+    <row r="51" spans="26:26" ht="15" thickBot="1">
+      <c r="Z51" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="26:26" ht="15" thickBot="1">
-      <c r="Z37" s="23" t="s">
+    <row r="52" spans="26:26" ht="15" thickBot="1">
+      <c r="Z52" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="26:26" ht="15" thickBot="1">
-      <c r="Z38" s="23" t="s">
+    <row r="53" spans="26:26" ht="15" thickBot="1">
+      <c r="Z53" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="26:26" ht="15" thickBot="1">
-      <c r="Z39" s="23" t="s">
+    <row r="54" spans="26:26" ht="15" thickBot="1">
+      <c r="Z54" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="26:26" ht="15" thickBot="1">
-      <c r="Z40" s="23" t="s">
+    <row r="55" spans="26:26" ht="15" thickBot="1">
+      <c r="Z55" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="26:26" ht="15" thickBot="1">
-      <c r="Z41" s="23" t="s">
+    <row r="56" spans="26:26" ht="15" thickBot="1">
+      <c r="Z56" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="26:26" ht="15" thickBot="1">
-      <c r="Z42" s="23" t="s">
+    <row r="57" spans="26:26" ht="15" thickBot="1">
+      <c r="Z57" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="26:26" ht="15" thickBot="1">
-      <c r="Z43" s="23" t="s">
+    <row r="58" spans="26:26" ht="15" thickBot="1">
+      <c r="Z58" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="26:26" ht="15" thickBot="1">
-      <c r="Z44" s="23" t="s">
+    <row r="59" spans="26:26" ht="15" thickBot="1">
+      <c r="Z59" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="26:26" ht="15" thickBot="1">
-      <c r="Z45" s="23" t="s">
+    <row r="60" spans="26:26" ht="15" thickBot="1">
+      <c r="Z60" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="26:26" ht="15" thickBot="1">
-      <c r="Z46" s="23" t="s">
+    <row r="61" spans="26:26" ht="15" thickBot="1">
+      <c r="Z61" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="26:26" ht="15" thickBot="1">
-      <c r="Z47" s="23" t="s">
+    <row r="62" spans="26:26" ht="15" thickBot="1">
+      <c r="Z62" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="26:26" ht="15" thickBot="1">
-      <c r="Z48" s="23" t="s">
+    <row r="63" spans="26:26" ht="15" thickBot="1">
+      <c r="Z63" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="26:26" ht="15" thickBot="1">
-      <c r="Z49" s="23" t="s">
+    <row r="64" spans="26:26" ht="15" thickBot="1">
+      <c r="Z64" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="26:26" ht="15" thickBot="1">
-      <c r="Z50" s="23" t="s">
+    <row r="65" spans="26:26" ht="15" thickBot="1">
+      <c r="Z65" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="26:26" ht="15" thickBot="1">
-      <c r="Z51" s="23" t="s">
+    <row r="66" spans="26:26" ht="15" thickBot="1">
+      <c r="Z66" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="26:26" ht="15" thickBot="1">
-      <c r="Z52" s="23" t="s">
+    <row r="67" spans="26:26" ht="15" thickBot="1">
+      <c r="Z67" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="26:26" ht="15" thickBot="1">
-      <c r="Z53" s="23" t="s">
+    <row r="68" spans="26:26" ht="15" thickBot="1">
+      <c r="Z68" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="26:26" ht="15" thickBot="1">
-      <c r="Z54" s="23" t="s">
+    <row r="69" spans="26:26" ht="15" thickBot="1">
+      <c r="Z69" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="26:26" ht="15" thickBot="1">
-      <c r="Z55" s="23" t="s">
+    <row r="70" spans="26:26" ht="15" thickBot="1">
+      <c r="Z70" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="26:26" ht="15" thickBot="1">
-      <c r="Z56" s="23" t="s">
+    <row r="71" spans="26:26" ht="15" thickBot="1">
+      <c r="Z71" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="26:26" ht="15" thickBot="1">
-      <c r="Z57" s="23" t="s">
+    <row r="72" spans="26:26" ht="15" thickBot="1">
+      <c r="Z72" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="26:26" ht="15" thickBot="1">
-      <c r="Z58" s="23" t="s">
+    <row r="73" spans="26:26" ht="15" thickBot="1">
+      <c r="Z73" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="26:26" ht="15" thickBot="1">
-      <c r="Z59" s="23" t="s">
+    <row r="74" spans="26:26" ht="15" thickBot="1">
+      <c r="Z74" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="26:26" ht="15" thickBot="1">
-      <c r="Z60" s="23" t="s">
+    <row r="75" spans="26:26" ht="15" thickBot="1">
+      <c r="Z75" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="26:26" ht="15" thickBot="1">
-      <c r="Z61" s="23" t="s">
+    <row r="76" spans="26:26" ht="15" thickBot="1">
+      <c r="Z76" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="26:26" ht="15" thickBot="1">
-      <c r="Z62" s="23" t="s">
+    <row r="77" spans="26:26" ht="15" thickBot="1">
+      <c r="Z77" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="26:26" ht="15" thickBot="1">
-      <c r="Z63" s="23" t="s">
+    <row r="78" spans="26:26" ht="15" thickBot="1">
+      <c r="Z78" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="26:26" ht="15" thickBot="1">
-      <c r="Z64" s="23" t="s">
+    <row r="79" spans="26:26" ht="15" thickBot="1">
+      <c r="Z79" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="26:26" ht="15" thickBot="1">
-      <c r="Z65" s="23" t="s">
+    <row r="80" spans="26:26" ht="15" thickBot="1">
+      <c r="Z80" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="26:26" ht="15" thickBot="1">
-      <c r="Z66" s="23" t="s">
+    <row r="81" spans="26:26" ht="15" thickBot="1">
+      <c r="Z81" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="26:26" ht="15" thickBot="1">
-      <c r="Z67" s="23" t="s">
+    <row r="82" spans="26:26" ht="15" thickBot="1">
+      <c r="Z82" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="26:26" ht="15" thickBot="1">
-      <c r="Z68" s="23" t="s">
+    <row r="83" spans="26:26" ht="15" thickBot="1">
+      <c r="Z83" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="26:26" ht="15" thickBot="1">
-      <c r="Z69" s="23" t="s">
+    <row r="84" spans="26:26" ht="15" thickBot="1">
+      <c r="Z84" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="26:26" ht="15" thickBot="1">
-      <c r="Z70" s="23" t="s">
+    <row r="85" spans="26:26" ht="15" thickBot="1">
+      <c r="Z85" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="26:26" ht="15" thickBot="1">
-      <c r="Z71" s="23" t="s">
+    <row r="86" spans="26:26" ht="15" thickBot="1">
+      <c r="Z86" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="26:26" ht="15" thickBot="1">
-      <c r="Z72" s="23" t="s">
+    <row r="87" spans="26:26" ht="15" thickBot="1">
+      <c r="Z87" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="26:26" ht="15" thickBot="1">
-      <c r="Z73" s="23" t="s">
+    <row r="88" spans="26:26" ht="15" thickBot="1">
+      <c r="Z88" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="26:26" ht="15" thickBot="1">
-      <c r="Z74" s="23" t="s">
+    <row r="89" spans="26:26" ht="15" thickBot="1">
+      <c r="Z89" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="26:26" ht="15" thickBot="1">
-      <c r="Z75" s="23" t="s">
+    <row r="90" spans="26:26" ht="15" thickBot="1">
+      <c r="Z90" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="26:26" ht="15" thickBot="1">
-      <c r="Z76" s="23" t="s">
+    <row r="91" spans="26:26" ht="15" thickBot="1">
+      <c r="Z91" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="26:26" ht="15" thickBot="1">
+      <c r="Z92" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="26:26" ht="15" thickBot="1">
-      <c r="Z77" s="23" t="s">
+    <row r="93" spans="26:26" ht="15" thickBot="1">
+      <c r="Z93" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="26:26" ht="15" thickBot="1">
-      <c r="Z78" s="23" t="s">
+    <row r="94" spans="26:26" ht="15" thickBot="1">
+      <c r="Z94" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="26:26" ht="15" thickBot="1">
-      <c r="Z79" s="23" t="s">
+    <row r="95" spans="26:26" ht="15" thickBot="1">
+      <c r="Z95" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="26:26" ht="15" thickBot="1">
-      <c r="Z80" s="23" t="s">
+    <row r="96" spans="26:26" ht="15" thickBot="1">
+      <c r="Z96" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="26:26" ht="15" thickBot="1">
-      <c r="Z81" s="23" t="s">
+    <row r="97" spans="26:26" ht="15" thickBot="1">
+      <c r="Z97" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="26:26" ht="15" thickBot="1">
-      <c r="Z82" s="23" t="s">
+    <row r="98" spans="26:26" ht="15" thickBot="1">
+      <c r="Z98" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="26:26" ht="15" thickBot="1">
-      <c r="Z83" s="23" t="s">
+    <row r="99" spans="26:26" ht="15" thickBot="1">
+      <c r="Z99" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="26:26" ht="15" thickBot="1">
-      <c r="Z84" s="23" t="s">
+    <row r="100" spans="26:26" ht="15" thickBot="1">
+      <c r="Z100" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="26:26" ht="15" thickBot="1">
-      <c r="Z85" s="23" t="s">
+    <row r="101" spans="26:26" ht="15" thickBot="1">
+      <c r="Z101" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="26:26" ht="15" thickBot="1">
-      <c r="Z86" s="23" t="s">
+    <row r="102" spans="26:26" ht="15" thickBot="1">
+      <c r="Z102" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="26:26" ht="15" thickBot="1">
-      <c r="Z87" s="23" t="s">
+    <row r="103" spans="26:26" ht="15" thickBot="1">
+      <c r="Z103" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="26:26" ht="15" thickBot="1">
-      <c r="Z88" s="23" t="s">
+    <row r="104" spans="26:26" ht="15" thickBot="1">
+      <c r="Z104" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="26:26" ht="15" thickBot="1">
-      <c r="Z89" s="23" t="s">
+    <row r="105" spans="26:26" ht="15" thickBot="1">
+      <c r="Z105" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="26:26" ht="15" thickBot="1">
-      <c r="Z90" s="23" t="s">
+    <row r="106" spans="26:26" ht="15" thickBot="1">
+      <c r="Z106" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="26:26" ht="15" thickBot="1">
-      <c r="Z91" s="23" t="s">
+    <row r="107" spans="26:26" ht="15" thickBot="1">
+      <c r="Z107" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="26:26" ht="15" thickBot="1">
-      <c r="Z92" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="93" spans="26:26" ht="15" thickBot="1">
-      <c r="Z93" s="23" t="s">
+    <row r="108" spans="26:26" ht="15" thickBot="1">
+      <c r="Z108" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="26:26" ht="15" thickBot="1">
-      <c r="Z94" s="23" t="s">
+    <row r="109" spans="26:26" ht="15" thickBot="1">
+      <c r="Z109" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="26:26" ht="15" thickBot="1">
-      <c r="Z95" s="23" t="s">
+    <row r="110" spans="26:26" ht="15" thickBot="1">
+      <c r="Z110" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="26:26" ht="15" thickBot="1">
-      <c r="Z96" s="23" t="s">
+    <row r="111" spans="26:26" ht="15" thickBot="1">
+      <c r="Z111" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="26:26" ht="15" thickBot="1">
-      <c r="Z97" s="23" t="s">
+    <row r="112" spans="26:26" ht="15" thickBot="1">
+      <c r="Z112" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="26:26" ht="15" thickBot="1">
-      <c r="Z98" s="23" t="s">
+    <row r="113" spans="26:26" ht="15" thickBot="1">
+      <c r="Z113" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="26:26" ht="15" thickBot="1">
-      <c r="Z99" s="23" t="s">
+    <row r="114" spans="26:26" ht="15" thickBot="1">
+      <c r="Z114" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="26:26" ht="15" thickBot="1">
-      <c r="Z100" s="23" t="s">
+    <row r="115" spans="26:26" ht="15" thickBot="1">
+      <c r="Z115" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="26:26" ht="15" thickBot="1">
-      <c r="Z101" s="23" t="s">
+    <row r="116" spans="26:26" ht="15" thickBot="1">
+      <c r="Z116" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="102" spans="26:26" ht="15" thickBot="1">
-      <c r="Z102" s="23" t="s">
+    <row r="117" spans="26:26" ht="15" thickBot="1">
+      <c r="Z117" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="26:26" ht="15" thickBot="1">
-      <c r="Z103" s="23" t="s">
+    <row r="118" spans="26:26" ht="15" thickBot="1">
+      <c r="Z118" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="26:26" ht="15" thickBot="1">
-      <c r="Z104" s="23" t="s">
+    <row r="119" spans="26:26" ht="15" thickBot="1">
+      <c r="Z119" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="26:26" ht="15" thickBot="1">
-      <c r="Z105" s="23" t="s">
+    <row r="120" spans="26:26" ht="15" thickBot="1">
+      <c r="Z120" s="20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="26:26" ht="15" thickBot="1">
-      <c r="Z106" s="23" t="s">
+    <row r="121" spans="26:26" ht="15" thickBot="1">
+      <c r="Z121" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="26:26" ht="15" thickBot="1">
-      <c r="Z107" s="23" t="s">
+    <row r="122" spans="26:26" ht="15" thickBot="1">
+      <c r="Z122" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="26:26" ht="15" thickBot="1">
-      <c r="Z108" s="23" t="s">
+    <row r="123" spans="26:26" ht="15" thickBot="1">
+      <c r="Z123" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="26:26" ht="15" thickBot="1">
-      <c r="Z109" s="23" t="s">
+    <row r="124" spans="26:26" ht="15" thickBot="1">
+      <c r="Z124" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="26:26" ht="15" thickBot="1">
-      <c r="Z110" s="23" t="s">
+    <row r="125" spans="26:26" ht="15" thickBot="1">
+      <c r="Z125" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="26:26" ht="15" thickBot="1">
-      <c r="Z111" s="23" t="s">
+    <row r="126" spans="26:26" ht="15" thickBot="1">
+      <c r="Z126" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="26:26" ht="15" thickBot="1">
+      <c r="Z127" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="112" spans="26:26" ht="15" thickBot="1">
-      <c r="Z112" s="23" t="s">
+    <row r="128" spans="26:26" ht="15" thickBot="1">
+      <c r="Z128" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="26:26" ht="15" thickBot="1">
-      <c r="Z113" s="23" t="s">
+    <row r="129" spans="26:26" ht="15" thickBot="1">
+      <c r="Z129" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="26:26" ht="15" thickBot="1">
+      <c r="Z130" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="26:26" ht="15" thickBot="1">
-      <c r="Z114" s="23" t="s">
+    <row r="131" spans="26:26" ht="15" thickBot="1">
+      <c r="Z131" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="26:26" ht="15" thickBot="1">
-      <c r="Z115" s="23" t="s">
+    <row r="132" spans="26:26" ht="15" thickBot="1">
+      <c r="Z132" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="116" spans="26:26" ht="15" thickBot="1">
-      <c r="Z116" s="23" t="s">
+    <row r="133" spans="26:26" ht="15" thickBot="1">
+      <c r="Z133" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="26:26" ht="15" thickBot="1">
-      <c r="Z117" s="23" t="s">
+    <row r="134" spans="26:26" ht="15" thickBot="1">
+      <c r="Z134" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="26:26" ht="15" thickBot="1">
-      <c r="Z118" s="23" t="s">
+    <row r="135" spans="26:26" ht="15" thickBot="1">
+      <c r="Z135" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="119" spans="26:26" ht="15" thickBot="1">
-      <c r="Z119" s="23" t="s">
+    <row r="136" spans="26:26" ht="15" thickBot="1">
+      <c r="Z136" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="26:26" ht="15" thickBot="1">
-      <c r="Z120" s="23" t="s">
+    <row r="137" spans="26:26" ht="15" thickBot="1">
+      <c r="Z137" s="20" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="121" spans="26:26" ht="15" thickBot="1">
-      <c r="Z121" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" spans="26:26" ht="15" thickBot="1">
-      <c r="Z122" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="123" spans="26:26" ht="15" thickBot="1">
-      <c r="Z123" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="26:26" ht="15" thickBot="1">
-      <c r="Z124" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="125" spans="26:26" ht="15" thickBot="1">
-      <c r="Z125" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="126" spans="26:26" ht="15" thickBot="1">
-      <c r="Z126" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="127" spans="26:26" ht="15" thickBot="1">
-      <c r="Z127" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="128" spans="26:26" ht="15" thickBot="1">
-      <c r="Z128" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="129" spans="26:26" ht="15" thickBot="1">
-      <c r="Z129" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="130" spans="26:26" ht="15" thickBot="1">
-      <c r="Z130" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="131" spans="26:26" ht="15" thickBot="1">
-      <c r="Z131" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="132" spans="26:26" ht="15" thickBot="1">
-      <c r="Z132" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="133" spans="26:26" ht="15" thickBot="1">
-      <c r="Z133" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" spans="26:26" ht="15" thickBot="1">
-      <c r="Z134" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="135" spans="26:26" ht="15" thickBot="1">
-      <c r="Z135" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="136" spans="26:26" ht="15" thickBot="1">
-      <c r="Z136" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="26:26" ht="15" thickBot="1">
-      <c r="Z137" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="138" spans="26:26" ht="15" thickBot="1">
-      <c r="Z138" s="23" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>$U$6:$U$13</formula1>
+      <formula1>$W$5:$W$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>$W$6:$W$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+      <formula1>$Y$5:$Y$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+      <formula1>$S$4:$S$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$R$3:$R$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>$Y$6:$Y$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>$S$5:$S$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$4:$R$5</formula1>
+      <formula1>$U$5:$U$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$5:$T$12</formula1>
+      <formula1>$T$4:$T$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>$Z$6:$Z$138</formula1>
+      <formula1>$Z$5:$Z$137</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
-      <formula1>$V$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E9">
+      <formula1>$V$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2372,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2386,456 +2317,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C5" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="C6" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F6" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="25" t="s">
+      <c r="C7" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="B2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="25">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="25" t="s">
+      <c r="E7" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="F7" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="B8" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="25">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="25">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" s="25">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="25">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="F7" s="25">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" s="25">
-        <v>120</v>
+      <c r="F8" s="22">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:M12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="5" max="5" width="3.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="5:13">
-      <c r="E4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="5:13">
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="5:13">
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="5:13">
-      <c r="E7" s="11">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13">
-      <c r="E8" s="11">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13">
-      <c r="E9" s="11">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13">
-      <c r="E10" s="11">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13">
-      <c r="E11" s="11">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13">
-      <c r="E12" s="11">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F12">
-      <formula1>$N$5:$N$12</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -2303,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1285,7 +1285,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="222">
   <si>
     <t>Execution</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>/data/edr_enrichment/sftpcompleted</t>
+  </si>
+  <si>
+    <t>device2</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1175,7 @@
   <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1325,7 +1328,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1337,7 +1340,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>46</v>
@@ -1444,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
     <sheet name="Credentials" sheetId="6" r:id="rId2"/>
+    <sheet name="API_Data" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="273">
   <si>
     <t>Execution</t>
   </si>
@@ -681,13 +682,166 @@
   </si>
   <si>
     <t>device2</t>
+  </si>
+  <si>
+    <t>Request_Name</t>
+  </si>
+  <si>
+    <t>GetOffers</t>
+  </si>
+  <si>
+    <t>Execution Control</t>
+  </si>
+  <si>
+    <t>TestCase_ID</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>GetAccountDetails</t>
+  </si>
+  <si>
+    <t>DeleteOffer</t>
+  </si>
+  <si>
+    <t>UpdateOffer</t>
+  </si>
+  <si>
+    <t>UpdateDA</t>
+  </si>
+  <si>
+    <t>DeleteDA</t>
+  </si>
+  <si>
+    <t>GetBalanceAndDate</t>
+  </si>
+  <si>
+    <t>AddPAM</t>
+  </si>
+  <si>
+    <t>ReduceDA</t>
+  </si>
+  <si>
+    <t>AddDifferentDA</t>
+  </si>
+  <si>
+    <t>Parameter1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Parameter2</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Parameter3</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Parameter4</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Parameter5</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Parameter6</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Parameter7</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Parameter8</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Parameter9</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Parameter10</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>subscriberNumber</t>
+  </si>
+  <si>
+    <t>offerID</t>
+  </si>
+  <si>
+    <t>transactionCurrency</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID</t>
+  </si>
+  <si>
+    <t>adjustmentAmountRelative</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnitType</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>pamServiceID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pamClassID</t>
+  </si>
+  <si>
+    <t>scheduleID</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,8 +886,23 @@
       <sz val="9"/>
       <name val="Ericsson Hilda"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,6 +924,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -868,6 +1049,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,37 +1360,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.54296875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="27.90625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="38.453125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.85546875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="38.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1670,602 +1856,602 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="26:26" ht="15" thickBot="1">
+    <row r="18" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z18" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="26:26" ht="15" thickBot="1">
+    <row r="19" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z19" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="26:26" ht="15" thickBot="1">
+    <row r="20" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z20" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="26:26" ht="15" thickBot="1">
+    <row r="21" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z21" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="26:26" ht="15" thickBot="1">
+    <row r="22" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z22" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="26:26" ht="15" thickBot="1">
+    <row r="23" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z23" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="26:26" ht="15" thickBot="1">
+    <row r="24" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z24" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="26:26" ht="15" thickBot="1">
+    <row r="25" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z25" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="26:26" ht="15" thickBot="1">
+    <row r="26" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z26" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="26:26" ht="15" thickBot="1">
+    <row r="27" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z27" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="26:26" ht="15" thickBot="1">
+    <row r="28" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z28" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="26:26" ht="15" thickBot="1">
+    <row r="29" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z29" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="26:26" ht="15" thickBot="1">
+    <row r="30" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z30" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="26:26" ht="15" thickBot="1">
+    <row r="31" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z31" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="26:26" ht="15" thickBot="1">
+    <row r="32" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z32" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="26:26" ht="15" thickBot="1">
+    <row r="33" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z33" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="26:26" ht="15" thickBot="1">
+    <row r="34" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z34" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="26:26" ht="15" thickBot="1">
+    <row r="35" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z35" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="26:26" ht="15" thickBot="1">
+    <row r="36" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z36" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="26:26" ht="15" thickBot="1">
+    <row r="37" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z37" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="26:26" ht="15" thickBot="1">
+    <row r="38" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z38" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="26:26" ht="15" thickBot="1">
+    <row r="39" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z39" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="26:26" ht="15" thickBot="1">
+    <row r="40" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z40" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="26:26" ht="15" thickBot="1">
+    <row r="41" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z41" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="26:26" ht="15" thickBot="1">
+    <row r="42" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z42" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="26:26" ht="15" thickBot="1">
+    <row r="43" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z43" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="26:26" ht="15" thickBot="1">
+    <row r="44" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z44" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="26:26" ht="15" thickBot="1">
+    <row r="45" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z45" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="26:26" ht="15" thickBot="1">
+    <row r="46" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z46" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="26:26" ht="15" thickBot="1">
+    <row r="47" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z47" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="26:26" ht="15" thickBot="1">
+    <row r="48" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z48" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="26:26" ht="15" thickBot="1">
+    <row r="49" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z49" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="26:26" ht="15" thickBot="1">
+    <row r="50" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z50" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="26:26" ht="15" thickBot="1">
+    <row r="51" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z51" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="26:26" ht="15" thickBot="1">
+    <row r="52" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z52" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="26:26" ht="15" thickBot="1">
+    <row r="53" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z53" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="26:26" ht="15" thickBot="1">
+    <row r="54" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z54" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="26:26" ht="15" thickBot="1">
+    <row r="55" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z55" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="26:26" ht="15" thickBot="1">
+    <row r="56" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z56" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="26:26" ht="15" thickBot="1">
+    <row r="57" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z57" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="26:26" ht="15" thickBot="1">
+    <row r="58" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z58" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="26:26" ht="15" thickBot="1">
+    <row r="59" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z59" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="26:26" ht="15" thickBot="1">
+    <row r="60" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z60" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="26:26" ht="15" thickBot="1">
+    <row r="61" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z61" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="26:26" ht="15" thickBot="1">
+    <row r="62" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z62" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="26:26" ht="15" thickBot="1">
+    <row r="63" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z63" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="26:26" ht="15" thickBot="1">
+    <row r="64" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z64" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="26:26" ht="15" thickBot="1">
+    <row r="65" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z65" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="26:26" ht="15" thickBot="1">
+    <row r="66" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z66" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="26:26" ht="15" thickBot="1">
+    <row r="67" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z67" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="26:26" ht="15" thickBot="1">
+    <row r="68" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z68" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="26:26" ht="15" thickBot="1">
+    <row r="69" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z69" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="26:26" ht="15" thickBot="1">
+    <row r="70" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z70" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="26:26" ht="15" thickBot="1">
+    <row r="71" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z71" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="26:26" ht="15" thickBot="1">
+    <row r="72" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z72" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="26:26" ht="15" thickBot="1">
+    <row r="73" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z73" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="26:26" ht="15" thickBot="1">
+    <row r="74" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z74" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="26:26" ht="15" thickBot="1">
+    <row r="75" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z75" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="26:26" ht="15" thickBot="1">
+    <row r="76" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z76" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="26:26" ht="15" thickBot="1">
+    <row r="77" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z77" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="26:26" ht="15" thickBot="1">
+    <row r="78" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z78" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="26:26" ht="15" thickBot="1">
+    <row r="79" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z79" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="26:26" ht="15" thickBot="1">
+    <row r="80" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z80" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="26:26" ht="15" thickBot="1">
+    <row r="81" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z81" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="26:26" ht="15" thickBot="1">
+    <row r="82" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z82" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="26:26" ht="15" thickBot="1">
+    <row r="83" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z83" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="26:26" ht="15" thickBot="1">
+    <row r="84" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z84" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="26:26" ht="15" thickBot="1">
+    <row r="85" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z85" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="26:26" ht="15" thickBot="1">
+    <row r="86" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z86" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="26:26" ht="15" thickBot="1">
+    <row r="87" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z87" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="26:26" ht="15" thickBot="1">
+    <row r="88" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z88" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="26:26" ht="15" thickBot="1">
+    <row r="89" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z89" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="90" spans="26:26" ht="15" thickBot="1">
+    <row r="90" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z90" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="91" spans="26:26" ht="15" thickBot="1">
+    <row r="91" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z91" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="26:26" ht="15" thickBot="1">
+    <row r="92" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z92" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="26:26" ht="15" thickBot="1">
+    <row r="93" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z93" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="26:26" ht="15" thickBot="1">
+    <row r="94" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z94" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="26:26" ht="15" thickBot="1">
+    <row r="95" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z95" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="26:26" ht="15" thickBot="1">
+    <row r="96" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z96" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="26:26" ht="15" thickBot="1">
+    <row r="97" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z97" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="26:26" ht="15" thickBot="1">
+    <row r="98" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z98" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="26:26" ht="15" thickBot="1">
+    <row r="99" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z99" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="26:26" ht="15" thickBot="1">
+    <row r="100" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z100" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="26:26" ht="15" thickBot="1">
+    <row r="101" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z101" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="26:26" ht="15" thickBot="1">
+    <row r="102" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z102" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="26:26" ht="15" thickBot="1">
+    <row r="103" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z103" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="26:26" ht="15" thickBot="1">
+    <row r="104" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z104" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="26:26" ht="15" thickBot="1">
+    <row r="105" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z105" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="26:26" ht="15" thickBot="1">
+    <row r="106" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z106" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="26:26" ht="15" thickBot="1">
+    <row r="107" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z107" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="26:26" ht="15" thickBot="1">
+    <row r="108" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z108" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="26:26" ht="15" thickBot="1">
+    <row r="109" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z109" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="26:26" ht="15" thickBot="1">
+    <row r="110" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z110" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="26:26" ht="15" thickBot="1">
+    <row r="111" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z111" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="26:26" ht="15" thickBot="1">
+    <row r="112" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z112" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="26:26" ht="15" thickBot="1">
+    <row r="113" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z113" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="26:26" ht="15" thickBot="1">
+    <row r="114" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z114" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="26:26" ht="15" thickBot="1">
+    <row r="115" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z115" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="26:26" ht="15" thickBot="1">
+    <row r="116" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z116" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="26:26" ht="15" thickBot="1">
+    <row r="117" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z117" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="26:26" ht="15" thickBot="1">
+    <row r="118" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z118" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="26:26" ht="15" thickBot="1">
+    <row r="119" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z119" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="26:26" ht="15" thickBot="1">
+    <row r="120" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z120" s="20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="26:26" ht="15" thickBot="1">
+    <row r="121" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z121" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="26:26" ht="15" thickBot="1">
+    <row r="122" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z122" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="26:26" ht="15" thickBot="1">
+    <row r="123" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z123" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="26:26" ht="15" thickBot="1">
+    <row r="124" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z124" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="26:26" ht="15" thickBot="1">
+    <row r="125" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z125" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="26:26" ht="15" thickBot="1">
+    <row r="126" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z126" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="26:26" ht="15" thickBot="1">
+    <row r="127" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z127" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="26:26" ht="15" thickBot="1">
+    <row r="128" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z128" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="26:26" ht="15" thickBot="1">
+    <row r="129" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z129" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="26:26" ht="15" thickBot="1">
+    <row r="130" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z130" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="26:26" ht="15" thickBot="1">
+    <row r="131" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z131" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="26:26" ht="15" thickBot="1">
+    <row r="132" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z132" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="26:26" ht="15" thickBot="1">
+    <row r="133" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z133" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="26:26" ht="15" thickBot="1">
+    <row r="134" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z134" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="26:26" ht="15" thickBot="1">
+    <row r="135" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z135" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="26:26" ht="15" thickBot="1">
+    <row r="136" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z136" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="26:26" ht="15" thickBot="1">
+    <row r="137" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z137" s="20" t="s">
         <v>186</v>
       </c>
@@ -2310,13 +2496,13 @@
       <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2483,4 +2669,388 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="27">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="27">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="M6" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="M10" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="M11" s="27">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="232">
   <si>
     <t>Execution</t>
   </si>
@@ -107,27 +107,6 @@
     <t>DATA_SOCIAL</t>
   </si>
   <si>
-    <t>Voice_Roaming - Local_Etisalat</t>
-  </si>
-  <si>
-    <t>Voice_Roaming - International_DU</t>
-  </si>
-  <si>
-    <t>Voice_Roaming - International_Other</t>
-  </si>
-  <si>
-    <t>Voice_Regular - International_Other</t>
-  </si>
-  <si>
-    <t>Voice_Regular - International_DU</t>
-  </si>
-  <si>
-    <t>Voice_Regular - Etisalat</t>
-  </si>
-  <si>
-    <t>Voice_Regular - Local_Du_Direct</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -681,6 +660,57 @@
   </si>
   <si>
     <t>device2</t>
+  </si>
+  <si>
+    <t>Du-National calls: VOICE_NAT</t>
+  </si>
+  <si>
+    <t>Du-National calls: VOICE_NAT_OFF</t>
+  </si>
+  <si>
+    <t>Du-National calls: VOICE_NAT_WK</t>
+  </si>
+  <si>
+    <t>Du-National calls: VOICE_NAT_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-International calls: VOICE_INT_IDD</t>
+  </si>
+  <si>
+    <t>Du-International calls: VOICE_INT_IDD_OFF</t>
+  </si>
+  <si>
+    <t>Du-International calls: VOICE_INT_IDD_WK</t>
+  </si>
+  <si>
+    <t>Du-International calls: VOICE_INT_IDD_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-du calls: VOICE_DU</t>
+  </si>
+  <si>
+    <t>Du-du calls: VOICE_DU_OFF</t>
+  </si>
+  <si>
+    <t>Du-du calls: VOICE_DU_WK</t>
+  </si>
+  <si>
+    <t>Du-du calls: VOICE_DU_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-CUG calls: VOICE_DU_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls: VOICE_DU_OFF_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls: VOICE_DU_WK_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls: VOICE_DU_OFF_WK_CUG</t>
+  </si>
+  <si>
+    <t>Roaming calls: VOICE_INT_ROAM</t>
   </si>
 </sst>
 </file>
@@ -827,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -868,6 +898,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,7 +1209,7 @@
   <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1199,7 +1233,7 @@
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="17.54296875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="27.90625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="41.7265625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
@@ -1215,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1227,55 +1261,55 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1288,26 +1322,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="8"/>
@@ -1317,7 +1351,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="10"/>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>27</v>
@@ -1328,13 +1362,13 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1343,7 +1377,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="15"/>
@@ -1355,17 +1389,15 @@
       <c r="N4" s="2"/>
       <c r="O4" s="10"/>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="U4" s="1"/>
       <c r="V4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1379,32 +1411,32 @@
         <v>17</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="10"/>
       <c r="I5" s="15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J5" s="8">
         <v>20</v>
@@ -1418,36 +1450,34 @@
         <v>12</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="U5" s="7"/>
       <c r="V5" s="13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -1456,17 +1486,17 @@
         <v>24</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="10"/>
       <c r="I6" s="15"/>
       <c r="J6" s="8"/>
       <c r="K6" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M6" s="2">
         <v>2</v>
@@ -1477,45 +1507,43 @@
         <v>14</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="U6" s="7"/>
       <c r="V6" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="10"/>
@@ -1528,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>16</v>
@@ -1536,34 +1564,32 @@
       <c r="T7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="U7" s="7"/>
       <c r="W7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="15"/>
@@ -1577,34 +1603,32 @@
       <c r="T8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="U8" s="7"/>
       <c r="Z8" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1614,660 +1638,709 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="10"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:26">
       <c r="T10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="U10" s="7"/>
       <c r="Z10" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="T11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U11" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U11" s="7"/>
       <c r="Z11" s="17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="U12" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="U12" s="7"/>
       <c r="Z12" s="17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="Z13" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="U14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z14" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="U15" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z15" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="U16" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z16" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="21:26">
+      <c r="U17" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z17" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="21:26" ht="15" thickBot="1">
+      <c r="U18" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z18" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="21:26" ht="15" thickBot="1">
+      <c r="U19" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z19" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="21:26" ht="15" thickBot="1">
+      <c r="U20" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z20" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="Z14" s="17" t="s">
+    <row r="21" spans="21:26" ht="15" thickBot="1">
+      <c r="U21" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z21" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="Z15" s="17" t="s">
+    <row r="22" spans="21:26" ht="15" thickBot="1">
+      <c r="U22" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z22" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
-      <c r="Z16" s="17" t="s">
+    <row r="23" spans="21:26" ht="15" thickBot="1">
+      <c r="U23" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z23" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="26:26">
-      <c r="Z17" s="17" t="s">
+    <row r="24" spans="21:26" ht="15" thickBot="1">
+      <c r="U24" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z24" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="26:26" ht="15" thickBot="1">
-      <c r="Z18" s="17" t="s">
+    <row r="25" spans="21:26" ht="15" thickBot="1">
+      <c r="U25" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z25" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="26:26" ht="15" thickBot="1">
-      <c r="Z19" s="18" t="s">
+    <row r="26" spans="21:26" ht="15" thickBot="1">
+      <c r="U26" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z26" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="26:26" ht="15" thickBot="1">
-      <c r="Z20" s="19" t="s">
+    <row r="27" spans="21:26" ht="15" thickBot="1">
+      <c r="U27" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z27" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="26:26" ht="15" thickBot="1">
-      <c r="Z21" s="19" t="s">
+    <row r="28" spans="21:26" ht="15" thickBot="1">
+      <c r="U28" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z28" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="26:26" ht="15" thickBot="1">
-      <c r="Z22" s="19" t="s">
+    <row r="29" spans="21:26" ht="15" thickBot="1">
+      <c r="U29" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z29" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="26:26" ht="15" thickBot="1">
-      <c r="Z23" s="19" t="s">
+    <row r="30" spans="21:26" ht="15" thickBot="1">
+      <c r="U30" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z30" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="26:26" ht="15" thickBot="1">
-      <c r="Z24" s="19" t="s">
+    <row r="31" spans="21:26" ht="15" thickBot="1">
+      <c r="U31" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z31" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="26:26" ht="15" thickBot="1">
-      <c r="Z25" s="19" t="s">
+    <row r="32" spans="21:26" ht="15" thickBot="1">
+      <c r="Z32" s="20" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="26:26" ht="15" thickBot="1">
-      <c r="Z26" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="26:26" ht="15" thickBot="1">
-      <c r="Z27" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="26:26" ht="15" thickBot="1">
-      <c r="Z28" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="26:26" ht="15" thickBot="1">
-      <c r="Z29" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="26:26" ht="15" thickBot="1">
-      <c r="Z30" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="26:26" ht="15" thickBot="1">
-      <c r="Z31" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="26:26" ht="15" thickBot="1">
-      <c r="Z32" s="20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="26:26" ht="15" thickBot="1">
       <c r="Z33" s="20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="26:26" ht="15" thickBot="1">
       <c r="Z34" s="20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="26:26" ht="15" thickBot="1">
       <c r="Z35" s="20" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="26:26" ht="15" thickBot="1">
       <c r="Z36" s="20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="26:26" ht="15" thickBot="1">
       <c r="Z37" s="20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="26:26" ht="15" thickBot="1">
       <c r="Z38" s="20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="26:26" ht="15" thickBot="1">
       <c r="Z39" s="20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="26:26" ht="15" thickBot="1">
       <c r="Z40" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="26:26" ht="15" thickBot="1">
       <c r="Z41" s="20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="26:26" ht="15" thickBot="1">
       <c r="Z42" s="20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="26:26" ht="15" thickBot="1">
       <c r="Z43" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="26:26" ht="15" thickBot="1">
       <c r="Z44" s="20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="26:26" ht="15" thickBot="1">
       <c r="Z45" s="20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="26:26" ht="15" thickBot="1">
       <c r="Z46" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="26:26" ht="15" thickBot="1">
       <c r="Z47" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="26:26" ht="15" thickBot="1">
       <c r="Z48" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="26:26" ht="15" thickBot="1">
       <c r="Z49" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="26:26" ht="15" thickBot="1">
       <c r="Z50" s="20" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="26:26" ht="15" thickBot="1">
       <c r="Z51" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="26:26" ht="15" thickBot="1">
       <c r="Z52" s="20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="26:26" ht="15" thickBot="1">
       <c r="Z53" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="26:26" ht="15" thickBot="1">
       <c r="Z54" s="20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="26:26" ht="15" thickBot="1">
       <c r="Z55" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="26:26" ht="15" thickBot="1">
       <c r="Z56" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="26:26" ht="15" thickBot="1">
       <c r="Z57" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="26:26" ht="15" thickBot="1">
       <c r="Z58" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="26:26" ht="15" thickBot="1">
       <c r="Z59" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="26:26" ht="15" thickBot="1">
       <c r="Z60" s="20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="26:26" ht="15" thickBot="1">
       <c r="Z61" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="26:26" ht="15" thickBot="1">
       <c r="Z62" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="26:26" ht="15" thickBot="1">
       <c r="Z63" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="26:26" ht="15" thickBot="1">
       <c r="Z64" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="26:26" ht="15" thickBot="1">
       <c r="Z65" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="26:26" ht="15" thickBot="1">
       <c r="Z66" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="26:26" ht="15" thickBot="1">
       <c r="Z67" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="26:26" ht="15" thickBot="1">
       <c r="Z68" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="26:26" ht="15" thickBot="1">
       <c r="Z69" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="26:26" ht="15" thickBot="1">
       <c r="Z70" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="26:26" ht="15" thickBot="1">
       <c r="Z71" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="26:26" ht="15" thickBot="1">
       <c r="Z72" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="26:26" ht="15" thickBot="1">
       <c r="Z73" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="26:26" ht="15" thickBot="1">
       <c r="Z74" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="26:26" ht="15" thickBot="1">
       <c r="Z75" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="26:26" ht="15" thickBot="1">
       <c r="Z76" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="26:26" ht="15" thickBot="1">
       <c r="Z77" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="26:26" ht="15" thickBot="1">
       <c r="Z78" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="26:26" ht="15" thickBot="1">
       <c r="Z79" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="26:26" ht="15" thickBot="1">
       <c r="Z80" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="26:26" ht="15" thickBot="1">
       <c r="Z81" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="26:26" ht="15" thickBot="1">
       <c r="Z82" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="26:26" ht="15" thickBot="1">
       <c r="Z83" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="26:26" ht="15" thickBot="1">
       <c r="Z84" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="26:26" ht="15" thickBot="1">
       <c r="Z85" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="26:26" ht="15" thickBot="1">
       <c r="Z86" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="26:26" ht="15" thickBot="1">
       <c r="Z87" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="26:26" ht="15" thickBot="1">
       <c r="Z88" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="26:26" ht="15" thickBot="1">
       <c r="Z89" s="20" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="26:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="26:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="26:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="26:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="26:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="26:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="26:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +2358,7 @@
       <formula1>$R$3:$R$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>$U$5:$U$12</formula1>
+      <formula1>$U$15:$U$31</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>$T$4:$T$11</formula1>
@@ -2321,162 +2394,162 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F2" s="22">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F3" s="22">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F4" s="22">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F5" s="22">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F6" s="22">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F7" s="22">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F8" s="22">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="272">
   <si>
     <t>Execution</t>
   </si>
@@ -696,145 +696,142 @@
     <t>TestCase_ID</t>
   </si>
   <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>GetAccountDetails</t>
+  </si>
+  <si>
+    <t>DeleteOffer</t>
+  </si>
+  <si>
+    <t>UpdateOffer</t>
+  </si>
+  <si>
+    <t>UpdateDA</t>
+  </si>
+  <si>
+    <t>DeleteDA</t>
+  </si>
+  <si>
+    <t>GetBalanceAndDate</t>
+  </si>
+  <si>
+    <t>AddPAM</t>
+  </si>
+  <si>
+    <t>ReduceDA</t>
+  </si>
+  <si>
+    <t>AddDifferentDA</t>
+  </si>
+  <si>
+    <t>Parameter1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Parameter2</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Parameter3</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Parameter4</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Parameter5</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Parameter6</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Parameter7</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Parameter8</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Parameter9</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Parameter10</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>subscriberNumber</t>
+  </si>
+  <si>
+    <t>offerID</t>
+  </si>
+  <si>
+    <t>transactionCurrency</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID</t>
+  </si>
+  <si>
+    <t>adjustmentAmountRelative</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnitType</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>pamServiceID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pamClassID</t>
+  </si>
+  <si>
+    <t>scheduleID</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>TC_009</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>GetAccountDetails</t>
-  </si>
-  <si>
-    <t>DeleteOffer</t>
-  </si>
-  <si>
-    <t>UpdateOffer</t>
-  </si>
-  <si>
-    <t>UpdateDA</t>
-  </si>
-  <si>
-    <t>DeleteDA</t>
-  </si>
-  <si>
-    <t>GetBalanceAndDate</t>
-  </si>
-  <si>
-    <t>AddPAM</t>
-  </si>
-  <si>
-    <t>ReduceDA</t>
-  </si>
-  <si>
-    <t>AddDifferentDA</t>
-  </si>
-  <si>
-    <t>Parameter1</t>
-  </si>
-  <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Parameter2</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>Parameter3</t>
-  </si>
-  <si>
-    <t>Value3</t>
-  </si>
-  <si>
-    <t>Parameter4</t>
-  </si>
-  <si>
-    <t>Value4</t>
-  </si>
-  <si>
-    <t>Parameter5</t>
-  </si>
-  <si>
-    <t>Value5</t>
-  </si>
-  <si>
-    <t>Parameter6</t>
-  </si>
-  <si>
-    <t>Value6</t>
-  </si>
-  <si>
-    <t>Parameter7</t>
-  </si>
-  <si>
-    <t>Value7</t>
-  </si>
-  <si>
-    <t>Parameter8</t>
-  </si>
-  <si>
-    <t>Value8</t>
-  </si>
-  <si>
-    <t>Parameter9</t>
-  </si>
-  <si>
-    <t>Value9</t>
-  </si>
-  <si>
-    <t>Parameter10</t>
-  </si>
-  <si>
-    <t>Value10</t>
-  </si>
-  <si>
-    <t>subscriberNumber</t>
-  </si>
-  <si>
-    <t>offerID</t>
-  </si>
-  <si>
-    <t>transactionCurrency</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>dedicatedAccountID</t>
-  </si>
-  <si>
-    <t>adjustmentAmountRelative</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>dedicatedAccountUnitType</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>pamServiceID</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>pamClassID</t>
-  </si>
-  <si>
-    <t>scheduleID</t>
-  </si>
-  <si>
-    <t>-64</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2676,7 +2673,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A11"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2706,78 +2703,78 @@
         <v>222</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>256</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>46</v>
@@ -2785,7 +2782,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>6</v>
@@ -2794,7 +2791,7 @@
         <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>46</v>
@@ -2802,45 +2799,45 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G4" s="27">
-        <v>351</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" s="27">
         <v>351</v>
@@ -2848,40 +2845,40 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="25" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>261</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>262</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
       </c>
       <c r="J6" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="L6" s="26" t="s">
         <v>264</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>265</v>
       </c>
       <c r="M6" s="27">
         <v>1</v>
@@ -2889,39 +2886,39 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="25" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="25" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>46</v>
@@ -2935,34 +2932,34 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="25" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>268</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>269</v>
       </c>
       <c r="I9" s="27">
         <v>1</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K9" s="27">
         <v>1</v>
@@ -2970,40 +2967,40 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="C10" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>261</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>262</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M10" s="27">
         <v>1</v>
@@ -3011,40 +3008,40 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="25" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>261</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>262</v>
       </c>
       <c r="I11" s="27">
         <v>1</v>
       </c>
       <c r="J11" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="L11" s="26" t="s">
         <v>264</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>265</v>
       </c>
       <c r="M11" s="27">
         <v>1</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="233">
   <si>
     <t>Execution</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>Roaming calls: VOICE_INT_ROAM</t>
+  </si>
+  <si>
+    <t>TC_009</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1325,7 +1328,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -1365,7 +1368,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -1419,7 +1422,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -1474,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>214</v>
@@ -1531,7 +1534,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -1577,7 +1580,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
@@ -1613,23 +1616,21 @@
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="8"/>
@@ -1641,6 +1642,35 @@
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:26">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="10"/>
       <c r="T10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2348,26 +2378,26 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
       <formula1>$W$5:$W$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E9">
       <formula1>$Y$5:$Y$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
       <formula1>$S$4:$S$7</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
+      <formula1>$U$15:$U$31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E10">
+      <formula1>$V$5</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>$R$3:$R$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>$U$15:$U$31</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>$T$4:$T$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>$Z$5:$Z$137</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E9">
-      <formula1>$V$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2379,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
@@ -2429,7 +2459,7 @@
         <v>213</v>
       </c>
       <c r="F2" s="22">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2449,7 +2479,7 @@
         <v>195</v>
       </c>
       <c r="F3" s="22">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2469,7 +2499,7 @@
         <v>198</v>
       </c>
       <c r="F4" s="22">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2489,7 +2519,7 @@
         <v>198</v>
       </c>
       <c r="F5" s="22">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2509,7 +2539,7 @@
         <v>203</v>
       </c>
       <c r="F6" s="22">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2529,7 +2559,7 @@
         <v>207</v>
       </c>
       <c r="F7" s="22">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2549,7 +2579,7 @@
         <v>209</v>
       </c>
       <c r="F8" s="22">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2459,7 +2459,7 @@
         <v>213</v>
       </c>
       <c r="F2" s="22">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2479,7 +2479,7 @@
         <v>195</v>
       </c>
       <c r="F3" s="22">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2499,7 +2499,7 @@
         <v>198</v>
       </c>
       <c r="F4" s="22">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2519,7 +2519,7 @@
         <v>198</v>
       </c>
       <c r="F5" s="22">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2539,7 +2539,7 @@
         <v>203</v>
       </c>
       <c r="F6" s="22">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2559,7 +2559,7 @@
         <v>207</v>
       </c>
       <c r="F7" s="22">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2579,7 +2579,7 @@
         <v>209</v>
       </c>
       <c r="F8" s="22">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="234">
   <si>
     <t>Execution</t>
   </si>
@@ -662,58 +662,61 @@
     <t>device2</t>
   </si>
   <si>
-    <t>Du-National calls: VOICE_NAT</t>
-  </si>
-  <si>
-    <t>Du-National calls: VOICE_NAT_OFF</t>
-  </si>
-  <si>
-    <t>Du-National calls: VOICE_NAT_WK</t>
-  </si>
-  <si>
-    <t>Du-National calls: VOICE_NAT_OFF_WK</t>
-  </si>
-  <si>
-    <t>Du-International calls: VOICE_INT_IDD</t>
-  </si>
-  <si>
-    <t>Du-International calls: VOICE_INT_IDD_OFF</t>
-  </si>
-  <si>
-    <t>Du-International calls: VOICE_INT_IDD_WK</t>
-  </si>
-  <si>
-    <t>Du-International calls: VOICE_INT_IDD_OFF_WK</t>
-  </si>
-  <si>
     <t>Du-du calls: VOICE_DU</t>
   </si>
   <si>
-    <t>Du-du calls: VOICE_DU_OFF</t>
-  </si>
-  <si>
-    <t>Du-du calls: VOICE_DU_WK</t>
-  </si>
-  <si>
-    <t>Du-du calls: VOICE_DU_OFF_WK</t>
-  </si>
-  <si>
-    <t>Du-CUG calls: VOICE_DU_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG calls: VOICE_DU_OFF_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG calls: VOICE_DU_WK_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG calls: VOICE_DU_OFF_WK_CUG</t>
-  </si>
-  <si>
-    <t>Roaming calls: VOICE_INT_ROAM</t>
-  </si>
-  <si>
     <t>TC_009</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU_OFF</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU_WK</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_OFF_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_WK_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_OFF_WK_CUG</t>
+  </si>
+  <si>
+    <t>Roaming calls_VOICE_INT_ROAM</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT_OFF</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT_WK</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD_OFF</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD_WK</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD_OFF_WK</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1232,11 +1235,12 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.453125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="17.54296875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="41.7265625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="41.26953125" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
@@ -1431,7 +1435,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>39</v>
@@ -1646,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -1709,7 +1713,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="U15" s="24" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Z15" s="17" t="s">
         <v>60</v>
@@ -1717,7 +1721,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="U16" s="24" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Z16" s="17" t="s">
         <v>61</v>
@@ -1725,7 +1729,7 @@
     </row>
     <row r="17" spans="21:26">
       <c r="U17" s="24" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Z17" s="17" t="s">
         <v>62</v>
@@ -1733,7 +1737,7 @@
     </row>
     <row r="18" spans="21:26" ht="15" thickBot="1">
       <c r="U18" s="24" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Z18" s="17" t="s">
         <v>63</v>
@@ -1741,7 +1745,7 @@
     </row>
     <row r="19" spans="21:26" ht="15" thickBot="1">
       <c r="U19" s="24" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Z19" s="18" t="s">
         <v>64</v>
@@ -1749,7 +1753,7 @@
     </row>
     <row r="20" spans="21:26" ht="15" thickBot="1">
       <c r="U20" s="24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Z20" s="19" t="s">
         <v>65</v>
@@ -1757,7 +1761,7 @@
     </row>
     <row r="21" spans="21:26" ht="15" thickBot="1">
       <c r="U21" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Z21" s="19" t="s">
         <v>66</v>
@@ -1765,7 +1769,7 @@
     </row>
     <row r="22" spans="21:26" ht="15" thickBot="1">
       <c r="U22" s="25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Z22" s="19" t="s">
         <v>67</v>
@@ -1773,7 +1777,7 @@
     </row>
     <row r="23" spans="21:26" ht="15" thickBot="1">
       <c r="U23" s="24" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Z23" s="19" t="s">
         <v>68</v>
@@ -1781,7 +1785,7 @@
     </row>
     <row r="24" spans="21:26" ht="15" thickBot="1">
       <c r="U24" s="24" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Z24" s="19" t="s">
         <v>69</v>
@@ -1789,7 +1793,7 @@
     </row>
     <row r="25" spans="21:26" ht="15" thickBot="1">
       <c r="U25" s="24" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="Z25" s="19" t="s">
         <v>70</v>
@@ -1797,7 +1801,7 @@
     </row>
     <row r="26" spans="21:26" ht="15" thickBot="1">
       <c r="U26" s="24" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Z26" s="20" t="s">
         <v>71</v>
@@ -1805,7 +1809,7 @@
     </row>
     <row r="27" spans="21:26" ht="15" thickBot="1">
       <c r="U27" s="24" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Z27" s="20" t="s">
         <v>72</v>
@@ -1813,7 +1817,7 @@
     </row>
     <row r="28" spans="21:26" ht="15" thickBot="1">
       <c r="U28" s="24" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="Z28" s="20" t="s">
         <v>73</v>
@@ -1821,7 +1825,7 @@
     </row>
     <row r="29" spans="21:26" ht="15" thickBot="1">
       <c r="U29" s="24" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Z29" s="20" t="s">
         <v>74</v>
@@ -1829,7 +1833,7 @@
     </row>
     <row r="30" spans="21:26" ht="15" thickBot="1">
       <c r="U30" s="24" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Z30" s="20" t="s">
         <v>75</v>
@@ -1837,7 +1841,7 @@
     </row>
     <row r="31" spans="21:26" ht="15" thickBot="1">
       <c r="U31" s="24" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="Z31" s="20" t="s">
         <v>76</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1560,7 +1560,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>51</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="235">
   <si>
     <t>Execution</t>
   </si>
@@ -77,12 +77,6 @@
     <t>LIVE USAGE SMS</t>
   </si>
   <si>
-    <t>P2P TRANSFER</t>
-  </si>
-  <si>
-    <t>BALANCE ENQUIRES</t>
-  </si>
-  <si>
     <t>OPT_IN/OPT OUT</t>
   </si>
   <si>
@@ -659,64 +653,73 @@
     <t>/data/edr_enrichment/sftpcompleted</t>
   </si>
   <si>
-    <t>device2</t>
-  </si>
-  <si>
-    <t>Du-du calls: VOICE_DU</t>
-  </si>
-  <si>
     <t>TC_009</t>
   </si>
   <si>
-    <t>Du-du calls_VOICE_DU</t>
-  </si>
-  <si>
-    <t>Du-du calls_VOICE_DU_OFF</t>
-  </si>
-  <si>
-    <t>Du-du calls_VOICE_DU_WK</t>
-  </si>
-  <si>
-    <t>Du-du calls_VOICE_DU_OFF_WK</t>
-  </si>
-  <si>
-    <t>Du-CUG calls_VOICE_DU_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG calls_VOICE_DU_OFF_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG calls_VOICE_DU_WK_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG calls_VOICE_DU_OFF_WK_CUG</t>
-  </si>
-  <si>
-    <t>Roaming calls_VOICE_INT_ROAM</t>
-  </si>
-  <si>
-    <t>Du-National calls_VOICE_NAT</t>
-  </si>
-  <si>
-    <t>Du-National calls_VOICE_NAT_OFF</t>
-  </si>
-  <si>
-    <t>Du-National calls_VOICE_NAT_WK</t>
-  </si>
-  <si>
-    <t>Du-National calls_VOICE_NAT_OFF_WK</t>
-  </si>
-  <si>
-    <t>Du-International calls_VOICE_INT_IDD</t>
-  </si>
-  <si>
-    <t>Du-International calls_VOICE_INT_IDD_OFF</t>
-  </si>
-  <si>
-    <t>Du-International calls_VOICE_INT_IDD_WK</t>
-  </si>
-  <si>
-    <t>Du-International calls_VOICE_INT_IDD_OFF_WK</t>
+    <t>LIVE_USAGE_DATA</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_VOICE</t>
+  </si>
+  <si>
+    <t>P2P_TRANSFER</t>
+  </si>
+  <si>
+    <t>BALANCE_ENQUIRES</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_SMS</t>
+  </si>
+  <si>
+    <t>Du-du_calls_VOICE_DU</t>
+  </si>
+  <si>
+    <t>Du-du_calls_VOICE_DU_OFF</t>
+  </si>
+  <si>
+    <t>Du-du_calls_VOICE_DU_WK</t>
+  </si>
+  <si>
+    <t>Du-du_calls_VOICE_DU_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-CUG_calls_VOICE_DU_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG_calls_VOICE_DU_OFF_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG_calls_VOICE_DU_WK_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG_calls_VOICE_DU_OFF_WK_CUG</t>
+  </si>
+  <si>
+    <t>Roaming_calls_VOICE_INT_ROAM</t>
+  </si>
+  <si>
+    <t>Du-National_calls_VOICE_NAT</t>
+  </si>
+  <si>
+    <t>Du-National_calls_VOICE_NAT_OFF</t>
+  </si>
+  <si>
+    <t>Du-National_calls_VOICE_NAT_WK</t>
+  </si>
+  <si>
+    <t>Du-National_calls_VOICE_NAT_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-International_calls_VOICE_INT_IDD</t>
+  </si>
+  <si>
+    <t>Du-International_calls_VOICE_INT_IDD_OFF</t>
+  </si>
+  <si>
+    <t>Du-International_calls_VOICE_INT_IDD_WK</t>
+  </si>
+  <si>
+    <t>Du-International_calls_VOICE_INT_IDD_OFF_WK</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1239,13 +1242,13 @@
     <col min="17" max="17" width="20.453125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.54296875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="41.26953125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="38.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1256,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1268,55 +1271,55 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1329,26 +1332,26 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="8"/>
@@ -1358,33 +1361,33 @@
       <c r="N3" s="2"/>
       <c r="O3" s="10"/>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="15"/>
@@ -1396,54 +1399,54 @@
       <c r="N4" s="2"/>
       <c r="O4" s="10"/>
       <c r="R4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="10"/>
       <c r="I5" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J5" s="8">
         <v>20</v>
@@ -1457,53 +1460,53 @@
         <v>12</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="10"/>
       <c r="I6" s="15"/>
       <c r="J6" s="8"/>
       <c r="K6" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M6" s="2">
         <v>2</v>
@@ -1514,43 +1517,43 @@
         <v>14</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="10"/>
@@ -1563,40 +1566,40 @@
         <v>2</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="U7" s="7"/>
       <c r="W7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="15"/>
@@ -1608,31 +1611,31 @@
       <c r="N8" s="2"/>
       <c r="O8" s="10"/>
       <c r="T8" s="2" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="U8" s="7"/>
       <c r="Z8" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
@@ -1643,29 +1646,32 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="10"/>
+      <c r="T9" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -1676,31 +1682,31 @@
       <c r="N10" s="2"/>
       <c r="O10" s="10"/>
       <c r="T10" s="2" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="U10" s="7"/>
       <c r="Z10" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="T11" s="2" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="U11" s="7"/>
       <c r="Z11" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="U12" s="7"/>
       <c r="Z12" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="Z13" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1708,673 +1714,673 @@
         <v>18</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="U15" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z15" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="U16" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z16" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="21:26">
       <c r="U17" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z17" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="21:26" ht="15" thickBot="1">
       <c r="U18" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="21:26" ht="15" thickBot="1">
       <c r="U19" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="21:26" ht="15" thickBot="1">
       <c r="U20" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="21:26" ht="15" thickBot="1">
       <c r="U21" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z21" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="21:26" ht="15" thickBot="1">
       <c r="U22" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z22" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="21:26" ht="15" thickBot="1">
       <c r="U23" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="21:26" ht="15" thickBot="1">
       <c r="U24" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z24" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="21:26" ht="15" thickBot="1">
       <c r="U25" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z25" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="21:26" ht="15" thickBot="1">
       <c r="U26" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="21:26" ht="15" thickBot="1">
       <c r="U27" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z27" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="21:26" ht="15" thickBot="1">
       <c r="U28" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="21:26" ht="15" thickBot="1">
       <c r="U29" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z29" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="21:26" ht="15" thickBot="1">
       <c r="U30" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="21:26" ht="15" thickBot="1">
       <c r="U31" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z31" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="21:26" ht="15" thickBot="1">
       <c r="Z32" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="26:26" ht="15" thickBot="1">
       <c r="Z33" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="26:26" ht="15" thickBot="1">
       <c r="Z34" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="26:26" ht="15" thickBot="1">
       <c r="Z35" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="26:26" ht="15" thickBot="1">
       <c r="Z36" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="26:26" ht="15" thickBot="1">
       <c r="Z37" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="26:26" ht="15" thickBot="1">
       <c r="Z38" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="26:26" ht="15" thickBot="1">
       <c r="Z39" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="26:26" ht="15" thickBot="1">
       <c r="Z40" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="26:26" ht="15" thickBot="1">
       <c r="Z41" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="26:26" ht="15" thickBot="1">
       <c r="Z42" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="26:26" ht="15" thickBot="1">
       <c r="Z43" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="26:26" ht="15" thickBot="1">
       <c r="Z44" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="26:26" ht="15" thickBot="1">
       <c r="Z45" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="26:26" ht="15" thickBot="1">
       <c r="Z46" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="26:26" ht="15" thickBot="1">
       <c r="Z47" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="26:26" ht="15" thickBot="1">
       <c r="Z48" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="26:26" ht="15" thickBot="1">
       <c r="Z49" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="26:26" ht="15" thickBot="1">
       <c r="Z50" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="26:26" ht="15" thickBot="1">
       <c r="Z51" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="26:26" ht="15" thickBot="1">
       <c r="Z52" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="26:26" ht="15" thickBot="1">
       <c r="Z53" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="26:26" ht="15" thickBot="1">
       <c r="Z54" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="26:26" ht="15" thickBot="1">
       <c r="Z55" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="26:26" ht="15" thickBot="1">
       <c r="Z56" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="26:26" ht="15" thickBot="1">
       <c r="Z57" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="26:26" ht="15" thickBot="1">
       <c r="Z58" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="26:26" ht="15" thickBot="1">
       <c r="Z59" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="26:26" ht="15" thickBot="1">
       <c r="Z60" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="26:26" ht="15" thickBot="1">
       <c r="Z61" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="26:26" ht="15" thickBot="1">
       <c r="Z62" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="26:26" ht="15" thickBot="1">
       <c r="Z63" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="26:26" ht="15" thickBot="1">
       <c r="Z64" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="26:26" ht="15" thickBot="1">
       <c r="Z65" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="26:26" ht="15" thickBot="1">
       <c r="Z66" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="26:26" ht="15" thickBot="1">
       <c r="Z67" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="26:26" ht="15" thickBot="1">
       <c r="Z68" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="26:26" ht="15" thickBot="1">
       <c r="Z69" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="26:26" ht="15" thickBot="1">
       <c r="Z70" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="26:26" ht="15" thickBot="1">
       <c r="Z71" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="26:26" ht="15" thickBot="1">
       <c r="Z72" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="26:26" ht="15" thickBot="1">
       <c r="Z73" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="26:26" ht="15" thickBot="1">
       <c r="Z74" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="26:26" ht="15" thickBot="1">
       <c r="Z75" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="26:26" ht="15" thickBot="1">
       <c r="Z76" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="26:26" ht="15" thickBot="1">
       <c r="Z77" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="26:26" ht="15" thickBot="1">
       <c r="Z78" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="26:26" ht="15" thickBot="1">
       <c r="Z79" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="26:26" ht="15" thickBot="1">
       <c r="Z80" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="26:26" ht="15" thickBot="1">
       <c r="Z81" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="26:26" ht="15" thickBot="1">
       <c r="Z82" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="26:26" ht="15" thickBot="1">
       <c r="Z83" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="26:26" ht="15" thickBot="1">
       <c r="Z84" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="26:26" ht="15" thickBot="1">
       <c r="Z85" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="26:26" ht="15" thickBot="1">
       <c r="Z86" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="26:26" ht="15" thickBot="1">
       <c r="Z87" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="26:26" ht="15" thickBot="1">
       <c r="Z88" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="26:26" ht="15" thickBot="1">
       <c r="Z89" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="26:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="26:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="26:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="26:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="26:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="26:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="26:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2428,39 +2434,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
         <v>210</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>213</v>
       </c>
       <c r="F2" s="22">
         <v>30</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>195</v>
       </c>
       <c r="F3" s="22">
         <v>30</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="F4" s="22">
         <v>30</v>
@@ -2508,19 +2514,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F5" s="22">
         <v>30</v>
@@ -2528,19 +2534,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="F6" s="22">
         <v>30</v>
@@ -2548,19 +2554,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="22">
         <v>30</v>
@@ -2568,19 +2574,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F8" s="22">
         <v>30</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="232">
   <si>
     <t>Execution</t>
   </si>
@@ -657,9 +657,6 @@
   </si>
   <si>
     <t>/data/edr_enrichment/sftpcompleted</t>
-  </si>
-  <si>
-    <t>device2</t>
   </si>
   <si>
     <t>TC_009</t>
@@ -1212,7 +1209,7 @@
   <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1295,7 +1292,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1326,7 +1323,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1420,7 +1417,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -1432,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>39</v>
@@ -1475,13 +1472,13 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -1503,7 +1500,7 @@
         <v>183</v>
       </c>
       <c r="M6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="10"/>
@@ -1532,7 +1529,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1557,7 +1554,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>51</v>
@@ -1578,7 +1575,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -1614,7 +1611,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1644,10 +1641,10 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -1710,7 +1707,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="U15" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z15" s="17" t="s">
         <v>60</v>
@@ -1718,7 +1715,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="U16" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z16" s="17" t="s">
         <v>61</v>
@@ -1726,7 +1723,7 @@
     </row>
     <row r="17" spans="21:26">
       <c r="U17" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z17" s="17" t="s">
         <v>62</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="18" spans="21:26" ht="15" thickBot="1">
       <c r="U18" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z18" s="17" t="s">
         <v>63</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="19" spans="21:26" ht="15" thickBot="1">
       <c r="U19" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z19" s="18" t="s">
         <v>64</v>
@@ -1750,7 +1747,7 @@
     </row>
     <row r="20" spans="21:26" ht="15" thickBot="1">
       <c r="U20" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z20" s="19" t="s">
         <v>65</v>
@@ -1758,7 +1755,7 @@
     </row>
     <row r="21" spans="21:26" ht="15" thickBot="1">
       <c r="U21" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z21" s="19" t="s">
         <v>66</v>
@@ -1766,7 +1763,7 @@
     </row>
     <row r="22" spans="21:26" ht="15" thickBot="1">
       <c r="U22" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Z22" s="19" t="s">
         <v>67</v>
@@ -1774,7 +1771,7 @@
     </row>
     <row r="23" spans="21:26" ht="15" thickBot="1">
       <c r="U23" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Z23" s="19" t="s">
         <v>68</v>
@@ -1782,7 +1779,7 @@
     </row>
     <row r="24" spans="21:26" ht="15" thickBot="1">
       <c r="U24" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z24" s="19" t="s">
         <v>69</v>
@@ -1790,7 +1787,7 @@
     </row>
     <row r="25" spans="21:26" ht="15" thickBot="1">
       <c r="U25" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z25" s="19" t="s">
         <v>70</v>
@@ -1798,7 +1795,7 @@
     </row>
     <row r="26" spans="21:26" ht="15" thickBot="1">
       <c r="U26" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Z26" s="20" t="s">
         <v>71</v>
@@ -1806,7 +1803,7 @@
     </row>
     <row r="27" spans="21:26" ht="15" thickBot="1">
       <c r="U27" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z27" s="20" t="s">
         <v>72</v>
@@ -1814,7 +1811,7 @@
     </row>
     <row r="28" spans="21:26" ht="15" thickBot="1">
       <c r="U28" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z28" s="20" t="s">
         <v>73</v>
@@ -1822,7 +1819,7 @@
     </row>
     <row r="29" spans="21:26" ht="15" thickBot="1">
       <c r="U29" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z29" s="20" t="s">
         <v>74</v>
@@ -1830,7 +1827,7 @@
     </row>
     <row r="30" spans="21:26" ht="15" thickBot="1">
       <c r="U30" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Z30" s="20" t="s">
         <v>75</v>
@@ -1838,7 +1835,7 @@
     </row>
     <row r="31" spans="21:26" ht="15" thickBot="1">
       <c r="U31" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z31" s="20" t="s">
         <v>76</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -838,7 +838,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,8 +898,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -927,12 +934,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1047,10 +1048,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2670,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2693,10 +2696,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>225</v>
       </c>
       <c r="C1" s="24" t="s">
@@ -2764,10 +2767,10 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2779,12 +2782,14 @@
       <c r="E2" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="G2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -2796,12 +2801,14 @@
       <c r="E3" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="G3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -2813,18 +2820,19 @@
       <c r="E4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>258</v>
       </c>
       <c r="G4" s="27">
         <v>1001</v>
       </c>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -2836,18 +2844,19 @@
       <c r="E5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>258</v>
       </c>
       <c r="G5" s="27">
         <v>351</v>
       </c>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -2859,25 +2868,25 @@
       <c r="E6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>259</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>261</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="25" t="s">
         <v>264</v>
       </c>
       <c r="M6" s="27">
@@ -2885,10 +2894,10 @@
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -2900,18 +2909,19 @@
       <c r="E7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="28" t="s">
         <v>265</v>
       </c>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -2923,18 +2933,18 @@
       <c r="E8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2946,19 +2956,19 @@
       <c r="E9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="28">
         <v>1</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>269</v>
       </c>
       <c r="K9" s="27">
@@ -2966,10 +2976,10 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>226</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -2981,25 +2991,25 @@
       <c r="E10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>259</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>261</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="25" t="s">
         <v>264</v>
       </c>
       <c r="M10" s="27">
@@ -3007,47 +3017,904 @@
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>227</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="22" t="s">
         <v>257</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>261</v>
       </c>
       <c r="I11" s="27">
         <v>1</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="25" t="s">
         <v>264</v>
       </c>
       <c r="M11" s="27">
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="27"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="27"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+    </row>
+    <row r="81" spans="4:7">
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+    </row>
+    <row r="82" spans="4:7">
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+    </row>
+    <row r="83" spans="4:7">
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+    </row>
+    <row r="84" spans="4:7">
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+    </row>
+    <row r="85" spans="4:7">
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+    </row>
+    <row r="86" spans="4:7">
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+    </row>
+    <row r="87" spans="4:7">
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+    </row>
+    <row r="88" spans="4:7">
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+    </row>
+    <row r="89" spans="4:7">
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="255">
   <si>
     <t>Execution</t>
   </si>
@@ -32,9 +32,6 @@
     <t>MSISDN</t>
   </si>
   <si>
-    <t>TC_001</t>
-  </si>
-  <si>
     <t>TC_002</t>
   </si>
   <si>
@@ -77,6 +74,12 @@
     <t>LIVE USAGE SMS</t>
   </si>
   <si>
+    <t>P2P TRANSFER</t>
+  </si>
+  <si>
+    <t>BALANCE ENQUIRES</t>
+  </si>
+  <si>
     <t>OPT_IN/OPT OUT</t>
   </si>
   <si>
@@ -653,80 +656,137 @@
     <t>/data/edr_enrichment/sftpcompleted</t>
   </si>
   <si>
+    <t>device2</t>
+  </si>
+  <si>
     <t>TC_009</t>
   </si>
   <si>
+    <t>Du-du calls_VOICE_DU</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU_OFF</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU_WK</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_OFF_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_WK_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_OFF_WK_CUG</t>
+  </si>
+  <si>
+    <t>Roaming calls_VOICE_INT_ROAM</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT_OFF</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT_WK</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD_OFF</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD_WK</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD_OFF_WK</t>
+  </si>
+  <si>
+    <t>5GB+3GB Social AED210_OnceOff</t>
+  </si>
+  <si>
+    <t>RoamBndlASubWeekly</t>
+  </si>
+  <si>
+    <t>AED 2 Daily Social Bundle 120 MB</t>
+  </si>
+  <si>
+    <t>Rework-51</t>
+  </si>
+  <si>
+    <t>Rework-52</t>
+  </si>
+  <si>
+    <t>AED 3 Daily Social Bundle 200 MB</t>
+  </si>
+  <si>
+    <t>Rework_56</t>
+  </si>
+  <si>
+    <t>Rework_57</t>
+  </si>
+  <si>
+    <t>Rework_58</t>
+  </si>
+  <si>
+    <t>Rework_59</t>
+  </si>
+  <si>
     <t>LIVE_USAGE_DATA</t>
   </si>
   <si>
+    <t>P2P_TRANSFER</t>
+  </si>
+  <si>
+    <t>BALANCE_ENQUIRES</t>
+  </si>
+  <si>
     <t>LIVE_USAGE_VOICE</t>
   </si>
   <si>
-    <t>P2P_TRANSFER</t>
-  </si>
-  <si>
-    <t>BALANCE_ENQUIRES</t>
-  </si>
-  <si>
     <t>LIVE_USAGE_SMS</t>
   </si>
   <si>
-    <t>Du-du_calls_VOICE_DU</t>
-  </si>
-  <si>
-    <t>Du-du_calls_VOICE_DU_OFF</t>
-  </si>
-  <si>
-    <t>Du-du_calls_VOICE_DU_WK</t>
-  </si>
-  <si>
-    <t>Du-du_calls_VOICE_DU_OFF_WK</t>
-  </si>
-  <si>
-    <t>Du-CUG_calls_VOICE_DU_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG_calls_VOICE_DU_OFF_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG_calls_VOICE_DU_WK_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG_calls_VOICE_DU_OFF_WK_CUG</t>
-  </si>
-  <si>
-    <t>Roaming_calls_VOICE_INT_ROAM</t>
-  </si>
-  <si>
-    <t>Du-National_calls_VOICE_NAT</t>
-  </si>
-  <si>
-    <t>Du-National_calls_VOICE_NAT_OFF</t>
-  </si>
-  <si>
-    <t>Du-National_calls_VOICE_NAT_WK</t>
-  </si>
-  <si>
-    <t>Du-National_calls_VOICE_NAT_OFF_WK</t>
-  </si>
-  <si>
-    <t>Du-International_calls_VOICE_INT_IDD</t>
-  </si>
-  <si>
-    <t>Du-International_calls_VOICE_INT_IDD_OFF</t>
-  </si>
-  <si>
-    <t>Du-International_calls_VOICE_INT_IDD_WK</t>
-  </si>
-  <si>
-    <t>Du-International_calls_VOICE_INT_IDD_OFF_WK</t>
+    <t>Rework_63</t>
+  </si>
+  <si>
+    <t>Rework_64</t>
+  </si>
+  <si>
+    <t>Rework_65</t>
+  </si>
+  <si>
+    <t>MSISDN Moredata20</t>
+  </si>
+  <si>
+    <t>MSISDN Moredata50</t>
+  </si>
+  <si>
+    <t>MSISDN Moredata100</t>
+  </si>
+  <si>
+    <t>MSISDN Moredata200</t>
+  </si>
+  <si>
+    <t>MSISDN Moredata500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +830,59 @@
     <font>
       <sz val="9"/>
       <name val="Ericsson Hilda"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Ericsson Hilda"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -866,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -911,6 +1024,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,21 +1355,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z137"/>
+  <dimension ref="A1:Z157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.90625" customWidth="1"/>
@@ -1238,10 +1378,10 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1"/>
     <col min="17" max="17" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="41.26953125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
@@ -1259,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1271,31 +1411,31 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="P1" s="16"/>
     </row>
@@ -1304,22 +1444,22 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1330,29 +1470,27 @@
       <c r="N2" s="2"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" s="22" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="15" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="8"/>
       <c r="K3" s="10"/>
@@ -1360,36 +1498,54 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="10"/>
-      <c r="R3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="4" t="s">
+      <c r="R3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="W3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="22" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="8"/>
@@ -1398,1016 +1554,1778 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="10"/>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="T4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="U4" s="7"/>
+      <c r="Z4" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="22" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="8">
-        <v>20</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="10"/>
-      <c r="S5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+    </row>
+    <row r="6" spans="1:26" s="22" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M6" s="2">
-        <v>2</v>
-      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="10"/>
+      <c r="R6" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="22" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="14" t="s">
+      <c r="E7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="8"/>
       <c r="K7" s="10"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2">
+      <c r="N7" s="2"/>
+      <c r="O7" s="10"/>
+      <c r="T7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="Z7" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="35" customFormat="1">
+      <c r="A8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M8" s="31">
+        <v>1</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="32"/>
+      <c r="S8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="40"/>
+      <c r="V8" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="35" customFormat="1">
+      <c r="A9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M9" s="31">
+        <v>1</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="S9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="40"/>
+      <c r="V9" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="35" customFormat="1">
+      <c r="A10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" s="31">
+        <v>1</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+      <c r="S10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="40"/>
+      <c r="V10" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="35" customFormat="1">
+      <c r="A11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="M11" s="31">
+        <v>1</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="S11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="40"/>
+      <c r="V11" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="35" customFormat="1">
+      <c r="A12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M12" s="31">
+        <v>1</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="S12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="40"/>
+      <c r="V12" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="W12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="X12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z12" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="30" customFormat="1">
+      <c r="A13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+    </row>
+    <row r="14" spans="1:26" s="35" customFormat="1">
+      <c r="A14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="R14" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="30" customFormat="1">
+      <c r="A15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" spans="1:26" s="35" customFormat="1">
+      <c r="A16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="R16" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="X16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z16" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="30" customFormat="1">
+      <c r="A17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" spans="1:26" s="35" customFormat="1">
+      <c r="A18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32"/>
+      <c r="R18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="X18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z18" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" hidden="1">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="10"/>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" hidden="1">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="10"/>
+      <c r="R20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" hidden="1">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="8">
+        <v>20</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="10"/>
+      <c r="S21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U21" s="7"/>
+      <c r="V21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z21" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" hidden="1">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" s="3" t="s">
+      <c r="N22" s="2"/>
+      <c r="O22" s="10"/>
+      <c r="S22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="7"/>
+      <c r="V22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z22" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" hidden="1">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="W23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z23" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" hidden="1">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="10"/>
+      <c r="T24" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="U24" s="7"/>
+      <c r="Z24" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" hidden="1">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="U7" s="7"/>
-      <c r="W7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="10"/>
+      <c r="T25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="Z25" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" hidden="1">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="10"/>
+      <c r="T26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="Z26" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="T27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U27" s="7"/>
+      <c r="Z27" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="U28" s="7"/>
+      <c r="Z28" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="Z29" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="U30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z30" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="U31" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z31" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="U32" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="10"/>
-      <c r="T8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="U8" s="7"/>
-      <c r="Z8" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="10"/>
-      <c r="T9" s="2" t="s">
+      <c r="Z32" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="21:26">
+      <c r="U33" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="10"/>
-      <c r="T10" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="U10" s="7"/>
-      <c r="Z10" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="T11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="U11" s="7"/>
-      <c r="Z11" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="U12" s="7"/>
-      <c r="Z12" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="Z13" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="U14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="U15" s="24" t="s">
+      <c r="Z33" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="21:26" ht="15" thickBot="1">
+      <c r="U34" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="Z15" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="U16" s="24" t="s">
+      <c r="Z34" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="21:26" ht="15" thickBot="1">
+      <c r="U35" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="Z16" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="21:26">
-      <c r="U17" s="24" t="s">
+      <c r="Z35" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="21:26" ht="15" thickBot="1">
+      <c r="U36" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="Z17" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="21:26" ht="15" thickBot="1">
-      <c r="U18" s="24" t="s">
+      <c r="Z36" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="21:26" ht="15" thickBot="1">
+      <c r="U37" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="Z18" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="21:26" ht="15" thickBot="1">
-      <c r="U19" s="24" t="s">
+      <c r="Z37" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="21:26" ht="15" thickBot="1">
+      <c r="U38" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="Z19" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="21:26" ht="15" thickBot="1">
-      <c r="U20" s="24" t="s">
+      <c r="Z38" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="21:26" ht="15" thickBot="1">
+      <c r="U39" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="Z20" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="21:26" ht="15" thickBot="1">
-      <c r="U21" s="24" t="s">
+      <c r="Z39" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="21:26" ht="15" thickBot="1">
+      <c r="U40" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="Z21" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="21:26" ht="15" thickBot="1">
-      <c r="U22" s="25" t="s">
+      <c r="Z40" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="21:26" ht="15" thickBot="1">
+      <c r="U41" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="Z22" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="21:26" ht="15" thickBot="1">
-      <c r="U23" s="24" t="s">
+      <c r="Z41" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="21:26" ht="15" thickBot="1">
+      <c r="U42" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="Z23" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="21:26" ht="15" thickBot="1">
-      <c r="U24" s="24" t="s">
+      <c r="Z42" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="21:26" ht="15" thickBot="1">
+      <c r="U43" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="Z24" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="21:26" ht="15" thickBot="1">
-      <c r="U25" s="24" t="s">
+      <c r="Z43" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="21:26" ht="15" thickBot="1">
+      <c r="U44" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="Z25" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="21:26" ht="15" thickBot="1">
-      <c r="U26" s="24" t="s">
+      <c r="Z44" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="21:26" ht="15" thickBot="1">
+      <c r="U45" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="Z26" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="21:26" ht="15" thickBot="1">
-      <c r="U27" s="24" t="s">
+      <c r="Z45" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="21:26" ht="15" thickBot="1">
+      <c r="U46" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="Z27" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="21:26" ht="15" thickBot="1">
-      <c r="U28" s="24" t="s">
+      <c r="Z46" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="21:26" ht="15" thickBot="1">
+      <c r="U47" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="Z28" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="21:26" ht="15" thickBot="1">
-      <c r="U29" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z29" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="21:26" ht="15" thickBot="1">
-      <c r="U30" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z30" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="21:26" ht="15" thickBot="1">
-      <c r="U31" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z31" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="21:26" ht="15" thickBot="1">
-      <c r="Z32" s="20" t="s">
+      <c r="Z47" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="26:26" ht="15" thickBot="1">
-      <c r="Z33" s="20" t="s">
+    <row r="48" spans="21:26" ht="15" thickBot="1">
+      <c r="Z48" s="20" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="26:26" ht="15" thickBot="1">
-      <c r="Z34" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="26:26" ht="15" thickBot="1">
-      <c r="Z35" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="26:26" ht="15" thickBot="1">
-      <c r="Z36" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="26:26" ht="15" thickBot="1">
-      <c r="Z37" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="26:26" ht="15" thickBot="1">
-      <c r="Z38" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="26:26" ht="15" thickBot="1">
-      <c r="Z39" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="26:26" ht="15" thickBot="1">
-      <c r="Z40" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="26:26" ht="15" thickBot="1">
-      <c r="Z41" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="26:26" ht="15" thickBot="1">
-      <c r="Z42" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="26:26" ht="15" thickBot="1">
-      <c r="Z43" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="26:26" ht="15" thickBot="1">
-      <c r="Z44" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="26:26" ht="15" thickBot="1">
-      <c r="Z45" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="26:26" ht="15" thickBot="1">
-      <c r="Z46" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="26:26" ht="15" thickBot="1">
-      <c r="Z47" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="26:26" ht="15" thickBot="1">
-      <c r="Z48" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49" spans="26:26" ht="15" thickBot="1">
       <c r="Z49" s="20" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="26:26" ht="15" thickBot="1">
       <c r="Z50" s="20" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="26:26" ht="15" thickBot="1">
       <c r="Z51" s="20" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="26:26" ht="15" thickBot="1">
       <c r="Z52" s="20" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="26:26" ht="15" thickBot="1">
       <c r="Z53" s="20" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="26:26" ht="15" thickBot="1">
       <c r="Z54" s="20" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="26:26" ht="15" thickBot="1">
       <c r="Z55" s="20" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="26:26" ht="15" thickBot="1">
       <c r="Z56" s="20" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="26:26" ht="15" thickBot="1">
       <c r="Z57" s="20" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="26:26" ht="15" thickBot="1">
       <c r="Z58" s="20" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="26:26" ht="15" thickBot="1">
       <c r="Z59" s="20" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="26:26" ht="15" thickBot="1">
       <c r="Z60" s="20" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="26:26" ht="15" thickBot="1">
       <c r="Z61" s="20" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="26:26" ht="15" thickBot="1">
       <c r="Z62" s="20" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="26:26" ht="15" thickBot="1">
       <c r="Z63" s="20" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="26:26" ht="15" thickBot="1">
       <c r="Z64" s="20" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="26:26" ht="15" thickBot="1">
       <c r="Z65" s="20" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="26:26" ht="15" thickBot="1">
       <c r="Z66" s="20" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="26:26" ht="15" thickBot="1">
       <c r="Z67" s="20" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="26:26" ht="15" thickBot="1">
       <c r="Z68" s="20" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="26:26" ht="15" thickBot="1">
       <c r="Z69" s="20" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="26:26" ht="15" thickBot="1">
       <c r="Z70" s="20" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="26:26" ht="15" thickBot="1">
       <c r="Z71" s="20" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="26:26" ht="15" thickBot="1">
       <c r="Z72" s="20" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="26:26" ht="15" thickBot="1">
       <c r="Z73" s="20" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="26:26" ht="15" thickBot="1">
       <c r="Z74" s="20" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="26:26" ht="15" thickBot="1">
       <c r="Z75" s="20" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="26:26" ht="15" thickBot="1">
       <c r="Z76" s="20" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="26:26" ht="15" thickBot="1">
       <c r="Z77" s="20" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="26:26" ht="15" thickBot="1">
       <c r="Z78" s="20" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="26:26" ht="15" thickBot="1">
       <c r="Z79" s="20" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="26:26" ht="15" thickBot="1">
       <c r="Z80" s="20" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="26:26" ht="15" thickBot="1">
       <c r="Z81" s="20" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="26:26" ht="15" thickBot="1">
       <c r="Z82" s="20" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="26:26" ht="15" thickBot="1">
       <c r="Z83" s="20" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="26:26" ht="15" thickBot="1">
       <c r="Z84" s="20" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="26:26" ht="15" thickBot="1">
       <c r="Z85" s="20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="26:26" ht="15" thickBot="1">
       <c r="Z86" s="20" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="26:26" ht="15" thickBot="1">
       <c r="Z87" s="20" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="26:26" ht="15" thickBot="1">
       <c r="Z88" s="20" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="26:26" ht="15" thickBot="1">
       <c r="Z89" s="20" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="26:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="26:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="26:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="26:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="26:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="26:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="26:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="26:26" ht="15" thickBot="1">
+      <c r="Z138" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="26:26" ht="15" thickBot="1">
+      <c r="Z139" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="26:26" ht="15" thickBot="1">
+      <c r="Z140" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="26:26" ht="15" thickBot="1">
+      <c r="Z141" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="26:26" ht="15" thickBot="1">
+      <c r="Z142" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="26:26" ht="15" thickBot="1">
+      <c r="Z143" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="26:26" ht="15" thickBot="1">
+      <c r="Z144" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="26:26" ht="15" thickBot="1">
+      <c r="Z145" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="26:26" ht="15" thickBot="1">
+      <c r="Z146" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="26:26" ht="15" thickBot="1">
+      <c r="Z147" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="26:26" ht="15" thickBot="1">
+      <c r="Z148" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="26:26" ht="15" thickBot="1">
+      <c r="Z149" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="26:26" ht="15" thickBot="1">
+      <c r="Z150" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="26:26" ht="15" thickBot="1">
+      <c r="Z151" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="26:26" ht="15" thickBot="1">
+      <c r="Z152" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="26:26" ht="15" thickBot="1">
+      <c r="Z153" s="20" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="26:26" ht="15" thickBot="1">
+      <c r="Z154" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="26:26" ht="15" thickBot="1">
+      <c r="Z155" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="26:26">
+      <c r="Z156" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="157" spans="26:26">
+      <c r="Z157" s="22" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>$W$5:$W$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E8:E12">
+      <formula1>$W$21:$W$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E9">
-      <formula1>$Y$5:$Y$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20 E3 E14 E25 E6 E16 E18">
+      <formula1>$Y$21:$Y$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>$S$4:$S$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19">
+      <formula1>$S$20:$S$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>$U$15:$U$31</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21">
+      <formula1>$U$31:$U$47</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E10">
-      <formula1>$V$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26 E15 E2 E7 E4:E5 E13 E17">
+      <formula1>$V$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$3:$R$4</formula1>
+      <formula1>$R$19:$R$20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$4:$T$11</formula1>
+      <formula1>$T$20:$T$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>$Z$5:$Z$137</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>$Z$21:$Z$157</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2434,39 +3352,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F2" s="22">
         <v>30</v>
@@ -2474,19 +3392,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F3" s="22">
         <v>30</v>
@@ -2494,19 +3412,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F4" s="22">
         <v>30</v>
@@ -2514,19 +3432,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="F5" s="22">
         <v>30</v>
@@ -2534,19 +3452,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F6" s="22">
         <v>30</v>
@@ -2554,19 +3472,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F7" s="22">
         <v>30</v>
@@ -2574,19 +3492,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F8" s="22">
         <v>30</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="273">
   <si>
     <t>Execution</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2676,7 +2679,7 @@
   <dimension ref="A1:W89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>6</v>
@@ -2806,7 +2809,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>7</v>
@@ -2830,7 +2833,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>8</v>
@@ -2848,13 +2851,13 @@
         <v>258</v>
       </c>
       <c r="G5" s="27">
-        <v>351</v>
+        <v>1001</v>
       </c>
       <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>9</v>
@@ -2895,7 +2898,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>11</v>
@@ -2919,7 +2922,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>13</v>
@@ -2942,7 +2945,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>15</v>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>226</v>
@@ -3018,7 +3021,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>227</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="273">
   <si>
     <t>Execution</t>
   </si>
@@ -780,6 +780,60 @@
   </si>
   <si>
     <t>MSISDN Moredata500</t>
+  </si>
+  <si>
+    <t>Kabayan  ChatnCall  Recurrent  daily bundle</t>
+  </si>
+  <si>
+    <t>Rework_72</t>
+  </si>
+  <si>
+    <t>Rework_77</t>
+  </si>
+  <si>
+    <t>Kabayan DataPack LifeStyle  Recurrent daily pack</t>
+  </si>
+  <si>
+    <t>Rework_81</t>
+  </si>
+  <si>
+    <t>Rework_82</t>
+  </si>
+  <si>
+    <t>Rework_83</t>
+  </si>
+  <si>
+    <t>Kabayan ChatnCall One day bundle</t>
+  </si>
+  <si>
+    <t>Kabayan DataPack LifeStyle One day Pack</t>
+  </si>
+  <si>
+    <t>Rework_85</t>
+  </si>
+  <si>
+    <t>Rework_86</t>
+  </si>
+  <si>
+    <t>Daily Saver Bundle</t>
+  </si>
+  <si>
+    <t>Daily Saver Bundle 60MB for AED 2</t>
+  </si>
+  <si>
+    <t>Rework_03_TS-02</t>
+  </si>
+  <si>
+    <t>Rework_03_TS-03</t>
+  </si>
+  <si>
+    <t>Rework_03_TS-04</t>
+  </si>
+  <si>
+    <t>Rework_04</t>
+  </si>
+  <si>
+    <t>Rework_22</t>
   </si>
 </sst>
 </file>
@@ -911,7 +965,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -975,11 +1029,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1049,6 +1114,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1355,21 +1423,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z157"/>
+  <dimension ref="A1:Z182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+      <selection activeCell="S1" sqref="S1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.90625" customWidth="1"/>
@@ -1380,15 +1448,15 @@
     <col min="15" max="15" width="20.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.54296875" customWidth="1"/>
     <col min="17" max="17" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7265625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="18.08984375" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="41.26953125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="41.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1470,9 +1538,9 @@
       <c r="N2" s="2"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:26" s="22" customFormat="1">
+    <row r="3" spans="1:26" s="22" customFormat="1" hidden="1">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>235</v>
@@ -1564,7 +1632,7 @@
     </row>
     <row r="5" spans="1:26" s="22" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>236</v>
@@ -1593,9 +1661,9 @@
       <c r="N5" s="2"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:26" s="22" customFormat="1">
+    <row r="6" spans="1:26" s="22" customFormat="1" hidden="1">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>236</v>
@@ -1686,7 +1754,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" s="35" customFormat="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -1743,7 +1811,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" s="35" customFormat="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -1800,7 +1868,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" s="35" customFormat="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -1857,7 +1925,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" s="35" customFormat="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -1914,7 +1982,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="35" customFormat="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -1971,7 +2039,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="30" customFormat="1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -2001,8 +2069,8 @@
       <c r="N13" s="26"/>
       <c r="O13" s="27"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:26" s="35" customFormat="1" hidden="1">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -2056,7 +2124,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="30" customFormat="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -2086,8 +2154,8 @@
       <c r="N15" s="26"/>
       <c r="O15" s="27"/>
     </row>
-    <row r="16" spans="1:26" s="35" customFormat="1">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:26" s="35" customFormat="1" hidden="1">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -2141,7 +2209,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" s="30" customFormat="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -2171,9 +2239,9 @@
       <c r="N17" s="26"/>
       <c r="O17" s="27"/>
     </row>
-    <row r="18" spans="1:26" s="35" customFormat="1">
-      <c r="A18" s="31" t="s">
-        <v>29</v>
+    <row r="18" spans="1:26" s="35" customFormat="1" hidden="1">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>249</v>
@@ -2225,352 +2293,272 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1">
+    <row r="19" spans="1:26" s="30" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="10"/>
-      <c r="R19" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" hidden="1">
+      <c r="D19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" spans="1:26" s="22" customFormat="1" hidden="1">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
+      <c r="B20" s="26" t="s">
+        <v>256</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="8"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="8">
+        <v>20</v>
+      </c>
       <c r="K20" s="10"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="10"/>
-      <c r="R20" t="s">
-        <v>30</v>
-      </c>
       <c r="S20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U20" s="7"/>
+      <c r="V20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="30" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:26" s="30" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" hidden="1">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="8">
-        <v>20</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="10"/>
-      <c r="S21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="13" t="s">
+      <c r="E22" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="W21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z21" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" hidden="1">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M22" s="2">
-        <v>2</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="10"/>
-      <c r="S22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" s="7"/>
-      <c r="V22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" hidden="1">
+      <c r="F22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:26" s="22" customFormat="1" hidden="1">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
+      <c r="B23" s="26" t="s">
+        <v>257</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>37</v>
+        <v>242</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="8"/>
       <c r="K23" s="10"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="10"/>
       <c r="T23" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="U23" s="7"/>
-      <c r="W23" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="Z23" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" hidden="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" s="30" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="10"/>
-      <c r="T24" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="U24" s="7"/>
-      <c r="Z24" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" hidden="1">
+      <c r="D24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:26" s="30" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="10"/>
-      <c r="T25" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="U25" s="7"/>
-      <c r="Z25" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" hidden="1">
+      <c r="D25" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:26" s="22" customFormat="1" hidden="1">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>214</v>
+      <c r="B26" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="G26" s="8"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="8"/>
@@ -2580,752 +2568,1485 @@
       <c r="N26" s="2"/>
       <c r="O26" s="10"/>
       <c r="T26" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="U26" s="7"/>
       <c r="Z26" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" s="30" customFormat="1">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:26" s="30" customFormat="1">
+      <c r="A28" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:26" s="30" customFormat="1">
+      <c r="A29" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="27"/>
+    </row>
+    <row r="30" spans="1:26" s="30" customFormat="1">
+      <c r="A30" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="27"/>
+    </row>
+    <row r="31" spans="1:26" s="30" customFormat="1">
+      <c r="A31" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:26" s="30" customFormat="1">
+      <c r="A32" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="27"/>
+    </row>
+    <row r="33" spans="1:26" s="30" customFormat="1">
+      <c r="A33" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27"/>
+    </row>
+    <row r="34" spans="1:26" s="30" customFormat="1">
+      <c r="A34" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
+    </row>
+    <row r="35" spans="1:26" s="30" customFormat="1">
+      <c r="A35" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
+    </row>
+    <row r="36" spans="1:26" s="30" customFormat="1">
+      <c r="A36" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="1:26" s="30" customFormat="1">
+      <c r="A37" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="27"/>
+    </row>
+    <row r="38" spans="1:26" hidden="1">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="10"/>
+      <c r="R38" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" hidden="1">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="10"/>
+      <c r="R39" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U39" s="1"/>
+      <c r="V39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" hidden="1">
+      <c r="A40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="8">
+        <v>20</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="10"/>
+      <c r="S40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U40" s="7"/>
+      <c r="V40" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X40" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z40" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" hidden="1">
+      <c r="A41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M41" s="2">
+        <v>2</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="10"/>
+      <c r="S41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U41" s="7"/>
+      <c r="V41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X41" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z41" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" hidden="1">
+      <c r="A42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="U42" s="7"/>
+      <c r="W42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z42" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" hidden="1">
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="10"/>
+      <c r="T43" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="U43" s="7"/>
+      <c r="Z43" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" hidden="1">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="10"/>
+      <c r="T44" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U44" s="7"/>
+      <c r="Z44" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" hidden="1">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="10"/>
+      <c r="T45" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="U45" s="7"/>
+      <c r="Z45" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
-      <c r="T27" s="2" t="s">
+    <row r="46" spans="1:26">
+      <c r="T46" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="U27" s="7"/>
-      <c r="Z27" s="17" t="s">
+      <c r="U46" s="7"/>
+      <c r="Z46" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
-      <c r="U28" s="7"/>
-      <c r="Z28" s="17" t="s">
+    <row r="47" spans="1:26">
+      <c r="U47" s="7"/>
+      <c r="Z47" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
-      <c r="Z29" s="17" t="s">
+    <row r="48" spans="1:26">
+      <c r="Z48" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
-      <c r="U30" s="1" t="s">
+    <row r="49" spans="21:26">
+      <c r="U49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z30" s="17" t="s">
+      <c r="Z49" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
-      <c r="U31" s="24" t="s">
+    <row r="50" spans="21:26">
+      <c r="U50" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="Z31" s="17" t="s">
+      <c r="Z50" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
-      <c r="U32" s="24" t="s">
+    <row r="51" spans="21:26">
+      <c r="U51" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="Z32" s="17" t="s">
+      <c r="Z51" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="21:26">
-      <c r="U33" s="24" t="s">
+    <row r="52" spans="21:26">
+      <c r="U52" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="Z33" s="17" t="s">
+      <c r="Z52" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="21:26" ht="15" thickBot="1">
-      <c r="U34" s="24" t="s">
+    <row r="53" spans="21:26" ht="15" thickBot="1">
+      <c r="U53" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="Z34" s="17" t="s">
+      <c r="Z53" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="21:26" ht="15" thickBot="1">
-      <c r="U35" s="24" t="s">
+    <row r="54" spans="21:26" ht="15" thickBot="1">
+      <c r="U54" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="Z35" s="18" t="s">
+      <c r="Z54" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="21:26" ht="15" thickBot="1">
-      <c r="U36" s="24" t="s">
+    <row r="55" spans="21:26" ht="15" thickBot="1">
+      <c r="U55" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="Z36" s="19" t="s">
+      <c r="Z55" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="21:26" ht="15" thickBot="1">
-      <c r="U37" s="24" t="s">
+    <row r="56" spans="21:26" ht="15" thickBot="1">
+      <c r="U56" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="Z37" s="19" t="s">
+      <c r="Z56" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="21:26" ht="15" thickBot="1">
-      <c r="U38" s="25" t="s">
+    <row r="57" spans="21:26" ht="15" thickBot="1">
+      <c r="U57" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="Z38" s="19" t="s">
+      <c r="Z57" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="21:26" ht="15" thickBot="1">
-      <c r="U39" s="24" t="s">
+    <row r="58" spans="21:26" ht="15" thickBot="1">
+      <c r="U58" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="Z39" s="19" t="s">
+      <c r="Z58" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="21:26" ht="15" thickBot="1">
-      <c r="U40" s="24" t="s">
+    <row r="59" spans="21:26" ht="15" thickBot="1">
+      <c r="U59" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="Z40" s="19" t="s">
+      <c r="Z59" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="21:26" ht="15" thickBot="1">
-      <c r="U41" s="24" t="s">
+    <row r="60" spans="21:26" ht="15" thickBot="1">
+      <c r="U60" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="Z41" s="19" t="s">
+      <c r="Z60" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="21:26" ht="15" thickBot="1">
-      <c r="U42" s="24" t="s">
+    <row r="61" spans="21:26" ht="15" thickBot="1">
+      <c r="U61" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="Z42" s="20" t="s">
+      <c r="Z61" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="21:26" ht="15" thickBot="1">
-      <c r="U43" s="24" t="s">
+    <row r="62" spans="21:26" ht="15" thickBot="1">
+      <c r="U62" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="Z43" s="20" t="s">
+      <c r="Z62" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="21:26" ht="15" thickBot="1">
-      <c r="U44" s="24" t="s">
+    <row r="63" spans="21:26" ht="15" thickBot="1">
+      <c r="U63" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="Z44" s="20" t="s">
+      <c r="Z63" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="21:26" ht="15" thickBot="1">
-      <c r="U45" s="24" t="s">
+    <row r="64" spans="21:26" ht="15" thickBot="1">
+      <c r="U64" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="Z45" s="20" t="s">
+      <c r="Z64" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="21:26" ht="15" thickBot="1">
-      <c r="U46" s="24" t="s">
+    <row r="65" spans="21:26" ht="15" thickBot="1">
+      <c r="U65" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="Z46" s="20" t="s">
+      <c r="Z65" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="21:26" ht="15" thickBot="1">
-      <c r="U47" s="24" t="s">
+    <row r="66" spans="21:26" ht="15" thickBot="1">
+      <c r="U66" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="Z47" s="20" t="s">
+      <c r="Z66" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="21:26" ht="15" thickBot="1">
-      <c r="Z48" s="20" t="s">
+    <row r="67" spans="21:26" ht="15" thickBot="1">
+      <c r="Z67" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="26:26" ht="15" thickBot="1">
-      <c r="Z49" s="20" t="s">
+    <row r="68" spans="21:26" ht="15" thickBot="1">
+      <c r="Z68" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="26:26" ht="15" thickBot="1">
-      <c r="Z50" s="20" t="s">
+    <row r="69" spans="21:26" ht="15" thickBot="1">
+      <c r="Z69" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="26:26" ht="15" thickBot="1">
-      <c r="Z51" s="20" t="s">
+    <row r="70" spans="21:26" ht="15" thickBot="1">
+      <c r="Z70" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="26:26" ht="15" thickBot="1">
-      <c r="Z52" s="20" t="s">
+    <row r="71" spans="21:26" ht="15" thickBot="1">
+      <c r="Z71" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="26:26" ht="15" thickBot="1">
-      <c r="Z53" s="20" t="s">
+    <row r="72" spans="21:26" ht="15" thickBot="1">
+      <c r="Z72" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="26:26" ht="15" thickBot="1">
-      <c r="Z54" s="20" t="s">
+    <row r="73" spans="21:26" ht="15" thickBot="1">
+      <c r="Z73" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="26:26" ht="15" thickBot="1">
-      <c r="Z55" s="20" t="s">
+    <row r="74" spans="21:26" ht="15" thickBot="1">
+      <c r="Z74" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="26:26" ht="15" thickBot="1">
-      <c r="Z56" s="20" t="s">
+    <row r="75" spans="21:26" ht="15" thickBot="1">
+      <c r="Z75" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="26:26" ht="15" thickBot="1">
-      <c r="Z57" s="20" t="s">
+    <row r="76" spans="21:26" ht="15" thickBot="1">
+      <c r="Z76" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="26:26" ht="15" thickBot="1">
-      <c r="Z58" s="20" t="s">
+    <row r="77" spans="21:26" ht="15" thickBot="1">
+      <c r="Z77" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="26:26" ht="15" thickBot="1">
-      <c r="Z59" s="20" t="s">
+    <row r="78" spans="21:26" ht="15" thickBot="1">
+      <c r="Z78" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="26:26" ht="15" thickBot="1">
-      <c r="Z60" s="20" t="s">
+    <row r="79" spans="21:26" ht="15" thickBot="1">
+      <c r="Z79" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="26:26" ht="15" thickBot="1">
-      <c r="Z61" s="20" t="s">
+    <row r="80" spans="21:26" ht="15" thickBot="1">
+      <c r="Z80" s="20" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="26:26" ht="15" thickBot="1">
-      <c r="Z62" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="26:26" ht="15" thickBot="1">
-      <c r="Z63" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="26:26" ht="15" thickBot="1">
-      <c r="Z64" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="26:26" ht="15" thickBot="1">
-      <c r="Z65" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="26:26" ht="15" thickBot="1">
-      <c r="Z66" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="26:26" ht="15" thickBot="1">
-      <c r="Z67" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="26:26" ht="15" thickBot="1">
-      <c r="Z68" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="26:26" ht="15" thickBot="1">
-      <c r="Z69" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="26:26" ht="15" thickBot="1">
-      <c r="Z70" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="26:26" ht="15" thickBot="1">
-      <c r="Z71" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="26:26" ht="15" thickBot="1">
-      <c r="Z72" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="26:26" ht="15" thickBot="1">
-      <c r="Z73" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="26:26" ht="15" thickBot="1">
-      <c r="Z74" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="26:26" ht="15" thickBot="1">
-      <c r="Z75" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="26:26" ht="15" thickBot="1">
-      <c r="Z76" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="26:26" ht="15" thickBot="1">
-      <c r="Z77" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="26:26" ht="15" thickBot="1">
-      <c r="Z78" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="26:26" ht="15" thickBot="1">
-      <c r="Z79" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="26:26" ht="15" thickBot="1">
-      <c r="Z80" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="81" spans="26:26" ht="15" thickBot="1">
       <c r="Z81" s="20" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="26:26" ht="15" thickBot="1">
       <c r="Z82" s="20" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="26:26" ht="15" thickBot="1">
       <c r="Z83" s="20" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="26:26" ht="15" thickBot="1">
       <c r="Z84" s="20" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="26:26" ht="15" thickBot="1">
       <c r="Z85" s="20" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="26:26" ht="15" thickBot="1">
       <c r="Z86" s="20" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="26:26" ht="15" thickBot="1">
       <c r="Z87" s="20" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="26:26" ht="15" thickBot="1">
       <c r="Z88" s="20" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="26:26" ht="15" thickBot="1">
       <c r="Z89" s="20" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="26:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="26:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="26:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="26:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="26:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="26:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="26:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="26:26" ht="15" thickBot="1">
       <c r="Z138" s="20" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="26:26" ht="15" thickBot="1">
       <c r="Z139" s="20" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="26:26" ht="15" thickBot="1">
       <c r="Z140" s="20" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="26:26" ht="15" thickBot="1">
       <c r="Z141" s="20" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="26:26" ht="15" thickBot="1">
       <c r="Z142" s="20" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="26:26" ht="15" thickBot="1">
       <c r="Z143" s="20" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="26:26" ht="15" thickBot="1">
       <c r="Z144" s="20" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="26:26" ht="15" thickBot="1">
       <c r="Z145" s="20" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="26:26" ht="15" thickBot="1">
       <c r="Z146" s="20" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="26:26" ht="15" thickBot="1">
       <c r="Z147" s="20" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="26:26" ht="15" thickBot="1">
       <c r="Z148" s="20" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="26:26" ht="15" thickBot="1">
       <c r="Z149" s="20" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="26:26" ht="15" thickBot="1">
       <c r="Z150" s="20" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="26:26" ht="15" thickBot="1">
       <c r="Z151" s="20" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="26:26" ht="15" thickBot="1">
       <c r="Z152" s="20" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="26:26" ht="15" thickBot="1">
       <c r="Z153" s="20" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="26:26" ht="15" thickBot="1">
       <c r="Z154" s="20" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="26:26" ht="15" thickBot="1">
       <c r="Z155" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156" spans="26:26" ht="15" thickBot="1">
+      <c r="Z156" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="26:26" ht="15" thickBot="1">
+      <c r="Z157" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="26:26" ht="15" thickBot="1">
+      <c r="Z158" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="26:26" ht="15" thickBot="1">
+      <c r="Z159" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="26:26" ht="15" thickBot="1">
+      <c r="Z160" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161" spans="26:26" ht="15" thickBot="1">
+      <c r="Z161" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="26:26" ht="15" thickBot="1">
+      <c r="Z162" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163" spans="26:26" ht="15" thickBot="1">
+      <c r="Z163" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="164" spans="26:26" ht="15" thickBot="1">
+      <c r="Z164" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="26:26" ht="15" thickBot="1">
+      <c r="Z165" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="26:26" ht="15" thickBot="1">
+      <c r="Z166" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="26:26" ht="15" thickBot="1">
+      <c r="Z167" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="26:26" ht="15" thickBot="1">
+      <c r="Z168" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="26:26" ht="15" thickBot="1">
+      <c r="Z169" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="26:26" ht="15" thickBot="1">
+      <c r="Z170" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="171" spans="26:26" ht="15" thickBot="1">
+      <c r="Z171" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="26:26" ht="15" thickBot="1">
+      <c r="Z172" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="173" spans="26:26" ht="15" thickBot="1">
+      <c r="Z173" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="26:26">
+      <c r="Z174" s="45" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="26:26">
-      <c r="Z156" s="22" t="s">
+    <row r="175" spans="26:26">
+      <c r="Z175" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="26:26">
-      <c r="Z157" s="22" t="s">
+    <row r="176" spans="26:26">
+      <c r="Z176" s="2" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="26:26">
+      <c r="Z177" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="26:26">
+      <c r="Z178" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="26:26">
+      <c r="Z179" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="180" spans="26:26">
+      <c r="Z180" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="26:26">
+      <c r="Z181" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="182" spans="26:26">
+      <c r="Z182" s="22" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E8:E12">
-      <formula1>$W$21:$W$23</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41 E8:E12">
+      <formula1>$W$40:$W$42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20 E3 E14 E25 E6 E16 E18">
-      <formula1>$Y$21:$Y$22</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39 E3 E16 E6 E44 E14 E18 E23 E26">
+      <formula1>$Y$40:$Y$41</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19">
-      <formula1>$S$20:$S$23</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38">
+      <formula1>$S$39:$S$42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21">
-      <formula1>$U$31:$U$47</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40 E20">
+      <formula1>$U$50:$U$66</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26 E15 E2 E7 E4:E5 E13 E17">
-      <formula1>$V$21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45 E19 E21:E22 E13 E4:E5 E7 E2 E15 E17 E24:E25 E27:E37">
+      <formula1>$V$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$19:$R$20</formula1>
+      <formula1>$R$38:$R$39</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$20:$T$27</formula1>
+      <formula1>$T$39:$T$46</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>$Z$21:$Z$157</formula1>
+      <formula1>$Z$40:$Z$182</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3338,7 +4059,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3387,7 +4108,7 @@
         <v>212</v>
       </c>
       <c r="F2" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3407,7 +4128,7 @@
         <v>194</v>
       </c>
       <c r="F3" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3427,7 +4148,7 @@
         <v>197</v>
       </c>
       <c r="F4" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3447,7 +4168,7 @@
         <v>197</v>
       </c>
       <c r="F5" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3467,7 +4188,7 @@
         <v>202</v>
       </c>
       <c r="F6" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3487,7 +4208,7 @@
         <v>206</v>
       </c>
       <c r="F7" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3507,7 +4228,7 @@
         <v>208</v>
       </c>
       <c r="F8" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="276">
   <si>
     <t>Execution</t>
   </si>
@@ -834,6 +834,15 @@
   </si>
   <si>
     <t>Rework_22</t>
+  </si>
+  <si>
+    <t>Nonstop Daily Data Bundle 3AED</t>
+  </si>
+  <si>
+    <t>Rework-101</t>
+  </si>
+  <si>
+    <t>971520002574</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1119,6 +1128,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z182"/>
+  <dimension ref="A1:Z185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:Z1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1435,7 +1445,7 @@
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
     <col min="7" max="7" width="41.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
@@ -1448,15 +1458,15 @@
     <col min="15" max="15" width="20.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.54296875" customWidth="1"/>
     <col min="17" max="17" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7265625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="18.08984375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="41.26953125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="41.7265625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="41.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -2916,153 +2926,106 @@
       <c r="N37" s="26"/>
       <c r="O37" s="27"/>
     </row>
-    <row r="38" spans="1:26" hidden="1">
-      <c r="A38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="10"/>
-      <c r="R38" t="s">
+    <row r="38" spans="1:26" s="30" customFormat="1">
+      <c r="A38" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="S38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" hidden="1">
-      <c r="A39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="10"/>
-      <c r="R39" t="s">
-        <v>30</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T39" s="12" t="s">
+      <c r="B38" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U39" s="1"/>
-      <c r="V39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="E38" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="27"/>
+    </row>
+    <row r="39" spans="1:26" s="30" customFormat="1">
+      <c r="A39" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="27"/>
     </row>
     <row r="40" spans="1:26" hidden="1">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" s="8">
-        <v>20</v>
-      </c>
+      <c r="H40" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="8"/>
       <c r="K40" s="10"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="10"/>
-      <c r="S40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U40" s="7"/>
-      <c r="V40" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X40" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y40" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z40" s="21" t="s">
-        <v>179</v>
+      <c r="R40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:26" hidden="1">
@@ -3070,56 +3033,53 @@
         <v>30</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="10"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M41" s="2">
-        <v>2</v>
-      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="10"/>
+      <c r="R41" t="s">
+        <v>30</v>
+      </c>
       <c r="S41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U41" s="7"/>
-      <c r="V41" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X41" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z41" s="17" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:26" hidden="1">
@@ -3127,45 +3087,54 @@
         <v>30</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="8"/>
+      <c r="I42" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="8">
+        <v>20</v>
+      </c>
       <c r="K42" s="10"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="2">
-        <v>1</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="10"/>
       <c r="S42" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="U42" s="7"/>
+      <c r="V42" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="W42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z42" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="X42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z42" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:26" hidden="1">
@@ -3173,35 +3142,56 @@
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="15"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="15"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="K43" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M43" s="2">
+        <v>2</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" s="10"/>
+      <c r="S43" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="T43" s="2" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="U43" s="7"/>
+      <c r="V43" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X43" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y43" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="Z43" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:26" hidden="1">
@@ -3209,35 +3199,45 @@
         <v>30</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="15"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="15"/>
       <c r="J44" s="8"/>
       <c r="K44" s="10"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="10"/>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="T44" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="U44" s="7"/>
+      <c r="W44" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="Z44" s="17" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:26" hidden="1">
@@ -3245,23 +3245,21 @@
         <v>30</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="G45" s="8"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="8"/>
@@ -3271,782 +3269,861 @@
       <c r="N45" s="2"/>
       <c r="O45" s="10"/>
       <c r="T45" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="U45" s="7"/>
       <c r="Z45" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" hidden="1">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="10"/>
       <c r="T46" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="U46" s="7"/>
       <c r="Z46" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" hidden="1">
+      <c r="A47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="10"/>
+      <c r="T47" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="U47" s="7"/>
       <c r="Z47" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="T48" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U48" s="7"/>
+      <c r="Z48" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="21:26">
+      <c r="U49" s="7"/>
+      <c r="Z49" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
-      <c r="Z48" s="17" t="s">
+    <row r="50" spans="21:26">
+      <c r="Z50" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="21:26">
-      <c r="U49" s="1" t="s">
+    <row r="51" spans="21:26">
+      <c r="U51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z49" s="17" t="s">
+      <c r="Z51" s="17" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="21:26">
-      <c r="U50" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z50" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="21:26">
-      <c r="U51" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z51" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="52" spans="21:26">
       <c r="U52" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z52" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="21:26">
+      <c r="U53" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z53" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="21:26">
+      <c r="U54" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="Z52" s="17" t="s">
+      <c r="Z54" s="17" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="21:26" ht="15" thickBot="1">
-      <c r="U53" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z53" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="21:26" ht="15" thickBot="1">
-      <c r="U54" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z54" s="18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="55" spans="21:26" ht="15" thickBot="1">
       <c r="U55" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z55" s="19" t="s">
-        <v>64</v>
+        <v>218</v>
+      </c>
+      <c r="Z55" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="21:26" ht="15" thickBot="1">
       <c r="U56" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z56" s="19" t="s">
-        <v>65</v>
+        <v>219</v>
+      </c>
+      <c r="Z56" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="21:26" ht="15" thickBot="1">
-      <c r="U57" s="25" t="s">
-        <v>222</v>
+      <c r="U57" s="24" t="s">
+        <v>220</v>
       </c>
       <c r="Z57" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="21:26" ht="15" thickBot="1">
       <c r="U58" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z58" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="21:26" ht="15" thickBot="1">
-      <c r="U59" s="24" t="s">
-        <v>224</v>
+      <c r="U59" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="Z59" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="21:26" ht="15" thickBot="1">
       <c r="U60" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Z60" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="21:26" ht="15" thickBot="1">
       <c r="U61" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z61" s="20" t="s">
-        <v>70</v>
+        <v>224</v>
+      </c>
+      <c r="Z61" s="19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="21:26" ht="15" thickBot="1">
       <c r="U62" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z62" s="20" t="s">
-        <v>71</v>
+        <v>225</v>
+      </c>
+      <c r="Z62" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="21:26" ht="15" thickBot="1">
       <c r="U63" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z63" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="21:26" ht="15" thickBot="1">
       <c r="U64" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z64" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="21:26" ht="15" thickBot="1">
       <c r="U65" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Z65" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="21:26" ht="15" thickBot="1">
       <c r="U66" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z66" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="21:26" ht="15" thickBot="1">
+      <c r="U67" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z67" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="21:26" ht="15" thickBot="1">
+      <c r="U68" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="Z66" s="20" t="s">
+      <c r="Z68" s="20" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="21:26" ht="15" thickBot="1">
-      <c r="Z67" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="21:26" ht="15" thickBot="1">
-      <c r="Z68" s="20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="69" spans="21:26" ht="15" thickBot="1">
       <c r="Z69" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="21:26" ht="15" thickBot="1">
       <c r="Z70" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="21:26" ht="15" thickBot="1">
       <c r="Z71" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="21:26" ht="15" thickBot="1">
       <c r="Z72" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="21:26" ht="15" thickBot="1">
       <c r="Z73" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="21:26" ht="15" thickBot="1">
       <c r="Z74" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="21:26" ht="15" thickBot="1">
       <c r="Z75" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="21:26" ht="15" thickBot="1">
       <c r="Z76" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="21:26" ht="15" thickBot="1">
       <c r="Z77" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="21:26" ht="15" thickBot="1">
       <c r="Z78" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="21:26" ht="15" thickBot="1">
       <c r="Z79" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="21:26" ht="15" thickBot="1">
       <c r="Z80" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="26:26" ht="15" thickBot="1">
       <c r="Z81" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="26:26" ht="15" thickBot="1">
       <c r="Z82" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="26:26" ht="15" thickBot="1">
       <c r="Z83" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="26:26" ht="15" thickBot="1">
       <c r="Z84" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="26:26" ht="15" thickBot="1">
       <c r="Z85" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="26:26" ht="15" thickBot="1">
       <c r="Z86" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="26:26" ht="15" thickBot="1">
       <c r="Z87" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="26:26" ht="15" thickBot="1">
       <c r="Z88" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="26:26" ht="15" thickBot="1">
       <c r="Z89" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="26:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="26:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="26:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="26:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="26:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="26:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="26:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="26:26" ht="15" thickBot="1">
       <c r="Z138" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="26:26" ht="15" thickBot="1">
       <c r="Z139" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="26:26" ht="15" thickBot="1">
       <c r="Z140" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="26:26" ht="15" thickBot="1">
       <c r="Z141" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="26:26" ht="15" thickBot="1">
       <c r="Z142" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="26:26" ht="15" thickBot="1">
       <c r="Z143" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="26:26" ht="15" thickBot="1">
       <c r="Z144" s="20" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="26:26" ht="15" thickBot="1">
       <c r="Z145" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="26:26" ht="15" thickBot="1">
       <c r="Z146" s="20" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="26:26" ht="15" thickBot="1">
       <c r="Z147" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="26:26" ht="15" thickBot="1">
       <c r="Z148" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="26:26" ht="15" thickBot="1">
       <c r="Z149" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="26:26" ht="15" thickBot="1">
       <c r="Z150" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="26:26" ht="15" thickBot="1">
       <c r="Z151" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="26:26" ht="15" thickBot="1">
       <c r="Z152" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="26:26" ht="15" thickBot="1">
       <c r="Z153" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="26:26" ht="15" thickBot="1">
       <c r="Z154" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="26:26" ht="15" thickBot="1">
       <c r="Z155" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="26:26" ht="15" thickBot="1">
       <c r="Z156" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="26:26" ht="15" thickBot="1">
       <c r="Z157" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="26:26" ht="15" thickBot="1">
       <c r="Z158" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="26:26" ht="15" thickBot="1">
       <c r="Z159" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="26:26" ht="15" thickBot="1">
       <c r="Z160" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" thickBot="1">
       <c r="Z161" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" thickBot="1">
       <c r="Z162" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" thickBot="1">
       <c r="Z163" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" thickBot="1">
       <c r="Z164" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" thickBot="1">
       <c r="Z165" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" thickBot="1">
       <c r="Z166" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" thickBot="1">
       <c r="Z167" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" thickBot="1">
       <c r="Z168" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" thickBot="1">
       <c r="Z169" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" thickBot="1">
       <c r="Z170" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" thickBot="1">
       <c r="Z171" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="26:26" ht="15" thickBot="1">
       <c r="Z172" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="26:26" ht="15" thickBot="1">
       <c r="Z173" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="26:26" ht="15" thickBot="1">
+      <c r="Z174" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="26:26">
-      <c r="Z174" s="45" t="s">
+    <row r="175" spans="26:26" ht="15" thickBot="1">
+      <c r="Z175" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="26:26">
+      <c r="Z176" s="45" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="175" spans="26:26">
-      <c r="Z175" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="176" spans="26:26">
-      <c r="Z176" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="177" spans="26:26">
       <c r="Z177" s="2" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="26:26">
       <c r="Z178" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" spans="26:26">
       <c r="Z179" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="26:26">
       <c r="Z180" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="181" spans="26:26">
+      <c r="Z181" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="182" spans="26:26">
+      <c r="Z182" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="181" spans="26:26">
-      <c r="Z181" s="22" t="s">
+    <row r="183" spans="26:26">
+      <c r="Z183" s="22" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="182" spans="26:26">
-      <c r="Z182" s="22" t="s">
+    <row r="184" spans="26:26">
+      <c r="Z184" s="22" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="185" spans="26:26">
+      <c r="Z185" s="46" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41 E8:E12">
-      <formula1>$W$40:$W$42</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43 E8:E12">
+      <formula1>$W$42:$W$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39 E3 E16 E6 E44 E14 E18 E23 E26">
-      <formula1>$Y$40:$Y$41</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41 E26 E23 E18 E14 E46 E6 E16 E3">
+      <formula1>$Y$42:$Y$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38">
-      <formula1>$S$39:$S$42</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40">
+      <formula1>$S$41:$S$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40 E20">
-      <formula1>$U$50:$U$66</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42 E20">
+      <formula1>$U$52:$U$68</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45 E19 E21:E22 E13 E4:E5 E7 E2 E15 E17 E24:E25 E27:E37">
-      <formula1>$V$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E47 E19 E24:E25 E17 E15 E2 E7 E4:E5 E13 E21:E22 E27:E39">
+      <formula1>$V$42</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$38:$R$39</formula1>
+      <formula1>$R$40:$R$41</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$39:$T$46</formula1>
+      <formula1>$T$41:$T$48</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>$Z$40:$Z$182</formula1>
+      <formula1>$Z$48:$Z$185</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4059,7 +4136,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="280">
   <si>
     <t>Execution</t>
   </si>
@@ -767,21 +767,6 @@
     <t>Rework_65</t>
   </si>
   <si>
-    <t>MSISDN Moredata20</t>
-  </si>
-  <si>
-    <t>MSISDN Moredata50</t>
-  </si>
-  <si>
-    <t>MSISDN Moredata100</t>
-  </si>
-  <si>
-    <t>MSISDN Moredata200</t>
-  </si>
-  <si>
-    <t>MSISDN Moredata500</t>
-  </si>
-  <si>
     <t>Kabayan  ChatnCall  Recurrent  daily bundle</t>
   </si>
   <si>
@@ -843,6 +828,33 @@
   </si>
   <si>
     <t>971520002574</t>
+  </si>
+  <si>
+    <t>Rework_60</t>
+  </si>
+  <si>
+    <t>Rework_61</t>
+  </si>
+  <si>
+    <t>Rework_62</t>
+  </si>
+  <si>
+    <t>9732</t>
+  </si>
+  <si>
+    <t>971520001714 Moredata20</t>
+  </si>
+  <si>
+    <t>971520001714 Moredata50</t>
+  </si>
+  <si>
+    <t>971520001714 Moredata100</t>
+  </si>
+  <si>
+    <t>971520001714 Moredata200</t>
+  </si>
+  <si>
+    <t>971520001714 Moredata500</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1448,7 @@
   <dimension ref="A1:Z185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1519,7 +1531,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>235</v>
@@ -1604,7 +1616,7 @@
     </row>
     <row r="4" spans="1:26" s="22" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>238</v>
@@ -1727,7 +1739,7 @@
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>239</v>
@@ -1765,7 +1777,7 @@
     </row>
     <row r="8" spans="1:26" s="35" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>240</v>
@@ -1774,7 +1786,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>23</v>
@@ -1787,10 +1799,10 @@
       <c r="I8" s="33"/>
       <c r="J8" s="34"/>
       <c r="K8" s="32" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M8" s="31">
         <v>1</v>
@@ -1831,7 +1843,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>23</v>
@@ -1844,10 +1856,10 @@
       <c r="I9" s="33"/>
       <c r="J9" s="34"/>
       <c r="K9" s="32" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M9" s="31">
         <v>1</v>
@@ -1882,13 +1894,13 @@
         <v>30</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>23</v>
@@ -1901,10 +1913,10 @@
       <c r="I10" s="33"/>
       <c r="J10" s="34"/>
       <c r="K10" s="32" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M10" s="31">
         <v>1</v>
@@ -1939,13 +1951,13 @@
         <v>30</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>23</v>
@@ -1958,10 +1970,10 @@
       <c r="I11" s="33"/>
       <c r="J11" s="34"/>
       <c r="K11" s="32" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M11" s="31">
         <v>1</v>
@@ -1996,13 +2008,13 @@
         <v>30</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>23</v>
@@ -2015,10 +2027,10 @@
       <c r="I12" s="33"/>
       <c r="J12" s="34"/>
       <c r="K12" s="32" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="M12" s="31">
         <v>1</v>
@@ -2050,7 +2062,7 @@
     </row>
     <row r="13" spans="1:26" s="30" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>247</v>
@@ -2135,7 +2147,7 @@
     </row>
     <row r="15" spans="1:26" s="30" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>248</v>
@@ -2220,7 +2232,7 @@
     </row>
     <row r="17" spans="1:26" s="30" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>249</v>
@@ -2305,10 +2317,10 @@
     </row>
     <row r="19" spans="1:26" s="30" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>42</v>
@@ -2323,7 +2335,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -2339,7 +2351,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>42</v>
@@ -2391,10 +2403,10 @@
     </row>
     <row r="21" spans="1:26" s="30" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>42</v>
@@ -2409,7 +2421,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
@@ -2422,10 +2434,10 @@
     </row>
     <row r="22" spans="1:26" s="30" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>42</v>
@@ -2440,7 +2452,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
@@ -2456,7 +2468,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>42</v>
@@ -2489,10 +2501,10 @@
     </row>
     <row r="24" spans="1:26" s="30" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>42</v>
@@ -2507,7 +2519,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
@@ -2520,10 +2532,10 @@
     </row>
     <row r="25" spans="1:26" s="30" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>42</v>
@@ -2554,7 +2566,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>42</v>
@@ -2587,10 +2599,10 @@
     </row>
     <row r="27" spans="1:26" s="30" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>42</v>
@@ -2617,11 +2629,11 @@
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:26" s="30" customFormat="1">
-      <c r="A28" s="26" t="s">
-        <v>29</v>
+      <c r="A28" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>42</v>
@@ -2636,7 +2648,7 @@
         <v>38</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -2648,11 +2660,11 @@
       <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:26" s="30" customFormat="1">
-      <c r="A29" s="26" t="s">
-        <v>29</v>
+      <c r="A29" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>42</v>
@@ -2667,7 +2679,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -2679,11 +2691,11 @@
       <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:26" s="30" customFormat="1">
-      <c r="A30" s="26" t="s">
-        <v>29</v>
+      <c r="A30" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>42</v>
@@ -2698,7 +2710,7 @@
         <v>38</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -2710,11 +2722,11 @@
       <c r="O30" s="27"/>
     </row>
     <row r="31" spans="1:26" s="30" customFormat="1">
-      <c r="A31" s="26" t="s">
-        <v>29</v>
+      <c r="A31" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>42</v>
@@ -2729,7 +2741,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -2741,11 +2753,11 @@
       <c r="O31" s="27"/>
     </row>
     <row r="32" spans="1:26" s="30" customFormat="1">
-      <c r="A32" s="26" t="s">
-        <v>29</v>
+      <c r="A32" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>42</v>
@@ -2760,7 +2772,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -2772,11 +2784,11 @@
       <c r="O32" s="27"/>
     </row>
     <row r="33" spans="1:26" s="30" customFormat="1">
-      <c r="A33" s="26" t="s">
-        <v>29</v>
+      <c r="A33" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>42</v>
@@ -2791,7 +2803,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -2803,11 +2815,11 @@
       <c r="O33" s="27"/>
     </row>
     <row r="34" spans="1:26" s="30" customFormat="1">
-      <c r="A34" s="26" t="s">
-        <v>29</v>
+      <c r="A34" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>42</v>
@@ -2822,7 +2834,7 @@
         <v>38</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -2834,11 +2846,11 @@
       <c r="O34" s="27"/>
     </row>
     <row r="35" spans="1:26" s="30" customFormat="1">
-      <c r="A35" s="26" t="s">
-        <v>29</v>
+      <c r="A35" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>42</v>
@@ -2853,7 +2865,7 @@
         <v>38</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -2865,11 +2877,11 @@
       <c r="O35" s="27"/>
     </row>
     <row r="36" spans="1:26" s="30" customFormat="1">
-      <c r="A36" s="26" t="s">
-        <v>29</v>
+      <c r="A36" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>42</v>
@@ -2896,11 +2908,11 @@
       <c r="O36" s="27"/>
     </row>
     <row r="37" spans="1:26" s="30" customFormat="1">
-      <c r="A37" s="26" t="s">
-        <v>29</v>
+      <c r="A37" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>42</v>
@@ -2927,11 +2939,11 @@
       <c r="O37" s="27"/>
     </row>
     <row r="38" spans="1:26" s="30" customFormat="1">
-      <c r="A38" s="26" t="s">
-        <v>29</v>
+      <c r="A38" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>42</v>
@@ -2943,10 +2955,10 @@
         <v>46</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -2958,11 +2970,11 @@
       <c r="O38" s="27"/>
     </row>
     <row r="39" spans="1:26" s="30" customFormat="1">
-      <c r="A39" s="26" t="s">
-        <v>29</v>
+      <c r="A39" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>42</v>
@@ -2974,10 +2986,10 @@
         <v>46</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -4066,37 +4078,37 @@
     </row>
     <row r="179" spans="26:26">
       <c r="Z179" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="180" spans="26:26">
       <c r="Z180" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="26:26">
       <c r="Z181" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="26:26">
       <c r="Z182" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="26:26">
       <c r="Z183" s="22" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="26:26">
       <c r="Z184" s="22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="26:26">
       <c r="Z185" s="46" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +4148,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4185,7 +4197,7 @@
         <v>212</v>
       </c>
       <c r="F2" s="22">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4205,7 +4217,7 @@
         <v>194</v>
       </c>
       <c r="F3" s="22">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4225,7 +4237,7 @@
         <v>197</v>
       </c>
       <c r="F4" s="22">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4245,7 +4257,7 @@
         <v>197</v>
       </c>
       <c r="F5" s="22">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4265,7 +4277,7 @@
         <v>202</v>
       </c>
       <c r="F6" s="22">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4285,7 +4297,7 @@
         <v>206</v>
       </c>
       <c r="F7" s="22">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4305,7 +4317,7 @@
         <v>208</v>
       </c>
       <c r="F8" s="22">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
     <sheet name="Credentials" sheetId="6" r:id="rId2"/>
+    <sheet name="Sanity_Test_Cases" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="284">
   <si>
     <t>Execution</t>
   </si>
@@ -32,18 +33,6 @@
     <t>MSISDN</t>
   </si>
   <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
     <t>Recharge_More_Time</t>
   </si>
   <si>
@@ -656,9 +645,6 @@
     <t>/data/edr_enrichment/sftpcompleted</t>
   </si>
   <si>
-    <t>device2</t>
-  </si>
-  <si>
     <t>TC_009</t>
   </si>
   <si>
@@ -722,27 +708,9 @@
     <t>AED 2 Daily Social Bundle 120 MB</t>
   </si>
   <si>
-    <t>Rework-51</t>
-  </si>
-  <si>
-    <t>Rework-52</t>
-  </si>
-  <si>
     <t>AED 3 Daily Social Bundle 200 MB</t>
   </si>
   <si>
-    <t>Rework_56</t>
-  </si>
-  <si>
-    <t>Rework_57</t>
-  </si>
-  <si>
-    <t>Rework_58</t>
-  </si>
-  <si>
-    <t>Rework_59</t>
-  </si>
-  <si>
     <t>LIVE_USAGE_DATA</t>
   </si>
   <si>
@@ -758,110 +726,430 @@
     <t>LIVE_USAGE_SMS</t>
   </si>
   <si>
-    <t>Rework_63</t>
-  </si>
-  <si>
-    <t>Rework_64</t>
-  </si>
-  <si>
-    <t>Rework_65</t>
-  </si>
-  <si>
     <t>Kabayan  ChatnCall  Recurrent  daily bundle</t>
   </si>
   <si>
-    <t>Rework_72</t>
-  </si>
-  <si>
-    <t>Rework_77</t>
-  </si>
-  <si>
     <t>Kabayan DataPack LifeStyle  Recurrent daily pack</t>
   </si>
   <si>
-    <t>Rework_81</t>
-  </si>
-  <si>
-    <t>Rework_82</t>
-  </si>
-  <si>
-    <t>Rework_83</t>
-  </si>
-  <si>
     <t>Kabayan ChatnCall One day bundle</t>
   </si>
   <si>
     <t>Kabayan DataPack LifeStyle One day Pack</t>
   </si>
   <si>
-    <t>Rework_85</t>
-  </si>
-  <si>
-    <t>Rework_86</t>
-  </si>
-  <si>
     <t>Daily Saver Bundle</t>
   </si>
   <si>
     <t>Daily Saver Bundle 60MB for AED 2</t>
   </si>
   <si>
-    <t>Rework_03_TS-02</t>
-  </si>
-  <si>
-    <t>Rework_03_TS-03</t>
-  </si>
-  <si>
-    <t>Rework_03_TS-04</t>
-  </si>
-  <si>
-    <t>Rework_04</t>
-  </si>
-  <si>
-    <t>Rework_22</t>
-  </si>
-  <si>
     <t>Nonstop Daily Data Bundle 3AED</t>
   </si>
   <si>
-    <t>Rework-101</t>
-  </si>
-  <si>
-    <t>971520002574</t>
-  </si>
-  <si>
-    <t>Rework_60</t>
-  </si>
-  <si>
-    <t>Rework_61</t>
-  </si>
-  <si>
-    <t>Rework_62</t>
-  </si>
-  <si>
-    <t>9732</t>
-  </si>
-  <si>
-    <t>971520001714 Moredata20</t>
-  </si>
-  <si>
-    <t>971520001714 Moredata50</t>
-  </si>
-  <si>
-    <t>971520001714 Moredata100</t>
-  </si>
-  <si>
-    <t>971520001714 Moredata200</t>
-  </si>
-  <si>
-    <t>971520001714 Moredata500</t>
+    <t>TC-235</t>
+  </si>
+  <si>
+    <t>TC-254</t>
+  </si>
+  <si>
+    <t>TC-255</t>
+  </si>
+  <si>
+    <t>TC-3903</t>
+  </si>
+  <si>
+    <t>TC-3860-01</t>
+  </si>
+  <si>
+    <t>SMS_DU_TO_National</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>TC IDs</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>E-AT_Status</t>
+  </si>
+  <si>
+    <t>E-AT_Remark</t>
+  </si>
+  <si>
+    <t>ETA</t>
+  </si>
+  <si>
+    <t>Assignment of Offers</t>
+  </si>
+  <si>
+    <t>E// Automation testing team</t>
+  </si>
+  <si>
+    <t>Handled</t>
+  </si>
+  <si>
+    <t>Usage from offers</t>
+  </si>
+  <si>
+    <t>Refill from Selfcare</t>
+  </si>
+  <si>
+    <t>Atos Manual Testing team</t>
+  </si>
+  <si>
+    <t>Usage from Refill</t>
+  </si>
+  <si>
+    <t>Partially Handled</t>
+  </si>
+  <si>
+    <t>SIM (Live/Dummy)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perform activation of Daily Bundle 1 from mentioned channel for mentioned rateplan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Daily 60 MB for AED 2" offer from USSD *135# </t>
+    </r>
+  </si>
+  <si>
+    <t>Any Live SIM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Handled:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) OPT IN / OPT OUT using device based execution.
+2) Also, related CDR and EDR files are collected and convert as readable format for validation
+3) Already deployed and provided KT for Atos maunal Testing team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perform Usage from the subscriber active with Daily portfolio Bundle and validate consumption for social and non social usage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; Social &amp; Non-social usage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Handled:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Social usage is done using Face book app
+2) Non-social usage is done using Youtube app
+3) Also, related CDR and EDR files are collected and convert as readable format for validation
+4) Already deployed and provided KT for Atos maunal Testing team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perform below recharge:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>eVoucher_MD-BMPaYG2-Selfcare_300MB + 200% reward</t>
+    </r>
+  </si>
+  <si>
+    <t>Dummy SIM</t>
+  </si>
+  <si>
+    <t>New Test data created will be used</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Handled:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Recharge using coupon through USSD Code.
+2) Also, related CDR and EDR files are collected and convert as readable format for validation
+3) Already deployed and provided KT for Atos maunal Testing team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perform below usages after More Time recharge:
+National voice
+National SMS
+International voice
+International SMS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>( Simulator)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Roaming voice </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>( Simulator)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Roaming SMS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( Simulator)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>National video</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Local data browsing
+Roaming data browsing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>( Simulator)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Handled:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Voice call (to any specified MSISDN) for specified call duration
+2) Send SMS (to any specified MSISDN) for specified number of time
+3) Also, related CDR and EDR files are collected and convert as readable format for validation
+4) Already deployed and provided KT for Atos maunal Testing team.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Need Handled:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) National Video call (Need to get KT for providing ETA)
+2) Local Data Browsing (Need to get KT for providing ETA)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Applicable through Automation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Simulator based usage (Internation SMS, Roaming SMS Voice,...)</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial Usage</t>
+  </si>
+  <si>
+    <t>TC-1092</t>
+  </si>
+  <si>
+    <t>Perform First call  to 135 and validate language selection as english followed  by status change and granting of initial benefits and line is valid for 1 year
+validate welcome SMS</t>
+  </si>
+  <si>
+    <t>Not Handled</t>
+  </si>
+  <si>
+    <t>Need to get KT about the process and will let you know the ETA for development</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_VIDEO_CALL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,8 +1247,36 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,8 +1301,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1061,11 +1383,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1141,6 +1487,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1448,7 +1842,7 @@
   <dimension ref="A1:Z185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1457,7 +1851,7 @@
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
     <col min="7" max="7" width="41.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
@@ -1472,7 +1866,7 @@
     <col min="17" max="17" width="20.453125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="41.26953125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
@@ -1489,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1501,55 +1895,55 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1560,24 +1954,24 @@
       <c r="N2" s="2"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:26" s="22" customFormat="1" hidden="1">
+    <row r="3" spans="1:26" s="22" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="15"/>
@@ -1588,54 +1982,34 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="10"/>
-      <c r="R3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>180</v>
+      <c r="T3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="Z3" s="17" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="22" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="8"/>
@@ -1645,36 +2019,36 @@
       <c r="N4" s="2"/>
       <c r="O4" s="10"/>
       <c r="T4" s="2" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="U4" s="7"/>
       <c r="Z4" s="17" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="22" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="I5" s="15"/>
       <c r="J5" s="8"/>
       <c r="K5" s="10"/>
@@ -1682,778 +2056,644 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:26" s="22" customFormat="1" hidden="1">
+      <c r="R5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="22" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="8">
+        <v>20</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="10"/>
-      <c r="R6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="S6" s="47"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="15"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="10"/>
       <c r="T7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U7" s="7"/>
       <c r="Z7" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="35" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="M8" s="31">
-        <v>1</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
+      <c r="D8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="8">
+        <v>20</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="10"/>
       <c r="S8" s="36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U8" s="40"/>
       <c r="V8" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="44" t="s">
         <v>47</v>
-      </c>
-      <c r="W8" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y8" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="44" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="35" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="M9" s="31">
-        <v>1</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
+      <c r="D9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="8">
+        <v>20</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="10"/>
       <c r="S9" s="36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U9" s="40"/>
       <c r="V9" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="W9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="X9" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="35" customFormat="1">
+    </row>
+    <row r="10" spans="1:26" s="35" customFormat="1" hidden="1">
       <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="M10" s="31">
-        <v>1</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
+      <c r="F10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="10"/>
       <c r="S10" s="36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U10" s="40"/>
       <c r="V10" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z10" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="W10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="X10" s="42" t="s">
+    </row>
+    <row r="11" spans="1:26" s="35" customFormat="1" hidden="1">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="35" customFormat="1">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="M11" s="31">
-        <v>1</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
       <c r="S11" s="36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U11" s="40"/>
       <c r="V11" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="W11" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="X11" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y11" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="35" customFormat="1">
+    </row>
+    <row r="12" spans="1:26" s="35" customFormat="1" hidden="1">
       <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="M12" s="31">
-        <v>1</v>
-      </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="10"/>
       <c r="S12" s="36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U12" s="40"/>
       <c r="V12" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="W12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="X12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y12" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z12" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="30" customFormat="1">
+    </row>
+    <row r="13" spans="1:26" s="30" customFormat="1" hidden="1">
       <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:26" s="35" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-    </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" hidden="1">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
+      <c r="F14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="10"/>
       <c r="R14" s="35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T14" s="37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U14" s="38"/>
       <c r="V14" s="39" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W14" s="38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X14" s="39" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y14" s="39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z14" s="39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="30" customFormat="1">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-    </row>
-    <row r="16" spans="1:26" s="35" customFormat="1" hidden="1">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+    </row>
+    <row r="16" spans="1:26" s="35" customFormat="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
       <c r="R16" s="35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T16" s="37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U16" s="38"/>
       <c r="V16" s="39" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W16" s="38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X16" s="39" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y16" s="39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z16" s="39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="30" customFormat="1">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-    </row>
-    <row r="18" spans="1:26" s="35" customFormat="1" hidden="1">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+    </row>
+    <row r="18" spans="1:26" s="35" customFormat="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27"/>
       <c r="R18" s="35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T18" s="37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U18" s="38"/>
       <c r="V18" s="39" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W18" s="38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X18" s="39" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y18" s="39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z18" s="39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="30" customFormat="1">
-      <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-    </row>
-    <row r="20" spans="1:26" s="22" customFormat="1" hidden="1">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="8">
-        <v>20</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="10"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="1:26" s="22" customFormat="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
       <c r="S20" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="Z20" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="30" customFormat="1">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:26" s="30" customFormat="1">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>253</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
@@ -2463,95 +2703,55 @@
       <c r="N22" s="26"/>
       <c r="O22" s="27"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" hidden="1">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="10"/>
+    <row r="23" spans="1:26" s="22" customFormat="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
       <c r="T23" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="U23" s="7"/>
       <c r="Z23" s="17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="30" customFormat="1">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:26" s="30" customFormat="1">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>143</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
@@ -2561,95 +2761,55 @@
       <c r="N25" s="26"/>
       <c r="O25" s="27"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" hidden="1">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="10"/>
+    <row r="26" spans="1:26" s="22" customFormat="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
       <c r="T26" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="U26" s="7"/>
       <c r="Z26" s="17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:26" s="30" customFormat="1">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:26" s="30" customFormat="1">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>250</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="29"/>
@@ -2660,27 +2820,13 @@
       <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:26" s="30" customFormat="1">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>250</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="29"/>
@@ -2691,27 +2837,13 @@
       <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:26" s="30" customFormat="1">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>253</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="29"/>
@@ -2722,27 +2854,13 @@
       <c r="O30" s="27"/>
     </row>
     <row r="31" spans="1:26" s="30" customFormat="1">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>253</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
       <c r="J31" s="29"/>
@@ -2753,27 +2871,13 @@
       <c r="O31" s="27"/>
     </row>
     <row r="32" spans="1:26" s="30" customFormat="1">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>261</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="29"/>
@@ -2784,27 +2888,13 @@
       <c r="O32" s="27"/>
     </row>
     <row r="33" spans="1:26" s="30" customFormat="1">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>262</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="29"/>
@@ -2815,27 +2905,13 @@
       <c r="O33" s="27"/>
     </row>
     <row r="34" spans="1:26" s="30" customFormat="1">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>261</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
       <c r="J34" s="29"/>
@@ -2846,27 +2922,13 @@
       <c r="O34" s="27"/>
     </row>
     <row r="35" spans="1:26" s="30" customFormat="1">
-      <c r="A35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>262</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
       <c r="J35" s="29"/>
@@ -2877,27 +2939,13 @@
       <c r="O35" s="27"/>
     </row>
     <row r="36" spans="1:26" s="30" customFormat="1">
-      <c r="A36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>129</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="29"/>
@@ -2908,27 +2956,13 @@
       <c r="O36" s="27"/>
     </row>
     <row r="37" spans="1:26" s="30" customFormat="1">
-      <c r="A37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>129</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="29"/>
@@ -2939,27 +2973,13 @@
       <c r="O37" s="27"/>
     </row>
     <row r="38" spans="1:26" s="30" customFormat="1">
-      <c r="A38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>268</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
       <c r="J38" s="29"/>
@@ -2970,27 +2990,13 @@
       <c r="O38" s="27"/>
     </row>
     <row r="39" spans="1:26" s="30" customFormat="1">
-      <c r="A39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>268</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
       <c r="J39" s="29"/>
@@ -3000,66 +3006,40 @@
       <c r="N39" s="26"/>
       <c r="O39" s="27"/>
     </row>
-    <row r="40" spans="1:26" hidden="1">
-      <c r="A40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="10"/>
+    <row r="40" spans="1:26">
+      <c r="A40" s="2"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="27"/>
       <c r="R40" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" hidden="1">
-      <c r="A41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="8"/>
@@ -3069,1073 +3049,898 @@
       <c r="N41" s="2"/>
       <c r="O41" s="10"/>
       <c r="R41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U41" s="1"/>
       <c r="V41" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" hidden="1">
-      <c r="A42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="S42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="8">
-        <v>20</v>
-      </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="10"/>
-      <c r="S42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T42" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U42" s="7"/>
       <c r="V42" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W42" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="X42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X42" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="Z42" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" hidden="1">
-      <c r="A43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M43" s="2">
-        <v>2</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="10"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="S43" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U43" s="7"/>
       <c r="V43" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z43" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z43" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" hidden="1">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2">
-        <v>1</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="S44" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="U44" s="7"/>
       <c r="W44" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z44" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" hidden="1">
-      <c r="A45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="10"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="T45" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="U45" s="7"/>
       <c r="Z45" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" hidden="1">
-      <c r="A46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="10"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="T46" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="U46" s="7"/>
       <c r="Z46" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="T47" s="2" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" hidden="1">
-      <c r="A47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="10"/>
-      <c r="T47" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="U47" s="7"/>
       <c r="Z47" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:26">
       <c r="T48" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="U48" s="7"/>
       <c r="Z48" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="21:26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="20:26">
+      <c r="T49" t="s">
+        <v>283</v>
+      </c>
       <c r="U49" s="7"/>
       <c r="Z49" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="20:26">
+      <c r="Z50" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="20:26">
+      <c r="U51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z51" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="20:26">
+      <c r="U52" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z52" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="20:26">
+      <c r="U53" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z53" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="21:26">
-      <c r="Z50" s="17" t="s">
+    <row r="54" spans="20:26">
+      <c r="U54" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z54" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="21:26">
-      <c r="U51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z51" s="17" t="s">
+    <row r="55" spans="20:26" ht="15" thickBot="1">
+      <c r="U55" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z55" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="21:26">
-      <c r="U52" s="24" t="s">
+    <row r="56" spans="20:26" ht="15" thickBot="1">
+      <c r="U56" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z56" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="20:26" ht="15" thickBot="1">
+      <c r="U57" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="Z52" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="21:26">
-      <c r="U53" s="24" t="s">
+      <c r="Z57" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="20:26" ht="15" thickBot="1">
+      <c r="U58" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="Z53" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="21:26">
-      <c r="U54" s="24" t="s">
+      <c r="Z58" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="20:26" ht="15" thickBot="1">
+      <c r="U59" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="Z54" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="21:26" ht="15" thickBot="1">
-      <c r="U55" s="24" t="s">
+      <c r="Z59" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="20:26" ht="15" thickBot="1">
+      <c r="U60" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="Z55" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="21:26" ht="15" thickBot="1">
-      <c r="U56" s="24" t="s">
+      <c r="Z60" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="20:26" ht="15" thickBot="1">
+      <c r="U61" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="Z56" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="21:26" ht="15" thickBot="1">
-      <c r="U57" s="24" t="s">
+      <c r="Z61" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="20:26" ht="15" thickBot="1">
+      <c r="U62" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="Z57" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="21:26" ht="15" thickBot="1">
-      <c r="U58" s="24" t="s">
+      <c r="Z62" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="20:26" ht="15" thickBot="1">
+      <c r="U63" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="Z58" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="21:26" ht="15" thickBot="1">
-      <c r="U59" s="25" t="s">
+      <c r="Z63" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="20:26" ht="15" thickBot="1">
+      <c r="U64" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="Z59" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="21:26" ht="15" thickBot="1">
-      <c r="U60" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z60" s="19" t="s">
+      <c r="Z64" s="20" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="21:26" ht="15" thickBot="1">
-      <c r="U61" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z61" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="21:26" ht="15" thickBot="1">
-      <c r="U62" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z62" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="21:26" ht="15" thickBot="1">
-      <c r="U63" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z63" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="21:26" ht="15" thickBot="1">
-      <c r="U64" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z64" s="20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="65" spans="21:26" ht="15" thickBot="1">
       <c r="U65" s="24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Z65" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="21:26" ht="15" thickBot="1">
       <c r="U66" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="21:26" ht="15" thickBot="1">
       <c r="U67" s="24" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Z67" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="21:26" ht="15" thickBot="1">
       <c r="U68" s="24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Z68" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="21:26" ht="15" thickBot="1">
       <c r="Z69" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="21:26" ht="15" thickBot="1">
       <c r="Z70" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="21:26" ht="15" thickBot="1">
       <c r="Z71" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="21:26" ht="15" thickBot="1">
       <c r="Z72" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="21:26" ht="15" thickBot="1">
       <c r="Z73" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="21:26" ht="15" thickBot="1">
       <c r="Z74" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="21:26" ht="15" thickBot="1">
       <c r="Z75" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="21:26" ht="15" thickBot="1">
       <c r="Z76" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="21:26" ht="15" thickBot="1">
       <c r="Z77" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="21:26" ht="15" thickBot="1">
       <c r="Z78" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="21:26" ht="15" thickBot="1">
       <c r="Z79" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="21:26" ht="15" thickBot="1">
       <c r="Z80" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="26:26" ht="15" thickBot="1">
       <c r="Z81" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="26:26" ht="15" thickBot="1">
       <c r="Z82" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="26:26" ht="15" thickBot="1">
       <c r="Z83" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="26:26" ht="15" thickBot="1">
       <c r="Z84" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="26:26" ht="15" thickBot="1">
       <c r="Z85" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="26:26" ht="15" thickBot="1">
       <c r="Z86" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="26:26" ht="15" thickBot="1">
       <c r="Z87" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="26:26" ht="15" thickBot="1">
       <c r="Z88" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="26:26" ht="15" thickBot="1">
       <c r="Z89" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="26:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="26:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="26:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="26:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="26:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="26:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="26:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="26:26" ht="15" thickBot="1">
       <c r="Z138" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="26:26" ht="15" thickBot="1">
       <c r="Z139" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="26:26" ht="15" thickBot="1">
       <c r="Z140" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="26:26" ht="15" thickBot="1">
       <c r="Z141" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="26:26" ht="15" thickBot="1">
       <c r="Z142" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="26:26" ht="15" thickBot="1">
       <c r="Z143" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="26:26" ht="15" thickBot="1">
       <c r="Z144" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="26:26" ht="15" thickBot="1">
       <c r="Z145" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="26:26" ht="15" thickBot="1">
       <c r="Z146" s="20" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" spans="26:26" ht="15" thickBot="1">
       <c r="Z147" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="26:26" ht="15" thickBot="1">
       <c r="Z148" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="26:26" ht="15" thickBot="1">
       <c r="Z149" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="26:26" ht="15" thickBot="1">
       <c r="Z150" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="26:26" ht="15" thickBot="1">
       <c r="Z151" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="26:26" ht="15" thickBot="1">
       <c r="Z152" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="26:26" ht="15" thickBot="1">
       <c r="Z153" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="26:26" ht="15" thickBot="1">
       <c r="Z154" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="26:26" ht="15" thickBot="1">
       <c r="Z155" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="26:26" ht="15" thickBot="1">
       <c r="Z156" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="26:26" ht="15" thickBot="1">
       <c r="Z157" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="26:26" ht="15" thickBot="1">
       <c r="Z158" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="26:26" ht="15" thickBot="1">
       <c r="Z159" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="26:26" ht="15" thickBot="1">
       <c r="Z160" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" thickBot="1">
       <c r="Z161" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" thickBot="1">
       <c r="Z162" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" thickBot="1">
       <c r="Z163" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" thickBot="1">
       <c r="Z164" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" thickBot="1">
       <c r="Z165" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" thickBot="1">
       <c r="Z166" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" thickBot="1">
       <c r="Z167" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" thickBot="1">
       <c r="Z168" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" thickBot="1">
       <c r="Z169" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" thickBot="1">
       <c r="Z170" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" thickBot="1">
       <c r="Z171" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="26:26" ht="15" thickBot="1">
       <c r="Z172" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="26:26" ht="15" thickBot="1">
       <c r="Z173" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="26:26" ht="15" thickBot="1">
       <c r="Z174" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="26:26" ht="15" thickBot="1">
       <c r="Z175" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="26:26">
       <c r="Z176" s="45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="26:26">
       <c r="Z177" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="26:26">
       <c r="Z178" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="179" spans="26:26">
       <c r="Z179" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="26:26">
       <c r="Z180" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="26:26">
       <c r="Z181" s="2" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="26:26">
       <c r="Z182" s="2" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="26:26">
       <c r="Z183" s="22" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="26:26">
       <c r="Z184" s="22" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="26:26">
       <c r="Z185" s="46" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43 E8:E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
       <formula1>$W$42:$W$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41 E26 E23 E18 E14 E46 E6 E16 E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E27 E17 E13 E15 E19 E24 E10">
       <formula1>$Y$42:$Y$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41 E5">
       <formula1>$S$41:$S$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42 E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E21 E8:E9">
       <formula1>$U$52:$U$68</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E47 E19 E24:E25 E17 E15 E2 E7 E4:E5 E13 E21:E22 E27:E39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E2 E22:E23 E28:E40 E16 E18 E25:E26 E20">
       <formula1>$V$42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A49:A1048576 A1:A41">
       <formula1>$R$40:$R$41</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49:G1048576 G1:G41">
+      <formula1>$Z$48:$Z$185</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$41:$T$48</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>$Z$48:$Z$185</formula1>
+      <formula1>$T$41:$T$49</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4148,7 +3953,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4162,39 +3967,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F2" s="22">
         <v>30</v>
@@ -4202,19 +4007,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>194</v>
       </c>
       <c r="F3" s="22">
         <v>30</v>
@@ -4222,19 +4027,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D4" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="F4" s="22">
         <v>30</v>
@@ -4242,19 +4047,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="F5" s="22">
         <v>30</v>
@@ -4262,19 +4067,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F6" s="22">
         <v>30</v>
@@ -4282,19 +4087,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F7" s="22">
         <v>30</v>
@@ -4302,19 +4107,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>204</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="F8" s="22">
         <v>30</v>
@@ -4324,4 +4129,256 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" style="22"/>
+    <col min="2" max="2" width="25.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.7265625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="0" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="0" style="22" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.81640625" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="51" customFormat="1">
+      <c r="A1" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="63" customFormat="1">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:10" s="63" customFormat="1" ht="43.5">
+      <c r="A3" s="56">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:10" ht="87">
+      <c r="A5" s="56">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" ht="101.5">
+      <c r="A7" s="56">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="1:10" ht="87">
+      <c r="A9" s="56">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" spans="1:10" ht="232">
+      <c r="A11" s="56">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="286">
   <si>
     <t>Execution</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Hide this field</t>
   </si>
   <si>
-    <t>971520001714</t>
-  </si>
-  <si>
     <t>Recharge_Coupon</t>
   </si>
   <si>
@@ -645,9 +642,6 @@
     <t>/data/edr_enrichment/sftpcompleted</t>
   </si>
   <si>
-    <t>TC_009</t>
-  </si>
-  <si>
     <t>Du-du calls_VOICE_DU</t>
   </si>
   <si>
@@ -745,6 +739,9 @@
   </si>
   <si>
     <t>Nonstop Daily Data Bundle 3AED</t>
+  </si>
+  <si>
+    <t>971520002574</t>
   </si>
   <si>
     <t>TC-235</t>
@@ -950,6 +947,22 @@
 2) Also, related CDR and EDR files are collected and convert as readable format for validation
 3) Already deployed and provided KT for Atos maunal Testing team.</t>
     </r>
+  </si>
+  <si>
+    <t>Initial Usage</t>
+  </si>
+  <si>
+    <t>TC-1092</t>
+  </si>
+  <si>
+    <t>Perform First call  to 135 and validate language selection as english followed  by status change and granting of initial benefits and line is valid for 1 year
+validate welcome SMS</t>
+  </si>
+  <si>
+    <t>Not Handled</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_VIDEO_CALL</t>
   </si>
   <si>
     <r>
@@ -1025,7 +1038,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1076,31 +1088,10 @@
       <t xml:space="preserve">
 1) Voice call (to any specified MSISDN) for specified call duration
 2) Send SMS (to any specified MSISDN) for specified number of time
+3) Video call (to any specified MSISDN) for specified call duration
+4) Data browsing.
 3) Also, related CDR and EDR files are collected and convert as readable format for validation
 4) Already deployed and provided KT for Atos maunal Testing team.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Need Handled:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1) National Video call (Need to get KT for providing ETA)
-2) Local Data Browsing (Need to get KT for providing ETA)
 </t>
     </r>
     <r>
@@ -1126,30 +1117,23 @@
     </r>
   </si>
   <si>
-    <t>Initial Usage</t>
-  </si>
-  <si>
-    <t>TC-1092</t>
-  </si>
-  <si>
-    <t>Perform First call  to 135 and validate language selection as english followed  by status change and granting of initial benefits and line is valid for 1 year
-validate welcome SMS</t>
-  </si>
-  <si>
-    <t>Not Handled</t>
-  </si>
-  <si>
-    <t>Need to get KT about the process and will let you know the ETA for development</t>
-  </si>
-  <si>
-    <t>LIVE_USAGE_VIDEO_CALL</t>
+    <t>NEW_ACTIVATION</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DATA_NON_SOCIAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1275,8 +1259,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1304,6 +1293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,7 +1406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1535,6 +1530,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1839,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z185"/>
+  <dimension ref="A1:Z186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1883,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1895,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>27</v>
@@ -1913,7 +1912,7 @@
         <v>30</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>32</v>
@@ -1923,57 +1922,60 @@
       </c>
       <c r="P1" s="16"/>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>243</v>
+    <row r="2" spans="1:26" s="68" customFormat="1">
+      <c r="A2" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>276</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:26" s="22" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="8"/>
@@ -1982,32 +1984,25 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="10"/>
-      <c r="T3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="Z3" s="17" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="4" spans="1:26" s="22" customFormat="1">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
+      <c r="A4" s="65" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>34</v>
+        <v>285</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>241</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="15"/>
@@ -2019,36 +2014,34 @@
       <c r="N4" s="2"/>
       <c r="O4" s="10"/>
       <c r="T4" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U4" s="7"/>
       <c r="Z4" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="22" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
+      <c r="A5" s="65" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="8"/>
       <c r="K5" s="10"/>
@@ -2056,171 +2049,154 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="10"/>
-      <c r="R5" s="22" t="s">
+      <c r="T5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="Z5" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="22" customFormat="1">
+      <c r="A6" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="22" customFormat="1">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>241</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="8">
-        <v>20</v>
-      </c>
+      <c r="H6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="10"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="10"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="4"/>
+      <c r="R6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
+      <c r="A7" s="65" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>34</v>
+        <v>217</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>241</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
+      <c r="I7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="8">
+        <v>20</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="10"/>
-      <c r="T7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U7" s="7"/>
-      <c r="Z7" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="35" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
+      <c r="S7" s="47"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" s="22" customFormat="1">
+      <c r="A8" s="65" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>34</v>
+      <c r="F8" s="66" t="s">
+        <v>241</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="8">
-        <v>20</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="10"/>
-      <c r="S8" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="40"/>
-      <c r="V8" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="44" t="s">
-        <v>47</v>
+      <c r="T8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="Z8" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="35" customFormat="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>34</v>
+        <v>221</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>241</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="10"/>
       <c r="I9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="8">
         <v>20</v>
@@ -2234,48 +2210,52 @@
         <v>9</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U9" s="40"/>
       <c r="V9" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="X9" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y9" s="43" t="s">
         <v>24</v>
       </c>
       <c r="Z9" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="35" customFormat="1" hidden="1">
-      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="35" customFormat="1">
+      <c r="A10" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="8">
+        <v>20</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2285,149 +2265,149 @@
         <v>9</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U10" s="40"/>
       <c r="V10" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W10" s="31" t="s">
         <v>20</v>
       </c>
       <c r="X10" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y10" s="43" t="s">
         <v>24</v>
       </c>
       <c r="Z10" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="35" customFormat="1" hidden="1">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
+      <c r="A11" s="65" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="10"/>
+        <v>229</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="8"/>
       <c r="K11" s="10"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="10"/>
       <c r="S11" s="36" t="s">
         <v>9</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U11" s="40"/>
       <c r="V11" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W11" s="31" t="s">
         <v>20</v>
       </c>
       <c r="X11" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y11" s="43" t="s">
         <v>24</v>
       </c>
       <c r="Z11" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="35" customFormat="1" hidden="1">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
+      <c r="A12" s="65" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="15"/>
       <c r="J12" s="8"/>
       <c r="K12" s="10"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="10"/>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="S12" s="36" t="s">
         <v>9</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U12" s="40"/>
       <c r="V12" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W12" s="31" t="s">
         <v>20</v>
       </c>
       <c r="X12" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y12" s="43" t="s">
         <v>24</v>
       </c>
       <c r="Z12" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="30" customFormat="1" hidden="1">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="35" customFormat="1" hidden="1">
+      <c r="A13" s="65" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>241</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="15"/>
@@ -2438,29 +2418,49 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:26" s="35" customFormat="1">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
+      <c r="S13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="40"/>
+      <c r="V13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="30" customFormat="1" hidden="1">
+      <c r="A14" s="65" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="8"/>
@@ -2469,241 +2469,253 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="10"/>
-      <c r="R14" s="35" t="s">
+    </row>
+    <row r="15" spans="1:26" s="35" customFormat="1">
+      <c r="A15" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="10"/>
+      <c r="R15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="S15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" s="38"/>
-      <c r="V14" s="39" t="s">
+      <c r="T15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="W14" s="38" t="s">
+      <c r="W15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="39" t="s">
+      <c r="X15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Y14" s="39" t="s">
+      <c r="Y15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z14" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="30" customFormat="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
-    </row>
-    <row r="16" spans="1:26" s="35" customFormat="1">
+      <c r="Z15" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="30" customFormat="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="R16" s="35" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+    </row>
+    <row r="17" spans="1:26" s="35" customFormat="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="R17" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="36" t="s">
+      <c r="S17" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="U16" s="38"/>
-      <c r="V16" s="39" t="s">
+      <c r="T17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="W16" s="38" t="s">
+      <c r="W17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="X16" s="39" t="s">
+      <c r="X17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Y16" s="39" t="s">
+      <c r="Y17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z16" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" s="30" customFormat="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
-    </row>
-    <row r="18" spans="1:26" s="35" customFormat="1">
+      <c r="Z17" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="30" customFormat="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="R18" s="35" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32"/>
+    </row>
+    <row r="19" spans="1:26" s="35" customFormat="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="R19" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="36" t="s">
+      <c r="S19" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="38"/>
-      <c r="V18" s="39" t="s">
+      <c r="T19" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="38"/>
+      <c r="V19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="W18" s="38" t="s">
+      <c r="W19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="X18" s="39" t="s">
+      <c r="X19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Y18" s="39" t="s">
+      <c r="Y19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z18" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" s="30" customFormat="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
-    </row>
-    <row r="20" spans="1:26" s="22" customFormat="1">
+      <c r="Z19" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="30" customFormat="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="S20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="7"/>
-      <c r="V20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z20" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" s="30" customFormat="1">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="1:26" s="22" customFormat="1">
       <c r="A21" s="2"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="10"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="S21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="7"/>
+      <c r="V21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z21" s="21" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="22" spans="1:26" s="30" customFormat="1">
       <c r="A22" s="2"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
-    </row>
-    <row r="23" spans="1:26" s="22" customFormat="1">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:26" s="30" customFormat="1">
       <c r="A23" s="2"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -2719,49 +2731,49 @@
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
       <c r="O23" s="27"/>
-      <c r="T23" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="U23" s="7"/>
-      <c r="Z23" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" s="30" customFormat="1">
+    </row>
+    <row r="24" spans="1:26" s="22" customFormat="1">
       <c r="A24" s="2"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="10"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
+      <c r="T24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="U24" s="7"/>
+      <c r="Z24" s="17" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="25" spans="1:26" s="30" customFormat="1">
       <c r="A25" s="2"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-    </row>
-    <row r="26" spans="1:26" s="22" customFormat="1">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:26" s="30" customFormat="1">
       <c r="A26" s="2"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -2777,47 +2789,47 @@
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
       <c r="O26" s="27"/>
-      <c r="T26" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="U26" s="7"/>
-      <c r="Z26" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" s="30" customFormat="1">
+    </row>
+    <row r="27" spans="1:26" s="22" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="10"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
+      <c r="T27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="U27" s="7"/>
+      <c r="Z27" s="17" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="28" spans="1:26" s="30" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:26" s="30" customFormat="1">
       <c r="A29" s="2"/>
@@ -3006,7 +3018,7 @@
       <c r="N39" s="26"/>
       <c r="O39" s="27"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" s="30" customFormat="1">
       <c r="A40" s="2"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
@@ -3022,925 +3034,951 @@
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
       <c r="O40" s="27"/>
-      <c r="R40" t="s">
-        <v>25</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="10"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
       <c r="R41" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="10"/>
+      <c r="R42" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="4" t="s">
+      <c r="T42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U42" s="1"/>
+      <c r="V42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="W42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X41" s="4" t="s">
+      <c r="X42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y41" s="4" t="s">
+      <c r="Y42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z41" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
-      <c r="S42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U42" s="7"/>
-      <c r="V42" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="X42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z42" s="21" t="s">
+      <c r="Z42" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:26">
       <c r="S43" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U43" s="7"/>
+      <c r="V43" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U43" s="7"/>
-      <c r="V43" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="W43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X43" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="X43" s="14" t="s">
         <v>42</v>
       </c>
       <c r="Y43" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z43" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="Z43" s="21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:26">
       <c r="S44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U44" s="7"/>
+      <c r="V44" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z44" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="S45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T44" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="U44" s="7"/>
-      <c r="W44" s="2" t="s">
+      <c r="T45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U45" s="7"/>
+      <c r="W45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z44" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="T45" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="U45" s="7"/>
+      <c r="Y45" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="Z45" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:26">
       <c r="T46" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="U46" s="7"/>
       <c r="Z46" s="17" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:26">
       <c r="T47" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U47" s="7"/>
       <c r="Z47" s="17" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:26">
       <c r="T48" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U48" s="7"/>
       <c r="Z48" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="20:26">
-      <c r="T49" t="s">
-        <v>283</v>
+      <c r="T49" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="U49" s="7"/>
       <c r="Z49" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="20:26">
+      <c r="T50" t="s">
+        <v>279</v>
+      </c>
+      <c r="U50" s="7"/>
+      <c r="Z50" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="20:26">
+      <c r="T51" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z51" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="20:26">
-      <c r="Z50" s="17" t="s">
+    <row r="52" spans="20:26">
+      <c r="U52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z52" s="17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="20:26">
-      <c r="U51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z51" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="20:26">
-      <c r="U52" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z52" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="53" spans="20:26">
       <c r="U53" s="24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Z53" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="20:26">
       <c r="U54" s="24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Z54" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="20:26" ht="15" thickBot="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="20:26">
       <c r="U55" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Z55" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="20:26" ht="15" thickBot="1">
       <c r="U56" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z56" s="18" t="s">
-        <v>59</v>
+        <v>211</v>
+      </c>
+      <c r="Z56" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="20:26" ht="15" thickBot="1">
       <c r="U57" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z57" s="19" t="s">
-        <v>60</v>
+        <v>212</v>
+      </c>
+      <c r="Z57" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="20:26" ht="15" thickBot="1">
       <c r="U58" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Z58" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="20:26" ht="15" thickBot="1">
+      <c r="U59" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z59" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="20:26" ht="15" thickBot="1">
+      <c r="U60" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z60" s="19" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="20:26" ht="15" thickBot="1">
-      <c r="U59" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z59" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="20:26" ht="15" thickBot="1">
-      <c r="U60" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z60" s="19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="61" spans="20:26" ht="15" thickBot="1">
       <c r="U61" s="24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Z61" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="20:26" ht="15" thickBot="1">
       <c r="U62" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Z62" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="20:26" ht="15" thickBot="1">
       <c r="U63" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z63" s="20" t="s">
-        <v>66</v>
+        <v>218</v>
+      </c>
+      <c r="Z63" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="20:26" ht="15" thickBot="1">
       <c r="U64" s="24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Z64" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="21:26" ht="15" thickBot="1">
       <c r="U65" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z65" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="21:26" ht="15" thickBot="1">
       <c r="U66" s="24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="21:26" ht="15" thickBot="1">
       <c r="U67" s="24" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Z67" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="21:26" ht="15" thickBot="1">
       <c r="U68" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Z68" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="21:26" ht="15" thickBot="1">
+      <c r="U69" s="24" t="s">
+        <v>224</v>
+      </c>
       <c r="Z69" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="21:26" ht="15" thickBot="1">
       <c r="Z70" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="21:26" ht="15" thickBot="1">
       <c r="Z71" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="21:26" ht="15" thickBot="1">
       <c r="Z72" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="21:26" ht="15" thickBot="1">
       <c r="Z73" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="21:26" ht="15" thickBot="1">
       <c r="Z74" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="21:26" ht="15" thickBot="1">
       <c r="Z75" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="21:26" ht="15" thickBot="1">
       <c r="Z76" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="21:26" ht="15" thickBot="1">
       <c r="Z77" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="21:26" ht="15" thickBot="1">
       <c r="Z78" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="21:26" ht="15" thickBot="1">
       <c r="Z79" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="21:26" ht="15" thickBot="1">
       <c r="Z80" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="26:26" ht="15" thickBot="1">
       <c r="Z81" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="26:26" ht="15" thickBot="1">
       <c r="Z82" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="26:26" ht="15" thickBot="1">
       <c r="Z83" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="26:26" ht="15" thickBot="1">
       <c r="Z84" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="26:26" ht="15" thickBot="1">
       <c r="Z85" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="26:26" ht="15" thickBot="1">
       <c r="Z86" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="26:26" ht="15" thickBot="1">
       <c r="Z87" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="26:26" ht="15" thickBot="1">
       <c r="Z88" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="26:26" ht="15" thickBot="1">
       <c r="Z89" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="26:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="26:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="26:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="26:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="26:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="26:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="26:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="26:26" ht="15" thickBot="1">
       <c r="Z138" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="26:26" ht="15" thickBot="1">
       <c r="Z139" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="26:26" ht="15" thickBot="1">
       <c r="Z140" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="26:26" ht="15" thickBot="1">
       <c r="Z141" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="26:26" ht="15" thickBot="1">
       <c r="Z142" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="26:26" ht="15" thickBot="1">
       <c r="Z143" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="26:26" ht="15" thickBot="1">
       <c r="Z144" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="26:26" ht="15" thickBot="1">
       <c r="Z145" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="26:26" ht="15" thickBot="1">
       <c r="Z146" s="20" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="26:26" ht="15" thickBot="1">
       <c r="Z147" s="20" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="26:26" ht="15" thickBot="1">
       <c r="Z148" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="26:26" ht="15" thickBot="1">
       <c r="Z149" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="26:26" ht="15" thickBot="1">
       <c r="Z150" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="26:26" ht="15" thickBot="1">
       <c r="Z151" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="26:26" ht="15" thickBot="1">
       <c r="Z152" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="26:26" ht="15" thickBot="1">
       <c r="Z153" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="26:26" ht="15" thickBot="1">
       <c r="Z154" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="26:26" ht="15" thickBot="1">
       <c r="Z155" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="26:26" ht="15" thickBot="1">
       <c r="Z156" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="26:26" ht="15" thickBot="1">
       <c r="Z157" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="26:26" ht="15" thickBot="1">
       <c r="Z158" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="26:26" ht="15" thickBot="1">
       <c r="Z159" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="26:26" ht="15" thickBot="1">
       <c r="Z160" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" thickBot="1">
       <c r="Z161" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" thickBot="1">
       <c r="Z162" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" thickBot="1">
       <c r="Z163" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" thickBot="1">
       <c r="Z164" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" thickBot="1">
       <c r="Z165" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" thickBot="1">
       <c r="Z166" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" thickBot="1">
       <c r="Z167" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" thickBot="1">
       <c r="Z168" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" thickBot="1">
       <c r="Z169" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" thickBot="1">
       <c r="Z170" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" thickBot="1">
       <c r="Z171" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="26:26" ht="15" thickBot="1">
       <c r="Z172" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="26:26" ht="15" thickBot="1">
       <c r="Z173" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="26:26" ht="15" thickBot="1">
       <c r="Z174" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="26:26" ht="15" thickBot="1">
       <c r="Z175" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="26:26" ht="15" thickBot="1">
+      <c r="Z176" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="26:26">
+      <c r="Z177" s="45" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="26:26">
-      <c r="Z176" s="45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="26:26">
-      <c r="Z177" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="178" spans="26:26">
       <c r="Z178" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="179" spans="26:26">
       <c r="Z179" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="180" spans="26:26">
       <c r="Z180" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="181" spans="26:26">
       <c r="Z181" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="182" spans="26:26">
       <c r="Z182" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="183" spans="26:26">
-      <c r="Z183" s="22" t="s">
-        <v>240</v>
+      <c r="Z183" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="184" spans="26:26">
       <c r="Z184" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="185" spans="26:26">
-      <c r="Z185" s="46" t="s">
-        <v>242</v>
+      <c r="Z185" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="26:26">
+      <c r="Z186" s="46" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>$W$42:$W$44</formula1>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
+      <formula1>$W$43:$W$45</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E27 E17 E13 E15 E19 E24 E10">
-      <formula1>$Y$42:$Y$43</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E11 E25 E20 E16 E14 E18">
+      <formula1>$Y$43:$Y$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41 E5">
-      <formula1>$S$41:$S$44</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42 E6">
+      <formula1>$S$42:$S$45</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E21 E8:E9">
-      <formula1>$U$52:$U$68</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E9:E10 E22">
+      <formula1>$U$53:$U$69</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E2 E22:E23 E28:E40 E16 E18 E25:E26 E20">
-      <formula1>$V$42</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E21 E26:E27 E19 E17 E29:E41 E23:E24">
+      <formula1>$V$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A49:A1048576 A1:A41">
-      <formula1>$R$40:$R$41</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A1:A42">
+      <formula1>$R$41:$R$42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49:G1048576 G1:G41">
-      <formula1>$Z$48:$Z$185</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50:G1048576 G1:G42">
+      <formula1>$Z$49:$Z$186</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$41:$T$49</formula1>
+      <formula1>$T$42:$T$51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E15">
+      <formula1>$Y$43:$Y$45</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3953,7 +3991,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3967,162 +4005,162 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
         <v>205</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>206</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>208</v>
-      </c>
       <c r="F2" s="22">
-        <v>30</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="F3" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>193</v>
-      </c>
       <c r="F4" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>195</v>
-      </c>
       <c r="C5" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>189</v>
-      </c>
       <c r="E5" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F5" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>198</v>
-      </c>
       <c r="F6" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>202</v>
-      </c>
       <c r="F7" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>204</v>
-      </c>
       <c r="F8" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4135,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4154,40 +4192,40 @@
   <sheetData>
     <row r="1" spans="1:10" s="51" customFormat="1">
       <c r="A1" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="C1" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="G1" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="J1" s="48" t="s">
         <v>254</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="63" customFormat="1">
       <c r="A2" s="52"/>
       <c r="B2" s="53" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="54"/>
@@ -4203,31 +4241,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="I3" s="57"/>
       <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="52"/>
       <c r="B4" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4242,30 +4278,30 @@
         <v>2</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>268</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="52"/>
       <c r="B6" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -4280,30 +4316,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="52"/>
       <c r="B8" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -4318,32 +4354,32 @@
         <v>4</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>273</v>
-      </c>
       <c r="E9" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="I9" s="61" t="s">
         <v>274</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="52"/>
       <c r="B10" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -4353,29 +4389,29 @@
       <c r="H10" s="56"/>
       <c r="I10" s="57"/>
     </row>
-    <row r="11" spans="1:10" ht="232">
+    <row r="11" spans="1:10" ht="203">
       <c r="A11" s="56">
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="287">
   <si>
     <t>Execution</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>189348653076336</t>
-  </si>
-  <si>
-    <t>971520002069</t>
   </si>
   <si>
     <t>0520002069</t>
@@ -1123,10 +1120,16 @@
     <t>135</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>DATA_NON_SOCIAL</t>
+  </si>
+  <si>
+    <t>971520001714</t>
+  </si>
+  <si>
+    <t>00919811098110</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -1838,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z186"/>
+  <dimension ref="A1:Z187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1894,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>34</v>
@@ -1927,25 +1930,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
       <c r="I2" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J2" s="66" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K2" s="66"/>
       <c r="L2" s="66"/>
@@ -1959,7 +1962,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>37</v>
@@ -1971,10 +1974,10 @@
         <v>41</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -1990,19 +1993,19 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="15"/>
@@ -2014,11 +2017,11 @@
       <c r="N4" s="2"/>
       <c r="O4" s="10"/>
       <c r="T4" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U4" s="7"/>
       <c r="Z4" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="22" customFormat="1">
@@ -2026,19 +2029,19 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="15"/>
@@ -2050,36 +2053,34 @@
       <c r="N5" s="2"/>
       <c r="O5" s="10"/>
       <c r="T5" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U5" s="7"/>
       <c r="Z5" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="22" customFormat="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="35" customFormat="1">
       <c r="A6" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="8"/>
       <c r="K6" s="10"/>
@@ -2087,14 +2088,30 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="10"/>
-      <c r="R6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>18</v>
+      <c r="R6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="38"/>
+      <c r="V6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1">
@@ -2102,84 +2119,82 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>217</v>
+        <v>5</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="8">
-        <v>20</v>
-      </c>
+      <c r="H7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="10"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="10"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="4"/>
+      <c r="R7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:26" s="22" customFormat="1">
       <c r="A8" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
+      <c r="I8" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="J8" s="8">
+        <v>30</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="10"/>
-      <c r="T8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U8" s="7"/>
-      <c r="Z8" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="35" customFormat="1">
+      <c r="S8" s="47"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="A9" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
@@ -2188,45 +2203,32 @@
         <v>232</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="8">
-        <v>20</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="10"/>
-      <c r="S9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="X9" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z9" s="44" t="s">
-        <v>46</v>
+      <c r="T9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="Z9" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="35" customFormat="1">
@@ -2234,27 +2236,27 @@
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="10"/>
       <c r="I10" s="15" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="J10" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="2"/>
@@ -2281,32 +2283,36 @@
         <v>24</v>
       </c>
       <c r="Z10" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="35" customFormat="1" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="35" customFormat="1">
       <c r="A11" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="8"/>
+        <v>240</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="J11" s="8">
+        <v>30</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2332,7 +2338,7 @@
         <v>24</v>
       </c>
       <c r="Z11" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="35" customFormat="1" hidden="1">
@@ -2340,33 +2346,29 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>33</v>
+        <v>228</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="10"/>
+        <v>240</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="8"/>
       <c r="K12" s="10"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="10"/>
       <c r="S12" s="36" t="s">
         <v>9</v>
       </c>
@@ -2387,7 +2389,7 @@
         <v>24</v>
       </c>
       <c r="Z12" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="35" customFormat="1" hidden="1">
@@ -2395,29 +2397,33 @@
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="15"/>
       <c r="J13" s="8"/>
       <c r="K13" s="10"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="10"/>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="S13" s="36" t="s">
         <v>9</v>
       </c>
@@ -2438,27 +2444,27 @@
         <v>24</v>
       </c>
       <c r="Z13" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="30" customFormat="1" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="35" customFormat="1" hidden="1">
       <c r="A14" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="15"/>
@@ -2469,27 +2475,49 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:26" s="35" customFormat="1">
+      <c r="S14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="40"/>
+      <c r="V14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="30" customFormat="1" hidden="1">
       <c r="A15" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="8"/>
@@ -2498,241 +2526,253 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="10"/>
-      <c r="R15" s="35" t="s">
+    </row>
+    <row r="16" spans="1:26" s="35" customFormat="1">
+      <c r="A16" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="S15" s="36" t="s">
+      <c r="B16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="10"/>
+      <c r="R16" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="T16" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39" t="s">
+      <c r="U16" s="38"/>
+      <c r="V16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="W15" s="38" t="s">
+      <c r="W16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="39" t="s">
+      <c r="X16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Y15" s="39" t="s">
+      <c r="Y16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z15" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="30" customFormat="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
-    </row>
-    <row r="17" spans="1:26" s="35" customFormat="1">
+      <c r="Z16" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="30" customFormat="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="R17" s="35" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+    </row>
+    <row r="18" spans="1:26" s="35" customFormat="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="R18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="36" t="s">
+      <c r="S18" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T17" s="37" t="s">
+      <c r="T18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="U17" s="38"/>
-      <c r="V17" s="39" t="s">
+      <c r="U18" s="38"/>
+      <c r="V18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="38" t="s">
+      <c r="W18" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="X17" s="39" t="s">
+      <c r="X18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Y17" s="39" t="s">
+      <c r="Y18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" s="30" customFormat="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32"/>
-    </row>
-    <row r="19" spans="1:26" s="35" customFormat="1">
+      <c r="Z18" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="30" customFormat="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="R19" s="35" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="1:26" s="35" customFormat="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="R20" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="36" t="s">
+      <c r="S20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T19" s="37" t="s">
+      <c r="T20" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="U19" s="38"/>
-      <c r="V19" s="39" t="s">
+      <c r="U20" s="38"/>
+      <c r="V20" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="W19" s="38" t="s">
+      <c r="W20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="X19" s="39" t="s">
+      <c r="X20" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Y19" s="39" t="s">
+      <c r="Y20" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z19" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" s="30" customFormat="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="1:26" s="22" customFormat="1">
+      <c r="Z20" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="30" customFormat="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="S21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z21" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" s="30" customFormat="1">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+    </row>
+    <row r="22" spans="1:26" s="22" customFormat="1">
       <c r="A22" s="2"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="10"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27"/>
+      <c r="S22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="7"/>
+      <c r="V22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z22" s="21" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="23" spans="1:26" s="30" customFormat="1">
       <c r="A23" s="2"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
-    </row>
-    <row r="24" spans="1:26" s="22" customFormat="1">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:26" s="30" customFormat="1">
       <c r="A24" s="2"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -2748,49 +2788,49 @@
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
       <c r="O24" s="27"/>
-      <c r="T24" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="U24" s="7"/>
-      <c r="Z24" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" s="30" customFormat="1">
+    </row>
+    <row r="25" spans="1:26" s="22" customFormat="1">
       <c r="A25" s="2"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="10"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
+      <c r="T25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="Z25" s="17" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="26" spans="1:26" s="30" customFormat="1">
       <c r="A26" s="2"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
-    </row>
-    <row r="27" spans="1:26" s="22" customFormat="1">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:26" s="30" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -2806,47 +2846,47 @@
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
       <c r="O27" s="27"/>
-      <c r="T27" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="U27" s="7"/>
-      <c r="Z27" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" s="30" customFormat="1">
+    </row>
+    <row r="28" spans="1:26" s="22" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="10"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="27"/>
+      <c r="T28" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="U28" s="7"/>
+      <c r="Z28" s="17" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="29" spans="1:26" s="30" customFormat="1">
       <c r="A29" s="2"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:26" s="30" customFormat="1">
       <c r="A30" s="2"/>
@@ -3035,7 +3075,7 @@
       <c r="N40" s="26"/>
       <c r="O40" s="27"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" s="30" customFormat="1">
       <c r="A41" s="2"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -3051,934 +3091,951 @@
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
       <c r="O41" s="27"/>
-      <c r="R41" t="s">
-        <v>25</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="10"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="27"/>
       <c r="R42" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="10"/>
+      <c r="R43" t="s">
         <v>26</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="12" t="s">
+      <c r="T43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="U42" s="1"/>
-      <c r="V42" s="4" t="s">
+      <c r="U43" s="1"/>
+      <c r="V43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X42" s="4" t="s">
+      <c r="X43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y42" s="4" t="s">
+      <c r="Y43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z42" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
-      <c r="S43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U43" s="7"/>
-      <c r="V43" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="X43" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z43" s="21" t="s">
+      <c r="Z43" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:26">
       <c r="S44" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U44" s="7"/>
-      <c r="V44" s="14" t="s">
+      <c r="V44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="X44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="W44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="Y44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z44" s="17" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="Z44" s="21" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:26">
       <c r="S45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U45" s="7"/>
+      <c r="V45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X45" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z45" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="S46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T45" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="U45" s="7"/>
-      <c r="W45" s="2" t="s">
+      <c r="T46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U46" s="7"/>
+      <c r="W46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y45" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z45" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
-      <c r="T46" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="U46" s="7"/>
+      <c r="Y46" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="Z46" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:26">
       <c r="T47" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U47" s="7"/>
       <c r="Z47" s="17" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:26">
       <c r="T48" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="U48" s="7"/>
       <c r="Z48" s="17" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="20:26">
       <c r="T49" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U49" s="7"/>
       <c r="Z49" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="20:26">
-      <c r="T50" t="s">
-        <v>279</v>
+      <c r="T50" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="U50" s="7"/>
       <c r="Z50" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="20:26">
       <c r="T51" t="s">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="U51" s="7"/>
       <c r="Z51" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="20:26">
+      <c r="T52" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z52" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="20:26">
+      <c r="U53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z53" s="17" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="20:26">
-      <c r="U52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z52" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="20:26">
-      <c r="U53" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z53" s="17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="54" spans="20:26">
       <c r="U54" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Z54" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="20:26">
       <c r="U55" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Z55" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="20:26" ht="15" thickBot="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="20:26">
       <c r="U56" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Z56" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="20:26" ht="15" thickBot="1">
       <c r="U57" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z57" s="18" t="s">
-        <v>58</v>
+        <v>210</v>
+      </c>
+      <c r="Z57" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="20:26" ht="15" thickBot="1">
       <c r="U58" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z58" s="19" t="s">
-        <v>59</v>
+        <v>211</v>
+      </c>
+      <c r="Z58" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="20:26" ht="15" thickBot="1">
       <c r="U59" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z59" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="20:26" ht="15" thickBot="1">
+      <c r="U60" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z60" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="20:26" ht="15" thickBot="1">
+      <c r="U61" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="Z59" s="19" t="s">
+      <c r="Z61" s="19" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="20:26" ht="15" thickBot="1">
-      <c r="U60" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z60" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="20:26" ht="15" thickBot="1">
-      <c r="U61" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z61" s="19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="62" spans="20:26" ht="15" thickBot="1">
       <c r="U62" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Z62" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="20:26" ht="15" thickBot="1">
       <c r="U63" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z63" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="20:26" ht="15" thickBot="1">
       <c r="U64" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z64" s="20" t="s">
-        <v>65</v>
+        <v>217</v>
+      </c>
+      <c r="Z64" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="21:26" ht="15" thickBot="1">
       <c r="U65" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Z65" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="21:26" ht="15" thickBot="1">
       <c r="U66" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="21:26" ht="15" thickBot="1">
       <c r="U67" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Z67" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="21:26" ht="15" thickBot="1">
       <c r="U68" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z68" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="21:26" ht="15" thickBot="1">
       <c r="U69" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z69" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="21:26" ht="15" thickBot="1">
+      <c r="U70" s="24" t="s">
+        <v>223</v>
+      </c>
       <c r="Z70" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="21:26" ht="15" thickBot="1">
       <c r="Z71" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="21:26" ht="15" thickBot="1">
       <c r="Z72" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="21:26" ht="15" thickBot="1">
       <c r="Z73" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="21:26" ht="15" thickBot="1">
       <c r="Z74" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="21:26" ht="15" thickBot="1">
       <c r="Z75" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="21:26" ht="15" thickBot="1">
       <c r="Z76" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="21:26" ht="15" thickBot="1">
       <c r="Z77" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="21:26" ht="15" thickBot="1">
       <c r="Z78" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="21:26" ht="15" thickBot="1">
       <c r="Z79" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="21:26" ht="15" thickBot="1">
       <c r="Z80" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="26:26" ht="15" thickBot="1">
       <c r="Z81" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="26:26" ht="15" thickBot="1">
       <c r="Z82" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="26:26" ht="15" thickBot="1">
       <c r="Z83" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="26:26" ht="15" thickBot="1">
       <c r="Z84" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="26:26" ht="15" thickBot="1">
       <c r="Z85" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="26:26" ht="15" thickBot="1">
       <c r="Z86" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="26:26" ht="15" thickBot="1">
       <c r="Z87" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="26:26" ht="15" thickBot="1">
       <c r="Z88" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="26:26" ht="15" thickBot="1">
       <c r="Z89" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="26:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="26:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="26:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="26:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="26:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="26:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="26:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="26:26" ht="15" thickBot="1">
       <c r="Z138" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="26:26" ht="15" thickBot="1">
       <c r="Z139" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="26:26" ht="15" thickBot="1">
       <c r="Z140" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="26:26" ht="15" thickBot="1">
       <c r="Z141" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="26:26" ht="15" thickBot="1">
       <c r="Z142" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="26:26" ht="15" thickBot="1">
       <c r="Z143" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="26:26" ht="15" thickBot="1">
       <c r="Z144" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="26:26" ht="15" thickBot="1">
       <c r="Z145" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="26:26" ht="15" thickBot="1">
       <c r="Z146" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="26:26" ht="15" thickBot="1">
       <c r="Z147" s="20" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="26:26" ht="15" thickBot="1">
       <c r="Z148" s="20" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
     </row>
     <row r="149" spans="26:26" ht="15" thickBot="1">
       <c r="Z149" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="26:26" ht="15" thickBot="1">
       <c r="Z150" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="26:26" ht="15" thickBot="1">
       <c r="Z151" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="26:26" ht="15" thickBot="1">
       <c r="Z152" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="26:26" ht="15" thickBot="1">
       <c r="Z153" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="26:26" ht="15" thickBot="1">
       <c r="Z154" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="26:26" ht="15" thickBot="1">
       <c r="Z155" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="26:26" ht="15" thickBot="1">
       <c r="Z156" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="26:26" ht="15" thickBot="1">
       <c r="Z157" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="26:26" ht="15" thickBot="1">
       <c r="Z158" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="26:26" ht="15" thickBot="1">
       <c r="Z159" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="26:26" ht="15" thickBot="1">
       <c r="Z160" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" thickBot="1">
       <c r="Z161" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" thickBot="1">
       <c r="Z162" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" thickBot="1">
       <c r="Z163" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" thickBot="1">
       <c r="Z164" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" thickBot="1">
       <c r="Z165" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" thickBot="1">
       <c r="Z166" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" thickBot="1">
       <c r="Z167" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" thickBot="1">
       <c r="Z168" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" thickBot="1">
       <c r="Z169" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" thickBot="1">
       <c r="Z170" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" thickBot="1">
       <c r="Z171" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="26:26" ht="15" thickBot="1">
       <c r="Z172" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="26:26" ht="15" thickBot="1">
       <c r="Z173" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="26:26" ht="15" thickBot="1">
       <c r="Z174" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="26:26" ht="15" thickBot="1">
       <c r="Z175" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="26:26" ht="15" thickBot="1">
       <c r="Z176" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" spans="26:26" ht="15" thickBot="1">
+      <c r="Z177" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" spans="26:26">
+      <c r="Z178" s="45" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="177" spans="26:26">
-      <c r="Z177" s="45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="178" spans="26:26">
-      <c r="Z178" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="179" spans="26:26">
       <c r="Z179" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="180" spans="26:26">
       <c r="Z180" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="181" spans="26:26">
       <c r="Z181" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="26:26">
       <c r="Z182" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="183" spans="26:26">
       <c r="Z183" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="184" spans="26:26">
-      <c r="Z184" s="22" t="s">
-        <v>238</v>
+      <c r="Z184" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="185" spans="26:26">
       <c r="Z185" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="26:26">
+      <c r="Z186" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="26:26">
+      <c r="Z187" s="46" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="26:26">
-      <c r="Z186" s="46" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
-      <formula1>$W$43:$W$45</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
+      <formula1>$W$44:$W$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28 E11 E25 E20 E16 E14 E18">
-      <formula1>$Y$43:$Y$44</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29 E19 E15 E17 E21 E26 E12">
+      <formula1>$Y$44:$Y$45</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42 E6">
-      <formula1>$S$42:$S$45</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43 E7">
+      <formula1>$S$43:$S$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E9:E10 E22">
-      <formula1>$U$53:$U$69</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E23 E10:E11">
+      <formula1>$U$54:$U$70</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E21 E26:E27 E19 E17 E29:E41 E23:E24">
-      <formula1>$V$43</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E24:E25 E30:E42 E18 E20 E27:E28 E22">
+      <formula1>$V$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A1:A42">
-      <formula1>$R$41:$R$42</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A51:A1048576 A1:A43">
+      <formula1>$R$42:$R$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50:G1048576 G1:G42">
-      <formula1>$Z$49:$Z$186</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51:G1048576 G1:G43">
+      <formula1>$Z$50:$Z$187</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$42:$T$51</formula1>
+      <formula1>$T$43:$T$52</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 E15">
-      <formula1>$Y$43:$Y$45</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E4:E6">
+      <formula1>$Y$44:$Y$46</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4005,39 +4062,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>182</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>205</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="F2" s="22">
         <v>900</v>
@@ -4045,19 +4102,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="F3" s="22">
         <v>0</v>
@@ -4065,19 +4122,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="F4" s="22">
         <v>0</v>
@@ -4085,19 +4142,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>194</v>
-      </c>
       <c r="C5" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>188</v>
-      </c>
       <c r="E5" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="22">
         <v>0</v>
@@ -4105,19 +4162,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="F6" s="22">
         <v>0</v>
@@ -4125,19 +4182,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>201</v>
       </c>
       <c r="F7" s="22">
         <v>0</v>
@@ -4145,19 +4202,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="F8" s="22">
         <v>0</v>
@@ -4173,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4192,40 +4249,40 @@
   <sheetData>
     <row r="1" spans="1:10" s="51" customFormat="1">
       <c r="A1" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="C1" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="G1" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="J1" s="48" t="s">
         <v>253</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="63" customFormat="1">
       <c r="A2" s="52"/>
       <c r="B2" s="53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="54"/>
@@ -4241,21 +4298,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>277</v>
-      </c>
       <c r="D3" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I3" s="57"/>
       <c r="J3" s="56"/>
@@ -4263,7 +4320,7 @@
     <row r="4" spans="1:10">
       <c r="A4" s="52"/>
       <c r="B4" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4278,30 +4335,30 @@
         <v>2</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>267</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="52"/>
       <c r="B6" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -4316,30 +4373,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="52"/>
       <c r="B8" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -4354,32 +4411,32 @@
         <v>4</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>272</v>
-      </c>
       <c r="E9" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="61" t="s">
         <v>273</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="52"/>
       <c r="B10" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -4394,24 +4451,24 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
-    <sheet name="Credentials" sheetId="6" r:id="rId2"/>
+    <sheet name="API_Data" sheetId="7" r:id="rId2"/>
+    <sheet name="Credentials" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="315">
   <si>
     <t>Execution</t>
   </si>
@@ -77,9 +78,6 @@
     <t>P2P TRANSFER</t>
   </si>
   <si>
-    <t>BALANCE ENQUIRES</t>
-  </si>
-  <si>
     <t>OPT_IN/OPT OUT</t>
   </si>
   <si>
@@ -128,9 +126,6 @@
     <t>TRANSFER_AMOUNT</t>
   </si>
   <si>
-    <t>Hide this field</t>
-  </si>
-  <si>
     <t>971520001714</t>
   </si>
   <si>
@@ -161,15 +156,6 @@
     <t>USSD_Short_Code</t>
   </si>
   <si>
-    <t>189348653076336</t>
-  </si>
-  <si>
-    <t>971520002069</t>
-  </si>
-  <si>
-    <t>0520002069</t>
-  </si>
-  <si>
     <t>200MB+200MB Social AED25_OnceOff</t>
   </si>
   <si>
@@ -563,9 +549,6 @@
     <t>Product_Name</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Unix_System</t>
   </si>
   <si>
@@ -656,9 +639,6 @@
     <t>/data/edr_enrichment/sftpcompleted</t>
   </si>
   <si>
-    <t>device2</t>
-  </si>
-  <si>
     <t>TC_009</t>
   </si>
   <si>
@@ -722,27 +702,9 @@
     <t>AED 2 Daily Social Bundle 120 MB</t>
   </si>
   <si>
-    <t>Rework-51</t>
-  </si>
-  <si>
-    <t>Rework-52</t>
-  </si>
-  <si>
     <t>AED 3 Daily Social Bundle 200 MB</t>
   </si>
   <si>
-    <t>Rework_56</t>
-  </si>
-  <si>
-    <t>Rework_57</t>
-  </si>
-  <si>
-    <t>Rework_58</t>
-  </si>
-  <si>
-    <t>Rework_59</t>
-  </si>
-  <si>
     <t>LIVE_USAGE_DATA</t>
   </si>
   <si>
@@ -758,110 +720,254 @@
     <t>LIVE_USAGE_SMS</t>
   </si>
   <si>
-    <t>Rework_63</t>
-  </si>
-  <si>
-    <t>Rework_64</t>
-  </si>
-  <si>
-    <t>Rework_65</t>
-  </si>
-  <si>
     <t>Kabayan  ChatnCall  Recurrent  daily bundle</t>
   </si>
   <si>
-    <t>Rework_72</t>
-  </si>
-  <si>
-    <t>Rework_77</t>
-  </si>
-  <si>
     <t>Kabayan DataPack LifeStyle  Recurrent daily pack</t>
   </si>
   <si>
-    <t>Rework_81</t>
-  </si>
-  <si>
-    <t>Rework_82</t>
-  </si>
-  <si>
-    <t>Rework_83</t>
-  </si>
-  <si>
     <t>Kabayan ChatnCall One day bundle</t>
   </si>
   <si>
     <t>Kabayan DataPack LifeStyle One day Pack</t>
   </si>
   <si>
-    <t>Rework_85</t>
-  </si>
-  <si>
-    <t>Rework_86</t>
-  </si>
-  <si>
     <t>Daily Saver Bundle</t>
   </si>
   <si>
     <t>Daily Saver Bundle 60MB for AED 2</t>
   </si>
   <si>
-    <t>Rework_03_TS-02</t>
-  </si>
-  <si>
-    <t>Rework_03_TS-03</t>
-  </si>
-  <si>
-    <t>Rework_03_TS-04</t>
-  </si>
-  <si>
-    <t>Rework_04</t>
-  </si>
-  <si>
-    <t>Rework_22</t>
-  </si>
-  <si>
     <t>Nonstop Daily Data Bundle 3AED</t>
   </si>
   <si>
-    <t>Rework-101</t>
-  </si>
-  <si>
-    <t>971520002574</t>
-  </si>
-  <si>
-    <t>Rework_60</t>
-  </si>
-  <si>
-    <t>Rework_61</t>
-  </si>
-  <si>
-    <t>Rework_62</t>
-  </si>
-  <si>
-    <t>9732</t>
-  </si>
-  <si>
-    <t>971520001714 Moredata20</t>
-  </si>
-  <si>
-    <t>971520001714 Moredata50</t>
-  </si>
-  <si>
-    <t>971520001714 Moredata100</t>
-  </si>
-  <si>
-    <t>971520001714 Moredata200</t>
-  </si>
-  <si>
-    <t>971520001714 Moredata500</t>
+    <t>Request_Name</t>
+  </si>
+  <si>
+    <t>Parameter1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Parameter2</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Parameter3</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Parameter4</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Parameter5</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Parameter6</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Parameter7</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Parameter8</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Parameter9</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Parameter10</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>subscriberNumber</t>
+  </si>
+  <si>
+    <t>offerID</t>
+  </si>
+  <si>
+    <t>transactionCurrency</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID</t>
+  </si>
+  <si>
+    <t>adjustmentAmountRelative</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnitType</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>pamServiceID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pamClassID</t>
+  </si>
+  <si>
+    <t>scheduleID</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>Execution Control</t>
+  </si>
+  <si>
+    <t>TestCase_ID</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>API_GetAccountDetails</t>
+  </si>
+  <si>
+    <t>API_GetOffers</t>
+  </si>
+  <si>
+    <t>API_DeleteOffer</t>
+  </si>
+  <si>
+    <t>API_UpdateOffer</t>
+  </si>
+  <si>
+    <t>API_UpdateDA</t>
+  </si>
+  <si>
+    <t>API_DeleteDA</t>
+  </si>
+  <si>
+    <t>API_GetBalanceAndDate</t>
+  </si>
+  <si>
+    <t>API_AddPAM</t>
+  </si>
+  <si>
+    <t>API_ReduceDA</t>
+  </si>
+  <si>
+    <t>API_AddDifferentDA</t>
+  </si>
+  <si>
+    <t>API_1</t>
+  </si>
+  <si>
+    <t>serviceClassNew</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_1</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_2</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_3</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>API_2</t>
+  </si>
+  <si>
+    <t>API_UpdateUsageThresholdsAndCounters</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>usageThresholdValueNew</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>usageThresholdID</t>
+  </si>
+  <si>
+    <t>50042101</t>
+  </si>
+  <si>
+    <t>API_DeleteSubscriber</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>API_InstallSubscriber</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>API_3</t>
+  </si>
+  <si>
+    <t>API_4</t>
+  </si>
+  <si>
+    <t>API_5</t>
+  </si>
+  <si>
+    <t>API_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,8 +1065,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,6 +1103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1141,6 +1268,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1445,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z185"/>
+  <dimension ref="A1:Z187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1456,7 +1590,7 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
     <col min="7" max="7" width="41.7265625" bestFit="1" customWidth="1"/>
@@ -1470,15 +1604,15 @@
     <col min="15" max="15" width="20.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.54296875" customWidth="1"/>
     <col min="17" max="17" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7265625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="36.26953125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="41.26953125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="41.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1489,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1501,56 +1635,52 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="8"/>
@@ -1560,26 +1690,24 @@
       <c r="N2" s="2"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:26" s="22" customFormat="1" hidden="1">
+    <row r="3" spans="1:26" s="22" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="8"/>
@@ -1588,54 +1716,25 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="10"/>
-      <c r="R3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="22" customFormat="1">
+    </row>
+    <row r="4" spans="1:26" s="22" customFormat="1" ht="14" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="8"/>
@@ -1644,36 +1743,50 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="10"/>
-      <c r="T4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="7"/>
-      <c r="Z4" s="17" t="s">
-        <v>54</v>
+      <c r="R4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="22" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>237</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="8"/>
@@ -1683,26 +1796,24 @@
       <c r="N5" s="2"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:26" s="22" customFormat="1" hidden="1">
+    <row r="6" spans="1:26" s="22" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="8"/>
@@ -1711,54 +1822,32 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="10"/>
-      <c r="R6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>180</v>
+      <c r="T6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="Z6" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>237</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="8"/>
@@ -1767,351 +1856,238 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="10"/>
-      <c r="T7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:26" s="22" customFormat="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="10"/>
+      <c r="R8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="22" customFormat="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="10"/>
+      <c r="T9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="Z7" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="35" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="M8" s="31">
-        <v>1</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="S8" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="40"/>
-      <c r="V8" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="W8" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y8" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="35" customFormat="1">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="M9" s="31">
-        <v>1</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-      <c r="S9" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="X9" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="44" t="s">
-        <v>51</v>
+      <c r="U9" s="7"/>
+      <c r="Z9" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="35" customFormat="1">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>38</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="33"/>
       <c r="J10" s="34"/>
-      <c r="K10" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="M10" s="31">
-        <v>1</v>
-      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
       <c r="S10" s="36" t="s">
         <v>13</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U10" s="40"/>
       <c r="V10" s="41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W10" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X10" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="44" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="11" spans="1:26" s="35" customFormat="1">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>38</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
       <c r="I11" s="33"/>
       <c r="J11" s="34"/>
-      <c r="K11" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="M11" s="31">
-        <v>1</v>
-      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="31"/>
       <c r="O11" s="32"/>
       <c r="S11" s="36" t="s">
         <v>13</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U11" s="40"/>
       <c r="V11" s="41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W11" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X11" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="Y11" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="44" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="12" spans="1:26" s="35" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
       <c r="I12" s="33"/>
       <c r="J12" s="34"/>
-      <c r="K12" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="M12" s="31">
-        <v>1</v>
-      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="31"/>
       <c r="O12" s="32"/>
       <c r="S12" s="36" t="s">
         <v>13</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U12" s="40"/>
       <c r="V12" s="41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W12" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z12" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="30" customFormat="1">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="26" t="s">
+    </row>
+    <row r="13" spans="1:26" s="35" customFormat="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="32"/>
+      <c r="S13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="U13" s="40"/>
+      <c r="V13" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z13" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-    </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" hidden="1">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33"/>
+    </row>
+    <row r="14" spans="1:26" s="35" customFormat="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34"/>
       <c r="K14" s="32"/>
@@ -2119,54 +2095,37 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
       <c r="O14" s="32"/>
-      <c r="R14" s="35" t="s">
-        <v>30</v>
-      </c>
       <c r="S14" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="38"/>
-      <c r="V14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W14" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="X14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y14" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="39" t="s">
-        <v>180</v>
+      <c r="U14" s="40"/>
+      <c r="V14" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="X14" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14" s="44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="30" customFormat="1">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>152</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="29"/>
@@ -2176,25 +2135,13 @@
       <c r="N15" s="26"/>
       <c r="O15" s="27"/>
     </row>
-    <row r="16" spans="1:26" s="35" customFormat="1" hidden="1">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>38</v>
-      </c>
+    <row r="16" spans="1:26" s="35" customFormat="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="34"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
@@ -2205,53 +2152,39 @@
       <c r="N16" s="31"/>
       <c r="O16" s="32"/>
       <c r="R16" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S16" s="36" t="s">
         <v>9</v>
       </c>
       <c r="T16" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U16" s="38"/>
       <c r="V16" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W16" s="38" t="s">
         <v>18</v>
       </c>
       <c r="X16" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" s="39" t="s">
         <v>16</v>
       </c>
       <c r="Z16" s="39" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="30" customFormat="1">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>233</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="29"/>
@@ -2261,25 +2194,13 @@
       <c r="N17" s="26"/>
       <c r="O17" s="27"/>
     </row>
-    <row r="18" spans="1:26" s="35" customFormat="1" hidden="1">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>38</v>
-      </c>
+    <row r="18" spans="1:26" s="35" customFormat="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="34"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
@@ -2290,53 +2211,39 @@
       <c r="N18" s="31"/>
       <c r="O18" s="32"/>
       <c r="R18" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S18" s="36" t="s">
         <v>9</v>
       </c>
       <c r="T18" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U18" s="38"/>
       <c r="V18" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W18" s="38" t="s">
         <v>18</v>
       </c>
       <c r="X18" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="39" t="s">
         <v>16</v>
       </c>
       <c r="Z18" s="39" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="30" customFormat="1">
-      <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>250</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="29"/>
@@ -2346,83 +2253,56 @@
       <c r="N19" s="26"/>
       <c r="O19" s="27"/>
     </row>
-    <row r="20" spans="1:26" s="22" customFormat="1" hidden="1">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="8">
+    <row r="20" spans="1:26" s="35" customFormat="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="R20" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" s="38"/>
+      <c r="V20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="10"/>
-      <c r="S20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="7"/>
-      <c r="V20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z20" s="21" t="s">
-        <v>179</v>
+      <c r="W20" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="X20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z20" s="39" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="30" customFormat="1">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>250</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="29"/>
@@ -2432,95 +2312,70 @@
       <c r="N21" s="26"/>
       <c r="O21" s="27"/>
     </row>
-    <row r="22" spans="1:26" s="30" customFormat="1">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="26" t="s">
+    <row r="22" spans="1:26" s="22" customFormat="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="10"/>
+      <c r="S22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
-    </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" hidden="1">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="10"/>
-      <c r="T23" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="U23" s="7"/>
-      <c r="Z23" s="17" t="s">
-        <v>232</v>
-      </c>
+      <c r="U22" s="7"/>
+      <c r="V22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z22" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="30" customFormat="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
     </row>
     <row r="24" spans="1:26" s="30" customFormat="1">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>253</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
@@ -2530,95 +2385,55 @@
       <c r="N24" s="26"/>
       <c r="O24" s="27"/>
     </row>
-    <row r="25" spans="1:26" s="30" customFormat="1">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-    </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" hidden="1">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="10"/>
-      <c r="T26" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="U26" s="7"/>
-      <c r="Z26" s="17" t="s">
-        <v>232</v>
-      </c>
+    <row r="25" spans="1:26" s="22" customFormat="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="10"/>
+      <c r="T25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="Z25" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" s="30" customFormat="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="1:26" s="30" customFormat="1">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>143</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="29"/>
@@ -2628,59 +2443,38 @@
       <c r="N27" s="26"/>
       <c r="O27" s="27"/>
     </row>
-    <row r="28" spans="1:26" s="30" customFormat="1">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
+    <row r="28" spans="1:26" s="22" customFormat="1" hidden="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="10"/>
+      <c r="T28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="U28" s="7"/>
+      <c r="Z28" s="17" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="29" spans="1:26" s="30" customFormat="1">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>250</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="29"/>
@@ -2691,27 +2485,13 @@
       <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:26" s="30" customFormat="1">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>253</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="29"/>
@@ -2722,27 +2502,13 @@
       <c r="O30" s="27"/>
     </row>
     <row r="31" spans="1:26" s="30" customFormat="1">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>253</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
       <c r="J31" s="29"/>
@@ -2753,27 +2519,13 @@
       <c r="O31" s="27"/>
     </row>
     <row r="32" spans="1:26" s="30" customFormat="1">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>261</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="29"/>
@@ -2784,27 +2536,13 @@
       <c r="O32" s="27"/>
     </row>
     <row r="33" spans="1:26" s="30" customFormat="1">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>262</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="29"/>
@@ -2815,27 +2553,13 @@
       <c r="O33" s="27"/>
     </row>
     <row r="34" spans="1:26" s="30" customFormat="1">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>261</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
       <c r="J34" s="29"/>
@@ -2846,27 +2570,13 @@
       <c r="O34" s="27"/>
     </row>
     <row r="35" spans="1:26" s="30" customFormat="1">
-      <c r="A35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>262</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
       <c r="J35" s="29"/>
@@ -2877,27 +2587,13 @@
       <c r="O35" s="27"/>
     </row>
     <row r="36" spans="1:26" s="30" customFormat="1">
-      <c r="A36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>129</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="29"/>
@@ -2908,27 +2604,13 @@
       <c r="O36" s="27"/>
     </row>
     <row r="37" spans="1:26" s="30" customFormat="1">
-      <c r="A37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>129</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="29"/>
@@ -2939,27 +2621,13 @@
       <c r="O37" s="27"/>
     </row>
     <row r="38" spans="1:26" s="30" customFormat="1">
-      <c r="A38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>268</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
       <c r="J38" s="29"/>
@@ -2970,27 +2638,13 @@
       <c r="O38" s="27"/>
     </row>
     <row r="39" spans="1:26" s="30" customFormat="1">
-      <c r="A39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>268</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
       <c r="J39" s="29"/>
@@ -3000,231 +2654,115 @@
       <c r="N39" s="26"/>
       <c r="O39" s="27"/>
     </row>
-    <row r="40" spans="1:26" hidden="1">
-      <c r="A40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="10"/>
-      <c r="R40" t="s">
-        <v>29</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" hidden="1">
-      <c r="A41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="10"/>
-      <c r="R41" t="s">
-        <v>30</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z41" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" hidden="1">
-      <c r="A42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>38</v>
-      </c>
+    <row r="40" spans="1:26" s="30" customFormat="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="27"/>
+    </row>
+    <row r="41" spans="1:26" s="30" customFormat="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="8">
-        <v>20</v>
-      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="8"/>
       <c r="K42" s="10"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="10"/>
-      <c r="S42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U42" s="7"/>
-      <c r="V42" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X42" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z42" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" hidden="1">
-      <c r="A43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
+      <c r="R42" t="s">
+        <v>28</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M43" s="2">
-        <v>2</v>
-      </c>
+      <c r="K43" s="10"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="10"/>
+      <c r="R43" t="s">
+        <v>29</v>
+      </c>
       <c r="S43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U43" s="7"/>
-      <c r="V43" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z43" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" hidden="1">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>38</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" s="1"/>
+      <c r="V43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="2"/>
       <c r="H44" s="10"/>
       <c r="I44" s="15"/>
@@ -3232,47 +2770,40 @@
       <c r="K44" s="10"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="2">
-        <v>1</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="10"/>
       <c r="S44" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="U44" s="7"/>
+      <c r="V44" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="W44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z44" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" hidden="1">
-      <c r="A45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="X44" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z44" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="15"/>
       <c r="J45" s="8"/>
       <c r="K45" s="10"/>
@@ -3280,35 +2811,38 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="10"/>
+      <c r="S45" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="T45" s="2" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="U45" s="7"/>
+      <c r="V45" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="Z45" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" hidden="1">
-      <c r="A46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="15"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="15"/>
       <c r="J46" s="8"/>
       <c r="K46" s="10"/>
@@ -3316,36 +2850,28 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="10"/>
+      <c r="S46" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="T46" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="U46" s="7"/>
+      <c r="W46" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="Z46" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" hidden="1">
-      <c r="A47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="8"/>
@@ -3355,787 +2881,884 @@
       <c r="N47" s="2"/>
       <c r="O47" s="10"/>
       <c r="T47" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="U47" s="7"/>
       <c r="Z47" s="17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:26">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="10"/>
       <c r="T48" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="U48" s="7"/>
       <c r="Z48" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="21:26">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="10"/>
+      <c r="T49" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="U49" s="7"/>
       <c r="Z49" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="T50" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="U50" s="7"/>
+      <c r="Z50" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="T51" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="U51" s="7"/>
+      <c r="Z51" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="T52" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z52" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="T53" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z53" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="T54" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="U54" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z54" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="T55" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="U55" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z55" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="T56" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="U56" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z56" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="21:26">
-      <c r="Z50" s="17" t="s">
+    <row r="57" spans="1:26" ht="15" thickBot="1">
+      <c r="T57" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="U57" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z57" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="21:26">
-      <c r="U51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z51" s="17" t="s">
+    <row r="58" spans="1:26" ht="15" thickBot="1">
+      <c r="T58" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="U58" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z58" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="21:26">
-      <c r="U52" s="24" t="s">
+    <row r="59" spans="1:26" ht="15" thickBot="1">
+      <c r="T59" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="U59" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z59" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="15" thickBot="1">
+      <c r="T60" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="U60" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z60" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="15" thickBot="1">
+      <c r="T61" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="U61" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="Z52" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="21:26">
-      <c r="U53" s="24" t="s">
+      <c r="Z61" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="15" thickBot="1">
+      <c r="T62" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="U62" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="Z53" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="21:26">
-      <c r="U54" s="24" t="s">
+      <c r="Z62" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="15" thickBot="1">
+      <c r="T63" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="U63" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="Z54" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="21:26" ht="15" thickBot="1">
-      <c r="U55" s="24" t="s">
+      <c r="Z63" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="15" thickBot="1">
+      <c r="T64" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="U64" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="Z55" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="21:26" ht="15" thickBot="1">
-      <c r="U56" s="24" t="s">
+      <c r="Z64" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="20:26" ht="15" thickBot="1">
+      <c r="T65" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="U65" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="Z56" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="21:26" ht="15" thickBot="1">
-      <c r="U57" s="24" t="s">
+      <c r="Z65" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="20:26" ht="15" thickBot="1">
+      <c r="T66" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="U66" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="Z57" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="21:26" ht="15" thickBot="1">
-      <c r="U58" s="24" t="s">
+      <c r="Z66" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="20:26" ht="15" thickBot="1">
+      <c r="U67" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="Z58" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="21:26" ht="15" thickBot="1">
-      <c r="U59" s="25" t="s">
+      <c r="Z67" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="20:26" ht="15" thickBot="1">
+      <c r="U68" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="Z59" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="21:26" ht="15" thickBot="1">
-      <c r="U60" s="24" t="s">
+      <c r="Z68" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="20:26" ht="15" thickBot="1">
+      <c r="U69" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="Z60" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="21:26" ht="15" thickBot="1">
-      <c r="U61" s="24" t="s">
+      <c r="Z69" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="20:26" ht="15" thickBot="1">
+      <c r="U70" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="Z61" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="21:26" ht="15" thickBot="1">
-      <c r="U62" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z62" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="21:26" ht="15" thickBot="1">
-      <c r="U63" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z63" s="20" t="s">
+      <c r="Z70" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="21:26" ht="15" thickBot="1">
-      <c r="U64" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z64" s="20" t="s">
+    <row r="71" spans="20:26" ht="15" thickBot="1">
+      <c r="Z71" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="21:26" ht="15" thickBot="1">
-      <c r="U65" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z65" s="20" t="s">
+    <row r="72" spans="20:26" ht="15" thickBot="1">
+      <c r="Z72" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="21:26" ht="15" thickBot="1">
-      <c r="U66" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z66" s="20" t="s">
+    <row r="73" spans="20:26" ht="15" thickBot="1">
+      <c r="Z73" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="21:26" ht="15" thickBot="1">
-      <c r="U67" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z67" s="20" t="s">
+    <row r="74" spans="20:26" ht="15" thickBot="1">
+      <c r="Z74" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="21:26" ht="15" thickBot="1">
-      <c r="U68" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z68" s="20" t="s">
+    <row r="75" spans="20:26" ht="15" thickBot="1">
+      <c r="Z75" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="21:26" ht="15" thickBot="1">
-      <c r="Z69" s="20" t="s">
+    <row r="76" spans="20:26" ht="15" thickBot="1">
+      <c r="Z76" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="21:26" ht="15" thickBot="1">
-      <c r="Z70" s="20" t="s">
+    <row r="77" spans="20:26" ht="15" thickBot="1">
+      <c r="Z77" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="21:26" ht="15" thickBot="1">
-      <c r="Z71" s="20" t="s">
+    <row r="78" spans="20:26" ht="15" thickBot="1">
+      <c r="Z78" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="21:26" ht="15" thickBot="1">
-      <c r="Z72" s="20" t="s">
+    <row r="79" spans="20:26" ht="15" thickBot="1">
+      <c r="Z79" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="21:26" ht="15" thickBot="1">
-      <c r="Z73" s="20" t="s">
+    <row r="80" spans="20:26" ht="15" thickBot="1">
+      <c r="Z80" s="20" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="21:26" ht="15" thickBot="1">
-      <c r="Z74" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="21:26" ht="15" thickBot="1">
-      <c r="Z75" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="21:26" ht="15" thickBot="1">
-      <c r="Z76" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="21:26" ht="15" thickBot="1">
-      <c r="Z77" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="21:26" ht="15" thickBot="1">
-      <c r="Z78" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="21:26" ht="15" thickBot="1">
-      <c r="Z79" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="21:26" ht="15" thickBot="1">
-      <c r="Z80" s="20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="81" spans="26:26" ht="15" thickBot="1">
       <c r="Z81" s="20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="26:26" ht="15" thickBot="1">
       <c r="Z82" s="20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="26:26" ht="15" thickBot="1">
       <c r="Z83" s="20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="26:26" ht="15" thickBot="1">
       <c r="Z84" s="20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="26:26" ht="15" thickBot="1">
       <c r="Z85" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="26:26" ht="15" thickBot="1">
       <c r="Z86" s="20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="26:26" ht="15" thickBot="1">
       <c r="Z87" s="20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="26:26" ht="15" thickBot="1">
       <c r="Z88" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="26:26" ht="15" thickBot="1">
       <c r="Z89" s="20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="26:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="26:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="26:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="26:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="26:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="26:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="26:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="26:26" ht="15" thickBot="1">
       <c r="Z138" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="26:26" ht="15" thickBot="1">
       <c r="Z139" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="26:26" ht="15" thickBot="1">
       <c r="Z140" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="26:26" ht="15" thickBot="1">
       <c r="Z141" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="26:26" ht="15" thickBot="1">
       <c r="Z142" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="26:26" ht="15" thickBot="1">
       <c r="Z143" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="26:26" ht="15" thickBot="1">
       <c r="Z144" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="26:26" ht="15" thickBot="1">
       <c r="Z145" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="26:26" ht="15" thickBot="1">
       <c r="Z146" s="20" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="26:26" ht="15" thickBot="1">
       <c r="Z147" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="26:26" ht="15" thickBot="1">
       <c r="Z148" s="20" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
     </row>
     <row r="149" spans="26:26" ht="15" thickBot="1">
       <c r="Z149" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="26:26" ht="15" thickBot="1">
       <c r="Z150" s="20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="26:26" ht="15" thickBot="1">
       <c r="Z151" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="26:26" ht="15" thickBot="1">
       <c r="Z152" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="26:26" ht="15" thickBot="1">
       <c r="Z153" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="26:26" ht="15" thickBot="1">
       <c r="Z154" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="26:26" ht="15" thickBot="1">
       <c r="Z155" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="26:26" ht="15" thickBot="1">
       <c r="Z156" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="26:26" ht="15" thickBot="1">
       <c r="Z157" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="26:26" ht="15" thickBot="1">
       <c r="Z158" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="26:26" ht="15" thickBot="1">
       <c r="Z159" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="26:26" ht="15" thickBot="1">
       <c r="Z160" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" thickBot="1">
       <c r="Z161" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" thickBot="1">
       <c r="Z162" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" thickBot="1">
       <c r="Z163" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" thickBot="1">
       <c r="Z164" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" thickBot="1">
       <c r="Z165" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" thickBot="1">
       <c r="Z166" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" thickBot="1">
       <c r="Z167" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" thickBot="1">
       <c r="Z168" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" thickBot="1">
       <c r="Z169" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" thickBot="1">
       <c r="Z170" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" thickBot="1">
       <c r="Z171" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="26:26" ht="15" thickBot="1">
       <c r="Z172" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="26:26" ht="15" thickBot="1">
       <c r="Z173" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="26:26" ht="15" thickBot="1">
       <c r="Z174" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="26:26" ht="15" thickBot="1">
       <c r="Z175" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="26:26">
-      <c r="Z176" s="45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="177" spans="26:26">
-      <c r="Z177" s="2" t="s">
-        <v>234</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="26:26" ht="15" thickBot="1">
+      <c r="Z176" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="26:26" ht="15" thickBot="1">
+      <c r="Z177" s="20" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="26:26">
-      <c r="Z178" s="2" t="s">
-        <v>237</v>
+      <c r="Z178" s="45" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="26:26">
       <c r="Z179" s="2" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="26:26">
       <c r="Z180" s="2" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="181" spans="26:26">
       <c r="Z181" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="182" spans="26:26">
       <c r="Z182" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="26:26">
-      <c r="Z183" s="22" t="s">
-        <v>261</v>
+      <c r="Z183" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="184" spans="26:26">
-      <c r="Z184" s="22" t="s">
-        <v>262</v>
+      <c r="Z184" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="185" spans="26:26">
-      <c r="Z185" s="46" t="s">
-        <v>268</v>
+      <c r="Z185" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="26:26">
+      <c r="Z186" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="187" spans="26:26">
+      <c r="Z187" s="46" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43 E8:E12">
-      <formula1>$W$42:$W$44</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45 E10:E14">
+      <formula1>$W$44:$W$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41 E26 E23 E18 E14 E46 E6 E16 E3">
-      <formula1>$Y$42:$Y$43</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43 E28 E25 E20 E16 E48 E8 E18 E4">
+      <formula1>$Y$44:$Y$45</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40">
-      <formula1>$S$41:$S$44</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42">
+      <formula1>$S$43:$S$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42 E20">
-      <formula1>$U$52:$U$68</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E44 E22">
+      <formula1>$U$54:$U$70</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E47 E19 E24:E25 E17 E15 E2 E7 E4:E5 E13 E21:E22 E27:E39">
-      <formula1>$V$42</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49 E21 E26:E27 E19 E17 E2:E3 E9 E5:E7 E15 E23:E24 E29:E41">
+      <formula1>$V$44</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$40:$R$41</formula1>
+      <formula1>$R$42:$R$43</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$41:$T$48</formula1>
+      <formula1>$T$43:$T$66</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>$Z$48:$Z$185</formula1>
+      <formula1>$Z$50:$Z$187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4144,6 +3767,854 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W51"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" style="22" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="22"/>
+    <col min="8" max="8" width="19.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="T1" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="U1" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="V1" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="W1" s="47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="50">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="50">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="51">
+        <v>1</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="M6" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="K9" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="51">
+        <v>1</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="L10" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="M10" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="51">
+        <v>1</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="M11" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="48">
+        <v>1006</v>
+      </c>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" s="48">
+        <v>1001</v>
+      </c>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="48">
+        <v>1008</v>
+      </c>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="B15" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="B16" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="C18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="53"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="C19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="C20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="C21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="C22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="G22" s="48"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="C23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="I24" s="51"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="C25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="I25" s="51"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="C26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="50"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="C27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="52"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="53"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="C29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="C30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="50"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="C31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="G32" s="48"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
+      <c r="I34" s="51"/>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50"/>
+      <c r="I35" s="51"/>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="52"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="53"/>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="50"/>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="50"/>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="G42" s="48"/>
+      <c r="I42" s="52"/>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
+      <c r="I43" s="52"/>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
+      <c r="I44" s="51"/>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
+      <c r="I45" s="51"/>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="50"/>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="52"/>
+      <c r="I47" s="52"/>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="53"/>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="50"/>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="50"/>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51" s="11"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4162,162 +4633,162 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F2" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F3" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F4" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F5" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F6" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F7" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F8" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1843,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="2" spans="1:26" s="68" customFormat="1">
       <c r="A2" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>275</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>241</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="4" spans="1:26" s="22" customFormat="1">
       <c r="A4" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>243</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="6" spans="1:26" s="35" customFormat="1">
       <c r="A6" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>243</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1">
       <c r="A7" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>244</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="8" spans="1:26" s="22" customFormat="1">
       <c r="A8" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>245</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="A9" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>245</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="10" spans="1:26" s="35" customFormat="1">
       <c r="A10" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>245</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="11" spans="1:26" s="35" customFormat="1">
       <c r="A11" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>245</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="12" spans="1:26" s="35" customFormat="1" hidden="1">
       <c r="A12" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>245</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="13" spans="1:26" s="35" customFormat="1" hidden="1">
       <c r="A13" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="14" spans="1:26" s="35" customFormat="1" hidden="1">
       <c r="A14" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="15" spans="1:26" s="30" customFormat="1" hidden="1">
       <c r="A15" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1156,36 +1156,36 @@
   <dimension ref="A1:Z138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.54296875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="27.90625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="38.453125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.85546875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="38.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1238,7 +1238,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1659,602 +1659,602 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="26:26" ht="15" thickBot="1">
+    <row r="19" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z19" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="26:26" ht="15" thickBot="1">
+    <row r="20" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z20" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="26:26" ht="15" thickBot="1">
+    <row r="21" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z21" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="26:26" ht="15" thickBot="1">
+    <row r="22" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z22" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="26:26" ht="15" thickBot="1">
+    <row r="23" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z23" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="26:26" ht="15" thickBot="1">
+    <row r="24" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z24" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="26:26" ht="15" thickBot="1">
+    <row r="25" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z25" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="26:26" ht="15" thickBot="1">
+    <row r="26" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z26" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="26:26" ht="15" thickBot="1">
+    <row r="27" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z27" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="26:26" ht="15" thickBot="1">
+    <row r="28" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z28" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="26:26" ht="15" thickBot="1">
+    <row r="29" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z29" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="26:26" ht="15" thickBot="1">
+    <row r="30" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z30" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="26:26" ht="15" thickBot="1">
+    <row r="31" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z31" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="26:26" ht="15" thickBot="1">
+    <row r="32" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z32" s="23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="26:26" ht="15" thickBot="1">
+    <row r="33" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z33" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="26:26" ht="15" thickBot="1">
+    <row r="34" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z34" s="23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="26:26" ht="15" thickBot="1">
+    <row r="35" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z35" s="23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="26:26" ht="15" thickBot="1">
+    <row r="36" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z36" s="23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="26:26" ht="15" thickBot="1">
+    <row r="37" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z37" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="26:26" ht="15" thickBot="1">
+    <row r="38" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z38" s="23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="26:26" ht="15" thickBot="1">
+    <row r="39" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z39" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="26:26" ht="15" thickBot="1">
+    <row r="40" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z40" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="26:26" ht="15" thickBot="1">
+    <row r="41" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z41" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="26:26" ht="15" thickBot="1">
+    <row r="42" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z42" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="26:26" ht="15" thickBot="1">
+    <row r="43" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z43" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="26:26" ht="15" thickBot="1">
+    <row r="44" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z44" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="26:26" ht="15" thickBot="1">
+    <row r="45" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z45" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="26:26" ht="15" thickBot="1">
+    <row r="46" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z46" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="26:26" ht="15" thickBot="1">
+    <row r="47" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z47" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="26:26" ht="15" thickBot="1">
+    <row r="48" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z48" s="23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="26:26" ht="15" thickBot="1">
+    <row r="49" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z49" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="26:26" ht="15" thickBot="1">
+    <row r="50" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z50" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="26:26" ht="15" thickBot="1">
+    <row r="51" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z51" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="26:26" ht="15" thickBot="1">
+    <row r="52" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z52" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="26:26" ht="15" thickBot="1">
+    <row r="53" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z53" s="23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="26:26" ht="15" thickBot="1">
+    <row r="54" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z54" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="26:26" ht="15" thickBot="1">
+    <row r="55" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z55" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="26:26" ht="15" thickBot="1">
+    <row r="56" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z56" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="26:26" ht="15" thickBot="1">
+    <row r="57" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z57" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="26:26" ht="15" thickBot="1">
+    <row r="58" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z58" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="26:26" ht="15" thickBot="1">
+    <row r="59" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z59" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="26:26" ht="15" thickBot="1">
+    <row r="60" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z60" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="26:26" ht="15" thickBot="1">
+    <row r="61" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z61" s="23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="26:26" ht="15" thickBot="1">
+    <row r="62" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z62" s="23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="26:26" ht="15" thickBot="1">
+    <row r="63" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z63" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="26:26" ht="15" thickBot="1">
+    <row r="64" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z64" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="26:26" ht="15" thickBot="1">
+    <row r="65" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z65" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="26:26" ht="15" thickBot="1">
+    <row r="66" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z66" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="26:26" ht="15" thickBot="1">
+    <row r="67" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z67" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="26:26" ht="15" thickBot="1">
+    <row r="68" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z68" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="26:26" ht="15" thickBot="1">
+    <row r="69" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z69" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="26:26" ht="15" thickBot="1">
+    <row r="70" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z70" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="26:26" ht="15" thickBot="1">
+    <row r="71" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z71" s="23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="26:26" ht="15" thickBot="1">
+    <row r="72" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z72" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="26:26" ht="15" thickBot="1">
+    <row r="73" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z73" s="23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="26:26" ht="15" thickBot="1">
+    <row r="74" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z74" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="26:26" ht="15" thickBot="1">
+    <row r="75" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z75" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="26:26" ht="15" thickBot="1">
+    <row r="76" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z76" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="26:26" ht="15" thickBot="1">
+    <row r="77" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z77" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="26:26" ht="15" thickBot="1">
+    <row r="78" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z78" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="26:26" ht="15" thickBot="1">
+    <row r="79" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z79" s="23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="26:26" ht="15" thickBot="1">
+    <row r="80" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z80" s="23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="26:26" ht="15" thickBot="1">
+    <row r="81" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z81" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="26:26" ht="15" thickBot="1">
+    <row r="82" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z82" s="23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="26:26" ht="15" thickBot="1">
+    <row r="83" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z83" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="26:26" ht="15" thickBot="1">
+    <row r="84" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z84" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="26:26" ht="15" thickBot="1">
+    <row r="85" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z85" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="26:26" ht="15" thickBot="1">
+    <row r="86" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z86" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="26:26" ht="15" thickBot="1">
+    <row r="87" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z87" s="23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="26:26" ht="15" thickBot="1">
+    <row r="88" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z88" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="26:26" ht="15" thickBot="1">
+    <row r="89" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z89" s="23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="26:26" ht="15" thickBot="1">
+    <row r="90" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z90" s="23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="26:26" ht="15" thickBot="1">
+    <row r="91" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z91" s="23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="26:26" ht="15" thickBot="1">
+    <row r="92" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z92" s="23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="26:26" ht="15" thickBot="1">
+    <row r="93" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z93" s="23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="26:26" ht="15" thickBot="1">
+    <row r="94" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z94" s="23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="26:26" ht="15" thickBot="1">
+    <row r="95" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z95" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="26:26" ht="15" thickBot="1">
+    <row r="96" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z96" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="26:26" ht="15" thickBot="1">
+    <row r="97" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z97" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="26:26" ht="15" thickBot="1">
+    <row r="98" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z98" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="26:26" ht="15" thickBot="1">
+    <row r="99" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z99" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="26:26" ht="15" thickBot="1">
+    <row r="100" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z100" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="26:26" ht="15" thickBot="1">
+    <row r="101" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z101" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="26:26" ht="15" thickBot="1">
+    <row r="102" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z102" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="26:26" ht="15" thickBot="1">
+    <row r="103" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z103" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="26:26" ht="15" thickBot="1">
+    <row r="104" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z104" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="26:26" ht="15" thickBot="1">
+    <row r="105" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z105" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="26:26" ht="15" thickBot="1">
+    <row r="106" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z106" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="26:26" ht="15" thickBot="1">
+    <row r="107" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z107" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="26:26" ht="15" thickBot="1">
+    <row r="108" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z108" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="109" spans="26:26" ht="15" thickBot="1">
+    <row r="109" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z109" s="23" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="26:26" ht="15" thickBot="1">
+    <row r="110" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z110" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="26:26" ht="15" thickBot="1">
+    <row r="111" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z111" s="23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="26:26" ht="15" thickBot="1">
+    <row r="112" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z112" s="23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="26:26" ht="15" thickBot="1">
+    <row r="113" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z113" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="114" spans="26:26" ht="15" thickBot="1">
+    <row r="114" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z114" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="26:26" ht="15" thickBot="1">
+    <row r="115" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z115" s="23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="26:26" ht="15" thickBot="1">
+    <row r="116" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z116" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="26:26" ht="15" thickBot="1">
+    <row r="117" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z117" s="23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="26:26" ht="15" thickBot="1">
+    <row r="118" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z118" s="23" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="119" spans="26:26" ht="15" thickBot="1">
+    <row r="119" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z119" s="23" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="120" spans="26:26" ht="15" thickBot="1">
+    <row r="120" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z120" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="26:26" ht="15" thickBot="1">
+    <row r="121" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z121" s="23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="26:26" ht="15" thickBot="1">
+    <row r="122" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z122" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="26:26" ht="15" thickBot="1">
+    <row r="123" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z123" s="23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="26:26" ht="15" thickBot="1">
+    <row r="124" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z124" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="26:26" ht="15" thickBot="1">
+    <row r="125" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z125" s="23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="126" spans="26:26" ht="15" thickBot="1">
+    <row r="126" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z126" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="26:26" ht="15" thickBot="1">
+    <row r="127" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z127" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="26:26" ht="15" thickBot="1">
+    <row r="128" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z128" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="129" spans="26:26" ht="15" thickBot="1">
+    <row r="129" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z129" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="130" spans="26:26" ht="15" thickBot="1">
+    <row r="130" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z130" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="131" spans="26:26" ht="15" thickBot="1">
+    <row r="131" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z131" s="23" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="132" spans="26:26" ht="15" thickBot="1">
+    <row r="132" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z132" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="133" spans="26:26" ht="15" thickBot="1">
+    <row r="133" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z133" s="23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="26:26" ht="15" thickBot="1">
+    <row r="134" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z134" s="23" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="26:26" ht="15" thickBot="1">
+    <row r="135" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z135" s="23" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="136" spans="26:26" ht="15" thickBot="1">
+    <row r="136" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z136" s="23" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="137" spans="26:26" ht="15" thickBot="1">
+    <row r="137" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z137" s="23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="26:26" ht="15" thickBot="1">
+    <row r="138" spans="26:26" ht="15.75" thickBot="1">
       <c r="Z138" s="23" t="s">
         <v>210</v>
       </c>
@@ -2299,24 +2299,24 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="27.90625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.36328125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="15.54296875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1">
@@ -2711,14 +2711,14 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="3.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:13">

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="340">
   <si>
     <t>Execution</t>
   </si>
@@ -1024,6 +1024,18 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>TC-79</t>
+  </si>
+  <si>
+    <t>TC-79-TS-02</t>
+  </si>
+  <si>
+    <t>TC-79-TS-03</t>
+  </si>
+  <si>
+    <t>TC-79-TS-04</t>
   </si>
 </sst>
 </file>
@@ -1725,12 +1737,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA234"/>
+  <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:A37"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1741,7 +1753,7 @@
     <col min="4" max="4" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.90625" customWidth="1"/>
@@ -2862,7 +2874,7 @@
     </row>
     <row r="34" spans="1:27" s="48" customFormat="1">
       <c r="A34" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>330</v>
@@ -2890,7 +2902,7 @@
     </row>
     <row r="35" spans="1:27" s="22" customFormat="1">
       <c r="A35" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>330</v>
@@ -2917,7 +2929,7 @@
     </row>
     <row r="36" spans="1:27" s="22" customFormat="1">
       <c r="A36" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>330</v>
@@ -2944,7 +2956,7 @@
     </row>
     <row r="37" spans="1:27" s="35" customFormat="1">
       <c r="A37" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>330</v>
@@ -2983,162 +2995,130 @@
       <c r="Z37" s="60"/>
       <c r="AA37" s="60"/>
     </row>
-    <row r="38" spans="1:27" s="22" customFormat="1">
+    <row r="38" spans="1:27" s="48" customFormat="1">
       <c r="A38" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>313</v>
+        <v>20</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>324</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>297</v>
-      </c>
+      <c r="D38" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="E38" s="45"/>
       <c r="F38" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="10"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="47"/>
-    </row>
-    <row r="39" spans="1:27" s="22" customFormat="1">
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="47"/>
+    </row>
+    <row r="39" spans="1:27" s="48" customFormat="1">
       <c r="A39" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>313</v>
+        <v>20</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>336</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="J39" s="8">
-        <v>30</v>
-      </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="10"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-    </row>
-    <row r="40" spans="1:27" s="22" customFormat="1">
+      <c r="D39" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="47"/>
+    </row>
+    <row r="40" spans="1:27" s="35" customFormat="1">
       <c r="A40" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>313</v>
+        <v>20</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>337</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>18</v>
+      <c r="D40" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>36</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="10"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="47"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
     </row>
     <row r="41" spans="1:27" s="35" customFormat="1">
       <c r="A41" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>298</v>
+        <v>20</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>338</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>5</v>
+      <c r="D41" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>36</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="J41" s="8">
-        <v>40</v>
-      </c>
+      <c r="G41" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="8"/>
       <c r="K41" s="10"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3146,42 +3126,40 @@
       <c r="O41" s="10"/>
       <c r="R41" s="60"/>
       <c r="S41" s="61"/>
-      <c r="T41" s="60"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="60"/>
-      <c r="X41" s="68"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="60"/>
       <c r="Y41" s="60"/>
-      <c r="Z41" s="66"/>
+      <c r="Z41" s="60"/>
       <c r="AA41" s="60"/>
     </row>
     <row r="42" spans="1:27" s="35" customFormat="1">
       <c r="A42" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>300</v>
+        <v>20</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>339</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>208</v>
+      <c r="D42" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>36</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="J42" s="8">
-        <v>30</v>
-      </c>
+      <c r="G42" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="8"/>
       <c r="K42" s="10"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3189,36 +3167,38 @@
       <c r="O42" s="10"/>
       <c r="R42" s="60"/>
       <c r="S42" s="61"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="67"/>
-      <c r="W42" s="60"/>
-      <c r="X42" s="68"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="60"/>
       <c r="Y42" s="60"/>
-      <c r="Z42" s="66"/>
+      <c r="Z42" s="60"/>
       <c r="AA42" s="60"/>
     </row>
-    <row r="43" spans="1:27" s="35" customFormat="1">
+    <row r="43" spans="1:27" s="22" customFormat="1">
       <c r="A43" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="15"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="15" t="s">
+        <v>299</v>
+      </c>
       <c r="I43" s="15"/>
       <c r="J43" s="8"/>
       <c r="K43" s="10"/>
@@ -3226,147 +3206,175 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="10"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="61"/>
-      <c r="T43" s="60"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="60"/>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="60"/>
-      <c r="Z43" s="66"/>
-      <c r="AA43" s="60"/>
-    </row>
-    <row r="44" spans="1:27" s="35" customFormat="1">
+      <c r="R43" s="47"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+    </row>
+    <row r="44" spans="1:27" s="22" customFormat="1">
       <c r="A44" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="F44" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="8"/>
+      <c r="I44" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="J44" s="8">
+        <v>30</v>
+      </c>
       <c r="K44" s="10"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="10"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="60"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="60"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="60"/>
-    </row>
-    <row r="45" spans="1:27" s="35" customFormat="1">
+      <c r="R44" s="47"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+    </row>
+    <row r="45" spans="1:27" s="22" customFormat="1">
       <c r="A45" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>28</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="15"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="15"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="K45" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" s="10"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="61"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="60"/>
-      <c r="X45" s="68"/>
-      <c r="Y45" s="60"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="60"/>
-    </row>
-    <row r="46" spans="1:27" s="30" customFormat="1">
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="47"/>
+    </row>
+    <row r="46" spans="1:27" s="35" customFormat="1">
       <c r="A46" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F46" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="8"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J46" s="8">
+        <v>40</v>
+      </c>
       <c r="K46" s="10"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="10"/>
-      <c r="R46" s="69"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="69"/>
-      <c r="W46" s="69"/>
-      <c r="X46" s="69"/>
-      <c r="Y46" s="69"/>
-      <c r="Z46" s="69"/>
-      <c r="AA46" s="69"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="66"/>
+      <c r="AA46" s="60"/>
     </row>
     <row r="47" spans="1:27" s="35" customFormat="1">
       <c r="A47" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="46"/>
+      <c r="B47" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>28</v>
+      </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="8"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="J47" s="8">
+        <v>30</v>
+      </c>
       <c r="K47" s="10"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3374,23 +3382,35 @@
       <c r="O47" s="10"/>
       <c r="R47" s="60"/>
       <c r="S47" s="61"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="63"/>
-      <c r="V47" s="60"/>
-      <c r="W47" s="63"/>
-      <c r="X47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="66"/>
+      <c r="V47" s="67"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="68"/>
       <c r="Y47" s="60"/>
-      <c r="Z47" s="60"/>
+      <c r="Z47" s="66"/>
       <c r="AA47" s="60"/>
     </row>
-    <row r="48" spans="1:27" s="22" customFormat="1">
-      <c r="A48" s="45"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="8"/>
+    <row r="48" spans="1:27" s="35" customFormat="1">
+      <c r="A48" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="2"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="8"/>
@@ -3399,26 +3419,38 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="10"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47"/>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="47"/>
-    </row>
-    <row r="49" spans="1:27" s="22" customFormat="1">
-      <c r="A49" s="45"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="15"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="60"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="60"/>
+    </row>
+    <row r="49" spans="1:27" s="35" customFormat="1">
+      <c r="A49" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="15"/>
       <c r="J49" s="8"/>
       <c r="K49" s="10"/>
@@ -3426,24 +3458,36 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="10"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="65"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47"/>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="65"/>
-      <c r="AA49" s="47"/>
-    </row>
-    <row r="50" spans="1:27" s="22" customFormat="1">
-      <c r="A50" s="45"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="46"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="66"/>
+      <c r="AA49" s="60"/>
+    </row>
+    <row r="50" spans="1:27" s="35" customFormat="1">
+      <c r="A50" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>28</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -3453,25 +3497,37 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="10"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="47"/>
-      <c r="Y50" s="47"/>
-      <c r="Z50" s="47"/>
-      <c r="AA50" s="47"/>
-    </row>
-    <row r="51" spans="1:27" s="22" customFormat="1">
-      <c r="A51" s="45"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="2"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="66"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="68"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="66"/>
+      <c r="AA50" s="60"/>
+    </row>
+    <row r="51" spans="1:27" s="30" customFormat="1">
+      <c r="A51" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="8"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="8"/>
@@ -3480,23 +3536,25 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="10"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="70"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="64"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="64"/>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="47"/>
-      <c r="Z51" s="47"/>
-      <c r="AA51" s="47"/>
-    </row>
-    <row r="52" spans="1:27" s="22" customFormat="1">
-      <c r="A52" s="45"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="69"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69"/>
+      <c r="Z51" s="69"/>
+      <c r="AA51" s="69"/>
+    </row>
+    <row r="52" spans="1:27" s="35" customFormat="1">
+      <c r="A52" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="46"/>
       <c r="G52" s="2"/>
       <c r="H52" s="15"/>
@@ -3507,188 +3565,188 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="10"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="65"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="47"/>
-      <c r="Y52" s="47"/>
-      <c r="Z52" s="65"/>
-      <c r="AA52" s="47"/>
-    </row>
-    <row r="53" spans="1:27" s="35" customFormat="1">
+      <c r="R52" s="60"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="63"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="60"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="60"/>
+      <c r="AA52" s="60"/>
+    </row>
+    <row r="53" spans="1:27" s="22" customFormat="1">
       <c r="A53" s="45"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="46"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="32"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="66"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="68"/>
-      <c r="Y53" s="60"/>
-      <c r="Z53" s="66"/>
-      <c r="AA53" s="60"/>
-    </row>
-    <row r="54" spans="1:27" s="35" customFormat="1">
-      <c r="A54" s="2"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="10"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+    </row>
+    <row r="54" spans="1:27" s="22" customFormat="1">
+      <c r="A54" s="45"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="10"/>
+      <c r="F54" s="46"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="32"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="61"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="66"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="60"/>
-      <c r="X54" s="68"/>
-      <c r="Y54" s="60"/>
-      <c r="Z54" s="66"/>
-      <c r="AA54" s="60"/>
-    </row>
-    <row r="55" spans="1:27" s="35" customFormat="1">
-      <c r="A55" s="2"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="10"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="65"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="65"/>
+      <c r="AA54" s="47"/>
+    </row>
+    <row r="55" spans="1:27" s="22" customFormat="1">
+      <c r="A55" s="45"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="10"/>
+      <c r="F55" s="46"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="32"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="61"/>
-      <c r="T55" s="60"/>
-      <c r="U55" s="66"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="60"/>
-      <c r="X55" s="68"/>
-      <c r="Y55" s="60"/>
-      <c r="Z55" s="66"/>
-      <c r="AA55" s="60"/>
-    </row>
-    <row r="56" spans="1:27" s="35" customFormat="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="32"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="61"/>
-      <c r="T56" s="60"/>
-      <c r="U56" s="66"/>
-      <c r="V56" s="67"/>
-      <c r="W56" s="60"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="60"/>
-      <c r="Z56" s="66"/>
-      <c r="AA56" s="60"/>
-    </row>
-    <row r="57" spans="1:27" s="35" customFormat="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="32"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="61"/>
-      <c r="T57" s="60"/>
-      <c r="U57" s="66"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="60"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="60"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="60"/>
-    </row>
-    <row r="58" spans="1:27" s="30" customFormat="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="27"/>
-      <c r="R58" s="69"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="69"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="69"/>
-      <c r="W58" s="69"/>
-      <c r="X58" s="69"/>
-      <c r="Y58" s="69"/>
-      <c r="Z58" s="69"/>
-      <c r="AA58" s="69"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="10"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+    </row>
+    <row r="56" spans="1:27" s="22" customFormat="1">
+      <c r="A56" s="45"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="10"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="70"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="64"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+    </row>
+    <row r="57" spans="1:27" s="22" customFormat="1">
+      <c r="A57" s="45"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="10"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="65"/>
+      <c r="AA57" s="47"/>
+    </row>
+    <row r="58" spans="1:27" s="35" customFormat="1">
+      <c r="A58" s="45"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="32"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="61"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="66"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="60"/>
+      <c r="Z58" s="66"/>
+      <c r="AA58" s="60"/>
     </row>
     <row r="59" spans="1:27" s="35" customFormat="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="33"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="32"/>
       <c r="I59" s="33"/>
       <c r="J59" s="34"/>
       <c r="K59" s="32"/>
@@ -3698,51 +3756,51 @@
       <c r="O59" s="32"/>
       <c r="R59" s="60"/>
       <c r="S59" s="61"/>
-      <c r="T59" s="62"/>
-      <c r="U59" s="63"/>
-      <c r="V59" s="60"/>
-      <c r="W59" s="63"/>
-      <c r="X59" s="60"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="60"/>
+      <c r="X59" s="68"/>
       <c r="Y59" s="60"/>
-      <c r="Z59" s="60"/>
+      <c r="Z59" s="66"/>
       <c r="AA59" s="60"/>
     </row>
-    <row r="60" spans="1:27" s="30" customFormat="1">
+    <row r="60" spans="1:27" s="35" customFormat="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="27"/>
-      <c r="R60" s="69"/>
-      <c r="S60" s="69"/>
-      <c r="T60" s="69"/>
-      <c r="U60" s="69"/>
-      <c r="V60" s="69"/>
-      <c r="W60" s="69"/>
-      <c r="X60" s="69"/>
-      <c r="Y60" s="69"/>
-      <c r="Z60" s="69"/>
-      <c r="AA60" s="69"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="32"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="66"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="66"/>
+      <c r="AA60" s="60"/>
     </row>
     <row r="61" spans="1:27" s="35" customFormat="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="33"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="32"/>
       <c r="I61" s="33"/>
       <c r="J61" s="34"/>
       <c r="K61" s="32"/>
@@ -3752,158 +3810,158 @@
       <c r="O61" s="32"/>
       <c r="R61" s="60"/>
       <c r="S61" s="61"/>
-      <c r="T61" s="62"/>
-      <c r="U61" s="63"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="63"/>
-      <c r="X61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="66"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="68"/>
       <c r="Y61" s="60"/>
-      <c r="Z61" s="60"/>
+      <c r="Z61" s="66"/>
       <c r="AA61" s="60"/>
     </row>
-    <row r="62" spans="1:27" s="30" customFormat="1">
+    <row r="62" spans="1:27" s="35" customFormat="1">
       <c r="A62" s="2"/>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
       <c r="F62" s="32"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="27"/>
-      <c r="R62" s="69"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="69"/>
-      <c r="U62" s="69"/>
-      <c r="V62" s="69"/>
-      <c r="W62" s="69"/>
-      <c r="X62" s="69"/>
-      <c r="Y62" s="69"/>
-      <c r="Z62" s="69"/>
-      <c r="AA62" s="69"/>
-    </row>
-    <row r="63" spans="1:27" s="35" customFormat="1">
+      <c r="G62" s="31"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="32"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="66"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="60"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="60"/>
+      <c r="Z62" s="66"/>
+      <c r="AA62" s="60"/>
+    </row>
+    <row r="63" spans="1:27" s="30" customFormat="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="32"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="61"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="63"/>
-      <c r="V63" s="60"/>
-      <c r="W63" s="63"/>
-      <c r="X63" s="60"/>
-      <c r="Y63" s="60"/>
-      <c r="Z63" s="60"/>
-      <c r="AA63" s="60"/>
-    </row>
-    <row r="64" spans="1:27" s="30" customFormat="1">
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="27"/>
+      <c r="R63" s="69"/>
+      <c r="S63" s="69"/>
+      <c r="T63" s="69"/>
+      <c r="U63" s="69"/>
+      <c r="V63" s="69"/>
+      <c r="W63" s="69"/>
+      <c r="X63" s="69"/>
+      <c r="Y63" s="69"/>
+      <c r="Z63" s="69"/>
+      <c r="AA63" s="69"/>
+    </row>
+    <row r="64" spans="1:27" s="35" customFormat="1">
       <c r="A64" s="2"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="27"/>
-      <c r="R64" s="69"/>
-      <c r="S64" s="69"/>
-      <c r="T64" s="69"/>
-      <c r="U64" s="69"/>
-      <c r="V64" s="69"/>
-      <c r="W64" s="69"/>
-      <c r="X64" s="69"/>
-      <c r="Y64" s="69"/>
-      <c r="Z64" s="69"/>
-      <c r="AA64" s="69"/>
-    </row>
-    <row r="65" spans="1:27" s="22" customFormat="1">
+      <c r="G64" s="31"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="32"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="62"/>
+      <c r="U64" s="63"/>
+      <c r="V64" s="60"/>
+      <c r="W64" s="63"/>
+      <c r="X64" s="60"/>
+      <c r="Y64" s="60"/>
+      <c r="Z64" s="60"/>
+      <c r="AA64" s="60"/>
+    </row>
+    <row r="65" spans="1:27" s="30" customFormat="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="10"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="70"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="65"/>
-      <c r="V65" s="72"/>
-      <c r="W65" s="47"/>
-      <c r="X65" s="73"/>
-      <c r="Y65" s="47"/>
-      <c r="Z65" s="74"/>
-      <c r="AA65" s="47"/>
-    </row>
-    <row r="66" spans="1:27" s="30" customFormat="1">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="27"/>
+      <c r="R65" s="69"/>
+      <c r="S65" s="69"/>
+      <c r="T65" s="69"/>
+      <c r="U65" s="69"/>
+      <c r="V65" s="69"/>
+      <c r="W65" s="69"/>
+      <c r="X65" s="69"/>
+      <c r="Y65" s="69"/>
+      <c r="Z65" s="69"/>
+      <c r="AA65" s="69"/>
+    </row>
+    <row r="66" spans="1:27" s="35" customFormat="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="27"/>
-      <c r="R66" s="69"/>
-      <c r="S66" s="69"/>
-      <c r="T66" s="69"/>
-      <c r="U66" s="69"/>
-      <c r="V66" s="69"/>
-      <c r="W66" s="69"/>
-      <c r="X66" s="69"/>
-      <c r="Y66" s="69"/>
-      <c r="Z66" s="69"/>
-      <c r="AA66" s="69"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="32"/>
+      <c r="R66" s="60"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="62"/>
+      <c r="U66" s="63"/>
+      <c r="V66" s="60"/>
+      <c r="W66" s="63"/>
+      <c r="X66" s="60"/>
+      <c r="Y66" s="60"/>
+      <c r="Z66" s="60"/>
+      <c r="AA66" s="60"/>
     </row>
     <row r="67" spans="1:27" s="30" customFormat="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="26"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="34"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
       <c r="J67" s="29"/>
@@ -3923,41 +3981,41 @@
       <c r="Z67" s="69"/>
       <c r="AA67" s="69"/>
     </row>
-    <row r="68" spans="1:27" s="22" customFormat="1">
+    <row r="68" spans="1:27" s="35" customFormat="1">
       <c r="A68" s="2"/>
       <c r="B68" s="26"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="10"/>
-      <c r="R68" s="47"/>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="65"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="47"/>
-      <c r="X68" s="47"/>
-      <c r="Y68" s="47"/>
-      <c r="Z68" s="65"/>
-      <c r="AA68" s="47"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="32"/>
+      <c r="R68" s="60"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="62"/>
+      <c r="U68" s="63"/>
+      <c r="V68" s="60"/>
+      <c r="W68" s="63"/>
+      <c r="X68" s="60"/>
+      <c r="Y68" s="60"/>
+      <c r="Z68" s="60"/>
+      <c r="AA68" s="60"/>
     </row>
     <row r="69" spans="1:27" s="30" customFormat="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="26"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="34"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
       <c r="J69" s="29"/>
@@ -3977,7 +4035,7 @@
       <c r="Z69" s="69"/>
       <c r="AA69" s="69"/>
     </row>
-    <row r="70" spans="1:27" s="30" customFormat="1">
+    <row r="70" spans="1:27" s="22" customFormat="1">
       <c r="A70" s="2"/>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -3985,51 +4043,51 @@
       <c r="E70" s="26"/>
       <c r="F70" s="27"/>
       <c r="G70" s="26"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="27"/>
-      <c r="R70" s="69"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="69"/>
-      <c r="U70" s="69"/>
-      <c r="V70" s="69"/>
-      <c r="W70" s="69"/>
-      <c r="X70" s="69"/>
-      <c r="Y70" s="69"/>
-      <c r="Z70" s="69"/>
-      <c r="AA70" s="69"/>
-    </row>
-    <row r="71" spans="1:27" s="22" customFormat="1">
+      <c r="H70" s="10"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="10"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="70"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="65"/>
+      <c r="V70" s="72"/>
+      <c r="W70" s="47"/>
+      <c r="X70" s="73"/>
+      <c r="Y70" s="47"/>
+      <c r="Z70" s="74"/>
+      <c r="AA70" s="47"/>
+    </row>
+    <row r="71" spans="1:27" s="30" customFormat="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="10"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="65"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="47"/>
-      <c r="X71" s="47"/>
-      <c r="Y71" s="47"/>
-      <c r="Z71" s="65"/>
-      <c r="AA71" s="47"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="27"/>
+      <c r="R71" s="69"/>
+      <c r="S71" s="69"/>
+      <c r="T71" s="69"/>
+      <c r="U71" s="69"/>
+      <c r="V71" s="69"/>
+      <c r="W71" s="69"/>
+      <c r="X71" s="69"/>
+      <c r="Y71" s="69"/>
+      <c r="Z71" s="69"/>
+      <c r="AA71" s="69"/>
     </row>
     <row r="72" spans="1:27" s="30" customFormat="1">
       <c r="A72" s="2"/>
@@ -4058,41 +4116,41 @@
       <c r="Z72" s="69"/>
       <c r="AA72" s="69"/>
     </row>
-    <row r="73" spans="1:27" s="30" customFormat="1">
+    <row r="73" spans="1:27" s="22" customFormat="1">
       <c r="A73" s="2"/>
       <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="27"/>
-      <c r="R73" s="69"/>
-      <c r="S73" s="69"/>
-      <c r="T73" s="69"/>
-      <c r="U73" s="69"/>
-      <c r="V73" s="69"/>
-      <c r="W73" s="69"/>
-      <c r="X73" s="69"/>
-      <c r="Y73" s="69"/>
-      <c r="Z73" s="69"/>
-      <c r="AA73" s="69"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="10"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="65"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="47"/>
+      <c r="X73" s="47"/>
+      <c r="Y73" s="47"/>
+      <c r="Z73" s="65"/>
+      <c r="AA73" s="47"/>
     </row>
     <row r="74" spans="1:27" s="30" customFormat="1">
       <c r="A74" s="2"/>
       <c r="B74" s="26"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="8"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="26"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
       <c r="J74" s="29"/>
@@ -4139,32 +4197,32 @@
       <c r="Z75" s="69"/>
       <c r="AA75" s="69"/>
     </row>
-    <row r="76" spans="1:27" s="30" customFormat="1">
+    <row r="76" spans="1:27" s="22" customFormat="1">
       <c r="A76" s="2"/>
       <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="27"/>
-      <c r="R76" s="69"/>
-      <c r="S76" s="69"/>
-      <c r="T76" s="69"/>
-      <c r="U76" s="69"/>
-      <c r="V76" s="69"/>
-      <c r="W76" s="69"/>
-      <c r="X76" s="69"/>
-      <c r="Y76" s="69"/>
-      <c r="Z76" s="69"/>
-      <c r="AA76" s="69"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="10"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="65"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
+      <c r="X76" s="47"/>
+      <c r="Y76" s="47"/>
+      <c r="Z76" s="65"/>
+      <c r="AA76" s="47"/>
     </row>
     <row r="77" spans="1:27" s="30" customFormat="1">
       <c r="A77" s="2"/>
@@ -4223,11 +4281,11 @@
     <row r="79" spans="1:27" s="30" customFormat="1">
       <c r="A79" s="2"/>
       <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="26"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="8"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="29"/>
@@ -4382,7 +4440,7 @@
       <c r="Z84" s="69"/>
       <c r="AA84" s="69"/>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" s="30" customFormat="1">
       <c r="A85" s="2"/>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
@@ -4390,25 +4448,26 @@
       <c r="E85" s="26"/>
       <c r="F85" s="27"/>
       <c r="G85" s="26"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="10"/>
-      <c r="R85" t="s">
-        <v>20</v>
-      </c>
-      <c r="S85" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="T85" s="59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="27"/>
+      <c r="R85" s="69"/>
+      <c r="S85" s="69"/>
+      <c r="T85" s="69"/>
+      <c r="U85" s="69"/>
+      <c r="V85" s="69"/>
+      <c r="W85" s="69"/>
+      <c r="X85" s="69"/>
+      <c r="Y85" s="69"/>
+      <c r="Z85" s="69"/>
+      <c r="AA85" s="69"/>
+    </row>
+    <row r="86" spans="1:27" s="30" customFormat="1">
       <c r="A86" s="2"/>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -4416,41 +4475,26 @@
       <c r="E86" s="26"/>
       <c r="F86" s="27"/>
       <c r="G86" s="26"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="10"/>
-      <c r="R86" t="s">
-        <v>21</v>
-      </c>
-      <c r="S86" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T86" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="U86" s="1"/>
-      <c r="V86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z86" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27">
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="27"/>
+      <c r="R86" s="69"/>
+      <c r="S86" s="69"/>
+      <c r="T86" s="69"/>
+      <c r="U86" s="69"/>
+      <c r="V86" s="69"/>
+      <c r="W86" s="69"/>
+      <c r="X86" s="69"/>
+      <c r="Y86" s="69"/>
+      <c r="Z86" s="69"/>
+      <c r="AA86" s="69"/>
+    </row>
+    <row r="87" spans="1:27" s="30" customFormat="1">
       <c r="A87" s="2"/>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
@@ -4458,114 +4502,87 @@
       <c r="E87" s="26"/>
       <c r="F87" s="27"/>
       <c r="G87" s="26"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="10"/>
-      <c r="S87" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U87" s="7"/>
-      <c r="V87" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X87" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y87" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z87" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27">
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="27"/>
+      <c r="R87" s="69"/>
+      <c r="S87" s="69"/>
+      <c r="T87" s="69"/>
+      <c r="U87" s="69"/>
+      <c r="V87" s="69"/>
+      <c r="W87" s="69"/>
+      <c r="X87" s="69"/>
+      <c r="Y87" s="69"/>
+      <c r="Z87" s="69"/>
+      <c r="AA87" s="69"/>
+    </row>
+    <row r="88" spans="1:27" s="30" customFormat="1">
       <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="10"/>
-      <c r="S88" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U88" s="7"/>
-      <c r="V88" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="W88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X88" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z88" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27">
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="27"/>
+      <c r="R88" s="69"/>
+      <c r="S88" s="69"/>
+      <c r="T88" s="69"/>
+      <c r="U88" s="69"/>
+      <c r="V88" s="69"/>
+      <c r="W88" s="69"/>
+      <c r="X88" s="69"/>
+      <c r="Y88" s="69"/>
+      <c r="Z88" s="69"/>
+      <c r="AA88" s="69"/>
+    </row>
+    <row r="89" spans="1:27" s="30" customFormat="1">
       <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="10"/>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T89" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="U89" s="7"/>
-      <c r="W89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z89" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="27"/>
+      <c r="R89" s="69"/>
+      <c r="S89" s="69"/>
+      <c r="T89" s="69"/>
+      <c r="U89" s="69"/>
+      <c r="V89" s="69"/>
+      <c r="W89" s="69"/>
+      <c r="X89" s="69"/>
+      <c r="Y89" s="69"/>
+      <c r="Z89" s="69"/>
+      <c r="AA89" s="69"/>
     </row>
     <row r="90" spans="1:27">
       <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="2"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="26"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="8"/>
@@ -4574,22 +4591,24 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="10"/>
-      <c r="T90" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="U90" s="7"/>
-      <c r="Z90" s="17" t="s">
-        <v>40</v>
+      <c r="R90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S90" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="T90" s="59" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:27">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="2"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="26"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
       <c r="J91" s="8"/>
@@ -4598,23 +4617,41 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="10"/>
-      <c r="T91" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="U91" s="7"/>
-      <c r="Z91" s="17" t="s">
-        <v>216</v>
+      <c r="R91" t="s">
+        <v>21</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U91" s="1"/>
+      <c r="V91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z91" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:27">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="15"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="15"/>
       <c r="J92" s="8"/>
       <c r="K92" s="10"/>
@@ -4622,12 +4659,27 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="10"/>
+      <c r="S92" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="T92" s="2" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="U92" s="7"/>
-      <c r="Z92" s="17" t="s">
-        <v>41</v>
+      <c r="V92" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X92" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y92" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z92" s="21" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -4635,15 +4687,38 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="8"/>
+      <c r="E93" s="2"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="8"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="10"/>
+      <c r="S93" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="T93" s="2" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="U93" s="7"/>
+      <c r="V93" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X93" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y93" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="Z93" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -4654,12 +4729,26 @@
       <c r="E94" s="2"/>
       <c r="F94" s="10"/>
       <c r="G94" s="8"/>
-      <c r="T94" s="43" t="s">
-        <v>271</v>
+      <c r="H94" s="10"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="10"/>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="U94" s="7"/>
+      <c r="W94" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Z94" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -4670,854 +4759,958 @@
       <c r="E95" s="2"/>
       <c r="F95" s="10"/>
       <c r="G95" s="2"/>
-      <c r="T95" s="43" t="s">
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="10"/>
+      <c r="T95" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U95" s="7"/>
+      <c r="Z95" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="10"/>
+      <c r="T96" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="U96" s="7"/>
+      <c r="Z96" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="10"/>
+      <c r="T97" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="U97" s="7"/>
+      <c r="Z97" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="8"/>
+      <c r="T98" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="U98" s="7"/>
+      <c r="Z98" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="8"/>
+      <c r="T99" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="U99" s="7"/>
+      <c r="Z99" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="2"/>
+      <c r="T100" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="Z95" s="17" t="s">
+      <c r="Z100" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
-      <c r="T96" s="43" t="s">
+    <row r="101" spans="1:26">
+      <c r="T101" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="U96" s="1" t="s">
+      <c r="U101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z96" s="17" t="s">
+      <c r="Z101" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="20:26">
-      <c r="T97" s="43" t="s">
+    <row r="102" spans="1:26">
+      <c r="T102" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="U97" s="24" t="s">
+      <c r="U102" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="Z97" s="17" t="s">
+      <c r="Z102" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="20:26">
-      <c r="T98" s="43" t="s">
+    <row r="103" spans="1:26">
+      <c r="T103" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="U98" s="24" t="s">
+      <c r="U103" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="Z98" s="17" t="s">
+      <c r="Z103" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="20:26">
-      <c r="T99" s="43" t="s">
+    <row r="104" spans="1:26">
+      <c r="T104" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="U99" s="24" t="s">
+      <c r="U104" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="Z99" s="17" t="s">
+      <c r="Z104" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="20:26" ht="15" thickBot="1">
-      <c r="T100" s="43" t="s">
+    <row r="105" spans="1:26" ht="15" thickBot="1">
+      <c r="T105" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="U100" s="24" t="s">
+      <c r="U105" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="Z100" s="17" t="s">
+      <c r="Z105" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="20:26" ht="15" thickBot="1">
-      <c r="T101" s="43" t="s">
+    <row r="106" spans="1:26" ht="15" thickBot="1">
+      <c r="T106" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="U101" s="24" t="s">
+      <c r="U106" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="Z101" s="18" t="s">
+      <c r="Z106" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="20:26" ht="15" thickBot="1">
-      <c r="T102" s="43" t="s">
+    <row r="107" spans="1:26" ht="15" thickBot="1">
+      <c r="T107" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="U102" s="24" t="s">
+      <c r="U107" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="Z102" s="19" t="s">
+      <c r="Z107" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="20:26" ht="15" thickBot="1">
-      <c r="T103" s="43" t="s">
+    <row r="108" spans="1:26" ht="15" thickBot="1">
+      <c r="T108" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="U103" s="24" t="s">
+      <c r="U108" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="Z103" s="19" t="s">
+      <c r="Z108" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="20:26" ht="15" thickBot="1">
-      <c r="T104" s="43" t="s">
+    <row r="109" spans="1:26" ht="15" thickBot="1">
+      <c r="T109" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="U104" s="25" t="s">
+      <c r="U109" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="Z104" s="19" t="s">
+      <c r="Z109" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="20:26" ht="15" thickBot="1">
-      <c r="T105" s="43" t="s">
+    <row r="110" spans="1:26" ht="15" thickBot="1">
+      <c r="T110" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="U105" s="24" t="s">
+      <c r="U110" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="Z105" s="19" t="s">
+      <c r="Z110" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="20:26" ht="15" thickBot="1">
-      <c r="T106" s="43" t="s">
+    <row r="111" spans="1:26" ht="15" thickBot="1">
+      <c r="T111" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="U106" s="24" t="s">
+      <c r="U111" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="Z106" s="19" t="s">
+      <c r="Z111" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="20:26" ht="15" thickBot="1">
-      <c r="T107" s="39" t="s">
+    <row r="112" spans="1:26" ht="15" thickBot="1">
+      <c r="T112" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="U107" s="24" t="s">
+      <c r="U112" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="Z107" s="19" t="s">
+      <c r="Z112" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="20:26" ht="15" thickBot="1">
-      <c r="T108" s="39" t="s">
+    <row r="113" spans="20:26" ht="15" thickBot="1">
+      <c r="T113" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="U108" s="24" t="s">
+      <c r="U113" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="Z108" s="20" t="s">
+      <c r="Z113" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="20:26" ht="15" thickBot="1">
-      <c r="T109" s="39" t="s">
+    <row r="114" spans="20:26" ht="15" thickBot="1">
+      <c r="T114" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="U109" s="24" t="s">
+      <c r="U114" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="Z109" s="20" t="s">
+      <c r="Z114" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="20:26" ht="15" thickBot="1">
-      <c r="T110" s="22" t="s">
+    <row r="115" spans="20:26" ht="15" thickBot="1">
+      <c r="T115" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="U110" s="24" t="s">
+      <c r="U115" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="Z110" s="20" t="s">
+      <c r="Z115" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="20:26" ht="15" thickBot="1">
-      <c r="U111" s="24" t="s">
+    <row r="116" spans="20:26" ht="15" thickBot="1">
+      <c r="U116" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="Z116" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="20:26" ht="15" thickBot="1">
-      <c r="U112" s="24" t="s">
+    <row r="117" spans="20:26" ht="15" thickBot="1">
+      <c r="U117" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="Z112" s="20" t="s">
+      <c r="Z117" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="21:26" ht="15" thickBot="1">
-      <c r="U113" s="24" t="s">
+    <row r="118" spans="20:26" ht="15" thickBot="1">
+      <c r="U118" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="Z113" s="20" t="s">
+      <c r="Z118" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="21:26" ht="15" thickBot="1">
-      <c r="Z114" s="20" t="s">
+    <row r="119" spans="20:26" ht="15" thickBot="1">
+      <c r="Z119" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="21:26" ht="15" thickBot="1">
-      <c r="Z115" s="20" t="s">
+    <row r="120" spans="20:26" ht="15" thickBot="1">
+      <c r="Z120" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="21:26" ht="15" thickBot="1">
-      <c r="Z116" s="20" t="s">
+    <row r="121" spans="20:26" ht="15" thickBot="1">
+      <c r="Z121" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="21:26" ht="15" thickBot="1">
-      <c r="Z117" s="20" t="s">
+    <row r="122" spans="20:26" ht="15" thickBot="1">
+      <c r="Z122" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="21:26" ht="15" thickBot="1">
-      <c r="Z118" s="20" t="s">
+    <row r="123" spans="20:26" ht="15" thickBot="1">
+      <c r="Z123" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="21:26" ht="15" thickBot="1">
-      <c r="Z119" s="20" t="s">
+    <row r="124" spans="20:26" ht="15" thickBot="1">
+      <c r="Z124" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="21:26" ht="15" thickBot="1">
-      <c r="Z120" s="20" t="s">
+    <row r="125" spans="20:26" ht="15" thickBot="1">
+      <c r="Z125" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="21:26" ht="15" thickBot="1">
-      <c r="Z121" s="20" t="s">
+    <row r="126" spans="20:26" ht="15" thickBot="1">
+      <c r="Z126" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="21:26" ht="15" thickBot="1">
-      <c r="Z122" s="20" t="s">
+    <row r="127" spans="20:26" ht="15" thickBot="1">
+      <c r="Z127" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="21:26" ht="15" thickBot="1">
-      <c r="Z123" s="20" t="s">
+    <row r="128" spans="20:26" ht="15" thickBot="1">
+      <c r="Z128" s="20" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="124" spans="21:26" ht="15" thickBot="1">
-      <c r="Z124" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="21:26" ht="15" thickBot="1">
-      <c r="Z125" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="126" spans="21:26" ht="15" thickBot="1">
-      <c r="Z126" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="127" spans="21:26" ht="15" thickBot="1">
-      <c r="Z127" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="128" spans="21:26" ht="15" thickBot="1">
-      <c r="Z128" s="20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138" spans="26:26" ht="15" thickBot="1">
       <c r="Z138" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="26:26" ht="15" thickBot="1">
       <c r="Z139" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="26:26" ht="15" thickBot="1">
       <c r="Z140" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="26:26" ht="15" thickBot="1">
       <c r="Z141" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" spans="26:26" ht="15" thickBot="1">
       <c r="Z142" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="26:26" ht="15" thickBot="1">
       <c r="Z143" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="26:26" ht="15" thickBot="1">
       <c r="Z144" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="26:26" ht="15" thickBot="1">
       <c r="Z145" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="26:26" ht="15" thickBot="1">
       <c r="Z146" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="26:26" ht="15" thickBot="1">
       <c r="Z147" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="26:26" ht="15" thickBot="1">
       <c r="Z148" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="26:26" ht="15" thickBot="1">
       <c r="Z149" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="26:26" ht="15" thickBot="1">
       <c r="Z150" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" spans="26:26" ht="15" thickBot="1">
       <c r="Z151" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152" spans="26:26" ht="15" thickBot="1">
       <c r="Z152" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="26:26" ht="15" thickBot="1">
       <c r="Z153" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="26:26" ht="15" thickBot="1">
       <c r="Z154" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="155" spans="26:26" ht="15" thickBot="1">
       <c r="Z155" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="26:26" ht="15" thickBot="1">
       <c r="Z156" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="26:26" ht="15" thickBot="1">
       <c r="Z157" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="26:26" ht="15" thickBot="1">
       <c r="Z158" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="26:26" ht="15" thickBot="1">
       <c r="Z159" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="26:26" ht="15" thickBot="1">
       <c r="Z160" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" thickBot="1">
       <c r="Z161" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" thickBot="1">
       <c r="Z162" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" thickBot="1">
       <c r="Z163" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" thickBot="1">
       <c r="Z164" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" thickBot="1">
       <c r="Z165" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" thickBot="1">
       <c r="Z166" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" thickBot="1">
       <c r="Z167" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" thickBot="1">
       <c r="Z168" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" thickBot="1">
       <c r="Z169" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" thickBot="1">
       <c r="Z170" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" thickBot="1">
       <c r="Z171" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172" spans="26:26" ht="15" thickBot="1">
       <c r="Z172" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="173" spans="26:26" ht="15" thickBot="1">
       <c r="Z173" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="26:26" ht="15" thickBot="1">
       <c r="Z174" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175" spans="26:26" ht="15" thickBot="1">
       <c r="Z175" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="176" spans="26:26" ht="15" thickBot="1">
       <c r="Z176" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177" spans="26:26" ht="15" thickBot="1">
       <c r="Z177" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="178" spans="26:26" ht="15" thickBot="1">
       <c r="Z178" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179" spans="26:26" ht="15" thickBot="1">
       <c r="Z179" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180" spans="26:26" ht="15" thickBot="1">
       <c r="Z180" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="181" spans="26:26" ht="15" thickBot="1">
       <c r="Z181" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182" spans="26:26" ht="15" thickBot="1">
       <c r="Z182" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="183" spans="26:26" ht="15" thickBot="1">
       <c r="Z183" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="184" spans="26:26" ht="15" thickBot="1">
       <c r="Z184" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="185" spans="26:26" ht="15" thickBot="1">
       <c r="Z185" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186" spans="26:26" ht="15" thickBot="1">
       <c r="Z186" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="187" spans="26:26" ht="15" thickBot="1">
       <c r="Z187" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="188" spans="26:26" ht="15" thickBot="1">
       <c r="Z188" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="189" spans="26:26" ht="15" thickBot="1">
       <c r="Z189" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="190" spans="26:26" ht="15" thickBot="1">
       <c r="Z190" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="191" spans="26:26" ht="15" thickBot="1">
       <c r="Z191" s="20" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
     </row>
     <row r="192" spans="26:26" ht="15" thickBot="1">
       <c r="Z192" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="193" spans="26:26" ht="15" thickBot="1">
       <c r="Z193" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="194" spans="26:26" ht="15" thickBot="1">
       <c r="Z194" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="195" spans="26:26" ht="15" thickBot="1">
       <c r="Z195" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="196" spans="26:26" ht="15" thickBot="1">
       <c r="Z196" s="20" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="26:26" ht="15" thickBot="1">
       <c r="Z197" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="26:26" ht="15" thickBot="1">
       <c r="Z198" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="199" spans="26:26" ht="15" thickBot="1">
       <c r="Z199" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="200" spans="26:26" ht="15" thickBot="1">
       <c r="Z200" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="201" spans="26:26" ht="15" thickBot="1">
       <c r="Z201" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="202" spans="26:26" ht="15" thickBot="1">
       <c r="Z202" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203" spans="26:26" ht="15" thickBot="1">
       <c r="Z203" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="204" spans="26:26" ht="15" thickBot="1">
       <c r="Z204" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="205" spans="26:26" ht="15" thickBot="1">
       <c r="Z205" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="206" spans="26:26" ht="15" thickBot="1">
       <c r="Z206" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207" spans="26:26" ht="15" thickBot="1">
       <c r="Z207" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="208" spans="26:26" ht="15" thickBot="1">
       <c r="Z208" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" spans="26:26" ht="15" thickBot="1">
       <c r="Z209" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="210" spans="26:26" ht="15" thickBot="1">
       <c r="Z210" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211" spans="26:26" ht="15" thickBot="1">
       <c r="Z211" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="26:26" ht="15" thickBot="1">
       <c r="Z212" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213" spans="26:26" ht="15" thickBot="1">
       <c r="Z213" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="214" spans="26:26" ht="15" thickBot="1">
       <c r="Z214" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="215" spans="26:26" ht="15" thickBot="1">
       <c r="Z215" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216" spans="26:26" ht="15" thickBot="1">
       <c r="Z216" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="217" spans="26:26" ht="15" thickBot="1">
       <c r="Z217" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="218" spans="26:26" ht="15" thickBot="1">
       <c r="Z218" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="219" spans="26:26" ht="15" thickBot="1">
       <c r="Z219" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="220" spans="26:26" ht="15" thickBot="1">
       <c r="Z220" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="221" spans="26:26" ht="15" thickBot="1">
+      <c r="Z221" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="222" spans="26:26" ht="15" thickBot="1">
+      <c r="Z222" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="223" spans="26:26" ht="15" thickBot="1">
+      <c r="Z223" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="224" spans="26:26" ht="15" thickBot="1">
+      <c r="Z224" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="221" spans="26:26">
-      <c r="Z221" s="36" t="s">
+    <row r="225" spans="26:26" ht="15" thickBot="1">
+      <c r="Z225" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="226" spans="26:26">
+      <c r="Z226" s="36" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="222" spans="26:26">
-      <c r="Z222" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="223" spans="26:26">
-      <c r="Z223" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="224" spans="26:26">
-      <c r="Z224" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="225" spans="26:26">
-      <c r="Z225" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="226" spans="26:26">
-      <c r="Z226" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="227" spans="26:26">
       <c r="Z227" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="228" spans="26:26">
+      <c r="Z228" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="229" spans="26:26">
+      <c r="Z229" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="230" spans="26:26">
+      <c r="Z230" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="231" spans="26:26">
+      <c r="Z231" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="26:26">
+      <c r="Z232" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="228" spans="26:26">
-      <c r="Z228" s="22" t="s">
+    <row r="233" spans="26:26">
+      <c r="Z233" s="22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="229" spans="26:26">
-      <c r="Z229" s="22" t="s">
+    <row r="234" spans="26:26">
+      <c r="Z234" s="22" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="26:26">
-      <c r="Z230" s="37" t="s">
+    <row r="235" spans="26:26">
+      <c r="Z235" s="37" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="26:26">
-      <c r="Z231" s="21" t="s">
+    <row r="236" spans="26:26">
+      <c r="Z236" s="21" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="232" spans="26:26" ht="15" thickBot="1">
-      <c r="Z232" s="19" t="s">
+    <row r="237" spans="26:26" ht="15" thickBot="1">
+      <c r="Z237" s="19" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="233" spans="26:26" ht="15" thickBot="1">
-      <c r="Z233" s="19" t="s">
+    <row r="238" spans="26:26" ht="15" thickBot="1">
+      <c r="Z238" s="19" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="234" spans="26:26" ht="15" thickBot="1">
-      <c r="Z234" s="19" t="s">
+    <row r="239" spans="26:26" ht="15" thickBot="1">
+      <c r="Z239" s="19" t="s">
         <v>334</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E91 E56:E60">
-      <formula1>$W$87:$W$89</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E96 E61:E65">
+      <formula1>$W$92:$W$94</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E89 E71 E66 E62 E94 E54 E64 E74">
-      <formula1>$Y$87:$Y$88</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E94 E79 E69 E59 E99 E67 E71 E76">
+      <formula1>$Y$92:$Y$93</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88">
-      <formula1>$S$86:$S$89</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93">
+      <formula1>$S$91:$S$94</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E90 E13 E68">
-      <formula1>$U$97:$U$113</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E95 E73 E13">
+      <formula1>$U$102:$U$118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E95 E67 E72:E73 E65 E63 E55 E51:E53 E61 E69:E70 E75:E87">
-      <formula1>$V$87</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E80:E92 E74:E75 E66 E56:E58 E60 E68 E70 E77:E78 E72">
+      <formula1>$V$92</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50 E38:E40">
-      <formula1>$Y$72:$Y$74</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E55 E43:E45">
+      <formula1>$Y$77:$Y$79</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29 E35:E36 E4:E9 E12 E32">
-      <formula1>$V$72</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29 E32 E12 E4:E9 E35:E36">
+      <formula1>$V$77</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42 E44:E45">
-      <formula1>$U$82:$U$98</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E47 E49:E50">
+      <formula1>$U$87:$U$103</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41">
-      <formula1>$S$71:$S$74</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E46">
+      <formula1>$S$76:$S$79</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49 E46">
-      <formula1>$Y$72:$Y$73</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54 E51">
+      <formula1>$Y$77:$Y$78</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43">
-      <formula1>$W$72:$W$74</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48">
+      <formula1>$W$77:$W$79</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37 E16:E17 E30 E21:E22 E33 E26:E27">
-      <formula1>$V$87:$V$88</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E27 E16:E17 E37 E33 E21:E22 E30 E40:E42">
+      <formula1>$V$92:$V$93</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$85:$R$86</formula1>
+      <formula1>$R$90:$R$91</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$86:$T$110</formula1>
+      <formula1>$T$91:$T$115</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>$Z$87:$Z$234</formula1>
+      <formula1>$Z$92:$Z$239</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5529,10 +5722,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6544,12 +6737,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="C34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="I34" s="42"/>
+    <row r="34" spans="1:13" s="49" customFormat="1">
+      <c r="A34" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="I34" s="52">
+        <v>1</v>
+      </c>
+      <c r="J34" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="K34" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="L34" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:13">
       <c r="C35" s="11"/>
@@ -6718,7 +6945,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="364">
   <si>
     <t>Execution</t>
   </si>
@@ -909,27 +909,12 @@
     <t>20</t>
   </si>
   <si>
-    <t>DATA_NON_SOCIAL</t>
-  </si>
-  <si>
-    <t>TC-3903</t>
-  </si>
-  <si>
-    <t>189348653076336</t>
-  </si>
-  <si>
     <t>TC-3860-01</t>
   </si>
   <si>
     <t>SMS_DU_TO_National</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>00919811098110</t>
-  </si>
-  <si>
     <t>LIVE_USAGE_VIDEO_CALL</t>
   </si>
   <si>
@@ -957,9 +942,6 @@
     <t xml:space="preserve">424030046672675 </t>
   </si>
   <si>
-    <t>TC-254</t>
-  </si>
-  <si>
     <t>TC_Original</t>
   </si>
   <si>
@@ -1036,6 +1018,96 @@
   </si>
   <si>
     <t>TC-79-TS-04</t>
+  </si>
+  <si>
+    <t>2min&amp;30MB AED3 Day_Overide</t>
+  </si>
+  <si>
+    <t>TC-80</t>
+  </si>
+  <si>
+    <t>TC-79-TS-01</t>
+  </si>
+  <si>
+    <t>TC-80-TS-01</t>
+  </si>
+  <si>
+    <t>TC-80-TS-02</t>
+  </si>
+  <si>
+    <t>TC-80-TS-03</t>
+  </si>
+  <si>
+    <t>TC-80-TS-04</t>
+  </si>
+  <si>
+    <t>TC-81</t>
+  </si>
+  <si>
+    <t>TC-81-TS-01</t>
+  </si>
+  <si>
+    <t>TC-81-TS-02</t>
+  </si>
+  <si>
+    <t>TC-81-TS-03</t>
+  </si>
+  <si>
+    <t>TC-81-TS-04</t>
+  </si>
+  <si>
+    <t>TC-82</t>
+  </si>
+  <si>
+    <t>TC-82-TS-02</t>
+  </si>
+  <si>
+    <t>TC-82-TS-01</t>
+  </si>
+  <si>
+    <t>TC-82-TS-03</t>
+  </si>
+  <si>
+    <t>TC-88-TS-01</t>
+  </si>
+  <si>
+    <t>TC-88-TS-02</t>
+  </si>
+  <si>
+    <t>TC-88-TS-03</t>
+  </si>
+  <si>
+    <t>TC-93-TS-01</t>
+  </si>
+  <si>
+    <t>TC-93-TS-02</t>
+  </si>
+  <si>
+    <t>TC-93-TS-03</t>
+  </si>
+  <si>
+    <t>TC-93-TS-04</t>
+  </si>
+  <si>
+    <t>TC-93-TS-05</t>
+  </si>
+  <si>
+    <t>TC-93-TS-06</t>
+  </si>
+  <si>
+    <t>TC-93-TS-07</t>
+  </si>
+  <si>
+    <t>TC-93-TS-08</t>
+  </si>
+  <si>
+    <t>TC-93-TS-09</t>
+  </si>
+  <si>
+    <t>TC-93-TS-10</t>
+  </si>
+  <si>
+    <t>TC-93-TS-11</t>
   </si>
 </sst>
 </file>
@@ -1737,12 +1809,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA239"/>
+  <dimension ref="A1:AA273"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1828,7 +1900,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
@@ -1838,7 +1910,7 @@
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G2" s="45"/>
       <c r="H2" s="46"/>
@@ -1860,7 +1932,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -1870,7 +1942,7 @@
       </c>
       <c r="E3" s="45"/>
       <c r="F3" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="46"/>
@@ -1885,10 +1957,10 @@
     </row>
     <row r="4" spans="1:26" s="48" customFormat="1">
       <c r="A4" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -1920,7 +1992,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -1930,7 +2002,7 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="15"/>
@@ -1947,7 +2019,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -1959,7 +2031,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>166</v>
@@ -1978,7 +2050,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
@@ -1990,10 +2062,10 @@
         <v>37</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -2016,7 +2088,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -2026,7 +2098,7 @@
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="15"/>
@@ -2043,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -2055,7 +2127,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>166</v>
@@ -2077,7 +2149,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -2087,7 +2159,7 @@
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="46"/>
@@ -2105,7 +2177,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -2114,7 +2186,9 @@
         <v>275</v>
       </c>
       <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
+      <c r="F11" s="46" t="s">
+        <v>294</v>
+      </c>
       <c r="G11" s="45"/>
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
@@ -2131,7 +2205,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -2143,7 +2217,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>166</v>
@@ -2169,7 +2243,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -2181,12 +2255,12 @@
         <v>212</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="10"/>
       <c r="I13" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J13" s="8">
         <v>40</v>
@@ -2205,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
@@ -2215,7 +2289,7 @@
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
@@ -2233,7 +2307,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
@@ -2242,7 +2316,9 @@
         <v>275</v>
       </c>
       <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="46" t="s">
+        <v>294</v>
+      </c>
       <c r="G15" s="45"/>
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
@@ -2259,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -2271,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>50</v>
@@ -2293,7 +2369,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -2305,7 +2381,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G17" s="45" t="s">
         <v>50</v>
@@ -2327,7 +2403,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
@@ -2337,7 +2413,7 @@
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="46"/>
@@ -2359,7 +2435,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
@@ -2369,7 +2445,7 @@
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G19" s="45"/>
       <c r="H19" s="46"/>
@@ -2387,7 +2463,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -2396,7 +2472,9 @@
         <v>275</v>
       </c>
       <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
+      <c r="F20" s="46" t="s">
+        <v>294</v>
+      </c>
       <c r="G20" s="45"/>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
@@ -2413,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
@@ -2425,7 +2503,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>51</v>
@@ -2454,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>32</v>
@@ -2466,7 +2544,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>51</v>
@@ -2495,7 +2573,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -2505,7 +2583,7 @@
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="15"/>
@@ -2536,7 +2614,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>32</v>
@@ -2546,7 +2624,7 @@
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="46"/>
@@ -2564,7 +2642,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>32</v>
@@ -2573,7 +2651,9 @@
         <v>275</v>
       </c>
       <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
+      <c r="F25" s="46" t="s">
+        <v>294</v>
+      </c>
       <c r="G25" s="45"/>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
@@ -2590,7 +2670,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
@@ -2602,7 +2682,7 @@
         <v>36</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>52</v>
@@ -2631,7 +2711,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>32</v>
@@ -2643,7 +2723,7 @@
         <v>36</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>52</v>
@@ -2672,7 +2752,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>32</v>
@@ -2682,7 +2762,7 @@
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G28" s="45"/>
       <c r="H28" s="15"/>
@@ -2713,7 +2793,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>32</v>
@@ -2723,7 +2803,7 @@
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="15"/>
@@ -2740,7 +2820,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>32</v>
@@ -2752,7 +2832,7 @@
         <v>36</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>50</v>
@@ -2781,7 +2861,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
@@ -2791,7 +2871,7 @@
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G31" s="45"/>
       <c r="H31" s="46"/>
@@ -2809,7 +2889,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>32</v>
@@ -2819,7 +2899,7 @@
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="15"/>
@@ -2836,7 +2916,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
@@ -2848,7 +2928,7 @@
         <v>36</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>54</v>
@@ -2877,7 +2957,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>32</v>
@@ -2887,7 +2967,7 @@
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G34" s="45"/>
       <c r="H34" s="46"/>
@@ -2905,7 +2985,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>32</v>
@@ -2915,7 +2995,7 @@
       </c>
       <c r="E35" s="45"/>
       <c r="F35" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="15"/>
@@ -2932,7 +3012,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>32</v>
@@ -2942,7 +3022,7 @@
       </c>
       <c r="E36" s="45"/>
       <c r="F36" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="15"/>
@@ -2959,7 +3039,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>32</v>
@@ -2971,7 +3051,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>54</v>
@@ -2997,10 +3077,10 @@
     </row>
     <row r="38" spans="1:27" s="48" customFormat="1">
       <c r="A38" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>32</v>
@@ -3010,7 +3090,7 @@
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G38" s="45"/>
       <c r="H38" s="46"/>
@@ -3027,9 +3107,9 @@
       <c r="O38" s="46"/>
       <c r="P38" s="47"/>
     </row>
-    <row r="39" spans="1:27" s="48" customFormat="1">
+    <row r="39" spans="1:27" s="35" customFormat="1">
       <c r="A39" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>336</v>
@@ -3038,27 +3118,42 @@
         <v>32</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="47"/>
+        <v>33</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="10"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
     </row>
     <row r="40" spans="1:27" s="35" customFormat="1">
       <c r="A40" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>32</v>
@@ -3070,10 +3165,10 @@
         <v>36</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -3096,10 +3191,10 @@
     </row>
     <row r="41" spans="1:27" s="35" customFormat="1">
       <c r="A41" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>32</v>
@@ -3111,10 +3206,10 @@
         <v>36</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
@@ -3137,10 +3232,10 @@
     </row>
     <row r="42" spans="1:27" s="35" customFormat="1">
       <c r="A42" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>32</v>
@@ -3152,10 +3247,10 @@
         <v>36</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G42" s="45" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -3176,162 +3271,118 @@
       <c r="Z42" s="60"/>
       <c r="AA42" s="60"/>
     </row>
-    <row r="43" spans="1:27" s="22" customFormat="1">
+    <row r="43" spans="1:27" s="48" customFormat="1">
       <c r="A43" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>313</v>
+      <c r="B43" s="45" t="s">
+        <v>318</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>297</v>
-      </c>
+      <c r="D43" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="E43" s="45"/>
       <c r="F43" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="10"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="47"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="47"/>
-      <c r="AA43" s="47"/>
-    </row>
-    <row r="44" spans="1:27" s="22" customFormat="1">
+        <v>294</v>
+      </c>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="47"/>
+    </row>
+    <row r="44" spans="1:27" s="48" customFormat="1" ht="14" customHeight="1">
       <c r="A44" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>313</v>
+      <c r="B44" s="45" t="s">
+        <v>335</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>19</v>
-      </c>
+      <c r="D44" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E44" s="45"/>
       <c r="F44" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="J44" s="8">
-        <v>30</v>
-      </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="10"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="47"/>
-      <c r="AA44" s="47"/>
+        <v>294</v>
+      </c>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="47"/>
     </row>
     <row r="45" spans="1:27" s="22" customFormat="1">
       <c r="A45" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>18</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E45" s="45"/>
       <c r="F45" s="46" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="10"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="10"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="47"/>
     </row>
     <row r="46" spans="1:27" s="35" customFormat="1">
       <c r="A46" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>298</v>
+      <c r="B46" s="45" t="s">
+        <v>337</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>5</v>
+      <c r="D46" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>36</v>
       </c>
       <c r="F46" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="J46" s="8">
-        <v>40</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="8"/>
       <c r="K46" s="10"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -3339,42 +3390,40 @@
       <c r="O46" s="10"/>
       <c r="R46" s="60"/>
       <c r="S46" s="61"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="66"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="60"/>
-      <c r="X46" s="68"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="60"/>
       <c r="Y46" s="60"/>
-      <c r="Z46" s="66"/>
+      <c r="Z46" s="60"/>
       <c r="AA46" s="60"/>
     </row>
     <row r="47" spans="1:27" s="35" customFormat="1">
       <c r="A47" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>300</v>
+      <c r="B47" s="45" t="s">
+        <v>338</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>208</v>
+      <c r="D47" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>36</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="J47" s="8">
-        <v>30</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="8"/>
       <c r="K47" s="10"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3382,35 +3431,37 @@
       <c r="O47" s="10"/>
       <c r="R47" s="60"/>
       <c r="S47" s="61"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="66"/>
-      <c r="V47" s="67"/>
-      <c r="W47" s="60"/>
-      <c r="X47" s="68"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="60"/>
       <c r="Y47" s="60"/>
-      <c r="Z47" s="66"/>
+      <c r="Z47" s="60"/>
       <c r="AA47" s="60"/>
     </row>
     <row r="48" spans="1:27" s="35" customFormat="1">
       <c r="A48" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>300</v>
+      <c r="B48" s="45" t="s">
+        <v>339</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>301</v>
+      <c r="D48" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>36</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>326</v>
+      </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="8"/>
@@ -3421,36 +3472,38 @@
       <c r="O48" s="10"/>
       <c r="R48" s="60"/>
       <c r="S48" s="61"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="66"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="60"/>
-      <c r="X48" s="68"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="60"/>
       <c r="Y48" s="60"/>
-      <c r="Z48" s="66"/>
+      <c r="Z48" s="60"/>
       <c r="AA48" s="60"/>
     </row>
     <row r="49" spans="1:27" s="35" customFormat="1">
       <c r="A49" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>300</v>
+      <c r="B49" s="45" t="s">
+        <v>340</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>212</v>
+      <c r="D49" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>36</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="10"/>
+        <v>294</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="8"/>
       <c r="K49" s="10"/>
@@ -3460,102 +3513,92 @@
       <c r="O49" s="10"/>
       <c r="R49" s="60"/>
       <c r="S49" s="61"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="66"/>
-      <c r="V49" s="67"/>
-      <c r="W49" s="60"/>
-      <c r="X49" s="68"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="60"/>
       <c r="Y49" s="60"/>
-      <c r="Z49" s="66"/>
+      <c r="Z49" s="60"/>
       <c r="AA49" s="60"/>
     </row>
-    <row r="50" spans="1:27" s="35" customFormat="1">
+    <row r="50" spans="1:27" s="48" customFormat="1">
       <c r="A50" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>300</v>
+      <c r="B50" s="45" t="s">
+        <v>318</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>208</v>
-      </c>
+      <c r="D50" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="E50" s="45"/>
       <c r="F50" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="10"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="61"/>
-      <c r="T50" s="60"/>
-      <c r="U50" s="66"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="60"/>
-      <c r="X50" s="68"/>
-      <c r="Y50" s="60"/>
-      <c r="Z50" s="66"/>
-      <c r="AA50" s="60"/>
-    </row>
-    <row r="51" spans="1:27" s="30" customFormat="1">
+        <v>294</v>
+      </c>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="J50" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="47"/>
+    </row>
+    <row r="51" spans="1:27" s="48" customFormat="1" ht="14" customHeight="1">
       <c r="A51" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>300</v>
+      <c r="B51" s="45" t="s">
+        <v>341</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="45" t="s">
-        <v>18</v>
-      </c>
+      <c r="D51" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="45"/>
       <c r="F51" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="10"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="69"/>
-      <c r="X51" s="69"/>
-      <c r="Y51" s="69"/>
-      <c r="Z51" s="69"/>
-      <c r="AA51" s="69"/>
-    </row>
-    <row r="52" spans="1:27" s="35" customFormat="1">
+        <v>294</v>
+      </c>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="47"/>
+    </row>
+    <row r="52" spans="1:27" s="22" customFormat="1">
       <c r="A52" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="46"/>
+      <c r="B52" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46" t="s">
+        <v>294</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -3565,25 +3608,25 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="10"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="63"/>
-      <c r="V52" s="60"/>
-      <c r="W52" s="63"/>
-      <c r="X52" s="60"/>
-      <c r="Y52" s="60"/>
-      <c r="Z52" s="60"/>
-      <c r="AA52" s="60"/>
     </row>
     <row r="53" spans="1:27" s="22" customFormat="1">
-      <c r="A53" s="45"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="8"/>
+      <c r="A53" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="8"/>
@@ -3592,25 +3635,29 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="10"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="47"/>
-      <c r="Y53" s="47"/>
-      <c r="Z53" s="47"/>
-      <c r="AA53" s="47"/>
-    </row>
-    <row r="54" spans="1:27" s="22" customFormat="1">
-      <c r="A54" s="45"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="8"/>
+    </row>
+    <row r="54" spans="1:27" s="35" customFormat="1">
+      <c r="A54" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="8"/>
@@ -3619,25 +3666,39 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="10"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="65"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="47"/>
-      <c r="Y54" s="47"/>
-      <c r="Z54" s="65"/>
-      <c r="AA54" s="47"/>
-    </row>
-    <row r="55" spans="1:27" s="22" customFormat="1">
-      <c r="A55" s="45"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="2"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="60"/>
+      <c r="Y54" s="60"/>
+      <c r="Z54" s="60"/>
+      <c r="AA54" s="60"/>
+    </row>
+    <row r="55" spans="1:27" s="35" customFormat="1">
+      <c r="A55" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>334</v>
+      </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="8"/>
@@ -3646,25 +3707,39 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="10"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="47"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="47"/>
-    </row>
-    <row r="56" spans="1:27" s="22" customFormat="1">
-      <c r="A56" s="45"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="2"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="61"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="60"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
+    </row>
+    <row r="56" spans="1:27" s="35" customFormat="1">
+      <c r="A56" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>326</v>
+      </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="8"/>
@@ -3673,25 +3748,39 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="10"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="70"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="64"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="64"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="47"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="47"/>
-    </row>
-    <row r="57" spans="1:27" s="22" customFormat="1">
-      <c r="A57" s="45"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="2"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="63"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="60"/>
+      <c r="Z56" s="60"/>
+      <c r="AA56" s="60"/>
+    </row>
+    <row r="57" spans="1:27" s="35" customFormat="1">
+      <c r="A57" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="8"/>
@@ -3700,249 +3789,330 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="10"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="65"/>
-      <c r="V57" s="47"/>
-      <c r="W57" s="47"/>
-      <c r="X57" s="47"/>
-      <c r="Y57" s="47"/>
-      <c r="Z57" s="65"/>
-      <c r="AA57" s="47"/>
-    </row>
-    <row r="58" spans="1:27" s="35" customFormat="1">
-      <c r="A58" s="45"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="32"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="61"/>
-      <c r="T58" s="60"/>
-      <c r="U58" s="66"/>
-      <c r="V58" s="67"/>
-      <c r="W58" s="60"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="60"/>
-      <c r="Z58" s="66"/>
-      <c r="AA58" s="60"/>
-    </row>
-    <row r="59" spans="1:27" s="35" customFormat="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="32"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="60"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="60"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="60"/>
-      <c r="Z59" s="66"/>
-      <c r="AA59" s="60"/>
-    </row>
-    <row r="60" spans="1:27" s="35" customFormat="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="10"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="61"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="63"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="63"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60"/>
+      <c r="Z57" s="60"/>
+      <c r="AA57" s="60"/>
+    </row>
+    <row r="58" spans="1:27" s="48" customFormat="1">
+      <c r="A58" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="E58" s="45"/>
+      <c r="F58" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G58" s="45"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="J58" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="47"/>
+    </row>
+    <row r="59" spans="1:27" s="48" customFormat="1" ht="14" customHeight="1">
+      <c r="A59" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E59" s="45"/>
+      <c r="F59" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="45"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="47"/>
+    </row>
+    <row r="60" spans="1:27" s="22" customFormat="1">
+      <c r="A60" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46" t="s">
+        <v>294</v>
+      </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="32"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="61"/>
-      <c r="T60" s="60"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="67"/>
-      <c r="W60" s="60"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="60"/>
-      <c r="Z60" s="66"/>
-      <c r="AA60" s="60"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="10"/>
     </row>
     <row r="61" spans="1:27" s="35" customFormat="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="32"/>
+      <c r="A61" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="10"/>
       <c r="R61" s="60"/>
       <c r="S61" s="61"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="68"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="63"/>
+      <c r="X61" s="60"/>
       <c r="Y61" s="60"/>
-      <c r="Z61" s="66"/>
+      <c r="Z61" s="60"/>
       <c r="AA61" s="60"/>
     </row>
     <row r="62" spans="1:27" s="35" customFormat="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="32"/>
+      <c r="A62" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="10"/>
       <c r="R62" s="60"/>
       <c r="S62" s="61"/>
-      <c r="T62" s="60"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="67"/>
-      <c r="W62" s="60"/>
-      <c r="X62" s="68"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="63"/>
+      <c r="V62" s="60"/>
+      <c r="W62" s="63"/>
+      <c r="X62" s="60"/>
       <c r="Y62" s="60"/>
-      <c r="Z62" s="66"/>
+      <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
     </row>
-    <row r="63" spans="1:27" s="30" customFormat="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="27"/>
-      <c r="R63" s="69"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="69"/>
-      <c r="U63" s="69"/>
-      <c r="V63" s="69"/>
-      <c r="W63" s="69"/>
-      <c r="X63" s="69"/>
-      <c r="Y63" s="69"/>
-      <c r="Z63" s="69"/>
-      <c r="AA63" s="69"/>
-    </row>
-    <row r="64" spans="1:27" s="35" customFormat="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="32"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="61"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="63"/>
-      <c r="V64" s="60"/>
-      <c r="W64" s="63"/>
-      <c r="X64" s="60"/>
-      <c r="Y64" s="60"/>
-      <c r="Z64" s="60"/>
-      <c r="AA64" s="60"/>
-    </row>
-    <row r="65" spans="1:27" s="30" customFormat="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="27"/>
-      <c r="R65" s="69"/>
-      <c r="S65" s="69"/>
-      <c r="T65" s="69"/>
-      <c r="U65" s="69"/>
-      <c r="V65" s="69"/>
-      <c r="W65" s="69"/>
-      <c r="X65" s="69"/>
-      <c r="Y65" s="69"/>
-      <c r="Z65" s="69"/>
-      <c r="AA65" s="69"/>
+    <row r="63" spans="1:27" s="35" customFormat="1">
+      <c r="A63" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="10"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="63"/>
+      <c r="V63" s="60"/>
+      <c r="W63" s="63"/>
+      <c r="X63" s="60"/>
+      <c r="Y63" s="60"/>
+      <c r="Z63" s="60"/>
+      <c r="AA63" s="60"/>
+    </row>
+    <row r="64" spans="1:27" s="48" customFormat="1">
+      <c r="A64" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="E64" s="45"/>
+      <c r="F64" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G64" s="45"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="J64" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="47"/>
+    </row>
+    <row r="65" spans="1:27" s="35" customFormat="1">
+      <c r="A65" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="10"/>
+      <c r="R65" s="60"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="62"/>
+      <c r="U65" s="63"/>
+      <c r="V65" s="60"/>
+      <c r="W65" s="63"/>
+      <c r="X65" s="60"/>
+      <c r="Y65" s="60"/>
+      <c r="Z65" s="60"/>
+      <c r="AA65" s="60"/>
     </row>
     <row r="66" spans="1:27" s="35" customFormat="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="32"/>
+      <c r="A66" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="10"/>
       <c r="R66" s="60"/>
       <c r="S66" s="61"/>
       <c r="T66" s="62"/>
@@ -3954,96 +4124,143 @@
       <c r="Z66" s="60"/>
       <c r="AA66" s="60"/>
     </row>
-    <row r="67" spans="1:27" s="30" customFormat="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
-      <c r="R67" s="69"/>
-      <c r="S67" s="69"/>
-      <c r="T67" s="69"/>
-      <c r="U67" s="69"/>
-      <c r="V67" s="69"/>
-      <c r="W67" s="69"/>
-      <c r="X67" s="69"/>
-      <c r="Y67" s="69"/>
-      <c r="Z67" s="69"/>
-      <c r="AA67" s="69"/>
-    </row>
-    <row r="68" spans="1:27" s="35" customFormat="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="32"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="62"/>
-      <c r="U68" s="63"/>
-      <c r="V68" s="60"/>
-      <c r="W68" s="63"/>
-      <c r="X68" s="60"/>
-      <c r="Y68" s="60"/>
-      <c r="Z68" s="60"/>
-      <c r="AA68" s="60"/>
-    </row>
-    <row r="69" spans="1:27" s="30" customFormat="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="27"/>
-      <c r="R69" s="69"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="69"/>
-      <c r="U69" s="69"/>
-      <c r="V69" s="69"/>
-      <c r="W69" s="69"/>
-      <c r="X69" s="69"/>
-      <c r="Y69" s="69"/>
-      <c r="Z69" s="69"/>
-      <c r="AA69" s="69"/>
-    </row>
-    <row r="70" spans="1:27" s="22" customFormat="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="10"/>
+    <row r="67" spans="1:27" s="35" customFormat="1">
+      <c r="A67" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G67" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="10"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="62"/>
+      <c r="U67" s="63"/>
+      <c r="V67" s="60"/>
+      <c r="W67" s="63"/>
+      <c r="X67" s="60"/>
+      <c r="Y67" s="60"/>
+      <c r="Z67" s="60"/>
+      <c r="AA67" s="60"/>
+    </row>
+    <row r="68" spans="1:27" s="48" customFormat="1">
+      <c r="A68" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="E68" s="45"/>
+      <c r="F68" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G68" s="45"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="J68" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="47"/>
+    </row>
+    <row r="69" spans="1:27" s="35" customFormat="1">
+      <c r="A69" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="10"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="62"/>
+      <c r="U69" s="63"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="63"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="60"/>
+      <c r="Z69" s="60"/>
+      <c r="AA69" s="60"/>
+    </row>
+    <row r="70" spans="1:27" s="35" customFormat="1">
+      <c r="A70" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="8"/>
       <c r="K70" s="10"/>
@@ -4051,79 +4268,123 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="10"/>
-      <c r="R70" s="47"/>
-      <c r="S70" s="70"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="65"/>
-      <c r="V70" s="72"/>
-      <c r="W70" s="47"/>
-      <c r="X70" s="73"/>
-      <c r="Y70" s="47"/>
-      <c r="Z70" s="74"/>
-      <c r="AA70" s="47"/>
-    </row>
-    <row r="71" spans="1:27" s="30" customFormat="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="27"/>
-      <c r="R71" s="69"/>
-      <c r="S71" s="69"/>
-      <c r="T71" s="69"/>
-      <c r="U71" s="69"/>
-      <c r="V71" s="69"/>
-      <c r="W71" s="69"/>
-      <c r="X71" s="69"/>
-      <c r="Y71" s="69"/>
-      <c r="Z71" s="69"/>
-      <c r="AA71" s="69"/>
-    </row>
-    <row r="72" spans="1:27" s="30" customFormat="1">
-      <c r="A72" s="2"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="27"/>
-      <c r="R72" s="69"/>
-      <c r="S72" s="69"/>
-      <c r="T72" s="69"/>
-      <c r="U72" s="69"/>
-      <c r="V72" s="69"/>
-      <c r="W72" s="69"/>
-      <c r="X72" s="69"/>
-      <c r="Y72" s="69"/>
-      <c r="Z72" s="69"/>
-      <c r="AA72" s="69"/>
-    </row>
-    <row r="73" spans="1:27" s="22" customFormat="1">
-      <c r="A73" s="2"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="2"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="62"/>
+      <c r="U70" s="63"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="63"/>
+      <c r="X70" s="60"/>
+      <c r="Y70" s="60"/>
+      <c r="Z70" s="60"/>
+      <c r="AA70" s="60"/>
+    </row>
+    <row r="71" spans="1:27" s="35" customFormat="1">
+      <c r="A71" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="10"/>
+      <c r="R71" s="60"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="62"/>
+      <c r="U71" s="63"/>
+      <c r="V71" s="60"/>
+      <c r="W71" s="63"/>
+      <c r="X71" s="60"/>
+      <c r="Y71" s="60"/>
+      <c r="Z71" s="60"/>
+      <c r="AA71" s="60"/>
+    </row>
+    <row r="72" spans="1:27" s="35" customFormat="1">
+      <c r="A72" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" s="8">
+        <v>30</v>
+      </c>
+      <c r="K72" s="10"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="10"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="60"/>
+      <c r="U72" s="66"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="60"/>
+      <c r="X72" s="68"/>
+      <c r="Y72" s="60"/>
+      <c r="Z72" s="66"/>
+      <c r="AA72" s="60"/>
+    </row>
+    <row r="73" spans="1:27" s="35" customFormat="1">
+      <c r="A73" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G73" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="8"/>
@@ -4132,79 +4393,123 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="10"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="65"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="47"/>
-      <c r="X73" s="47"/>
-      <c r="Y73" s="47"/>
-      <c r="Z73" s="65"/>
-      <c r="AA73" s="47"/>
-    </row>
-    <row r="74" spans="1:27" s="30" customFormat="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="27"/>
-      <c r="R74" s="69"/>
-      <c r="S74" s="69"/>
-      <c r="T74" s="69"/>
-      <c r="U74" s="69"/>
-      <c r="V74" s="69"/>
-      <c r="W74" s="69"/>
-      <c r="X74" s="69"/>
-      <c r="Y74" s="69"/>
-      <c r="Z74" s="69"/>
-      <c r="AA74" s="69"/>
-    </row>
-    <row r="75" spans="1:27" s="30" customFormat="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="27"/>
-      <c r="R75" s="69"/>
-      <c r="S75" s="69"/>
-      <c r="T75" s="69"/>
-      <c r="U75" s="69"/>
-      <c r="V75" s="69"/>
-      <c r="W75" s="69"/>
-      <c r="X75" s="69"/>
-      <c r="Y75" s="69"/>
-      <c r="Z75" s="69"/>
-      <c r="AA75" s="69"/>
-    </row>
-    <row r="76" spans="1:27" s="22" customFormat="1">
-      <c r="A76" s="2"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="8"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="61"/>
+      <c r="T73" s="62"/>
+      <c r="U73" s="63"/>
+      <c r="V73" s="60"/>
+      <c r="W73" s="63"/>
+      <c r="X73" s="60"/>
+      <c r="Y73" s="60"/>
+      <c r="Z73" s="60"/>
+      <c r="AA73" s="60"/>
+    </row>
+    <row r="74" spans="1:27" s="35" customFormat="1">
+      <c r="A74" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" s="8">
+        <v>30</v>
+      </c>
+      <c r="K74" s="10"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="10"/>
+      <c r="R74" s="60"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="60"/>
+      <c r="U74" s="66"/>
+      <c r="V74" s="67"/>
+      <c r="W74" s="60"/>
+      <c r="X74" s="68"/>
+      <c r="Y74" s="60"/>
+      <c r="Z74" s="66"/>
+      <c r="AA74" s="60"/>
+    </row>
+    <row r="75" spans="1:27" s="35" customFormat="1">
+      <c r="A75" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="10"/>
+      <c r="R75" s="60"/>
+      <c r="S75" s="61"/>
+      <c r="T75" s="62"/>
+      <c r="U75" s="63"/>
+      <c r="V75" s="60"/>
+      <c r="W75" s="63"/>
+      <c r="X75" s="60"/>
+      <c r="Y75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="60"/>
+    </row>
+    <row r="76" spans="1:27" s="35" customFormat="1">
+      <c r="A76" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G76" s="45" t="s">
+        <v>51</v>
+      </c>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="8"/>
@@ -4213,222 +4518,330 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="10"/>
-      <c r="R76" s="47"/>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
-      <c r="U76" s="65"/>
-      <c r="V76" s="47"/>
-      <c r="W76" s="47"/>
-      <c r="X76" s="47"/>
-      <c r="Y76" s="47"/>
-      <c r="Z76" s="65"/>
-      <c r="AA76" s="47"/>
-    </row>
-    <row r="77" spans="1:27" s="30" customFormat="1">
-      <c r="A77" s="2"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="27"/>
-      <c r="R77" s="69"/>
-      <c r="S77" s="69"/>
-      <c r="T77" s="69"/>
-      <c r="U77" s="69"/>
-      <c r="V77" s="69"/>
-      <c r="W77" s="69"/>
-      <c r="X77" s="69"/>
-      <c r="Y77" s="69"/>
-      <c r="Z77" s="69"/>
-      <c r="AA77" s="69"/>
-    </row>
-    <row r="78" spans="1:27" s="30" customFormat="1">
-      <c r="A78" s="2"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="27"/>
-      <c r="R78" s="69"/>
-      <c r="S78" s="69"/>
-      <c r="T78" s="69"/>
-      <c r="U78" s="69"/>
-      <c r="V78" s="69"/>
-      <c r="W78" s="69"/>
-      <c r="X78" s="69"/>
-      <c r="Y78" s="69"/>
-      <c r="Z78" s="69"/>
-      <c r="AA78" s="69"/>
-    </row>
-    <row r="79" spans="1:27" s="30" customFormat="1">
-      <c r="A79" s="2"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="27"/>
-      <c r="R79" s="69"/>
-      <c r="S79" s="69"/>
-      <c r="T79" s="69"/>
-      <c r="U79" s="69"/>
-      <c r="V79" s="69"/>
-      <c r="W79" s="69"/>
-      <c r="X79" s="69"/>
-      <c r="Y79" s="69"/>
-      <c r="Z79" s="69"/>
-      <c r="AA79" s="69"/>
-    </row>
-    <row r="80" spans="1:27" s="30" customFormat="1">
-      <c r="A80" s="2"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="27"/>
-      <c r="R80" s="69"/>
-      <c r="S80" s="69"/>
-      <c r="T80" s="69"/>
-      <c r="U80" s="69"/>
-      <c r="V80" s="69"/>
-      <c r="W80" s="69"/>
-      <c r="X80" s="69"/>
-      <c r="Y80" s="69"/>
-      <c r="Z80" s="69"/>
-      <c r="AA80" s="69"/>
-    </row>
-    <row r="81" spans="1:27" s="30" customFormat="1">
-      <c r="A81" s="2"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="27"/>
-      <c r="R81" s="69"/>
-      <c r="S81" s="69"/>
-      <c r="T81" s="69"/>
-      <c r="U81" s="69"/>
-      <c r="V81" s="69"/>
-      <c r="W81" s="69"/>
-      <c r="X81" s="69"/>
-      <c r="Y81" s="69"/>
-      <c r="Z81" s="69"/>
-      <c r="AA81" s="69"/>
-    </row>
-    <row r="82" spans="1:27" s="30" customFormat="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="27"/>
-      <c r="R82" s="69"/>
-      <c r="S82" s="69"/>
-      <c r="T82" s="69"/>
-      <c r="U82" s="69"/>
-      <c r="V82" s="69"/>
-      <c r="W82" s="69"/>
-      <c r="X82" s="69"/>
-      <c r="Y82" s="69"/>
-      <c r="Z82" s="69"/>
-      <c r="AA82" s="69"/>
-    </row>
-    <row r="83" spans="1:27" s="30" customFormat="1">
-      <c r="A83" s="2"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="27"/>
-      <c r="R83" s="69"/>
-      <c r="S83" s="69"/>
-      <c r="T83" s="69"/>
-      <c r="U83" s="69"/>
-      <c r="V83" s="69"/>
-      <c r="W83" s="69"/>
-      <c r="X83" s="69"/>
-      <c r="Y83" s="69"/>
-      <c r="Z83" s="69"/>
-      <c r="AA83" s="69"/>
+      <c r="R76" s="60"/>
+      <c r="S76" s="61"/>
+      <c r="T76" s="62"/>
+      <c r="U76" s="63"/>
+      <c r="V76" s="60"/>
+      <c r="W76" s="63"/>
+      <c r="X76" s="60"/>
+      <c r="Y76" s="60"/>
+      <c r="Z76" s="60"/>
+      <c r="AA76" s="60"/>
+    </row>
+    <row r="77" spans="1:27" s="35" customFormat="1">
+      <c r="A77" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F77" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J77" s="8">
+        <v>30</v>
+      </c>
+      <c r="K77" s="10"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="10"/>
+      <c r="R77" s="60"/>
+      <c r="S77" s="61"/>
+      <c r="T77" s="60"/>
+      <c r="U77" s="66"/>
+      <c r="V77" s="67"/>
+      <c r="W77" s="60"/>
+      <c r="X77" s="68"/>
+      <c r="Y77" s="60"/>
+      <c r="Z77" s="66"/>
+      <c r="AA77" s="60"/>
+    </row>
+    <row r="78" spans="1:27" s="35" customFormat="1">
+      <c r="A78" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G78" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="10"/>
+      <c r="R78" s="60"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="62"/>
+      <c r="U78" s="63"/>
+      <c r="V78" s="60"/>
+      <c r="W78" s="63"/>
+      <c r="X78" s="60"/>
+      <c r="Y78" s="60"/>
+      <c r="Z78" s="60"/>
+      <c r="AA78" s="60"/>
+    </row>
+    <row r="79" spans="1:27" s="35" customFormat="1">
+      <c r="A79" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G79" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="10"/>
+      <c r="R79" s="60"/>
+      <c r="S79" s="61"/>
+      <c r="T79" s="62"/>
+      <c r="U79" s="63"/>
+      <c r="V79" s="60"/>
+      <c r="W79" s="63"/>
+      <c r="X79" s="60"/>
+      <c r="Y79" s="60"/>
+      <c r="Z79" s="60"/>
+      <c r="AA79" s="60"/>
+    </row>
+    <row r="80" spans="1:27" s="35" customFormat="1">
+      <c r="A80" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="J80" s="8">
+        <v>30</v>
+      </c>
+      <c r="K80" s="10"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="10"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="61"/>
+      <c r="T80" s="60"/>
+      <c r="U80" s="66"/>
+      <c r="V80" s="67"/>
+      <c r="W80" s="60"/>
+      <c r="X80" s="68"/>
+      <c r="Y80" s="60"/>
+      <c r="Z80" s="66"/>
+      <c r="AA80" s="60"/>
+    </row>
+    <row r="81" spans="1:27" s="35" customFormat="1">
+      <c r="A81" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="F81" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="10"/>
+      <c r="R81" s="60"/>
+      <c r="S81" s="61"/>
+      <c r="T81" s="60"/>
+      <c r="U81" s="66"/>
+      <c r="V81" s="67"/>
+      <c r="W81" s="60"/>
+      <c r="X81" s="68"/>
+      <c r="Y81" s="60"/>
+      <c r="Z81" s="66"/>
+      <c r="AA81" s="60"/>
+    </row>
+    <row r="82" spans="1:27" s="35" customFormat="1">
+      <c r="A82" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="10"/>
+      <c r="R82" s="60"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="60"/>
+      <c r="U82" s="66"/>
+      <c r="V82" s="67"/>
+      <c r="W82" s="60"/>
+      <c r="X82" s="68"/>
+      <c r="Y82" s="60"/>
+      <c r="Z82" s="66"/>
+      <c r="AA82" s="60"/>
+    </row>
+    <row r="83" spans="1:27" s="35" customFormat="1">
+      <c r="A83" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="10"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="61"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="66"/>
+      <c r="V83" s="67"/>
+      <c r="W83" s="60"/>
+      <c r="X83" s="68"/>
+      <c r="Y83" s="60"/>
+      <c r="Z83" s="66"/>
+      <c r="AA83" s="60"/>
     </row>
     <row r="84" spans="1:27" s="30" customFormat="1">
-      <c r="A84" s="2"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="27"/>
+      <c r="A84" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="G84" s="8"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="10"/>
       <c r="R84" s="69"/>
       <c r="S84" s="69"/>
       <c r="T84" s="69"/>
@@ -4440,149 +4853,151 @@
       <c r="Z84" s="69"/>
       <c r="AA84" s="69"/>
     </row>
-    <row r="85" spans="1:27" s="30" customFormat="1">
-      <c r="A85" s="2"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="27"/>
-      <c r="R85" s="69"/>
-      <c r="S85" s="69"/>
-      <c r="T85" s="69"/>
-      <c r="U85" s="69"/>
-      <c r="V85" s="69"/>
-      <c r="W85" s="69"/>
-      <c r="X85" s="69"/>
-      <c r="Y85" s="69"/>
-      <c r="Z85" s="69"/>
-      <c r="AA85" s="69"/>
-    </row>
-    <row r="86" spans="1:27" s="30" customFormat="1">
-      <c r="A86" s="2"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="27"/>
-      <c r="R86" s="69"/>
-      <c r="S86" s="69"/>
-      <c r="T86" s="69"/>
-      <c r="U86" s="69"/>
-      <c r="V86" s="69"/>
-      <c r="W86" s="69"/>
-      <c r="X86" s="69"/>
-      <c r="Y86" s="69"/>
-      <c r="Z86" s="69"/>
-      <c r="AA86" s="69"/>
-    </row>
-    <row r="87" spans="1:27" s="30" customFormat="1">
-      <c r="A87" s="2"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="27"/>
-      <c r="R87" s="69"/>
-      <c r="S87" s="69"/>
-      <c r="T87" s="69"/>
-      <c r="U87" s="69"/>
-      <c r="V87" s="69"/>
-      <c r="W87" s="69"/>
-      <c r="X87" s="69"/>
-      <c r="Y87" s="69"/>
-      <c r="Z87" s="69"/>
-      <c r="AA87" s="69"/>
-    </row>
-    <row r="88" spans="1:27" s="30" customFormat="1">
-      <c r="A88" s="2"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="27"/>
-      <c r="R88" s="69"/>
-      <c r="S88" s="69"/>
-      <c r="T88" s="69"/>
-      <c r="U88" s="69"/>
-      <c r="V88" s="69"/>
-      <c r="W88" s="69"/>
-      <c r="X88" s="69"/>
-      <c r="Y88" s="69"/>
-      <c r="Z88" s="69"/>
-      <c r="AA88" s="69"/>
-    </row>
-    <row r="89" spans="1:27" s="30" customFormat="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="27"/>
-      <c r="R89" s="69"/>
-      <c r="S89" s="69"/>
-      <c r="T89" s="69"/>
-      <c r="U89" s="69"/>
-      <c r="V89" s="69"/>
-      <c r="W89" s="69"/>
-      <c r="X89" s="69"/>
-      <c r="Y89" s="69"/>
-      <c r="Z89" s="69"/>
-      <c r="AA89" s="69"/>
-    </row>
-    <row r="90" spans="1:27">
-      <c r="A90" s="2"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="26"/>
+    <row r="85" spans="1:27" s="35" customFormat="1">
+      <c r="A85" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="10"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="61"/>
+      <c r="T85" s="62"/>
+      <c r="U85" s="63"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="63"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="60"/>
+      <c r="Z85" s="60"/>
+      <c r="AA85" s="60"/>
+    </row>
+    <row r="86" spans="1:27" s="22" customFormat="1">
+      <c r="A86" s="45"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="10"/>
+      <c r="R86" s="47"/>
+      <c r="S86" s="47"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
+      <c r="X86" s="47"/>
+      <c r="Y86" s="47"/>
+      <c r="Z86" s="47"/>
+      <c r="AA86" s="47"/>
+    </row>
+    <row r="87" spans="1:27" s="22" customFormat="1">
+      <c r="A87" s="45"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="10"/>
+      <c r="R87" s="47"/>
+      <c r="S87" s="47"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="65"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
+      <c r="X87" s="47"/>
+      <c r="Y87" s="47"/>
+      <c r="Z87" s="65"/>
+      <c r="AA87" s="47"/>
+    </row>
+    <row r="88" spans="1:27" s="22" customFormat="1">
+      <c r="A88" s="45"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="10"/>
+      <c r="R88" s="47"/>
+      <c r="S88" s="47"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="47"/>
+      <c r="W88" s="47"/>
+      <c r="X88" s="47"/>
+      <c r="Y88" s="47"/>
+      <c r="Z88" s="47"/>
+      <c r="AA88" s="47"/>
+    </row>
+    <row r="89" spans="1:27" s="22" customFormat="1">
+      <c r="A89" s="45"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="10"/>
+      <c r="R89" s="47"/>
+      <c r="S89" s="70"/>
+      <c r="T89" s="71"/>
+      <c r="U89" s="64"/>
+      <c r="V89" s="47"/>
+      <c r="W89" s="64"/>
+      <c r="X89" s="47"/>
+      <c r="Y89" s="47"/>
+      <c r="Z89" s="47"/>
+      <c r="AA89" s="47"/>
+    </row>
+    <row r="90" spans="1:27" s="22" customFormat="1">
+      <c r="A90" s="45"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="8"/>
@@ -4591,98 +5006,72 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="10"/>
-      <c r="R90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S90" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="T90" s="59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27">
-      <c r="A91" s="2"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="10"/>
-      <c r="R91" t="s">
-        <v>21</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="U91" s="1"/>
-      <c r="V91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z91" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27">
+      <c r="R90" s="47"/>
+      <c r="S90" s="47"/>
+      <c r="T90" s="47"/>
+      <c r="U90" s="65"/>
+      <c r="V90" s="47"/>
+      <c r="W90" s="47"/>
+      <c r="X90" s="47"/>
+      <c r="Y90" s="47"/>
+      <c r="Z90" s="65"/>
+      <c r="AA90" s="47"/>
+    </row>
+    <row r="91" spans="1:27" s="35" customFormat="1">
+      <c r="A91" s="45"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="32"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="61"/>
+      <c r="T91" s="60"/>
+      <c r="U91" s="66"/>
+      <c r="V91" s="67"/>
+      <c r="W91" s="60"/>
+      <c r="X91" s="68"/>
+      <c r="Y91" s="60"/>
+      <c r="Z91" s="66"/>
+      <c r="AA91" s="60"/>
+    </row>
+    <row r="92" spans="1:27" s="35" customFormat="1">
       <c r="A92" s="2"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="10"/>
-      <c r="S92" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T92" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U92" s="7"/>
-      <c r="V92" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="W92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X92" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y92" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z92" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="32"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="61"/>
+      <c r="T92" s="60"/>
+      <c r="U92" s="66"/>
+      <c r="V92" s="67"/>
+      <c r="W92" s="60"/>
+      <c r="X92" s="68"/>
+      <c r="Y92" s="60"/>
+      <c r="Z92" s="66"/>
+      <c r="AA92" s="60"/>
+    </row>
+    <row r="93" spans="1:27" s="35" customFormat="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4690,1027 +5079,1946 @@
       <c r="E93" s="2"/>
       <c r="F93" s="10"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="10"/>
-      <c r="S93" s="3" t="s">
+      <c r="H93" s="32"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="32"/>
+      <c r="R93" s="60"/>
+      <c r="S93" s="61"/>
+      <c r="T93" s="60"/>
+      <c r="U93" s="66"/>
+      <c r="V93" s="67"/>
+      <c r="W93" s="60"/>
+      <c r="X93" s="68"/>
+      <c r="Y93" s="60"/>
+      <c r="Z93" s="66"/>
+      <c r="AA93" s="60"/>
+    </row>
+    <row r="94" spans="1:27" s="35" customFormat="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="32"/>
+      <c r="R94" s="60"/>
+      <c r="S94" s="61"/>
+      <c r="T94" s="60"/>
+      <c r="U94" s="66"/>
+      <c r="V94" s="67"/>
+      <c r="W94" s="60"/>
+      <c r="X94" s="68"/>
+      <c r="Y94" s="60"/>
+      <c r="Z94" s="66"/>
+      <c r="AA94" s="60"/>
+    </row>
+    <row r="95" spans="1:27" s="35" customFormat="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="32"/>
+      <c r="R95" s="60"/>
+      <c r="S95" s="61"/>
+      <c r="T95" s="60"/>
+      <c r="U95" s="66"/>
+      <c r="V95" s="67"/>
+      <c r="W95" s="60"/>
+      <c r="X95" s="68"/>
+      <c r="Y95" s="60"/>
+      <c r="Z95" s="66"/>
+      <c r="AA95" s="60"/>
+    </row>
+    <row r="96" spans="1:27" s="30" customFormat="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="27"/>
+      <c r="R96" s="69"/>
+      <c r="S96" s="69"/>
+      <c r="T96" s="69"/>
+      <c r="U96" s="69"/>
+      <c r="V96" s="69"/>
+      <c r="W96" s="69"/>
+      <c r="X96" s="69"/>
+      <c r="Y96" s="69"/>
+      <c r="Z96" s="69"/>
+      <c r="AA96" s="69"/>
+    </row>
+    <row r="97" spans="1:27" s="35" customFormat="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="31"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="31"/>
+      <c r="O97" s="32"/>
+      <c r="R97" s="60"/>
+      <c r="S97" s="61"/>
+      <c r="T97" s="62"/>
+      <c r="U97" s="63"/>
+      <c r="V97" s="60"/>
+      <c r="W97" s="63"/>
+      <c r="X97" s="60"/>
+      <c r="Y97" s="60"/>
+      <c r="Z97" s="60"/>
+      <c r="AA97" s="60"/>
+    </row>
+    <row r="98" spans="1:27" s="30" customFormat="1">
+      <c r="A98" s="2"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="27"/>
+      <c r="R98" s="69"/>
+      <c r="S98" s="69"/>
+      <c r="T98" s="69"/>
+      <c r="U98" s="69"/>
+      <c r="V98" s="69"/>
+      <c r="W98" s="69"/>
+      <c r="X98" s="69"/>
+      <c r="Y98" s="69"/>
+      <c r="Z98" s="69"/>
+      <c r="AA98" s="69"/>
+    </row>
+    <row r="99" spans="1:27" s="35" customFormat="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="31"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="31"/>
+      <c r="O99" s="32"/>
+      <c r="R99" s="60"/>
+      <c r="S99" s="61"/>
+      <c r="T99" s="62"/>
+      <c r="U99" s="63"/>
+      <c r="V99" s="60"/>
+      <c r="W99" s="63"/>
+      <c r="X99" s="60"/>
+      <c r="Y99" s="60"/>
+      <c r="Z99" s="60"/>
+      <c r="AA99" s="60"/>
+    </row>
+    <row r="100" spans="1:27" s="30" customFormat="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="27"/>
+      <c r="R100" s="69"/>
+      <c r="S100" s="69"/>
+      <c r="T100" s="69"/>
+      <c r="U100" s="69"/>
+      <c r="V100" s="69"/>
+      <c r="W100" s="69"/>
+      <c r="X100" s="69"/>
+      <c r="Y100" s="69"/>
+      <c r="Z100" s="69"/>
+      <c r="AA100" s="69"/>
+    </row>
+    <row r="101" spans="1:27" s="35" customFormat="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="31"/>
+      <c r="O101" s="32"/>
+      <c r="R101" s="60"/>
+      <c r="S101" s="61"/>
+      <c r="T101" s="62"/>
+      <c r="U101" s="63"/>
+      <c r="V101" s="60"/>
+      <c r="W101" s="63"/>
+      <c r="X101" s="60"/>
+      <c r="Y101" s="60"/>
+      <c r="Z101" s="60"/>
+      <c r="AA101" s="60"/>
+    </row>
+    <row r="102" spans="1:27" s="30" customFormat="1">
+      <c r="A102" s="2"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="27"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="69"/>
+      <c r="W102" s="69"/>
+      <c r="X102" s="69"/>
+      <c r="Y102" s="69"/>
+      <c r="Z102" s="69"/>
+      <c r="AA102" s="69"/>
+    </row>
+    <row r="103" spans="1:27" s="22" customFormat="1">
+      <c r="A103" s="2"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="10"/>
+      <c r="R103" s="47"/>
+      <c r="S103" s="70"/>
+      <c r="T103" s="47"/>
+      <c r="U103" s="65"/>
+      <c r="V103" s="72"/>
+      <c r="W103" s="47"/>
+      <c r="X103" s="73"/>
+      <c r="Y103" s="47"/>
+      <c r="Z103" s="74"/>
+      <c r="AA103" s="47"/>
+    </row>
+    <row r="104" spans="1:27" s="30" customFormat="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="27"/>
+      <c r="R104" s="69"/>
+      <c r="S104" s="69"/>
+      <c r="T104" s="69"/>
+      <c r="U104" s="69"/>
+      <c r="V104" s="69"/>
+      <c r="W104" s="69"/>
+      <c r="X104" s="69"/>
+      <c r="Y104" s="69"/>
+      <c r="Z104" s="69"/>
+      <c r="AA104" s="69"/>
+    </row>
+    <row r="105" spans="1:27" s="30" customFormat="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="26"/>
+      <c r="N105" s="26"/>
+      <c r="O105" s="27"/>
+      <c r="R105" s="69"/>
+      <c r="S105" s="69"/>
+      <c r="T105" s="69"/>
+      <c r="U105" s="69"/>
+      <c r="V105" s="69"/>
+      <c r="W105" s="69"/>
+      <c r="X105" s="69"/>
+      <c r="Y105" s="69"/>
+      <c r="Z105" s="69"/>
+      <c r="AA105" s="69"/>
+    </row>
+    <row r="106" spans="1:27" s="22" customFormat="1">
+      <c r="A106" s="2"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="10"/>
+      <c r="R106" s="47"/>
+      <c r="S106" s="47"/>
+      <c r="T106" s="47"/>
+      <c r="U106" s="65"/>
+      <c r="V106" s="47"/>
+      <c r="W106" s="47"/>
+      <c r="X106" s="47"/>
+      <c r="Y106" s="47"/>
+      <c r="Z106" s="65"/>
+      <c r="AA106" s="47"/>
+    </row>
+    <row r="107" spans="1:27" s="30" customFormat="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="26"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="27"/>
+      <c r="R107" s="69"/>
+      <c r="S107" s="69"/>
+      <c r="T107" s="69"/>
+      <c r="U107" s="69"/>
+      <c r="V107" s="69"/>
+      <c r="W107" s="69"/>
+      <c r="X107" s="69"/>
+      <c r="Y107" s="69"/>
+      <c r="Z107" s="69"/>
+      <c r="AA107" s="69"/>
+    </row>
+    <row r="108" spans="1:27" s="30" customFormat="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="27"/>
+      <c r="R108" s="69"/>
+      <c r="S108" s="69"/>
+      <c r="T108" s="69"/>
+      <c r="U108" s="69"/>
+      <c r="V108" s="69"/>
+      <c r="W108" s="69"/>
+      <c r="X108" s="69"/>
+      <c r="Y108" s="69"/>
+      <c r="Z108" s="69"/>
+      <c r="AA108" s="69"/>
+    </row>
+    <row r="109" spans="1:27" s="22" customFormat="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="10"/>
+      <c r="R109" s="47"/>
+      <c r="S109" s="47"/>
+      <c r="T109" s="47"/>
+      <c r="U109" s="65"/>
+      <c r="V109" s="47"/>
+      <c r="W109" s="47"/>
+      <c r="X109" s="47"/>
+      <c r="Y109" s="47"/>
+      <c r="Z109" s="65"/>
+      <c r="AA109" s="47"/>
+    </row>
+    <row r="110" spans="1:27" s="30" customFormat="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="27"/>
+      <c r="R110" s="69"/>
+      <c r="S110" s="69"/>
+      <c r="T110" s="69"/>
+      <c r="U110" s="69"/>
+      <c r="V110" s="69"/>
+      <c r="W110" s="69"/>
+      <c r="X110" s="69"/>
+      <c r="Y110" s="69"/>
+      <c r="Z110" s="69"/>
+      <c r="AA110" s="69"/>
+    </row>
+    <row r="111" spans="1:27" s="30" customFormat="1">
+      <c r="A111" s="2"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="26"/>
+      <c r="N111" s="26"/>
+      <c r="O111" s="27"/>
+      <c r="R111" s="69"/>
+      <c r="S111" s="69"/>
+      <c r="T111" s="69"/>
+      <c r="U111" s="69"/>
+      <c r="V111" s="69"/>
+      <c r="W111" s="69"/>
+      <c r="X111" s="69"/>
+      <c r="Y111" s="69"/>
+      <c r="Z111" s="69"/>
+      <c r="AA111" s="69"/>
+    </row>
+    <row r="112" spans="1:27" s="30" customFormat="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="27"/>
+      <c r="R112" s="69"/>
+      <c r="S112" s="69"/>
+      <c r="T112" s="69"/>
+      <c r="U112" s="69"/>
+      <c r="V112" s="69"/>
+      <c r="W112" s="69"/>
+      <c r="X112" s="69"/>
+      <c r="Y112" s="69"/>
+      <c r="Z112" s="69"/>
+      <c r="AA112" s="69"/>
+    </row>
+    <row r="113" spans="1:27" s="30" customFormat="1">
+      <c r="A113" s="2"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="26"/>
+      <c r="N113" s="26"/>
+      <c r="O113" s="27"/>
+      <c r="R113" s="69"/>
+      <c r="S113" s="69"/>
+      <c r="T113" s="69"/>
+      <c r="U113" s="69"/>
+      <c r="V113" s="69"/>
+      <c r="W113" s="69"/>
+      <c r="X113" s="69"/>
+      <c r="Y113" s="69"/>
+      <c r="Z113" s="69"/>
+      <c r="AA113" s="69"/>
+    </row>
+    <row r="114" spans="1:27" s="30" customFormat="1">
+      <c r="A114" s="2"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="26"/>
+      <c r="N114" s="26"/>
+      <c r="O114" s="27"/>
+      <c r="R114" s="69"/>
+      <c r="S114" s="69"/>
+      <c r="T114" s="69"/>
+      <c r="U114" s="69"/>
+      <c r="V114" s="69"/>
+      <c r="W114" s="69"/>
+      <c r="X114" s="69"/>
+      <c r="Y114" s="69"/>
+      <c r="Z114" s="69"/>
+      <c r="AA114" s="69"/>
+    </row>
+    <row r="115" spans="1:27" s="30" customFormat="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="27"/>
+      <c r="R115" s="69"/>
+      <c r="S115" s="69"/>
+      <c r="T115" s="69"/>
+      <c r="U115" s="69"/>
+      <c r="V115" s="69"/>
+      <c r="W115" s="69"/>
+      <c r="X115" s="69"/>
+      <c r="Y115" s="69"/>
+      <c r="Z115" s="69"/>
+      <c r="AA115" s="69"/>
+    </row>
+    <row r="116" spans="1:27" s="30" customFormat="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="26"/>
+      <c r="N116" s="26"/>
+      <c r="O116" s="27"/>
+      <c r="R116" s="69"/>
+      <c r="S116" s="69"/>
+      <c r="T116" s="69"/>
+      <c r="U116" s="69"/>
+      <c r="V116" s="69"/>
+      <c r="W116" s="69"/>
+      <c r="X116" s="69"/>
+      <c r="Y116" s="69"/>
+      <c r="Z116" s="69"/>
+      <c r="AA116" s="69"/>
+    </row>
+    <row r="117" spans="1:27" s="30" customFormat="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="26"/>
+      <c r="O117" s="27"/>
+      <c r="R117" s="69"/>
+      <c r="S117" s="69"/>
+      <c r="T117" s="69"/>
+      <c r="U117" s="69"/>
+      <c r="V117" s="69"/>
+      <c r="W117" s="69"/>
+      <c r="X117" s="69"/>
+      <c r="Y117" s="69"/>
+      <c r="Z117" s="69"/>
+      <c r="AA117" s="69"/>
+    </row>
+    <row r="118" spans="1:27" s="30" customFormat="1">
+      <c r="A118" s="2"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="27"/>
+      <c r="R118" s="69"/>
+      <c r="S118" s="69"/>
+      <c r="T118" s="69"/>
+      <c r="U118" s="69"/>
+      <c r="V118" s="69"/>
+      <c r="W118" s="69"/>
+      <c r="X118" s="69"/>
+      <c r="Y118" s="69"/>
+      <c r="Z118" s="69"/>
+      <c r="AA118" s="69"/>
+    </row>
+    <row r="119" spans="1:27" s="30" customFormat="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="26"/>
+      <c r="M119" s="26"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="27"/>
+      <c r="R119" s="69"/>
+      <c r="S119" s="69"/>
+      <c r="T119" s="69"/>
+      <c r="U119" s="69"/>
+      <c r="V119" s="69"/>
+      <c r="W119" s="69"/>
+      <c r="X119" s="69"/>
+      <c r="Y119" s="69"/>
+      <c r="Z119" s="69"/>
+      <c r="AA119" s="69"/>
+    </row>
+    <row r="120" spans="1:27" s="30" customFormat="1">
+      <c r="A120" s="2"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="26"/>
+      <c r="N120" s="26"/>
+      <c r="O120" s="27"/>
+      <c r="R120" s="69"/>
+      <c r="S120" s="69"/>
+      <c r="T120" s="69"/>
+      <c r="U120" s="69"/>
+      <c r="V120" s="69"/>
+      <c r="W120" s="69"/>
+      <c r="X120" s="69"/>
+      <c r="Y120" s="69"/>
+      <c r="Z120" s="69"/>
+      <c r="AA120" s="69"/>
+    </row>
+    <row r="121" spans="1:27" s="30" customFormat="1">
+      <c r="A121" s="2"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="26"/>
+      <c r="N121" s="26"/>
+      <c r="O121" s="27"/>
+      <c r="R121" s="69"/>
+      <c r="S121" s="69"/>
+      <c r="T121" s="69"/>
+      <c r="U121" s="69"/>
+      <c r="V121" s="69"/>
+      <c r="W121" s="69"/>
+      <c r="X121" s="69"/>
+      <c r="Y121" s="69"/>
+      <c r="Z121" s="69"/>
+      <c r="AA121" s="69"/>
+    </row>
+    <row r="122" spans="1:27" s="30" customFormat="1">
+      <c r="A122" s="2"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="26"/>
+      <c r="M122" s="26"/>
+      <c r="N122" s="26"/>
+      <c r="O122" s="27"/>
+      <c r="R122" s="69"/>
+      <c r="S122" s="69"/>
+      <c r="T122" s="69"/>
+      <c r="U122" s="69"/>
+      <c r="V122" s="69"/>
+      <c r="W122" s="69"/>
+      <c r="X122" s="69"/>
+      <c r="Y122" s="69"/>
+      <c r="Z122" s="69"/>
+      <c r="AA122" s="69"/>
+    </row>
+    <row r="123" spans="1:27">
+      <c r="A123" s="2"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="10"/>
+      <c r="R123" t="s">
+        <v>20</v>
+      </c>
+      <c r="S123" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="T123" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
+      <c r="A124" s="2"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="10"/>
+      <c r="R124" t="s">
+        <v>21</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T124" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U124" s="1"/>
+      <c r="V124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z124" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
+      <c r="A125" s="2"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="10"/>
+      <c r="S125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U125" s="7"/>
+      <c r="V125" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X125" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y125" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z125" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="10"/>
+      <c r="S126" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T93" s="2" t="s">
+      <c r="T126" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U93" s="7"/>
-      <c r="V93" s="14" t="s">
+      <c r="U126" s="7"/>
+      <c r="V126" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="W93" s="2" t="s">
+      <c r="W126" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X93" s="13" t="s">
+      <c r="X126" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Y93" s="6" t="s">
+      <c r="Y126" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Z93" s="17" t="s">
+      <c r="Z126" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="10"/>
-      <c r="S94" s="3" t="s">
+    <row r="127" spans="1:27">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="10"/>
+      <c r="S127" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="2" t="s">
+      <c r="T127" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="U94" s="7"/>
-      <c r="W94" s="2" t="s">
+      <c r="U127" s="7"/>
+      <c r="W127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z94" s="17" t="s">
+      <c r="Z127" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="10"/>
-      <c r="T95" s="2" t="s">
+    <row r="128" spans="1:27">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="10"/>
+      <c r="T128" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="U95" s="7"/>
-      <c r="Z95" s="17" t="s">
+      <c r="U128" s="7"/>
+      <c r="Z128" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="10"/>
-      <c r="T96" s="2" t="s">
+    <row r="129" spans="1:26">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="10"/>
+      <c r="T129" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="U96" s="7"/>
-      <c r="Z96" s="17" t="s">
+      <c r="U129" s="7"/>
+      <c r="Z129" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="10"/>
-      <c r="T97" s="2" t="s">
+    <row r="130" spans="1:26">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="10"/>
+      <c r="T130" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="U97" s="7"/>
-      <c r="Z97" s="17" t="s">
+      <c r="U130" s="7"/>
+      <c r="Z130" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="8"/>
-      <c r="T98" s="2" t="s">
+    <row r="131" spans="1:26">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="8"/>
+      <c r="T131" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="U98" s="7"/>
-      <c r="Z98" s="17" t="s">
+      <c r="U131" s="7"/>
+      <c r="Z131" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="8"/>
-      <c r="T99" s="43" t="s">
+    <row r="132" spans="1:26">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="8"/>
+      <c r="T132" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="U99" s="7"/>
-      <c r="Z99" s="17" t="s">
+      <c r="U132" s="7"/>
+      <c r="Z132" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="2"/>
-      <c r="T100" s="43" t="s">
+    <row r="133" spans="1:26">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="2"/>
+      <c r="T133" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="Z100" s="17" t="s">
+      <c r="Z133" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
-      <c r="T101" s="43" t="s">
+    <row r="134" spans="1:26">
+      <c r="T134" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="U101" s="1" t="s">
+      <c r="U134" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z101" s="17" t="s">
+      <c r="Z134" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
-      <c r="T102" s="43" t="s">
+    <row r="135" spans="1:26">
+      <c r="T135" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="U102" s="24" t="s">
+      <c r="U135" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="Z102" s="17" t="s">
+      <c r="Z135" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
-      <c r="T103" s="43" t="s">
+    <row r="136" spans="1:26">
+      <c r="T136" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="U103" s="24" t="s">
+      <c r="U136" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="Z103" s="17" t="s">
+      <c r="Z136" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
-      <c r="T104" s="43" t="s">
+    <row r="137" spans="1:26">
+      <c r="T137" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="U104" s="24" t="s">
+      <c r="U137" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="Z104" s="17" t="s">
+      <c r="Z137" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="15" thickBot="1">
-      <c r="T105" s="43" t="s">
+    <row r="138" spans="1:26" ht="15" thickBot="1">
+      <c r="T138" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="U105" s="24" t="s">
+      <c r="U138" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="Z105" s="17" t="s">
+      <c r="Z138" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="15" thickBot="1">
-      <c r="T106" s="43" t="s">
+    <row r="139" spans="1:26" ht="15" thickBot="1">
+      <c r="T139" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="U106" s="24" t="s">
+      <c r="U139" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="Z106" s="18" t="s">
+      <c r="Z139" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="15" thickBot="1">
-      <c r="T107" s="43" t="s">
+    <row r="140" spans="1:26" ht="15" thickBot="1">
+      <c r="T140" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="U107" s="24" t="s">
+      <c r="U140" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="Z107" s="19" t="s">
+      <c r="Z140" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15" thickBot="1">
-      <c r="T108" s="43" t="s">
+    <row r="141" spans="1:26" ht="15" thickBot="1">
+      <c r="T141" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="U108" s="24" t="s">
+      <c r="U141" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="Z108" s="19" t="s">
+      <c r="Z141" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="15" thickBot="1">
-      <c r="T109" s="43" t="s">
+    <row r="142" spans="1:26" ht="15" thickBot="1">
+      <c r="T142" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="U109" s="25" t="s">
+      <c r="U142" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="Z109" s="19" t="s">
+      <c r="Z142" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="15" thickBot="1">
-      <c r="T110" s="43" t="s">
+    <row r="143" spans="1:26" ht="15" thickBot="1">
+      <c r="T143" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="U110" s="24" t="s">
+      <c r="U143" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="Z110" s="19" t="s">
+      <c r="Z143" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="15" thickBot="1">
-      <c r="T111" s="43" t="s">
+    <row r="144" spans="1:26" ht="15" thickBot="1">
+      <c r="T144" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="U111" s="24" t="s">
+      <c r="U144" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="Z111" s="19" t="s">
+      <c r="Z144" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="15" thickBot="1">
-      <c r="T112" s="39" t="s">
+    <row r="145" spans="20:26" ht="15" thickBot="1">
+      <c r="T145" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="U112" s="24" t="s">
+      <c r="U145" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="Z112" s="19" t="s">
+      <c r="Z145" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="20:26" ht="15" thickBot="1">
-      <c r="T113" s="39" t="s">
+    <row r="146" spans="20:26" ht="15" thickBot="1">
+      <c r="T146" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="U113" s="24" t="s">
+      <c r="U146" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="Z113" s="20" t="s">
+      <c r="Z146" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="20:26" ht="15" thickBot="1">
-      <c r="T114" s="39" t="s">
+    <row r="147" spans="20:26" ht="15" thickBot="1">
+      <c r="T147" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="U114" s="24" t="s">
+      <c r="U147" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="Z114" s="20" t="s">
+      <c r="Z147" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="20:26" ht="15" thickBot="1">
-      <c r="T115" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="U115" s="24" t="s">
+    <row r="148" spans="20:26" ht="15" thickBot="1">
+      <c r="T148" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="U148" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="Z115" s="20" t="s">
+      <c r="Z148" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="20:26" ht="15" thickBot="1">
-      <c r="U116" s="24" t="s">
+    <row r="149" spans="20:26" ht="15" thickBot="1">
+      <c r="U149" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="Z116" s="20" t="s">
+      <c r="Z149" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="20:26" ht="15" thickBot="1">
-      <c r="U117" s="24" t="s">
+    <row r="150" spans="20:26" ht="15" thickBot="1">
+      <c r="U150" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="Z117" s="20" t="s">
+      <c r="Z150" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="20:26" ht="15" thickBot="1">
-      <c r="U118" s="24" t="s">
+    <row r="151" spans="20:26" ht="15" thickBot="1">
+      <c r="U151" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="Z118" s="20" t="s">
+      <c r="Z151" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="20:26" ht="15" thickBot="1">
-      <c r="Z119" s="20" t="s">
+    <row r="152" spans="20:26" ht="15" thickBot="1">
+      <c r="Z152" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="120" spans="20:26" ht="15" thickBot="1">
-      <c r="Z120" s="20" t="s">
+    <row r="153" spans="20:26" ht="15" thickBot="1">
+      <c r="Z153" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="20:26" ht="15" thickBot="1">
-      <c r="Z121" s="20" t="s">
+    <row r="154" spans="20:26" ht="15" thickBot="1">
+      <c r="Z154" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="20:26" ht="15" thickBot="1">
-      <c r="Z122" s="20" t="s">
+    <row r="155" spans="20:26" ht="15" thickBot="1">
+      <c r="Z155" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="20:26" ht="15" thickBot="1">
-      <c r="Z123" s="20" t="s">
+    <row r="156" spans="20:26" ht="15" thickBot="1">
+      <c r="Z156" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="124" spans="20:26" ht="15" thickBot="1">
-      <c r="Z124" s="20" t="s">
+    <row r="157" spans="20:26" ht="15" thickBot="1">
+      <c r="Z157" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="20:26" ht="15" thickBot="1">
-      <c r="Z125" s="20" t="s">
+    <row r="158" spans="20:26" ht="15" thickBot="1">
+      <c r="Z158" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="20:26" ht="15" thickBot="1">
-      <c r="Z126" s="20" t="s">
+    <row r="159" spans="20:26" ht="15" thickBot="1">
+      <c r="Z159" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="127" spans="20:26" ht="15" thickBot="1">
-      <c r="Z127" s="20" t="s">
+    <row r="160" spans="20:26" ht="15" thickBot="1">
+      <c r="Z160" s="20" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="128" spans="20:26" ht="15" thickBot="1">
-      <c r="Z128" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="129" spans="26:26" ht="15" thickBot="1">
-      <c r="Z129" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="26:26" ht="15" thickBot="1">
-      <c r="Z130" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="131" spans="26:26" ht="15" thickBot="1">
-      <c r="Z131" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="132" spans="26:26" ht="15" thickBot="1">
-      <c r="Z132" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="133" spans="26:26" ht="15" thickBot="1">
-      <c r="Z133" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="134" spans="26:26" ht="15" thickBot="1">
-      <c r="Z134" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="135" spans="26:26" ht="15" thickBot="1">
-      <c r="Z135" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="136" spans="26:26" ht="15" thickBot="1">
-      <c r="Z136" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="137" spans="26:26" ht="15" thickBot="1">
-      <c r="Z137" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="138" spans="26:26" ht="15" thickBot="1">
-      <c r="Z138" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="139" spans="26:26" ht="15" thickBot="1">
-      <c r="Z139" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="140" spans="26:26" ht="15" thickBot="1">
-      <c r="Z140" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141" spans="26:26" ht="15" thickBot="1">
-      <c r="Z141" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="142" spans="26:26" ht="15" thickBot="1">
-      <c r="Z142" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="143" spans="26:26" ht="15" thickBot="1">
-      <c r="Z143" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="144" spans="26:26" ht="15" thickBot="1">
-      <c r="Z144" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="145" spans="26:26" ht="15" thickBot="1">
-      <c r="Z145" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="146" spans="26:26" ht="15" thickBot="1">
-      <c r="Z146" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="147" spans="26:26" ht="15" thickBot="1">
-      <c r="Z147" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="148" spans="26:26" ht="15" thickBot="1">
-      <c r="Z148" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="149" spans="26:26" ht="15" thickBot="1">
-      <c r="Z149" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="150" spans="26:26" ht="15" thickBot="1">
-      <c r="Z150" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="151" spans="26:26" ht="15" thickBot="1">
-      <c r="Z151" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="152" spans="26:26" ht="15" thickBot="1">
-      <c r="Z152" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153" spans="26:26" ht="15" thickBot="1">
-      <c r="Z153" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="154" spans="26:26" ht="15" thickBot="1">
-      <c r="Z154" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="155" spans="26:26" ht="15" thickBot="1">
-      <c r="Z155" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="156" spans="26:26" ht="15" thickBot="1">
-      <c r="Z156" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="26:26" ht="15" thickBot="1">
-      <c r="Z157" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="158" spans="26:26" ht="15" thickBot="1">
-      <c r="Z158" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="159" spans="26:26" ht="15" thickBot="1">
-      <c r="Z159" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="160" spans="26:26" ht="15" thickBot="1">
-      <c r="Z160" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" thickBot="1">
       <c r="Z161" s="20" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" thickBot="1">
       <c r="Z162" s="20" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" thickBot="1">
       <c r="Z163" s="20" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" thickBot="1">
       <c r="Z164" s="20" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" thickBot="1">
       <c r="Z165" s="20" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" thickBot="1">
       <c r="Z166" s="20" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" thickBot="1">
       <c r="Z167" s="20" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" thickBot="1">
       <c r="Z168" s="20" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" thickBot="1">
       <c r="Z169" s="20" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" thickBot="1">
       <c r="Z170" s="20" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" thickBot="1">
       <c r="Z171" s="20" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="172" spans="26:26" ht="15" thickBot="1">
       <c r="Z172" s="20" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="173" spans="26:26" ht="15" thickBot="1">
       <c r="Z173" s="20" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="174" spans="26:26" ht="15" thickBot="1">
       <c r="Z174" s="20" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="175" spans="26:26" ht="15" thickBot="1">
       <c r="Z175" s="20" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176" spans="26:26" ht="15" thickBot="1">
       <c r="Z176" s="20" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="177" spans="26:26" ht="15" thickBot="1">
       <c r="Z177" s="20" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178" spans="26:26" ht="15" thickBot="1">
       <c r="Z178" s="20" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="179" spans="26:26" ht="15" thickBot="1">
       <c r="Z179" s="20" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180" spans="26:26" ht="15" thickBot="1">
       <c r="Z180" s="20" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="26:26" ht="15" thickBot="1">
       <c r="Z181" s="20" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="26:26" ht="15" thickBot="1">
       <c r="Z182" s="20" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183" spans="26:26" ht="15" thickBot="1">
       <c r="Z183" s="20" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
     </row>
     <row r="184" spans="26:26" ht="15" thickBot="1">
       <c r="Z184" s="20" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="185" spans="26:26" ht="15" thickBot="1">
       <c r="Z185" s="20" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="186" spans="26:26" ht="15" thickBot="1">
       <c r="Z186" s="20" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="187" spans="26:26" ht="15" thickBot="1">
       <c r="Z187" s="20" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="188" spans="26:26" ht="15" thickBot="1">
       <c r="Z188" s="20" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="26:26" ht="15" thickBot="1">
       <c r="Z189" s="20" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="26:26" ht="15" thickBot="1">
       <c r="Z190" s="20" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="26:26" ht="15" thickBot="1">
       <c r="Z191" s="20" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="26:26" ht="15" thickBot="1">
       <c r="Z192" s="20" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193" spans="26:26" ht="15" thickBot="1">
       <c r="Z193" s="20" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
     <row r="194" spans="26:26" ht="15" thickBot="1">
       <c r="Z194" s="20" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="195" spans="26:26" ht="15" thickBot="1">
       <c r="Z195" s="20" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196" spans="26:26" ht="15" thickBot="1">
       <c r="Z196" s="20" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
     </row>
     <row r="197" spans="26:26" ht="15" thickBot="1">
       <c r="Z197" s="20" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="198" spans="26:26" ht="15" thickBot="1">
       <c r="Z198" s="20" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="199" spans="26:26" ht="15" thickBot="1">
       <c r="Z199" s="20" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="200" spans="26:26" ht="15" thickBot="1">
       <c r="Z200" s="20" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="201" spans="26:26" ht="15" thickBot="1">
       <c r="Z201" s="20" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="202" spans="26:26" ht="15" thickBot="1">
       <c r="Z202" s="20" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="203" spans="26:26" ht="15" thickBot="1">
       <c r="Z203" s="20" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="204" spans="26:26" ht="15" thickBot="1">
       <c r="Z204" s="20" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="205" spans="26:26" ht="15" thickBot="1">
       <c r="Z205" s="20" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="206" spans="26:26" ht="15" thickBot="1">
       <c r="Z206" s="20" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="207" spans="26:26" ht="15" thickBot="1">
       <c r="Z207" s="20" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="208" spans="26:26" ht="15" thickBot="1">
       <c r="Z208" s="20" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="209" spans="26:26" ht="15" thickBot="1">
       <c r="Z209" s="20" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="210" spans="26:26" ht="15" thickBot="1">
       <c r="Z210" s="20" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="211" spans="26:26" ht="15" thickBot="1">
       <c r="Z211" s="20" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="212" spans="26:26" ht="15" thickBot="1">
       <c r="Z212" s="20" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="213" spans="26:26" ht="15" thickBot="1">
       <c r="Z213" s="20" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="214" spans="26:26" ht="15" thickBot="1">
       <c r="Z214" s="20" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="215" spans="26:26" ht="15" thickBot="1">
       <c r="Z215" s="20" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="216" spans="26:26" ht="15" thickBot="1">
       <c r="Z216" s="20" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="217" spans="26:26" ht="15" thickBot="1">
       <c r="Z217" s="20" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="218" spans="26:26" ht="15" thickBot="1">
       <c r="Z218" s="20" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="219" spans="26:26" ht="15" thickBot="1">
       <c r="Z219" s="20" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="220" spans="26:26" ht="15" thickBot="1">
       <c r="Z220" s="20" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="221" spans="26:26" ht="15" thickBot="1">
       <c r="Z221" s="20" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="222" spans="26:26" ht="15" thickBot="1">
       <c r="Z222" s="20" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="223" spans="26:26" ht="15" thickBot="1">
       <c r="Z223" s="20" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="224" spans="26:26" ht="15" thickBot="1">
       <c r="Z224" s="20" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="225" spans="26:26" ht="15" thickBot="1">
       <c r="Z225" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="226" spans="26:26" ht="15" thickBot="1">
+      <c r="Z226" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="227" spans="26:26" ht="15" thickBot="1">
+      <c r="Z227" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="228" spans="26:26" ht="15" thickBot="1">
+      <c r="Z228" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="229" spans="26:26" ht="15" thickBot="1">
+      <c r="Z229" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="230" spans="26:26" ht="15" thickBot="1">
+      <c r="Z230" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231" spans="26:26" ht="15" thickBot="1">
+      <c r="Z231" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="232" spans="26:26" ht="15" thickBot="1">
+      <c r="Z232" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="233" spans="26:26" ht="15" thickBot="1">
+      <c r="Z233" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="234" spans="26:26" ht="15" thickBot="1">
+      <c r="Z234" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="235" spans="26:26" ht="15" thickBot="1">
+      <c r="Z235" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="236" spans="26:26" ht="15" thickBot="1">
+      <c r="Z236" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="237" spans="26:26" ht="15" thickBot="1">
+      <c r="Z237" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="238" spans="26:26" ht="15" thickBot="1">
+      <c r="Z238" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="239" spans="26:26" ht="15" thickBot="1">
+      <c r="Z239" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="240" spans="26:26" ht="15" thickBot="1">
+      <c r="Z240" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="241" spans="26:26" ht="15" thickBot="1">
+      <c r="Z241" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="242" spans="26:26" ht="15" thickBot="1">
+      <c r="Z242" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="26:26" ht="15" thickBot="1">
+      <c r="Z243" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="244" spans="26:26" ht="15" thickBot="1">
+      <c r="Z244" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="245" spans="26:26" ht="15" thickBot="1">
+      <c r="Z245" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246" spans="26:26" ht="15" thickBot="1">
+      <c r="Z246" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="247" spans="26:26" ht="15" thickBot="1">
+      <c r="Z247" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="248" spans="26:26" ht="15" thickBot="1">
+      <c r="Z248" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="249" spans="26:26" ht="15" thickBot="1">
+      <c r="Z249" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="250" spans="26:26" ht="15" thickBot="1">
+      <c r="Z250" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="251" spans="26:26" ht="15" thickBot="1">
+      <c r="Z251" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="252" spans="26:26" ht="15" thickBot="1">
+      <c r="Z252" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="253" spans="26:26" ht="15" thickBot="1">
+      <c r="Z253" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="254" spans="26:26" ht="15" thickBot="1">
+      <c r="Z254" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="255" spans="26:26" ht="15" thickBot="1">
+      <c r="Z255" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="256" spans="26:26" ht="15" thickBot="1">
+      <c r="Z256" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="257" spans="26:26" ht="15" thickBot="1">
+      <c r="Z257" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="226" spans="26:26">
-      <c r="Z226" s="36" t="s">
+    <row r="258" spans="26:26" ht="15" thickBot="1">
+      <c r="Z258" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="259" spans="26:26">
+      <c r="Z259" s="36" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="26:26">
-      <c r="Z227" s="2" t="s">
+    <row r="260" spans="26:26">
+      <c r="Z260" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="228" spans="26:26">
-      <c r="Z228" s="2" t="s">
+    <row r="261" spans="26:26">
+      <c r="Z261" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="229" spans="26:26">
-      <c r="Z229" s="2" t="s">
+    <row r="262" spans="26:26">
+      <c r="Z262" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="230" spans="26:26">
-      <c r="Z230" s="2" t="s">
+    <row r="263" spans="26:26">
+      <c r="Z263" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="231" spans="26:26">
-      <c r="Z231" s="2" t="s">
+    <row r="264" spans="26:26">
+      <c r="Z264" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="232" spans="26:26">
-      <c r="Z232" s="2" t="s">
+    <row r="265" spans="26:26">
+      <c r="Z265" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="233" spans="26:26">
-      <c r="Z233" s="22" t="s">
+    <row r="266" spans="26:26">
+      <c r="Z266" s="22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="26:26">
-      <c r="Z234" s="22" t="s">
+    <row r="267" spans="26:26">
+      <c r="Z267" s="22" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="235" spans="26:26">
-      <c r="Z235" s="37" t="s">
+    <row r="268" spans="26:26">
+      <c r="Z268" s="37" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="236" spans="26:26">
-      <c r="Z236" s="21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="237" spans="26:26" ht="15" thickBot="1">
-      <c r="Z237" s="19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="238" spans="26:26" ht="15" thickBot="1">
-      <c r="Z238" s="19" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="239" spans="26:26" ht="15" thickBot="1">
-      <c r="Z239" s="19" t="s">
+    <row r="269" spans="26:26">
+      <c r="Z269" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="270" spans="26:26" ht="15" thickBot="1">
+      <c r="Z270" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="271" spans="26:26" ht="15" thickBot="1">
+      <c r="Z271" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="272" spans="26:26" ht="15" thickBot="1">
+      <c r="Z272" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="273" spans="26:26">
+      <c r="Z273" s="76" t="s">
         <v>334</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E96 E61:E65">
-      <formula1>$W$92:$W$94</formula1>
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E129 E94:E98">
+      <formula1>$W$125:$W$127</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E94 E79 E69 E59 E99 E67 E71 E76">
-      <formula1>$Y$92:$Y$93</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E127 E109 E104 E100 E132 E92 E102 E112">
+      <formula1>$Y$125:$Y$126</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93">
-      <formula1>$S$91:$S$94</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E126">
+      <formula1>$S$124:$S$127</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E95 E73 E13">
-      <formula1>$U$102:$U$118</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E128 E13 E106">
+      <formula1>$U$135:$U$151</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100 E80:E92 E74:E75 E66 E56:E58 E60 E68 E70 E77:E78 E72">
-      <formula1>$V$92</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E133 E105 E110:E111 E103 E101 E93 E89:E91 E99 E107:E108 E113:E125">
+      <formula1>$V$125</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E55 E43:E45">
-      <formula1>$Y$77:$Y$79</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88">
+      <formula1>$Y$110:$Y$112</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29 E32 E12 E4:E9 E35:E36">
-      <formula1>$V$77</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29 E60 E32 E45 E35:E36 E4:E9 E12 E52:E53">
+      <formula1>$V$110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E47 E49:E50">
-      <formula1>$U$87:$U$103</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E77 E74 E82:E83 E72">
+      <formula1>$U$120:$U$136</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E46">
-      <formula1>$S$76:$S$79</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87 E84">
+      <formula1>$Y$110:$Y$111</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54 E51">
-      <formula1>$Y$77:$Y$78</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E81">
+      <formula1>$W$110:$W$112</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48">
-      <formula1>$W$77:$W$79</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E27 E16:E17 E37 E33 E21:E22 E30 E40:E42">
-      <formula1>$V$92:$V$93</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E27 E73 E75:E76 E69:E71 E46:E49 E65:E67 E54:E57 E30 E21:E22 E33 E37 E39:E42 E16:E17 E61:E63 E78:E79">
+      <formula1>$V$125:$V$126</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$90:$R$91</formula1>
+      <formula1>$R$123:$R$124</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$91:$T$115</formula1>
+      <formula1>$T$124:$T$148</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>$Z$92:$Z$239</formula1>
+      <formula1>$Z$125:$Z$273</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5722,10 +7030,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5822,7 +7130,7 @@
         <v>269</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>271</v>
@@ -5841,7 +7149,7 @@
         <v>270</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>272</v>
@@ -5860,7 +7168,7 @@
         <v>270</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>273</v>
@@ -5884,7 +7192,7 @@
         <v>270</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>274</v>
@@ -5908,7 +7216,7 @@
         <v>270</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>275</v>
@@ -5949,7 +7257,7 @@
         <v>270</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>276</v>
@@ -5973,7 +7281,7 @@
         <v>270</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>277</v>
@@ -5996,7 +7304,7 @@
         <v>270</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>278</v>
@@ -6031,7 +7339,7 @@
         <v>270</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>279</v>
@@ -6072,7 +7380,7 @@
         <v>270</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>280</v>
@@ -6113,7 +7421,7 @@
         <v>269</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C12" s="50" t="s">
         <v>282</v>
@@ -6137,7 +7445,7 @@
         <v>269</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C13" s="50" t="s">
         <v>283</v>
@@ -6161,7 +7469,7 @@
         <v>269</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>284</v>
@@ -6182,7 +7490,7 @@
     </row>
     <row r="15" spans="1:23" s="49" customFormat="1">
       <c r="B15" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>285</v>
@@ -6208,7 +7516,7 @@
     </row>
     <row r="16" spans="1:23" s="49" customFormat="1">
       <c r="B16" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>290</v>
@@ -6230,7 +7538,7 @@
     </row>
     <row r="17" spans="1:13" s="49" customFormat="1">
       <c r="B17" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>291</v>
@@ -6256,10 +7564,10 @@
     </row>
     <row r="18" spans="1:13" s="49" customFormat="1">
       <c r="B18" s="49" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>253</v>
@@ -6271,25 +7579,25 @@
         <v>254</v>
       </c>
       <c r="G18" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="L18" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="M18" s="52" t="s">
         <v>307</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="K18" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="L18" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="M18" s="52" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="49" customFormat="1">
@@ -6297,7 +7605,7 @@
         <v>269</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C19" s="50" t="s">
         <v>282</v>
@@ -6321,7 +7629,7 @@
         <v>269</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C20" s="50" t="s">
         <v>282</v>
@@ -6345,7 +7653,7 @@
         <v>270</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C21" s="50" t="s">
         <v>275</v>
@@ -6369,10 +7677,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K21" s="52" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L21" s="53" t="s">
         <v>260</v>
@@ -6386,7 +7694,7 @@
         <v>269</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>282</v>
@@ -6410,7 +7718,7 @@
         <v>269</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C23" s="50" t="s">
         <v>282</v>
@@ -6434,7 +7742,7 @@
         <v>269</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C24" s="50" t="s">
         <v>282</v>
@@ -6458,7 +7766,7 @@
         <v>269</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C25" s="50" t="s">
         <v>282</v>
@@ -6466,8 +7774,8 @@
       <c r="D25" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E25" s="50" t="s">
-        <v>28</v>
+      <c r="E25" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="F25" s="49" t="s">
         <v>281</v>
@@ -6482,7 +7790,7 @@
         <v>269</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C26" s="50" t="s">
         <v>282</v>
@@ -6490,8 +7798,8 @@
       <c r="D26" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>28</v>
+      <c r="E26" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>281</v>
@@ -6506,7 +7814,7 @@
         <v>269</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C27" s="50" t="s">
         <v>282</v>
@@ -6514,8 +7822,8 @@
       <c r="D27" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>28</v>
+      <c r="E27" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="F27" s="49" t="s">
         <v>281</v>
@@ -6530,7 +7838,7 @@
         <v>270</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C28" s="50" t="s">
         <v>275</v>
@@ -6538,8 +7846,8 @@
       <c r="D28" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E28" s="50" t="s">
-        <v>28</v>
+      <c r="E28" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="F28" s="53" t="s">
         <v>255</v>
@@ -6554,10 +7862,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K28" s="52" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L28" s="53" t="s">
         <v>260</v>
@@ -6571,7 +7879,7 @@
         <v>269</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C29" s="50" t="s">
         <v>282</v>
@@ -6579,8 +7887,8 @@
       <c r="D29" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E29" s="50" t="s">
-        <v>28</v>
+      <c r="E29" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="F29" s="49" t="s">
         <v>281</v>
@@ -6595,7 +7903,7 @@
         <v>270</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C30" s="50" t="s">
         <v>275</v>
@@ -6603,8 +7911,8 @@
       <c r="D30" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E30" s="50" t="s">
-        <v>28</v>
+      <c r="E30" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="F30" s="53" t="s">
         <v>255</v>
@@ -6619,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K30" s="52" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L30" s="53" t="s">
         <v>260</v>
@@ -6636,7 +7944,7 @@
         <v>270</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C31" s="50" t="s">
         <v>274</v>
@@ -6644,8 +7952,8 @@
       <c r="D31" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>28</v>
+      <c r="E31" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>254</v>
@@ -6660,7 +7968,7 @@
         <v>270</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C32" s="50" t="s">
         <v>275</v>
@@ -6668,8 +7976,8 @@
       <c r="D32" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E32" s="50" t="s">
-        <v>28</v>
+      <c r="E32" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="F32" s="53" t="s">
         <v>255</v>
@@ -6684,10 +7992,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K32" s="52" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L32" s="53" t="s">
         <v>260</v>
@@ -6701,7 +8009,7 @@
         <v>270</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C33" s="50" t="s">
         <v>275</v>
@@ -6709,8 +8017,8 @@
       <c r="D33" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E33" s="50" t="s">
-        <v>28</v>
+      <c r="E33" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>255</v>
@@ -6725,10 +8033,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K33" s="52" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L33" s="53" t="s">
         <v>260</v>
@@ -6742,7 +8050,7 @@
         <v>270</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C34" s="50" t="s">
         <v>275</v>
@@ -6750,8 +8058,8 @@
       <c r="D34" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E34" s="50" t="s">
-        <v>28</v>
+      <c r="E34" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="F34" s="53" t="s">
         <v>255</v>
@@ -6766,10 +8074,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K34" s="52" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L34" s="53" t="s">
         <v>260</v>
@@ -6778,74 +8086,224 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="C35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
-      <c r="I35" s="42"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="C36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="41"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="C37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="43"/>
-      <c r="I37" s="43"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="C38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="44"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="C39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="41"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="C40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="41"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="C41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="41"/>
+    <row r="35" spans="1:13" s="49" customFormat="1">
+      <c r="A35" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" s="51">
+        <v>1002</v>
+      </c>
+      <c r="I35" s="52"/>
+    </row>
+    <row r="36" spans="1:13" s="49" customFormat="1">
+      <c r="A36" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" s="51">
+        <v>1002</v>
+      </c>
+      <c r="I36" s="52"/>
+    </row>
+    <row r="37" spans="1:13" s="49" customFormat="1">
+      <c r="A37" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="51">
+        <v>4501</v>
+      </c>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" spans="1:13" s="49" customFormat="1">
+      <c r="A38" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="I38" s="52">
+        <v>1</v>
+      </c>
+      <c r="J38" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="M38" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="49" customFormat="1">
+      <c r="A39" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="I39" s="52">
+        <v>1</v>
+      </c>
+      <c r="J39" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="K39" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="M39" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="49" customFormat="1">
+      <c r="A40" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="51">
+        <v>1001</v>
+      </c>
+      <c r="I40" s="52"/>
+    </row>
+    <row r="41" spans="1:13" s="49" customFormat="1">
+      <c r="A41" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="I41" s="52">
+        <v>1</v>
+      </c>
+      <c r="J41" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="K41" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="M41" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:13">
       <c r="C42" s="11"/>
@@ -6945,7 +8403,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="331">
   <si>
     <t>Execution</t>
   </si>
@@ -973,6 +973,42 @@
   </si>
   <si>
     <t>424030046672431</t>
+  </si>
+  <si>
+    <t>CIS_API_Credit_Amount</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>NACT_DebitCredit</t>
+  </si>
+  <si>
+    <t>To Credit</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>CIS_API_Debit_Amount</t>
+  </si>
+  <si>
+    <t>To Debit</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>DACT_CallHomeforLess</t>
+  </si>
+  <si>
+    <t>CIS_API_Product_Subscription</t>
+  </si>
+  <si>
+    <t>CIS_API_View_History</t>
   </si>
 </sst>
 </file>
@@ -1602,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z201"/>
+  <dimension ref="A1:Z204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1688,7 +1724,7 @@
     </row>
     <row r="2" spans="1:26" s="58" customFormat="1">
       <c r="A2" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>294</v>
@@ -1720,7 +1756,7 @@
     </row>
     <row r="3" spans="1:26" s="58" customFormat="1">
       <c r="A3" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>294</v>
@@ -1746,7 +1782,7 @@
     </row>
     <row r="4" spans="1:26" s="58" customFormat="1">
       <c r="A4" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>294</v>
@@ -1772,7 +1808,7 @@
     </row>
     <row r="5" spans="1:26" s="22" customFormat="1">
       <c r="A5" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>299</v>
@@ -1803,7 +1839,7 @@
     </row>
     <row r="6" spans="1:26" s="22" customFormat="1">
       <c r="A6" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>316</v>
@@ -1839,7 +1875,7 @@
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1">
       <c r="A7" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>316</v>
@@ -1875,7 +1911,7 @@
     </row>
     <row r="8" spans="1:26" s="35" customFormat="1">
       <c r="A8" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>316</v>
@@ -1929,7 +1965,7 @@
     </row>
     <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="A9" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>301</v>
@@ -1969,7 +2005,7 @@
     </row>
     <row r="10" spans="1:26" s="22" customFormat="1">
       <c r="A10" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>303</v>
@@ -1984,12 +2020,12 @@
         <v>209</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="10"/>
       <c r="I10" s="56" t="s">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="J10" s="8">
         <v>30</v>
@@ -2004,7 +2040,7 @@
     </row>
     <row r="11" spans="1:26" s="22" customFormat="1">
       <c r="A11" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>303</v>
@@ -2046,7 +2082,7 @@
     </row>
     <row r="12" spans="1:26" s="35" customFormat="1">
       <c r="A12" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>303</v>
@@ -2101,7 +2137,7 @@
     </row>
     <row r="13" spans="1:26" s="35" customFormat="1">
       <c r="A13" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>303</v>
@@ -2156,7 +2192,7 @@
     </row>
     <row r="14" spans="1:26" s="35" customFormat="1">
       <c r="A14" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>303</v>
@@ -2206,10 +2242,18 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="35" customFormat="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="56"/>
       <c r="G15" s="2"/>
@@ -2245,14 +2289,22 @@
       </c>
     </row>
     <row r="16" spans="1:26" s="35" customFormat="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="15"/>
       <c r="J16" s="8"/>
       <c r="K16" s="10"/>
@@ -2283,15 +2335,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="30" customFormat="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+    <row r="17" spans="1:26" s="35" customFormat="1">
+      <c r="A17" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="15"/>
       <c r="J17" s="8"/>
       <c r="K17" s="10"/>
@@ -2299,16 +2359,46 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="10"/>
+      <c r="S17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="40"/>
+      <c r="V17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="44" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:26" s="35" customFormat="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="56"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="15"/>
       <c r="J18" s="8"/>
       <c r="K18" s="10"/>
@@ -2316,40 +2406,37 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="10"/>
-      <c r="R18" s="35" t="s">
-        <v>22</v>
-      </c>
       <c r="S18" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="U18" s="38"/>
-      <c r="V18" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="W18" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="X18" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y18" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z18" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" s="22" customFormat="1">
+        <v>7</v>
+      </c>
+      <c r="T18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="40"/>
+      <c r="V18" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="35" customFormat="1">
       <c r="A19" s="55"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="8"/>
@@ -2358,15 +2445,37 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="1:26" s="22" customFormat="1">
+      <c r="S19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="40"/>
+      <c r="V19" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y19" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="30" customFormat="1">
       <c r="A20" s="55"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="8"/>
@@ -2375,15 +2484,8 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="10"/>
-      <c r="T20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="7"/>
-      <c r="Z20" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" s="22" customFormat="1">
+    </row>
+    <row r="21" spans="1:26" s="35" customFormat="1">
       <c r="A21" s="55"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2399,15 +2501,40 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="10"/>
+      <c r="R21" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" s="38"/>
+      <c r="V21" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y21" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="39" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="22" spans="1:26" s="22" customFormat="1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="8"/>
@@ -2416,39 +2543,14 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="10"/>
-      <c r="R22" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="23" spans="1:26" s="22" customFormat="1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="2"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -2466,121 +2568,87 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="35" customFormat="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
-      <c r="S24" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T24" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="U24" s="40"/>
-      <c r="V24" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W24" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X24" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y24" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z24" s="44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" s="35" customFormat="1">
+    <row r="24" spans="1:26" s="22" customFormat="1">
+      <c r="A24" s="55"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:26" s="22" customFormat="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
-      <c r="S25" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="U25" s="40"/>
-      <c r="V25" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W25" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X25" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y25" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z25" s="44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" s="35" customFormat="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="10"/>
+      <c r="R25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" s="22" customFormat="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="32"/>
-      <c r="S26" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T26" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="U26" s="40"/>
-      <c r="V26" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W26" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X26" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y26" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z26" s="44" t="s">
-        <v>39</v>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="10"/>
+      <c r="T26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="Z26" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:26" s="35" customFormat="1">
@@ -2661,22 +2729,44 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="30" customFormat="1">
+    <row r="29" spans="1:26" s="35" customFormat="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="32"/>
+      <c r="S29" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="40"/>
+      <c r="V29" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="W29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y29" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z29" s="44" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:26" s="35" customFormat="1">
       <c r="A30" s="2"/>
@@ -2685,8 +2775,8 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="33"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="33"/>
       <c r="J30" s="34"/>
       <c r="K30" s="32"/>
@@ -2694,222 +2784,244 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
       <c r="O30" s="32"/>
-      <c r="R30" s="35" t="s">
+      <c r="S30" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T30" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="40"/>
+      <c r="V30" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="W30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X30" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y30" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" s="35" customFormat="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="32"/>
+      <c r="S31" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" s="40"/>
+      <c r="V31" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="W31" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X31" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y31" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z31" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" s="30" customFormat="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="27"/>
+    </row>
+    <row r="33" spans="1:26" s="35" customFormat="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
+      <c r="R33" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="S30" s="36" t="s">
+      <c r="S33" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T30" s="37" t="s">
+      <c r="T33" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="U30" s="38"/>
-      <c r="V30" s="39" t="s">
+      <c r="U33" s="38"/>
+      <c r="V33" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="W30" s="38" t="s">
+      <c r="W33" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="X30" s="39" t="s">
+      <c r="X33" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="Y30" s="39" t="s">
+      <c r="Y33" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="Z30" s="39" t="s">
+      <c r="Z33" s="39" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="30" customFormat="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="27"/>
-    </row>
-    <row r="32" spans="1:26" s="35" customFormat="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="32"/>
-      <c r="R32" s="35" t="s">
+    <row r="34" spans="1:26" s="30" customFormat="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
+    </row>
+    <row r="35" spans="1:26" s="35" customFormat="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="32"/>
+      <c r="R35" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="S32" s="36" t="s">
+      <c r="S35" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="37" t="s">
+      <c r="T35" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="38"/>
-      <c r="V32" s="39" t="s">
+      <c r="U35" s="38"/>
+      <c r="V35" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="W32" s="38" t="s">
+      <c r="W35" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="X32" s="39" t="s">
+      <c r="X35" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="Y32" s="39" t="s">
+      <c r="Y35" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="Z32" s="39" t="s">
+      <c r="Z35" s="39" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="30" customFormat="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="27"/>
-    </row>
-    <row r="34" spans="1:26" s="35" customFormat="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="32"/>
-      <c r="R34" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="S34" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="T34" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="U34" s="38"/>
-      <c r="V34" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="W34" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="X34" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y34" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z34" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" s="30" customFormat="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
-    </row>
-    <row r="36" spans="1:26" s="22" customFormat="1">
+    <row r="36" spans="1:26" s="30" customFormat="1">
       <c r="A36" s="2"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="10"/>
-      <c r="S36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U36" s="7"/>
-      <c r="V36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X36" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z36" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" s="30" customFormat="1">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="1:26" s="35" customFormat="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="27"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="32"/>
+      <c r="R37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="T37" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="U37" s="38"/>
+      <c r="V37" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="W37" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="X37" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y37" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="39" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="38" spans="1:26" s="30" customFormat="1">
       <c r="A38" s="2"/>
@@ -2935,8 +3047,8 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="15"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="15"/>
       <c r="J39" s="8"/>
       <c r="K39" s="10"/>
@@ -2944,12 +3056,27 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="10"/>
+      <c r="S39" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="T39" s="2" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="U39" s="7"/>
-      <c r="Z39" s="17" t="s">
-        <v>217</v>
+      <c r="V39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z39" s="21" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:26" s="30" customFormat="1">
@@ -3044,22 +3171,29 @@
       <c r="N44" s="26"/>
       <c r="O44" s="27"/>
     </row>
-    <row r="45" spans="1:26" s="30" customFormat="1">
+    <row r="45" spans="1:26" s="22" customFormat="1">
       <c r="A45" s="2"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="27"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="10"/>
+      <c r="T45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="U45" s="7"/>
+      <c r="Z45" s="17" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="46" spans="1:26" s="30" customFormat="1">
       <c r="A46" s="2"/>
@@ -3231,112 +3365,56 @@
       <c r="N55" s="26"/>
       <c r="O55" s="27"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" s="30" customFormat="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="10"/>
-      <c r="R56" t="s">
-        <v>21</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T56" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="27"/>
+    </row>
+    <row r="57" spans="1:26" s="30" customFormat="1">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="10"/>
-      <c r="R57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="U57" s="1"/>
-      <c r="V57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z57" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="27"/>
+    </row>
+    <row r="58" spans="1:26" s="30" customFormat="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="10"/>
-      <c r="S58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U58" s="7"/>
-      <c r="V58" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X58" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z58" s="21" t="s">
-        <v>167</v>
-      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="27"/>
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="2"/>
@@ -3346,7 +3424,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="10"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="10"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="8"/>
       <c r="K59" s="10"/>
@@ -3354,27 +3432,14 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="10"/>
-      <c r="S59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U59" s="7"/>
-      <c r="V59" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X59" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z59" s="17" t="s">
-        <v>39</v>
+      <c r="R59" t="s">
+        <v>21</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:26">
@@ -3382,10 +3447,10 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="8"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="10"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="8"/>
       <c r="K60" s="10"/>
@@ -3393,18 +3458,30 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="10"/>
+      <c r="R60" t="s">
+        <v>22</v>
+      </c>
       <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="U60" s="7"/>
-      <c r="W60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z60" s="17" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="T60" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U60" s="1"/>
+      <c r="V60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:26">
@@ -3412,10 +3489,10 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="15"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="15"/>
       <c r="J61" s="8"/>
       <c r="K61" s="10"/>
@@ -3423,12 +3500,27 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="10"/>
+      <c r="S61" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="T61" s="2" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="U61" s="7"/>
-      <c r="Z61" s="17" t="s">
-        <v>41</v>
+      <c r="V61" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X61" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z61" s="21" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:26">
@@ -3438,8 +3530,8 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="15"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="15"/>
       <c r="J62" s="8"/>
       <c r="K62" s="10"/>
@@ -3447,12 +3539,27 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="10"/>
+      <c r="S62" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="T62" s="2" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="U62" s="7"/>
+      <c r="V62" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X62" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y62" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="Z62" s="17" t="s">
-        <v>217</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:26">
@@ -3460,10 +3567,10 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="10"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="15"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="15"/>
       <c r="J63" s="8"/>
       <c r="K63" s="10"/>
@@ -3471,861 +3578,951 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="10"/>
+      <c r="S63" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="T63" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U63" s="7"/>
+      <c r="W63" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="Z63" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:26">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="10"/>
       <c r="T64" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U64" s="7"/>
       <c r="Z64" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="20:26">
-      <c r="T65" s="52" t="s">
-        <v>272</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="10"/>
+      <c r="T65" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="U65" s="7"/>
       <c r="Z65" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="10"/>
+      <c r="T66" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="U66" s="7"/>
+      <c r="Z66" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="T67" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U67" s="7"/>
+      <c r="Z67" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="T68" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="U68" s="7"/>
+      <c r="Z68" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="20:26">
-      <c r="T66" s="52" t="s">
+    <row r="69" spans="1:26">
+      <c r="T69" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="Z66" s="17" t="s">
+      <c r="Z69" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="20:26">
-      <c r="T67" s="52" t="s">
+    <row r="70" spans="1:26">
+      <c r="T70" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="U67" s="1" t="s">
+      <c r="U70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z67" s="17" t="s">
+      <c r="Z70" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="20:26">
-      <c r="T68" s="52" t="s">
+    <row r="71" spans="1:26">
+      <c r="T71" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="U68" s="24" t="s">
+      <c r="U71" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="Z68" s="17" t="s">
+      <c r="Z71" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="20:26">
-      <c r="T69" s="52" t="s">
+    <row r="72" spans="1:26">
+      <c r="T72" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="U69" s="24" t="s">
+      <c r="U72" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="Z69" s="17" t="s">
+      <c r="Z72" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="20:26">
-      <c r="T70" s="52" t="s">
+    <row r="73" spans="1:26">
+      <c r="T73" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="U70" s="24" t="s">
+      <c r="U73" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="Z70" s="17" t="s">
+      <c r="Z73" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="20:26" ht="15" thickBot="1">
-      <c r="T71" s="52" t="s">
+    <row r="74" spans="1:26" ht="15" thickBot="1">
+      <c r="T74" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="U71" s="24" t="s">
+      <c r="U74" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="Z71" s="17" t="s">
+      <c r="Z74" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="20:26" ht="15" thickBot="1">
-      <c r="T72" s="52" t="s">
+    <row r="75" spans="1:26" ht="15" thickBot="1">
+      <c r="T75" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="U72" s="24" t="s">
+      <c r="U75" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="Z72" s="18" t="s">
+      <c r="Z75" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="20:26" ht="15" thickBot="1">
-      <c r="T73" s="52" t="s">
+    <row r="76" spans="1:26" ht="15" thickBot="1">
+      <c r="T76" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="U73" s="24" t="s">
+      <c r="U76" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="Z73" s="19" t="s">
+      <c r="Z76" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="20:26" ht="15" thickBot="1">
-      <c r="T74" s="52" t="s">
+    <row r="77" spans="1:26" ht="15" thickBot="1">
+      <c r="T77" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="U74" s="24" t="s">
+      <c r="U77" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="Z74" s="19" t="s">
+      <c r="Z77" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="20:26" ht="15" thickBot="1">
-      <c r="T75" s="52" t="s">
+    <row r="78" spans="1:26" ht="15" thickBot="1">
+      <c r="T78" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="U75" s="25" t="s">
+      <c r="U78" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="Z75" s="19" t="s">
+      <c r="Z78" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="20:26" ht="15" thickBot="1">
-      <c r="T76" s="52" t="s">
+    <row r="79" spans="1:26" ht="15" thickBot="1">
+      <c r="T79" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="U76" s="24" t="s">
+      <c r="U79" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="Z76" s="19" t="s">
+      <c r="Z79" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="20:26" ht="15" thickBot="1">
-      <c r="T77" s="52" t="s">
+    <row r="80" spans="1:26" ht="15" thickBot="1">
+      <c r="T80" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="U77" s="24" t="s">
+      <c r="U80" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="Z77" s="19" t="s">
+      <c r="Z80" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="20:26" ht="15" thickBot="1">
-      <c r="T78" s="48" t="s">
+    <row r="81" spans="20:26" ht="15" thickBot="1">
+      <c r="T81" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="U78" s="24" t="s">
+      <c r="U81" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="Z78" s="19" t="s">
+      <c r="Z81" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="20:26" ht="15" thickBot="1">
-      <c r="T79" s="48" t="s">
+    <row r="82" spans="20:26" ht="15" thickBot="1">
+      <c r="T82" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="U79" s="24" t="s">
+      <c r="U82" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="Z79" s="20" t="s">
+      <c r="Z82" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="20:26" ht="15" thickBot="1">
-      <c r="T80" s="48" t="s">
+    <row r="83" spans="20:26" ht="15" thickBot="1">
+      <c r="T83" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="U80" s="24" t="s">
+      <c r="U83" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="Z80" s="20" t="s">
+      <c r="Z83" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="20:26" ht="15" thickBot="1">
-      <c r="T81" s="22" t="s">
+    <row r="84" spans="20:26" ht="15" thickBot="1">
+      <c r="T84" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="U81" s="24" t="s">
+      <c r="U84" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="Z81" s="20" t="s">
+      <c r="Z84" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="20:26" ht="15" thickBot="1">
-      <c r="U82" s="24" t="s">
+    <row r="85" spans="20:26" ht="15" thickBot="1">
+      <c r="T85" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="U85" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="Z82" s="20" t="s">
+      <c r="Z85" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="20:26" ht="15" thickBot="1">
-      <c r="U83" s="24" t="s">
+    <row r="86" spans="20:26" ht="15" thickBot="1">
+      <c r="T86" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="U86" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="Z83" s="20" t="s">
+      <c r="Z86" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="20:26" ht="15" thickBot="1">
-      <c r="U84" s="24" t="s">
+    <row r="87" spans="20:26" ht="15" thickBot="1">
+      <c r="T87" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="U87" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="Z84" s="20" t="s">
+      <c r="Z87" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="20:26" ht="15" thickBot="1">
-      <c r="Z85" s="20" t="s">
+    <row r="88" spans="20:26" ht="15" thickBot="1">
+      <c r="T88" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z88" s="20" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="20:26" ht="15" thickBot="1">
-      <c r="Z86" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="20:26" ht="15" thickBot="1">
-      <c r="Z87" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="20:26" ht="15" thickBot="1">
-      <c r="Z88" s="20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="89" spans="20:26" ht="15" thickBot="1">
       <c r="Z89" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="20:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="20:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="20:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="20:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="20:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="20:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="20:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="26:26" ht="15" thickBot="1">
       <c r="Z138" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="26:26" ht="15" thickBot="1">
       <c r="Z139" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="26:26" ht="15" thickBot="1">
       <c r="Z140" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="26:26" ht="15" thickBot="1">
       <c r="Z141" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="26:26" ht="15" thickBot="1">
       <c r="Z142" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="143" spans="26:26" ht="15" thickBot="1">
       <c r="Z143" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="26:26" ht="15" thickBot="1">
       <c r="Z144" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="26:26" ht="15" thickBot="1">
       <c r="Z145" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="26:26" ht="15" thickBot="1">
       <c r="Z146" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="26:26" ht="15" thickBot="1">
       <c r="Z147" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="26:26" ht="15" thickBot="1">
       <c r="Z148" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149" spans="26:26" ht="15" thickBot="1">
       <c r="Z149" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150" spans="26:26" ht="15" thickBot="1">
       <c r="Z150" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="26:26" ht="15" thickBot="1">
       <c r="Z151" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="26:26" ht="15" thickBot="1">
       <c r="Z152" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="26:26" ht="15" thickBot="1">
       <c r="Z153" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="26:26" ht="15" thickBot="1">
       <c r="Z154" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155" spans="26:26" ht="15" thickBot="1">
       <c r="Z155" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="26:26" ht="15" thickBot="1">
       <c r="Z156" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="26:26" ht="15" thickBot="1">
       <c r="Z157" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="26:26" ht="15" thickBot="1">
       <c r="Z158" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159" spans="26:26" ht="15" thickBot="1">
       <c r="Z159" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="26:26" ht="15" thickBot="1">
       <c r="Z160" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" thickBot="1">
       <c r="Z161" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" thickBot="1">
       <c r="Z162" s="20" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" thickBot="1">
       <c r="Z163" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" thickBot="1">
       <c r="Z164" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" thickBot="1">
       <c r="Z165" s="20" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" thickBot="1">
       <c r="Z166" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" thickBot="1">
       <c r="Z167" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" thickBot="1">
       <c r="Z168" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" thickBot="1">
       <c r="Z169" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" thickBot="1">
       <c r="Z170" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" thickBot="1">
       <c r="Z171" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="26:26" ht="15" thickBot="1">
       <c r="Z172" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="26:26" ht="15" thickBot="1">
       <c r="Z173" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174" spans="26:26" ht="15" thickBot="1">
       <c r="Z174" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="26:26" ht="15" thickBot="1">
       <c r="Z175" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="26:26" ht="15" thickBot="1">
       <c r="Z176" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="26:26" ht="15" thickBot="1">
       <c r="Z177" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178" spans="26:26" ht="15" thickBot="1">
       <c r="Z178" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="26:26" ht="15" thickBot="1">
       <c r="Z179" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="26:26" ht="15" thickBot="1">
       <c r="Z180" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="26:26" ht="15" thickBot="1">
       <c r="Z181" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="26:26" ht="15" thickBot="1">
       <c r="Z182" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="26:26" ht="15" thickBot="1">
       <c r="Z183" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="26:26" ht="15" thickBot="1">
       <c r="Z184" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="26:26" ht="15" thickBot="1">
       <c r="Z185" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186" spans="26:26" ht="15" thickBot="1">
       <c r="Z186" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187" spans="26:26" ht="15" thickBot="1">
       <c r="Z187" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188" spans="26:26" ht="15" thickBot="1">
       <c r="Z188" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="189" spans="26:26" ht="15" thickBot="1">
       <c r="Z189" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="26:26" ht="15" thickBot="1">
       <c r="Z190" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="26:26" ht="15" thickBot="1">
       <c r="Z191" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="192" spans="26:26" ht="15" thickBot="1">
+      <c r="Z192" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="193" spans="26:26" ht="15" thickBot="1">
+      <c r="Z193" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="192" spans="26:26">
-      <c r="Z192" s="45" t="s">
+    <row r="194" spans="26:26" ht="15" thickBot="1">
+      <c r="Z194" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="195" spans="26:26">
+      <c r="Z195" s="45" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="193" spans="26:26">
-      <c r="Z193" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="194" spans="26:26">
-      <c r="Z194" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="195" spans="26:26">
-      <c r="Z195" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="196" spans="26:26">
       <c r="Z196" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="26:26">
       <c r="Z197" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="26:26">
       <c r="Z198" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="26:26">
+      <c r="Z199" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="26:26">
+      <c r="Z200" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="26:26">
+      <c r="Z201" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="199" spans="26:26">
-      <c r="Z199" s="22" t="s">
+    <row r="202" spans="26:26">
+      <c r="Z202" s="22" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="26:26">
-      <c r="Z200" s="22" t="s">
+    <row r="203" spans="26:26">
+      <c r="Z203" s="22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="201" spans="26:26">
-      <c r="Z201" s="46" t="s">
+    <row r="204" spans="26:26">
+      <c r="Z204" s="46" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59 E24:E28">
-      <formula1>$W$58:$W$60</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E62 E27:E31">
+      <formula1>$W$61:$W$63</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57 E39 E34 E30 E62 E22 E32 E42">
-      <formula1>$Y$58:$Y$59</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E60 E45 E35 E25 E65 E33 E37 E42">
+      <formula1>$Y$61:$Y$62</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56">
-      <formula1>$S$57:$S$60</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59">
+      <formula1>$S$60:$S$63</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E58 E36">
-      <formula1>$U$68:$U$84</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E61 E39">
+      <formula1>$U$71:$U$87</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E63 E35 E40:E41 E33 E31 E23 E19:E21 E29 E37:E38 E43:E55">
-      <formula1>$V$58</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E66 E46:E58 E40:E41 E32 E22:E24 E26 E34 E36 E43:E44 E38">
+      <formula1>$V$61</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$56:$R$57</formula1>
+      <formula1>$R$59:$R$60</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$57:$T$81</formula1>
+      <formula1>$T$60:$T$88</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G19:G1048576">
-      <formula1>$Z$64:$Z$201</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G22:G1048576">
+      <formula1>$Z$67:$Z$204</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18 E6:E8">
-      <formula1>$Y$43:$Y$45</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E6:E8">
+      <formula1>$Y$46:$Y$48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18">
-      <formula1>$Z$49:$Z$186</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21">
+      <formula1>$Z$52:$Z$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>$V$43</formula1>
+      <formula1>$V$46</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E12:E13">
-      <formula1>$U$53:$U$69</formula1>
+      <formula1>$U$56:$U$72</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
-      <formula1>$S$42:$S$45</formula1>
+      <formula1>$S$45:$S$48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17 E14">
-      <formula1>$Y$43:$Y$44</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20 E14">
+      <formula1>$Y$46:$Y$47</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
-      <formula1>$W$43:$W$45</formula1>
+      <formula1>$W$46:$W$48</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4338,7 +4535,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4387,7 +4584,7 @@
         <v>199</v>
       </c>
       <c r="F2" s="22">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4407,7 +4604,7 @@
         <v>181</v>
       </c>
       <c r="F3" s="22">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4427,7 +4624,7 @@
         <v>184</v>
       </c>
       <c r="F4" s="22">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4467,7 +4664,7 @@
         <v>189</v>
       </c>
       <c r="F6" s="22">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4487,7 +4684,7 @@
         <v>193</v>
       </c>
       <c r="F7" s="22">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4518,10 +4715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4532,7 +4729,7 @@
     <col min="4" max="4" width="17.7265625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1796875" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="22"/>
+    <col min="7" max="7" width="20.453125" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1796875" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.1796875" style="22" bestFit="1" customWidth="1"/>
@@ -5090,58 +5287,83 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="22" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>296</v>
+      <c r="E19" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="I19" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>318</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="J19" s="49"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="51"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="C20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="51"/>
+      <c r="B20" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>323</v>
+      </c>
       <c r="J20" s="49"/>
       <c r="K20" s="51"/>
       <c r="L20" s="49"/>
       <c r="M20" s="51"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="C21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="G21" s="48"/>
+      <c r="B21" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>328</v>
+      </c>
       <c r="H21" s="49"/>
       <c r="I21" s="51"/>
       <c r="J21" s="49"/>
@@ -5150,37 +5372,144 @@
       <c r="M21" s="51"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="C22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="G22" s="48"/>
-      <c r="I22" s="52"/>
+      <c r="B22" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="51"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="C23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="I23" s="52"/>
+      <c r="B23" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="K23" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="C24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="I24" s="51"/>
+      <c r="B24" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="J24" s="49"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="51"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="C25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="I25" s="51"/>
+      <c r="B25" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="J25" s="49"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="51"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="C26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="52"/>
+      <c r="B26" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>328</v>
+      </c>
       <c r="H26" s="49"/>
       <c r="I26" s="51"/>
       <c r="J26" s="49"/>
@@ -5189,37 +5518,46 @@
       <c r="M26" s="51"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="C27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="B27" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F27" s="49"/>
-      <c r="G27" s="52"/>
-      <c r="I27" s="52"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="51"/>
     </row>
     <row r="28" spans="2:13">
       <c r="C28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="49"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="53"/>
+      <c r="G28" s="50"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="2:13">
       <c r="C29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="49"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" spans="2:13">
       <c r="C30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="49"/>
       <c r="I30" s="51"/>
       <c r="J30" s="49"/>
@@ -5230,85 +5568,85 @@
     <row r="31" spans="2:13">
       <c r="C31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="51"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="52"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="2:13">
       <c r="C32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="G32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="52"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="53"/>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="49"/>
       <c r="G33" s="50"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="52"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
     </row>
     <row r="34" spans="3:13">
       <c r="C34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="49"/>
       <c r="G34" s="50"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="51"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="51"/>
     </row>
     <row r="35" spans="3:13">
       <c r="C35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="51"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="3:13">
       <c r="C36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="51"/>
+      <c r="G36" s="48"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="3:13">
       <c r="C37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="49"/>
-      <c r="G37" s="52"/>
+      <c r="G37" s="50"/>
       <c r="I37" s="52"/>
     </row>
     <row r="38" spans="3:13">
       <c r="C38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="49"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="53"/>
+      <c r="G38" s="50"/>
+      <c r="I38" s="51"/>
     </row>
     <row r="39" spans="3:13">
       <c r="C39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="49"/>
       <c r="G39" s="50"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
+      <c r="I39" s="51"/>
     </row>
     <row r="40" spans="3:13">
       <c r="C40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="49"/>
-      <c r="G40" s="50"/>
+      <c r="G40" s="52"/>
       <c r="H40" s="49"/>
       <c r="I40" s="51"/>
       <c r="J40" s="49"/>
@@ -5319,85 +5657,85 @@
     <row r="41" spans="3:13">
       <c r="C41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="51"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="52"/>
+      <c r="I41" s="52"/>
     </row>
     <row r="42" spans="3:13">
       <c r="C42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="G42" s="48"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="52"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="53"/>
     </row>
     <row r="43" spans="3:13">
       <c r="C43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="49"/>
       <c r="G43" s="50"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="52"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="50"/>
     </row>
     <row r="44" spans="3:13">
       <c r="C44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="49"/>
       <c r="G44" s="50"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="51"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="51"/>
     </row>
     <row r="45" spans="3:13">
       <c r="C45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="49"/>
       <c r="I45" s="51"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="51"/>
     </row>
     <row r="46" spans="3:13">
       <c r="C46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="51"/>
+      <c r="G46" s="48"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" spans="3:13">
       <c r="C47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="49"/>
-      <c r="G47" s="52"/>
+      <c r="G47" s="50"/>
       <c r="I47" s="52"/>
     </row>
     <row r="48" spans="3:13">
       <c r="C48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="49"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="53"/>
+      <c r="G48" s="50"/>
+      <c r="I48" s="51"/>
     </row>
     <row r="49" spans="3:13">
       <c r="C49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="49"/>
       <c r="G49" s="50"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="50"/>
+      <c r="I49" s="51"/>
     </row>
     <row r="50" spans="3:13">
       <c r="C50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
+      <c r="G50" s="52"/>
       <c r="H50" s="49"/>
       <c r="I50" s="51"/>
       <c r="J50" s="49"/>
@@ -5407,12 +5745,51 @@
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="11"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="51"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="52"/>
+      <c r="I51" s="52"/>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="53"/>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="50"/>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="51"/>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" s="11"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
-    <sheet name="Credentials" sheetId="6" r:id="rId2"/>
-    <sheet name="API_Data" sheetId="7" r:id="rId3"/>
+    <sheet name="API_Data" sheetId="7" r:id="rId2"/>
+    <sheet name="Credentials" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="341">
   <si>
     <t>Execution</t>
   </si>
@@ -54,961 +54,991 @@
     <t>LIVE USAGE SMS</t>
   </si>
   <si>
+    <t>OPT_IN/OPT OUT</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>SMS_DU_TO_DU</t>
+  </si>
+  <si>
+    <t>SMS_DU_TO_Local</t>
+  </si>
+  <si>
+    <t>SMS_DU_International</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>DATA_REGULAR</t>
+  </si>
+  <si>
+    <t>DATA_SOCIAL</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Call_TO_MSISDN</t>
+  </si>
+  <si>
+    <t>CALL_DURATION</t>
+  </si>
+  <si>
+    <t>RECEIVER_MSISDN</t>
+  </si>
+  <si>
+    <t>Message_To_Send</t>
+  </si>
+  <si>
+    <t>TRANSFER_TO_MSISDN</t>
+  </si>
+  <si>
+    <t>TRANSFER_AMOUNT</t>
+  </si>
+  <si>
+    <t>971520001714</t>
+  </si>
+  <si>
+    <t>Recharge_Coupon</t>
+  </si>
+  <si>
+    <t>SMS_COUNT</t>
+  </si>
+  <si>
+    <t>Test_Device</t>
+  </si>
+  <si>
+    <t>device1</t>
+  </si>
+  <si>
+    <t>USSD_OPT_IN</t>
+  </si>
+  <si>
+    <t>USSD_OPT_OUT</t>
+  </si>
+  <si>
+    <t>USSD_Recharge</t>
+  </si>
+  <si>
+    <t>USSD_Long_Code</t>
+  </si>
+  <si>
+    <t>USSD_Short_Code</t>
+  </si>
+  <si>
+    <t>200MB+200MB Social AED25_OnceOff</t>
+  </si>
+  <si>
+    <t>500MB+500MB Social AED55_OnceOff</t>
+  </si>
+  <si>
+    <t>1.1GB+1.1GB Social AED110_OnceOff</t>
+  </si>
+  <si>
+    <t>25GB+15GB Social AED525_OnceOff</t>
+  </si>
+  <si>
+    <t>200MB+200MB Social AED25_Rec</t>
+  </si>
+  <si>
+    <t>500MB+500MB Social AED55_Rec</t>
+  </si>
+  <si>
+    <t>1.1GB+1.1GB Social AED110_Rec</t>
+  </si>
+  <si>
+    <t>5GB+3GB Social AED210_Rec</t>
+  </si>
+  <si>
+    <t>25GB+15GB Social AED525_Rec</t>
+  </si>
+  <si>
+    <t>Daily 60 MB for AED 2</t>
+  </si>
+  <si>
+    <t>Daily 150 MB for AED 4</t>
+  </si>
+  <si>
+    <t>Daily 100 MB for AED 3</t>
+  </si>
+  <si>
+    <t>2min&amp;30MB AED3 Day</t>
+  </si>
+  <si>
+    <t>25min&amp;250MB AED25 Week</t>
+  </si>
+  <si>
+    <t>15min&amp;750MB AED35 Mon</t>
+  </si>
+  <si>
+    <t>30min&amp;1.5GB AED50 Mon</t>
+  </si>
+  <si>
+    <t>100min&amp;3GB AED100 Mon</t>
+  </si>
+  <si>
+    <t>150min&amp;6GB AED150 Mon</t>
+  </si>
+  <si>
+    <t>Special Social 25GB Data Bundle Recurrent</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec1_FlexiChat_AED25</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec2_FlexiSocial_AED50</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec3_FlexiSocial_AED100</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec5_FlexiAll_AED100</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec6_FlexiAll_AED200</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec7_FlexiAll_AED150</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec1_NatMin_AED1</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec2_FlexChat_AED2</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec3_FlexSocial_AED3</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec4_FlexAll_AED5</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily1_AED1</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily2_AED2</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily3_AED3</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily4_AED5</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly1_AED25</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly2_AED50</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly3_AED100</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly5_AED100</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly6_AED200</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly7_AED150</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly1_AED20</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly2_AED50</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly3_AED100</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi3_AED2</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi5_AED3</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi8_AED5</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_Flexi25_AED25</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_Flexi60_AED50</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_National50_AED25</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_National110_AED50</t>
+  </si>
+  <si>
+    <t>SFTier1</t>
+  </si>
+  <si>
+    <t>SFTier2</t>
+  </si>
+  <si>
+    <t>SFTier3</t>
+  </si>
+  <si>
+    <t>Weekly International SMS Bundle</t>
+  </si>
+  <si>
+    <t>Monthly International SMS Bundle</t>
+  </si>
+  <si>
+    <t>TPRenewal</t>
+  </si>
+  <si>
+    <t>TouristPBundle1</t>
+  </si>
+  <si>
+    <t>TouristPBundle2</t>
+  </si>
+  <si>
+    <t>TouristPBundle3</t>
+  </si>
+  <si>
+    <t>International Minutes2</t>
+  </si>
+  <si>
+    <t>IDDDailyBundle</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM1</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM2</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM3</t>
+  </si>
+  <si>
+    <t>Daily Unlimited Social Bundle</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataD1</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataD2</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM1</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM2</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM3</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM4</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM1XL</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM2XL</t>
+  </si>
+  <si>
+    <t>NPPVBSub_NPPVoiceD1</t>
+  </si>
+  <si>
+    <t>NPPVBSub_NPPVoiceM1</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP1</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP2</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP3</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP4</t>
+  </si>
+  <si>
+    <t>GlobalZone</t>
+  </si>
+  <si>
+    <t>BB300MB</t>
+  </si>
+  <si>
+    <t>BB1GB</t>
+  </si>
+  <si>
+    <t>BB5GB</t>
+  </si>
+  <si>
+    <t>BB25GB</t>
+  </si>
+  <si>
+    <t>BBSoc</t>
+  </si>
+  <si>
+    <t>NPPBBAct</t>
+  </si>
+  <si>
+    <t>Start_Stop_Phase1</t>
+  </si>
+  <si>
+    <t>Start_Stop_Phase2</t>
+  </si>
+  <si>
+    <t>NewAloActivation</t>
+  </si>
+  <si>
+    <t>KBChatnCallRec</t>
+  </si>
+  <si>
+    <t>KDLifeStyleRec</t>
+  </si>
+  <si>
+    <t>KBChatnCallSingle</t>
+  </si>
+  <si>
+    <t>KDLifeStyleSingle</t>
+  </si>
+  <si>
+    <t>ICP_Mercury</t>
+  </si>
+  <si>
+    <t>IDD Rate Cutters</t>
+  </si>
+  <si>
+    <t>SpecialSocial25GBDataBundle</t>
+  </si>
+  <si>
+    <t>Nepal Offer</t>
+  </si>
+  <si>
+    <t>HappinessSIM</t>
+  </si>
+  <si>
+    <t>Data24hBundle</t>
+  </si>
+  <si>
+    <t>DailyRoamDataPack</t>
+  </si>
+  <si>
+    <t>WeeklyRoamDataPack</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDaily</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMonthly</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMPlus</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubDaily</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubWeekly</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubMonthly</t>
+  </si>
+  <si>
+    <t>RoamGCCDAct</t>
+  </si>
+  <si>
+    <t>RoamGCCDNRAct</t>
+  </si>
+  <si>
+    <t>RoamGCCWAct</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDRec</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDO</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSW</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSM</t>
+  </si>
+  <si>
+    <t>IntCommunity</t>
+  </si>
+  <si>
+    <t>SeamlessCallback</t>
+  </si>
+  <si>
+    <t>Campaign Management</t>
+  </si>
+  <si>
+    <t>Post Call Notification</t>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>BronzeMPromo</t>
+  </si>
+  <si>
+    <t>Roaming Hajj Bundles</t>
+  </si>
+  <si>
+    <t>Data Bundles-Roaming Data Bundles</t>
+  </si>
+  <si>
+    <t>NonstopDailyDBundle3AED</t>
+  </si>
+  <si>
+    <t>NonstopMonthlyDBundle50AED</t>
+  </si>
+  <si>
+    <t>HotSpotActive</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDailyRec</t>
+  </si>
+  <si>
+    <t>Local_PPU</t>
+  </si>
+  <si>
+    <t>Roaming_PPU_A_B_GCC</t>
+  </si>
+  <si>
+    <t>Data_Credit_Protection</t>
+  </si>
+  <si>
+    <t>Call Home for Less</t>
+  </si>
+  <si>
+    <t>PRODUCT NAME</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>Unix_System</t>
+  </si>
+  <si>
+    <t>IP_HostName</t>
+  </si>
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Wait_Time</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>10.95.214.6</t>
+  </si>
+  <si>
+    <t>tasuser</t>
+  </si>
+  <si>
+    <t>Ericssondu@123</t>
+  </si>
+  <si>
+    <t>/var/opt/fds/CDR/archive/</t>
+  </si>
+  <si>
+    <t>OCC1</t>
+  </si>
+  <si>
+    <t>10.95.214.21</t>
+  </si>
+  <si>
+    <t>/home/tasuser</t>
+  </si>
+  <si>
+    <t>OCC2</t>
+  </si>
+  <si>
+    <t>10.95.214.22</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>10.95.214.166</t>
+  </si>
+  <si>
+    <t>/var/opt/air/datarecords/backup_CDR/</t>
+  </si>
+  <si>
+    <t>CCN0</t>
+  </si>
+  <si>
+    <t>10.95.213.132</t>
+  </si>
+  <si>
+    <t>CCNtasuser@123</t>
+  </si>
+  <si>
+    <t>/cluster/storage/no-backup/ccn/CcnStorage0/CCNCDR44/archive/</t>
+  </si>
+  <si>
+    <t>CCN1</t>
+  </si>
+  <si>
+    <t>/cluster/storage/no-backup/ccn/CcnStorage1/CCNCDR44/archive/</t>
+  </si>
+  <si>
+    <t>10.95.214.9</t>
+  </si>
+  <si>
+    <t>atos</t>
+  </si>
+  <si>
+    <t>ericsson</t>
+  </si>
+  <si>
+    <t>/data/edr_enrichment/sftpcompleted</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU_OFF</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU_WK</t>
+  </si>
+  <si>
+    <t>Du-du calls_VOICE_DU_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_OFF_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_WK_CUG</t>
+  </si>
+  <si>
+    <t>Du-CUG calls_VOICE_DU_OFF_WK_CUG</t>
+  </si>
+  <si>
+    <t>Roaming calls_VOICE_INT_ROAM</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT_OFF</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT_WK</t>
+  </si>
+  <si>
+    <t>Du-National calls_VOICE_NAT_OFF_WK</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD_OFF</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD_WK</t>
+  </si>
+  <si>
+    <t>Du-International calls_VOICE_INT_IDD_OFF_WK</t>
+  </si>
+  <si>
+    <t>5GB+3GB Social AED210_OnceOff</t>
+  </si>
+  <si>
+    <t>RoamBndlASubWeekly</t>
+  </si>
+  <si>
+    <t>AED 2 Daily Social Bundle 120 MB</t>
+  </si>
+  <si>
+    <t>AED 3 Daily Social Bundle 200 MB</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_DATA</t>
+  </si>
+  <si>
+    <t>P2P_TRANSFER</t>
+  </si>
+  <si>
+    <t>BALANCE_ENQUIRES</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_VOICE</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_SMS</t>
+  </si>
+  <si>
+    <t>Kabayan  ChatnCall  Recurrent  daily bundle</t>
+  </si>
+  <si>
+    <t>Kabayan DataPack LifeStyle  Recurrent daily pack</t>
+  </si>
+  <si>
+    <t>Kabayan ChatnCall One day bundle</t>
+  </si>
+  <si>
+    <t>Kabayan DataPack LifeStyle One day Pack</t>
+  </si>
+  <si>
+    <t>Daily Saver Bundle</t>
+  </si>
+  <si>
+    <t>Daily Saver Bundle 60MB for AED 2</t>
+  </si>
+  <si>
+    <t>Nonstop Daily Data Bundle 3AED</t>
+  </si>
+  <si>
+    <t>Request_Name</t>
+  </si>
+  <si>
+    <t>Parameter1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Parameter2</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Parameter3</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Parameter4</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Parameter5</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Parameter6</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Parameter7</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Parameter8</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Parameter9</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Parameter10</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>subscriberNumber</t>
+  </si>
+  <si>
+    <t>offerID</t>
+  </si>
+  <si>
+    <t>transactionCurrency</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID</t>
+  </si>
+  <si>
+    <t>adjustmentAmountRelative</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnitType</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>pamServiceID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pamClassID</t>
+  </si>
+  <si>
+    <t>scheduleID</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>Execution Control</t>
+  </si>
+  <si>
+    <t>TestCase_ID</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>API_GetAccountDetails</t>
+  </si>
+  <si>
+    <t>API_GetOffers</t>
+  </si>
+  <si>
+    <t>API_DeleteOffer</t>
+  </si>
+  <si>
+    <t>API_UpdateOffer</t>
+  </si>
+  <si>
+    <t>API_UpdateDA</t>
+  </si>
+  <si>
+    <t>API_DeleteDA</t>
+  </si>
+  <si>
+    <t>API_GetBalanceAndDate</t>
+  </si>
+  <si>
+    <t>API_AddPAM</t>
+  </si>
+  <si>
+    <t>API_ReduceDA</t>
+  </si>
+  <si>
+    <t>API_AddDifferentDA</t>
+  </si>
+  <si>
+    <t>serviceClassNew</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_1</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_2</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_3</t>
+  </si>
+  <si>
+    <t>API_UpdateUsageThresholdsAndCounters</t>
+  </si>
+  <si>
+    <t>usageThresholdValueNew</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>usageThresholdID</t>
+  </si>
+  <si>
+    <t>50042101</t>
+  </si>
+  <si>
+    <t>API_DeleteSubscriber</t>
+  </si>
+  <si>
+    <t>API_InstallSubscriber</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>TC-1092</t>
+  </si>
+  <si>
+    <t>NEW_ACTIVATION</t>
+  </si>
+  <si>
+    <t>971520002574</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>TC-235</t>
+  </si>
+  <si>
+    <t>DATA_NON_SOCIAL</t>
+  </si>
+  <si>
+    <t>TC-3903</t>
+  </si>
+  <si>
+    <t>189348653076336</t>
+  </si>
+  <si>
+    <t>TC-3860-01</t>
+  </si>
+  <si>
+    <t>SMS_DU_TO_National</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>00919811098110</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_VIDEO_CALL</t>
+  </si>
+  <si>
+    <t>API_Update_IMSI</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>attributeName</t>
+  </si>
+  <si>
+    <t>IMSI</t>
+  </si>
+  <si>
+    <t>attributeUpdateAction</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>attributeValueString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424030046672675 </t>
+  </si>
+  <si>
+    <t>TC-254</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>424030046672431</t>
+  </si>
+  <si>
+    <t>CIS_API_Credit_Amount</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>NACT_DebitCredit</t>
+  </si>
+  <si>
+    <t>To Credit</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>CIS_API_Debit_Amount</t>
+  </si>
+  <si>
+    <t>To Debit</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>DACT_CallHomeforLess</t>
+  </si>
+  <si>
+    <t>CIS_API_Product_Subscription</t>
+  </si>
+  <si>
+    <t>CIS_API_View_History</t>
+  </si>
+  <si>
+    <t>CIS_DB</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TC-255</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
     <t>P2P TRANSFER</t>
   </si>
   <si>
-    <t>OPT_IN/OPT OUT</t>
-  </si>
-  <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>SMS_DU_TO_DU</t>
-  </si>
-  <si>
-    <t>SMS_DU_TO_Local</t>
-  </si>
-  <si>
-    <t>SMS_DU_International</t>
-  </si>
-  <si>
-    <t>Recharge</t>
-  </si>
-  <si>
-    <t>DATA_REGULAR</t>
-  </si>
-  <si>
-    <t>DATA_SOCIAL</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Call_TO_MSISDN</t>
-  </si>
-  <si>
-    <t>CALL_DURATION</t>
-  </si>
-  <si>
-    <t>RECEIVER_MSISDN</t>
-  </si>
-  <si>
-    <t>Message_To_Send</t>
-  </si>
-  <si>
-    <t>TRANSFER_TO_MSISDN</t>
-  </si>
-  <si>
-    <t>TRANSFER_AMOUNT</t>
-  </si>
-  <si>
-    <t>971520001714</t>
-  </si>
-  <si>
-    <t>Recharge_Coupon</t>
-  </si>
-  <si>
-    <t>SMS_COUNT</t>
-  </si>
-  <si>
-    <t>Test_Device</t>
-  </si>
-  <si>
-    <t>device1</t>
-  </si>
-  <si>
-    <t>USSD_OPT_IN</t>
-  </si>
-  <si>
-    <t>USSD_OPT_OUT</t>
-  </si>
-  <si>
-    <t>USSD_Recharge</t>
-  </si>
-  <si>
-    <t>USSD_Long_Code</t>
-  </si>
-  <si>
-    <t>USSD_Short_Code</t>
-  </si>
-  <si>
-    <t>200MB+200MB Social AED25_OnceOff</t>
-  </si>
-  <si>
-    <t>500MB+500MB Social AED55_OnceOff</t>
-  </si>
-  <si>
-    <t>1.1GB+1.1GB Social AED110_OnceOff</t>
-  </si>
-  <si>
-    <t>25GB+15GB Social AED525_OnceOff</t>
-  </si>
-  <si>
-    <t>200MB+200MB Social AED25_Rec</t>
-  </si>
-  <si>
-    <t>500MB+500MB Social AED55_Rec</t>
-  </si>
-  <si>
-    <t>1.1GB+1.1GB Social AED110_Rec</t>
-  </si>
-  <si>
-    <t>5GB+3GB Social AED210_Rec</t>
-  </si>
-  <si>
-    <t>25GB+15GB Social AED525_Rec</t>
-  </si>
-  <si>
-    <t>Daily 60 MB for AED 2</t>
-  </si>
-  <si>
-    <t>Daily 150 MB for AED 4</t>
-  </si>
-  <si>
-    <t>Daily 100 MB for AED 3</t>
-  </si>
-  <si>
-    <t>2min&amp;30MB AED3 Day</t>
-  </si>
-  <si>
-    <t>25min&amp;250MB AED25 Week</t>
-  </si>
-  <si>
-    <t>15min&amp;750MB AED35 Mon</t>
-  </si>
-  <si>
-    <t>30min&amp;1.5GB AED50 Mon</t>
-  </si>
-  <si>
-    <t>100min&amp;3GB AED100 Mon</t>
-  </si>
-  <si>
-    <t>150min&amp;6GB AED150 Mon</t>
-  </si>
-  <si>
-    <t>Special Social 25GB Data Bundle Recurrent</t>
-  </si>
-  <si>
-    <t>Zinger_Monthly_Rec1_FlexiChat_AED25</t>
-  </si>
-  <si>
-    <t>Zinger_Monthly_Rec2_FlexiSocial_AED50</t>
-  </si>
-  <si>
-    <t>Zinger_Monthly_Rec3_FlexiSocial_AED100</t>
-  </si>
-  <si>
-    <t>Zinger_Monthly_Rec5_FlexiAll_AED100</t>
-  </si>
-  <si>
-    <t>Zinger_Monthly_Rec6_FlexiAll_AED200</t>
-  </si>
-  <si>
-    <t>Zinger_Monthly_Rec7_FlexiAll_AED150</t>
-  </si>
-  <si>
-    <t>Zinger_Daily_Rec1_NatMin_AED1</t>
-  </si>
-  <si>
-    <t>Zinger_Daily_Rec2_FlexChat_AED2</t>
-  </si>
-  <si>
-    <t>Zinger_Daily_Rec3_FlexSocial_AED3</t>
-  </si>
-  <si>
-    <t>Zinger_Daily_Rec4_FlexAll_AED5</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffDaily1_AED1</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffDaily2_AED2</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffDaily3_AED3</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffDaily4_AED5</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffMonthly1_AED25</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffMonthly2_AED50</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffMonthly3_AED100</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffMonthly5_AED100</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffMonthly6_AED200</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffMonthly7_AED150</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffWeekly1_AED20</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffWeekly2_AED50</t>
-  </si>
-  <si>
-    <t>ZNGR_OneOffWeekly3_AED100</t>
-  </si>
-  <si>
-    <t>AllValueBundleDaily_Flexi3_AED2</t>
-  </si>
-  <si>
-    <t>AllValueBundleDaily_Flexi5_AED3</t>
-  </si>
-  <si>
-    <t>AllValueBundleDaily_Flexi8_AED5</t>
-  </si>
-  <si>
-    <t>AllValueBundleMonthly_Flexi25_AED25</t>
-  </si>
-  <si>
-    <t>AllValueBundleMonthly_Flexi60_AED50</t>
-  </si>
-  <si>
-    <t>AllValueBundleMonthly_National50_AED25</t>
-  </si>
-  <si>
-    <t>AllValueBundleMonthly_National110_AED50</t>
-  </si>
-  <si>
-    <t>SFTier1</t>
-  </si>
-  <si>
-    <t>SFTier2</t>
-  </si>
-  <si>
-    <t>SFTier3</t>
-  </si>
-  <si>
-    <t>Weekly International SMS Bundle</t>
-  </si>
-  <si>
-    <t>Monthly International SMS Bundle</t>
-  </si>
-  <si>
-    <t>TPRenewal</t>
-  </si>
-  <si>
-    <t>TouristPBundle1</t>
-  </si>
-  <si>
-    <t>TouristPBundle2</t>
-  </si>
-  <si>
-    <t>TouristPBundle3</t>
-  </si>
-  <si>
-    <t>International Minutes2</t>
-  </si>
-  <si>
-    <t>IDDDailyBundle</t>
-  </si>
-  <si>
-    <t>SpecialIDDOfferCVM1</t>
-  </si>
-  <si>
-    <t>SpecialIDDOfferCVM2</t>
-  </si>
-  <si>
-    <t>SpecialIDDOfferCVM3</t>
-  </si>
-  <si>
-    <t>Daily Unlimited Social Bundle</t>
-  </si>
-  <si>
-    <t>NPPDataBndSub_NPPDataD1</t>
-  </si>
-  <si>
-    <t>NPPDataBndSub_NPPDataD2</t>
-  </si>
-  <si>
-    <t>NPPDataBndSub_NPPDataM1</t>
-  </si>
-  <si>
-    <t>NPPDataBndSub_NPPDataM2</t>
-  </si>
-  <si>
-    <t>NPPDataBndSub_NPPDataM3</t>
-  </si>
-  <si>
-    <t>NPPDataBndSub_NPPDataM4</t>
-  </si>
-  <si>
-    <t>NPPDataBndSub_NPPDataM1XL</t>
-  </si>
-  <si>
-    <t>NPPDataBndSub_NPPDataM2XL</t>
-  </si>
-  <si>
-    <t>NPPVBSub_NPPVoiceD1</t>
-  </si>
-  <si>
-    <t>NPPVBSub_NPPVoiceM1</t>
-  </si>
-  <si>
-    <t>NPPVPS_NPPVP1</t>
-  </si>
-  <si>
-    <t>NPPVPS_NPPVP2</t>
-  </si>
-  <si>
-    <t>NPPVPS_NPPVP3</t>
-  </si>
-  <si>
-    <t>NPPVPS_NPPVP4</t>
-  </si>
-  <si>
-    <t>GlobalZone</t>
-  </si>
-  <si>
-    <t>BB300MB</t>
-  </si>
-  <si>
-    <t>BB1GB</t>
-  </si>
-  <si>
-    <t>BB5GB</t>
-  </si>
-  <si>
-    <t>BB25GB</t>
-  </si>
-  <si>
-    <t>BBSoc</t>
-  </si>
-  <si>
-    <t>NPPBBAct</t>
-  </si>
-  <si>
-    <t>Start_Stop_Phase1</t>
-  </si>
-  <si>
-    <t>Start_Stop_Phase2</t>
-  </si>
-  <si>
-    <t>NewAloActivation</t>
-  </si>
-  <si>
-    <t>KBChatnCallRec</t>
-  </si>
-  <si>
-    <t>KDLifeStyleRec</t>
-  </si>
-  <si>
-    <t>KBChatnCallSingle</t>
-  </si>
-  <si>
-    <t>KDLifeStyleSingle</t>
-  </si>
-  <si>
-    <t>ICP_Mercury</t>
-  </si>
-  <si>
-    <t>IDD Rate Cutters</t>
-  </si>
-  <si>
-    <t>SpecialSocial25GBDataBundle</t>
-  </si>
-  <si>
-    <t>Nepal Offer</t>
-  </si>
-  <si>
-    <t>HappinessSIM</t>
-  </si>
-  <si>
-    <t>Data24hBundle</t>
-  </si>
-  <si>
-    <t>DailyRoamDataPack</t>
-  </si>
-  <si>
-    <t>WeeklyRoamDataPack</t>
-  </si>
-  <si>
-    <t>RoamBndlASubDaily</t>
-  </si>
-  <si>
-    <t>RoamBndlASubMonthly</t>
-  </si>
-  <si>
-    <t>RoamBndlASubMPlus</t>
-  </si>
-  <si>
-    <t>RoamBndlBSubDaily</t>
-  </si>
-  <si>
-    <t>RoamBndlBSubWeekly</t>
-  </si>
-  <si>
-    <t>RoamBndlBSubMonthly</t>
-  </si>
-  <si>
-    <t>RoamGCCDAct</t>
-  </si>
-  <si>
-    <t>RoamGCCDNRAct</t>
-  </si>
-  <si>
-    <t>RoamGCCWAct</t>
-  </si>
-  <si>
-    <t>RoamBndlASubSDRec</t>
-  </si>
-  <si>
-    <t>RoamBndlASubSDO</t>
-  </si>
-  <si>
-    <t>RoamBndlASubSW</t>
-  </si>
-  <si>
-    <t>RoamBndlASubSM</t>
-  </si>
-  <si>
-    <t>IntCommunity</t>
-  </si>
-  <si>
-    <t>SeamlessCallback</t>
-  </si>
-  <si>
-    <t>Campaign Management</t>
-  </si>
-  <si>
-    <t>Post Call Notification</t>
-  </si>
-  <si>
-    <t>PPU</t>
-  </si>
-  <si>
-    <t>BronzeMPromo</t>
-  </si>
-  <si>
-    <t>Roaming Hajj Bundles</t>
-  </si>
-  <si>
-    <t>Data Bundles-Roaming Data Bundles</t>
-  </si>
-  <si>
-    <t>NonstopDailyDBundle3AED</t>
-  </si>
-  <si>
-    <t>NonstopMonthlyDBundle50AED</t>
-  </si>
-  <si>
-    <t>HotSpotActive</t>
-  </si>
-  <si>
-    <t>RoamBndlASubDailyRec</t>
-  </si>
-  <si>
-    <t>Local_PPU</t>
-  </si>
-  <si>
-    <t>Roaming_PPU_A_B_GCC</t>
-  </si>
-  <si>
-    <t>Data_Credit_Protection</t>
-  </si>
-  <si>
-    <t>Call Home for Less</t>
-  </si>
-  <si>
-    <t>PRODUCT NAME</t>
-  </si>
-  <si>
-    <t>Product_Name</t>
-  </si>
-  <si>
-    <t>Unix_System</t>
-  </si>
-  <si>
-    <t>IP_HostName</t>
-  </si>
-  <si>
-    <t>User_Name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Wait_Time</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>SDP</t>
-  </si>
-  <si>
-    <t>10.95.214.6</t>
-  </si>
-  <si>
-    <t>tasuser</t>
-  </si>
-  <si>
-    <t>Ericssondu@123</t>
-  </si>
-  <si>
-    <t>/var/opt/fds/CDR/archive/</t>
-  </si>
-  <si>
-    <t>OCC1</t>
-  </si>
-  <si>
-    <t>10.95.214.21</t>
-  </si>
-  <si>
-    <t>/home/tasuser</t>
-  </si>
-  <si>
-    <t>OCC2</t>
-  </si>
-  <si>
-    <t>10.95.214.22</t>
-  </si>
-  <si>
-    <t>AIR</t>
-  </si>
-  <si>
-    <t>10.95.214.166</t>
-  </si>
-  <si>
-    <t>/var/opt/air/datarecords/backup_CDR/</t>
-  </si>
-  <si>
-    <t>CCN0</t>
-  </si>
-  <si>
-    <t>10.95.213.132</t>
-  </si>
-  <si>
-    <t>CCNtasuser@123</t>
-  </si>
-  <si>
-    <t>/cluster/storage/no-backup/ccn/CcnStorage0/CCNCDR44/archive/</t>
-  </si>
-  <si>
-    <t>CCN1</t>
-  </si>
-  <si>
-    <t>/cluster/storage/no-backup/ccn/CcnStorage1/CCNCDR44/archive/</t>
-  </si>
-  <si>
-    <t>10.95.214.9</t>
-  </si>
-  <si>
-    <t>atos</t>
-  </si>
-  <si>
-    <t>ericsson</t>
-  </si>
-  <si>
-    <t>/data/edr_enrichment/sftpcompleted</t>
-  </si>
-  <si>
-    <t>Du-du calls_VOICE_DU</t>
-  </si>
-  <si>
-    <t>Du-du calls_VOICE_DU_OFF</t>
-  </si>
-  <si>
-    <t>Du-du calls_VOICE_DU_WK</t>
-  </si>
-  <si>
-    <t>Du-du calls_VOICE_DU_OFF_WK</t>
-  </si>
-  <si>
-    <t>Du-CUG calls_VOICE_DU_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG calls_VOICE_DU_OFF_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG calls_VOICE_DU_WK_CUG</t>
-  </si>
-  <si>
-    <t>Du-CUG calls_VOICE_DU_OFF_WK_CUG</t>
-  </si>
-  <si>
-    <t>Roaming calls_VOICE_INT_ROAM</t>
-  </si>
-  <si>
-    <t>Du-National calls_VOICE_NAT</t>
-  </si>
-  <si>
-    <t>Du-National calls_VOICE_NAT_OFF</t>
-  </si>
-  <si>
-    <t>Du-National calls_VOICE_NAT_WK</t>
-  </si>
-  <si>
-    <t>Du-National calls_VOICE_NAT_OFF_WK</t>
-  </si>
-  <si>
-    <t>Du-International calls_VOICE_INT_IDD</t>
-  </si>
-  <si>
-    <t>Du-International calls_VOICE_INT_IDD_OFF</t>
-  </si>
-  <si>
-    <t>Du-International calls_VOICE_INT_IDD_WK</t>
-  </si>
-  <si>
-    <t>Du-International calls_VOICE_INT_IDD_OFF_WK</t>
-  </si>
-  <si>
-    <t>5GB+3GB Social AED210_OnceOff</t>
-  </si>
-  <si>
-    <t>RoamBndlASubWeekly</t>
-  </si>
-  <si>
-    <t>AED 2 Daily Social Bundle 120 MB</t>
-  </si>
-  <si>
-    <t>AED 3 Daily Social Bundle 200 MB</t>
-  </si>
-  <si>
-    <t>LIVE_USAGE_DATA</t>
-  </si>
-  <si>
-    <t>P2P_TRANSFER</t>
-  </si>
-  <si>
-    <t>BALANCE_ENQUIRES</t>
-  </si>
-  <si>
-    <t>LIVE_USAGE_VOICE</t>
-  </si>
-  <si>
-    <t>LIVE_USAGE_SMS</t>
-  </si>
-  <si>
-    <t>Kabayan  ChatnCall  Recurrent  daily bundle</t>
-  </si>
-  <si>
-    <t>Kabayan DataPack LifeStyle  Recurrent daily pack</t>
-  </si>
-  <si>
-    <t>Kabayan ChatnCall One day bundle</t>
-  </si>
-  <si>
-    <t>Kabayan DataPack LifeStyle One day Pack</t>
-  </si>
-  <si>
-    <t>Daily Saver Bundle</t>
-  </si>
-  <si>
-    <t>Daily Saver Bundle 60MB for AED 2</t>
-  </si>
-  <si>
-    <t>Nonstop Daily Data Bundle 3AED</t>
-  </si>
-  <si>
-    <t>Request_Name</t>
-  </si>
-  <si>
-    <t>Parameter1</t>
-  </si>
-  <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Parameter2</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>Parameter3</t>
-  </si>
-  <si>
-    <t>Value3</t>
-  </si>
-  <si>
-    <t>Parameter4</t>
-  </si>
-  <si>
-    <t>Value4</t>
-  </si>
-  <si>
-    <t>Parameter5</t>
-  </si>
-  <si>
-    <t>Value5</t>
-  </si>
-  <si>
-    <t>Parameter6</t>
-  </si>
-  <si>
-    <t>Value6</t>
-  </si>
-  <si>
-    <t>Parameter7</t>
-  </si>
-  <si>
-    <t>Value7</t>
-  </si>
-  <si>
-    <t>Parameter8</t>
-  </si>
-  <si>
-    <t>Value8</t>
-  </si>
-  <si>
-    <t>Parameter9</t>
-  </si>
-  <si>
-    <t>Value9</t>
-  </si>
-  <si>
-    <t>Parameter10</t>
-  </si>
-  <si>
-    <t>Value10</t>
-  </si>
-  <si>
-    <t>subscriberNumber</t>
-  </si>
-  <si>
-    <t>offerID</t>
-  </si>
-  <si>
-    <t>transactionCurrency</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>dedicatedAccountID</t>
-  </si>
-  <si>
-    <t>adjustmentAmountRelative</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>dedicatedAccountUnitType</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>pamServiceID</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>pamClassID</t>
-  </si>
-  <si>
-    <t>scheduleID</t>
-  </si>
-  <si>
-    <t>-64</t>
-  </si>
-  <si>
-    <t>Execution Control</t>
-  </si>
-  <si>
-    <t>TestCase_ID</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>API_GetAccountDetails</t>
-  </si>
-  <si>
-    <t>API_GetOffers</t>
-  </si>
-  <si>
-    <t>API_DeleteOffer</t>
-  </si>
-  <si>
-    <t>API_UpdateOffer</t>
-  </si>
-  <si>
-    <t>API_UpdateDA</t>
-  </si>
-  <si>
-    <t>API_DeleteDA</t>
-  </si>
-  <si>
-    <t>API_GetBalanceAndDate</t>
-  </si>
-  <si>
-    <t>API_AddPAM</t>
-  </si>
-  <si>
-    <t>API_ReduceDA</t>
-  </si>
-  <si>
-    <t>API_AddDifferentDA</t>
-  </si>
-  <si>
-    <t>serviceClassNew</t>
-  </si>
-  <si>
-    <t>API_UpdateServiceClass_1</t>
-  </si>
-  <si>
-    <t>API_UpdateServiceClass_2</t>
-  </si>
-  <si>
-    <t>API_UpdateServiceClass_3</t>
-  </si>
-  <si>
-    <t>API_UpdateUsageThresholdsAndCounters</t>
-  </si>
-  <si>
-    <t>usageThresholdValueNew</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>usageThresholdID</t>
-  </si>
-  <si>
-    <t>50042101</t>
-  </si>
-  <si>
-    <t>API_DeleteSubscriber</t>
-  </si>
-  <si>
-    <t>API_InstallSubscriber</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>TC-1092</t>
-  </si>
-  <si>
-    <t>NEW_ACTIVATION</t>
-  </si>
-  <si>
-    <t>971520002574</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>TC-235</t>
-  </si>
-  <si>
-    <t>DATA_NON_SOCIAL</t>
-  </si>
-  <si>
-    <t>TC-3903</t>
-  </si>
-  <si>
-    <t>189348653076336</t>
-  </si>
-  <si>
-    <t>TC-3860-01</t>
-  </si>
-  <si>
-    <t>SMS_DU_TO_National</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>00919811098110</t>
-  </si>
-  <si>
-    <t>LIVE_USAGE_VIDEO_CALL</t>
-  </si>
-  <si>
-    <t>API_Update_IMSI</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>attributeName</t>
-  </si>
-  <si>
-    <t>IMSI</t>
-  </si>
-  <si>
-    <t>attributeUpdateAction</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>attributeValueString</t>
-  </si>
-  <si>
-    <t xml:space="preserve">424030046672675 </t>
-  </si>
-  <si>
-    <t>TC-254</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>424030046672431</t>
-  </si>
-  <si>
-    <t>CIS_API_Credit_Amount</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>NACT_DebitCredit</t>
-  </si>
-  <si>
-    <t>To Credit</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>CIS_API_Debit_Amount</t>
-  </si>
-  <si>
-    <t>To Debit</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>DACT_CallHomeforLess</t>
-  </si>
-  <si>
-    <t>CIS_API_Product_Subscription</t>
-  </si>
-  <si>
-    <t>CIS_API_View_History</t>
+    <t>Hide this field</t>
+  </si>
+  <si>
+    <t>0520002069</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>BALANCE ENQUIRES</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_CIS_DB</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1334,6 +1364,10 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1638,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z204"/>
+  <dimension ref="A1:AA204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F29" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1649,10 +1683,10 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.90625" customWidth="1"/>
@@ -1663,15 +1697,15 @@
     <col min="15" max="15" width="20.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.54296875" customWidth="1"/>
     <col min="17" max="17" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7265625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="36.26953125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="41.26953125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.81640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.81640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="41.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1682,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1694,58 +1728,58 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="P1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="58" customFormat="1">
+    <row r="2" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A2" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>295</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="55"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2" s="56" t="s">
         <v>297</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>298</v>
       </c>
       <c r="K2" s="56"/>
       <c r="L2" s="56"/>
@@ -1754,18 +1788,18 @@
       <c r="O2" s="56"/>
       <c r="P2" s="57"/>
     </row>
-    <row r="3" spans="1:26" s="58" customFormat="1">
+    <row r="3" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A3" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E3" s="55"/>
       <c r="F3" s="56"/>
@@ -1780,18 +1814,18 @@
       <c r="O3" s="56"/>
       <c r="P3" s="57"/>
     </row>
-    <row r="4" spans="1:26" s="58" customFormat="1">
+    <row r="4" spans="1:26" s="58" customFormat="1" hidden="1">
       <c r="A4" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="56"/>
@@ -1806,27 +1840,27 @@
       <c r="O4" s="56"/>
       <c r="P4" s="57"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1">
+    <row r="5" spans="1:26" s="22" customFormat="1" hidden="1">
       <c r="A5" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -1837,24 +1871,24 @@
       <c r="N5" s="2"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:26" s="22" customFormat="1">
+    <row r="6" spans="1:26" s="22" customFormat="1" hidden="1">
       <c r="A6" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="15"/>
@@ -1865,32 +1899,28 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="10"/>
-      <c r="T6" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="T6" s="2"/>
       <c r="U6" s="7"/>
-      <c r="Z6" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="22" customFormat="1">
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" spans="1:26" s="22" customFormat="1" hidden="1">
       <c r="A7" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="15"/>
@@ -1901,32 +1931,28 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="10"/>
-      <c r="T7" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="T7" s="2"/>
       <c r="U7" s="7"/>
-      <c r="Z7" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="35" customFormat="1">
+      <c r="Z7" s="17"/>
+    </row>
+    <row r="8" spans="1:26" s="35" customFormat="1" hidden="1">
       <c r="A8" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="15"/>
@@ -1937,54 +1963,37 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="10"/>
-      <c r="R8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="S8" s="36"/>
+      <c r="T8" s="37"/>
       <c r="U8" s="38"/>
-      <c r="V8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="X8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="22" customFormat="1">
+      <c r="V8" s="39"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+    </row>
+    <row r="9" spans="1:26" s="22" customFormat="1" hidden="1">
       <c r="A9" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="8"/>
@@ -1993,39 +2002,32 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="10"/>
-      <c r="R9" s="22" t="s">
+      <c r="S9" s="1"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" s="22" customFormat="1" hidden="1">
+      <c r="A10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="22" customFormat="1">
-      <c r="A10" s="55" t="s">
-        <v>22</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="10"/>
       <c r="I10" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="8">
         <v>30</v>
@@ -2038,71 +2040,67 @@
       <c r="S10" s="54"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1">
+    <row r="11" spans="1:26" s="22" customFormat="1" hidden="1">
       <c r="A11" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="F11" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="10"/>
       <c r="I11" s="15"/>
       <c r="J11" s="8"/>
       <c r="K11" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M11" s="2">
         <v>1</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="10"/>
-      <c r="T11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="T11" s="2"/>
       <c r="U11" s="7"/>
-      <c r="Z11" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="35" customFormat="1">
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" spans="1:26" s="35" customFormat="1" hidden="1">
       <c r="A12" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="10"/>
       <c r="I12" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J12" s="8">
         <v>40</v>
@@ -2112,52 +2110,38 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="10"/>
-      <c r="S12" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T12" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="S12" s="36"/>
+      <c r="T12" s="31"/>
       <c r="U12" s="40"/>
-      <c r="V12" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W12" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X12" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y12" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="35" customFormat="1">
+      <c r="V12" s="41"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="44"/>
+    </row>
+    <row r="13" spans="1:26" s="35" customFormat="1" hidden="1">
       <c r="A13" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="10"/>
       <c r="I13" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="8">
         <v>30</v>
@@ -2167,47 +2151,33 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="10"/>
-      <c r="S13" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T13" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="S13" s="36"/>
+      <c r="T13" s="31"/>
       <c r="U13" s="40"/>
-      <c r="V13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W13" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X13" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="35" customFormat="1">
+      <c r="V13" s="41"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="44"/>
+    </row>
+    <row r="14" spans="1:26" s="35" customFormat="1" hidden="1">
       <c r="A14" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="15"/>
@@ -2218,93 +2188,77 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="10"/>
-      <c r="S14" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T14" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="S14" s="36"/>
+      <c r="T14" s="31"/>
       <c r="U14" s="40"/>
-      <c r="V14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W14" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X14" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y14" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z14" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="V14" s="41"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="44"/>
     </row>
     <row r="15" spans="1:26" s="35" customFormat="1">
       <c r="A15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>324</v>
+      <c r="B15" s="55" t="s">
+        <v>293</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="10"/>
-      <c r="S15" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T15" s="31" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="31"/>
       <c r="U15" s="40"/>
-      <c r="V15" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W15" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y15" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z15" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="V15" s="41"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="44"/>
     </row>
     <row r="16" spans="1:26" s="35" customFormat="1">
       <c r="A16" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="10"/>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="8"/>
       <c r="K16" s="10"/>
@@ -2312,46 +2266,36 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="10"/>
-      <c r="S16" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T16" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="S16" s="36"/>
+      <c r="T16" s="31"/>
       <c r="U16" s="40"/>
-      <c r="V16" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W16" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X16" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y16" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z16" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="V16" s="41"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="44"/>
     </row>
     <row r="17" spans="1:26" s="35" customFormat="1">
       <c r="A17" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="8"/>
       <c r="K17" s="10"/>
@@ -2359,46 +2303,36 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="10"/>
-      <c r="S17" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T17" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="S17" s="36"/>
+      <c r="T17" s="31"/>
       <c r="U17" s="40"/>
-      <c r="V17" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X17" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y17" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z17" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="V17" s="41"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="44"/>
     </row>
     <row r="18" spans="1:26" s="35" customFormat="1">
       <c r="A18" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="8"/>
       <c r="K18" s="10"/>
@@ -2406,37 +2340,35 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="10"/>
-      <c r="S18" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T18" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="S18" s="36"/>
+      <c r="T18" s="31"/>
       <c r="U18" s="40"/>
-      <c r="V18" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W18" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X18" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y18" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z18" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="V18" s="41"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="44"/>
     </row>
     <row r="19" spans="1:26" s="35" customFormat="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="8"/>
@@ -2445,38 +2377,38 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="10"/>
-      <c r="S19" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T19" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="S19" s="36"/>
+      <c r="T19" s="31"/>
       <c r="U19" s="40"/>
-      <c r="V19" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W19" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X19" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y19" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z19" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="V19" s="41"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="44"/>
     </row>
     <row r="20" spans="1:26" s="30" customFormat="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="15" t="s">
+        <v>301</v>
+      </c>
       <c r="I20" s="15"/>
       <c r="J20" s="8"/>
       <c r="K20" s="10"/>
@@ -2486,99 +2418,144 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:26" s="35" customFormat="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="56"/>
+      <c r="A21" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="8"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="J21" s="8">
+        <v>30</v>
+      </c>
       <c r="K21" s="10"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="10"/>
-      <c r="R21" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="S21" s="36"/>
+      <c r="T21" s="37"/>
       <c r="U21" s="38"/>
-      <c r="V21" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="W21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="X21" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y21" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z21" s="39" t="s">
-        <v>168</v>
-      </c>
+      <c r="V21" s="39"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
     </row>
     <row r="22" spans="1:26" s="22" customFormat="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="56"/>
+      <c r="A22" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>28</v>
+      </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="15"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="K22" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:26" s="22" customFormat="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="56"/>
+      <c r="A23" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="8"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J23" s="8">
+        <v>40</v>
+      </c>
       <c r="K23" s="10"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="10"/>
-      <c r="T23" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="T23" s="2"/>
       <c r="U23" s="7"/>
-      <c r="Z23" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="Z23" s="17"/>
     </row>
     <row r="24" spans="1:26" s="22" customFormat="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="56"/>
+      <c r="A24" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>28</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="8"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="J24" s="8">
+        <v>30</v>
+      </c>
       <c r="K24" s="10"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2586,12 +2563,24 @@
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:26" s="22" customFormat="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>28</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -2601,182 +2590,181 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="10"/>
-      <c r="R25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="12"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z25" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="V25" s="4"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="1:26" s="22" customFormat="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>28</v>
+      </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="15"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="15"/>
       <c r="J26" s="8"/>
       <c r="K26" s="10"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="10"/>
-      <c r="T26" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="T26" s="2"/>
       <c r="U26" s="7"/>
-      <c r="Z26" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="1:26" s="35" customFormat="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
-      <c r="S27" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T27" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="A27" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="10"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="31"/>
       <c r="U27" s="40"/>
-      <c r="V27" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W27" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X27" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y27" s="43" t="s">
+      <c r="V27" s="41"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="44"/>
+    </row>
+    <row r="28" spans="1:26" s="35" customFormat="1">
+      <c r="A28" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="10"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="44"/>
+    </row>
+    <row r="29" spans="1:26" s="35" customFormat="1">
+      <c r="A29" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="10"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="44"/>
+    </row>
+    <row r="30" spans="1:26" s="35" customFormat="1">
+      <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z27" s="44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" s="35" customFormat="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="32"/>
-      <c r="S28" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T28" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="U28" s="40"/>
-      <c r="V28" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W28" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X28" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y28" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z28" s="44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" s="35" customFormat="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="32"/>
-      <c r="S29" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T29" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="U29" s="40"/>
-      <c r="V29" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W29" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X29" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y29" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z29" s="44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" s="35" customFormat="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="B30" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>330</v>
+      </c>
       <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
+      <c r="F30" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="34"/>
       <c r="K30" s="32"/>
@@ -2784,28 +2772,14 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
       <c r="O30" s="32"/>
-      <c r="S30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T30" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="S30" s="36"/>
+      <c r="T30" s="31"/>
       <c r="U30" s="40"/>
-      <c r="V30" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W30" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X30" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y30" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z30" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="V30" s="41"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="44"/>
     </row>
     <row r="31" spans="1:26" s="35" customFormat="1">
       <c r="A31" s="2"/>
@@ -2823,28 +2797,14 @@
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
       <c r="O31" s="32"/>
-      <c r="S31" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T31" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="S31" s="36"/>
+      <c r="T31" s="31"/>
       <c r="U31" s="40"/>
-      <c r="V31" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="W31" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X31" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y31" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z31" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="V31" s="41"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="44"/>
     </row>
     <row r="32" spans="1:26" s="30" customFormat="1">
       <c r="A32" s="2"/>
@@ -2879,31 +2839,14 @@
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
       <c r="O33" s="32"/>
-      <c r="R33" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="S33" s="36"/>
+      <c r="T33" s="37"/>
       <c r="U33" s="38"/>
-      <c r="V33" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="W33" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="X33" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y33" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z33" s="39" t="s">
-        <v>168</v>
-      </c>
+      <c r="V33" s="39"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
     </row>
     <row r="34" spans="1:26" s="30" customFormat="1">
       <c r="A34" s="2"/>
@@ -2938,31 +2881,14 @@
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
       <c r="O35" s="32"/>
-      <c r="R35" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="S35" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="S35" s="36"/>
+      <c r="T35" s="37"/>
       <c r="U35" s="38"/>
-      <c r="V35" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="W35" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="X35" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y35" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z35" s="39" t="s">
-        <v>168</v>
-      </c>
+      <c r="V35" s="39"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
     </row>
     <row r="36" spans="1:26" s="30" customFormat="1">
       <c r="A36" s="2"/>
@@ -2997,31 +2923,14 @@
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
       <c r="O37" s="32"/>
-      <c r="R37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="S37" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="T37" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="S37" s="36"/>
+      <c r="T37" s="37"/>
       <c r="U37" s="38"/>
-      <c r="V37" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="W37" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="X37" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y37" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z37" s="39" t="s">
-        <v>168</v>
-      </c>
+      <c r="V37" s="39"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
     </row>
     <row r="38" spans="1:26" s="30" customFormat="1">
       <c r="A38" s="2"/>
@@ -3056,28 +2965,14 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="10"/>
-      <c r="S39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="S39" s="3"/>
+      <c r="T39" s="2"/>
       <c r="U39" s="7"/>
-      <c r="V39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X39" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z39" s="21" t="s">
-        <v>167</v>
-      </c>
+      <c r="V39" s="13"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="21"/>
     </row>
     <row r="40" spans="1:26" s="30" customFormat="1">
       <c r="A40" s="2"/>
@@ -3129,13 +3024,9 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="10"/>
-      <c r="T42" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="T42" s="2"/>
       <c r="U42" s="7"/>
-      <c r="Z42" s="17" t="s">
-        <v>217</v>
-      </c>
+      <c r="Z42" s="17"/>
     </row>
     <row r="43" spans="1:26" s="30" customFormat="1">
       <c r="A43" s="2"/>
@@ -3187,13 +3078,9 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="10"/>
-      <c r="T45" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="T45" s="2"/>
       <c r="U45" s="7"/>
-      <c r="Z45" s="17" t="s">
-        <v>217</v>
-      </c>
+      <c r="Z45" s="17"/>
     </row>
     <row r="46" spans="1:26" s="30" customFormat="1">
       <c r="A46" s="2"/>
@@ -3246,7 +3133,7 @@
       <c r="N48" s="26"/>
       <c r="O48" s="27"/>
     </row>
-    <row r="49" spans="1:26" s="30" customFormat="1">
+    <row r="49" spans="1:27" s="30" customFormat="1">
       <c r="A49" s="2"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
@@ -3263,7 +3150,7 @@
       <c r="N49" s="26"/>
       <c r="O49" s="27"/>
     </row>
-    <row r="50" spans="1:26" s="30" customFormat="1">
+    <row r="50" spans="1:27" s="30" customFormat="1">
       <c r="A50" s="2"/>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -3280,7 +3167,7 @@
       <c r="N50" s="26"/>
       <c r="O50" s="27"/>
     </row>
-    <row r="51" spans="1:26" s="30" customFormat="1">
+    <row r="51" spans="1:27" s="30" customFormat="1">
       <c r="A51" s="2"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -3297,7 +3184,7 @@
       <c r="N51" s="26"/>
       <c r="O51" s="27"/>
     </row>
-    <row r="52" spans="1:26" s="30" customFormat="1">
+    <row r="52" spans="1:27" s="30" customFormat="1">
       <c r="A52" s="2"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
@@ -3314,7 +3201,7 @@
       <c r="N52" s="26"/>
       <c r="O52" s="27"/>
     </row>
-    <row r="53" spans="1:26" s="30" customFormat="1">
+    <row r="53" spans="1:27" s="30" customFormat="1">
       <c r="A53" s="2"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
@@ -3331,7 +3218,7 @@
       <c r="N53" s="26"/>
       <c r="O53" s="27"/>
     </row>
-    <row r="54" spans="1:26" s="30" customFormat="1">
+    <row r="54" spans="1:27" s="30" customFormat="1">
       <c r="A54" s="2"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
@@ -3348,7 +3235,7 @@
       <c r="N54" s="26"/>
       <c r="O54" s="27"/>
     </row>
-    <row r="55" spans="1:26" s="30" customFormat="1">
+    <row r="55" spans="1:27" s="30" customFormat="1">
       <c r="A55" s="2"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -3365,7 +3252,7 @@
       <c r="N55" s="26"/>
       <c r="O55" s="27"/>
     </row>
-    <row r="56" spans="1:26" s="30" customFormat="1">
+    <row r="56" spans="1:27" s="30" customFormat="1">
       <c r="A56" s="2"/>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
@@ -3382,7 +3269,7 @@
       <c r="N56" s="26"/>
       <c r="O56" s="27"/>
     </row>
-    <row r="57" spans="1:26" s="30" customFormat="1">
+    <row r="57" spans="1:27" s="30" customFormat="1">
       <c r="A57" s="2"/>
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
@@ -3399,7 +3286,7 @@
       <c r="N57" s="26"/>
       <c r="O57" s="27"/>
     </row>
-    <row r="58" spans="1:26" s="30" customFormat="1">
+    <row r="58" spans="1:27" s="30" customFormat="1">
       <c r="A58" s="2"/>
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
@@ -3416,7 +3303,7 @@
       <c r="N58" s="26"/>
       <c r="O58" s="27"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:27">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3433,16 +3320,16 @@
       <c r="N59" s="2"/>
       <c r="O59" s="10"/>
       <c r="R59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3459,32 +3346,32 @@
       <c r="N60" s="2"/>
       <c r="O60" s="10"/>
       <c r="R60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T60" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y60" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3504,26 +3391,29 @@
         <v>6</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U61" s="7"/>
       <c r="V61" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X61" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="W61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X61" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="Y61" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z61" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
+        <v>166</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3543,26 +3433,29 @@
         <v>7</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U62" s="7"/>
       <c r="V62" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X62" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z62" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="W62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X62" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y62" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z62" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3582,17 +3475,20 @@
         <v>8</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U63" s="7"/>
       <c r="W63" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>299</v>
       </c>
       <c r="Z63" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3609,11 +3505,11 @@
       <c r="N64" s="2"/>
       <c r="O64" s="10"/>
       <c r="T64" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U64" s="7"/>
       <c r="Z64" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:26">
@@ -3633,11 +3529,11 @@
       <c r="N65" s="2"/>
       <c r="O65" s="10"/>
       <c r="T65" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U65" s="7"/>
       <c r="Z65" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:26">
@@ -3657,856 +3553,856 @@
       <c r="N66" s="2"/>
       <c r="O66" s="10"/>
       <c r="T66" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U66" s="7"/>
       <c r="Z66" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:26">
       <c r="T67" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U67" s="7"/>
       <c r="Z67" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:26">
       <c r="T68" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U68" s="7"/>
       <c r="Z68" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:26">
       <c r="T69" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z69" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:26">
       <c r="T70" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Z70" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:26">
       <c r="T71" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U71" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z71" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:26">
       <c r="T72" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U72" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z72" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:26">
       <c r="T73" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U73" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z73" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="15" thickBot="1">
       <c r="T74" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U74" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z74" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="15" thickBot="1">
       <c r="T75" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U75" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z75" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="15" thickBot="1">
       <c r="T76" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U76" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z76" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="15" thickBot="1">
       <c r="T77" s="52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U77" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z77" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="15" thickBot="1">
       <c r="T78" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U78" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z78" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="15" thickBot="1">
       <c r="T79" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U79" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z79" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="15" thickBot="1">
       <c r="T80" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U80" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z80" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="20:26" ht="15" thickBot="1">
       <c r="T81" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U81" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z81" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="20:26" ht="15" thickBot="1">
       <c r="T82" s="48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U82" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z82" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="20:26" ht="15" thickBot="1">
       <c r="T83" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U83" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z83" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="20:26" ht="15" thickBot="1">
       <c r="T84" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U84" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z84" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="20:26" ht="15" thickBot="1">
       <c r="T85" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U85" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z85" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="20:26" ht="15" thickBot="1">
       <c r="T86" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U86" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z86" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="20:26" ht="15" thickBot="1">
       <c r="T87" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U87" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z87" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="20:26" ht="15" thickBot="1">
       <c r="T88" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z88" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="20:26" ht="15" thickBot="1">
+      <c r="T89" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="Z88" s="20" t="s">
+      <c r="Z89" s="20" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="20:26" ht="15" thickBot="1">
-      <c r="Z89" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="90" spans="20:26" ht="15" thickBot="1">
       <c r="Z90" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="20:26" ht="15" thickBot="1">
       <c r="Z91" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="20:26" ht="15" thickBot="1">
       <c r="Z92" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="20:26" ht="15" thickBot="1">
       <c r="Z93" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="20:26" ht="15" thickBot="1">
       <c r="Z94" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="20:26" ht="15" thickBot="1">
       <c r="Z95" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="20:26" ht="15" thickBot="1">
       <c r="Z96" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="26:26" ht="15" thickBot="1">
       <c r="Z97" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="26:26" ht="15" thickBot="1">
       <c r="Z98" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="26:26" ht="15" thickBot="1">
       <c r="Z99" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="26:26" ht="15" thickBot="1">
       <c r="Z100" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="26:26" ht="15" thickBot="1">
       <c r="Z101" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="26:26" ht="15" thickBot="1">
       <c r="Z102" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="26:26" ht="15" thickBot="1">
       <c r="Z103" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="26:26" ht="15" thickBot="1">
       <c r="Z104" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="26:26" ht="15" thickBot="1">
       <c r="Z105" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="26:26" ht="15" thickBot="1">
       <c r="Z106" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="26:26" ht="15" thickBot="1">
       <c r="Z107" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="26:26" ht="15" thickBot="1">
       <c r="Z108" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="26:26" ht="15" thickBot="1">
       <c r="Z109" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="26:26" ht="15" thickBot="1">
       <c r="Z110" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="26:26" ht="15" thickBot="1">
       <c r="Z111" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="26:26" ht="15" thickBot="1">
       <c r="Z112" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="26:26" ht="15" thickBot="1">
       <c r="Z113" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="26:26" ht="15" thickBot="1">
       <c r="Z114" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="26:26" ht="15" thickBot="1">
       <c r="Z115" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="26:26" ht="15" thickBot="1">
       <c r="Z116" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="26:26" ht="15" thickBot="1">
       <c r="Z117" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="26:26" ht="15" thickBot="1">
       <c r="Z118" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="26:26" ht="15" thickBot="1">
       <c r="Z119" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="26:26" ht="15" thickBot="1">
       <c r="Z120" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="26:26" ht="15" thickBot="1">
       <c r="Z121" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="26:26" ht="15" thickBot="1">
       <c r="Z122" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="26:26" ht="15" thickBot="1">
       <c r="Z123" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="26:26" ht="15" thickBot="1">
       <c r="Z124" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="26:26" ht="15" thickBot="1">
       <c r="Z125" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="26:26" ht="15" thickBot="1">
       <c r="Z126" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="26:26" ht="15" thickBot="1">
       <c r="Z127" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="26:26" ht="15" thickBot="1">
       <c r="Z128" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="26:26" ht="15" thickBot="1">
       <c r="Z129" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="26:26" ht="15" thickBot="1">
       <c r="Z130" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="26:26" ht="15" thickBot="1">
       <c r="Z131" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="26:26" ht="15" thickBot="1">
       <c r="Z132" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="26:26" ht="15" thickBot="1">
       <c r="Z133" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="26:26" ht="15" thickBot="1">
       <c r="Z134" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="135" spans="26:26" ht="15" thickBot="1">
       <c r="Z135" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="26:26" ht="15" thickBot="1">
       <c r="Z136" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" spans="26:26" ht="15" thickBot="1">
       <c r="Z137" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="26:26" ht="15" thickBot="1">
       <c r="Z138" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="139" spans="26:26" ht="15" thickBot="1">
       <c r="Z139" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="26:26" ht="15" thickBot="1">
       <c r="Z140" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="26:26" ht="15" thickBot="1">
       <c r="Z141" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="26:26" ht="15" thickBot="1">
       <c r="Z142" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143" spans="26:26" ht="15" thickBot="1">
       <c r="Z143" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" spans="26:26" ht="15" thickBot="1">
       <c r="Z144" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="26:26" ht="15" thickBot="1">
       <c r="Z145" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="26:26" ht="15" thickBot="1">
       <c r="Z146" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="26:26" ht="15" thickBot="1">
       <c r="Z147" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="26:26" ht="15" thickBot="1">
       <c r="Z148" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="26:26" ht="15" thickBot="1">
       <c r="Z149" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="26:26" ht="15" thickBot="1">
       <c r="Z150" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="26:26" ht="15" thickBot="1">
       <c r="Z151" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152" spans="26:26" ht="15" thickBot="1">
       <c r="Z152" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153" spans="26:26" ht="15" thickBot="1">
       <c r="Z153" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="26:26" ht="15" thickBot="1">
       <c r="Z154" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="26:26" ht="15" thickBot="1">
       <c r="Z155" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="26:26" ht="15" thickBot="1">
       <c r="Z156" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="26:26" ht="15" thickBot="1">
       <c r="Z157" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="26:26" ht="15" thickBot="1">
       <c r="Z158" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="26:26" ht="15" thickBot="1">
       <c r="Z159" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="26:26" ht="15" thickBot="1">
       <c r="Z160" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" thickBot="1">
       <c r="Z161" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" thickBot="1">
       <c r="Z162" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" thickBot="1">
       <c r="Z163" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" thickBot="1">
       <c r="Z164" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" thickBot="1">
       <c r="Z165" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" thickBot="1">
       <c r="Z166" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" thickBot="1">
       <c r="Z167" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" thickBot="1">
       <c r="Z168" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" thickBot="1">
       <c r="Z169" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" thickBot="1">
       <c r="Z170" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" thickBot="1">
       <c r="Z171" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="26:26" ht="15" thickBot="1">
       <c r="Z172" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="26:26" ht="15" thickBot="1">
       <c r="Z173" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="26:26" ht="15" thickBot="1">
       <c r="Z174" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175" spans="26:26" ht="15" thickBot="1">
       <c r="Z175" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="26:26" ht="15" thickBot="1">
       <c r="Z176" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177" spans="26:26" ht="15" thickBot="1">
       <c r="Z177" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178" spans="26:26" ht="15" thickBot="1">
       <c r="Z178" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179" spans="26:26" ht="15" thickBot="1">
       <c r="Z179" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180" spans="26:26" ht="15" thickBot="1">
       <c r="Z180" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="26:26" ht="15" thickBot="1">
       <c r="Z181" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="26:26" ht="15" thickBot="1">
       <c r="Z182" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183" spans="26:26" ht="15" thickBot="1">
       <c r="Z183" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="26:26" ht="15" thickBot="1">
       <c r="Z184" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="26:26" ht="15" thickBot="1">
       <c r="Z185" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186" spans="26:26" ht="15" thickBot="1">
       <c r="Z186" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187" spans="26:26" ht="15" thickBot="1">
       <c r="Z187" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="26:26" ht="15" thickBot="1">
       <c r="Z188" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="26:26" ht="15" thickBot="1">
       <c r="Z189" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="26:26" ht="15" thickBot="1">
       <c r="Z190" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="26:26" ht="15" thickBot="1">
       <c r="Z191" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="26:26" ht="15" thickBot="1">
       <c r="Z192" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="26:26" ht="15" thickBot="1">
       <c r="Z193" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194" spans="26:26" ht="15" thickBot="1">
       <c r="Z194" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195" spans="26:26">
       <c r="Z195" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="196" spans="26:26">
       <c r="Z196" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="26:26">
       <c r="Z197" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="26:26">
       <c r="Z198" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="199" spans="26:26">
       <c r="Z199" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="200" spans="26:26">
       <c r="Z200" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="201" spans="26:26">
       <c r="Z201" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="202" spans="26:26">
       <c r="Z202" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="203" spans="26:26">
       <c r="Z203" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="204" spans="26:26">
       <c r="Z204" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E62 E27:E31">
+  <dataValidations count="22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E62 E31">
       <formula1>$W$61:$W$63</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E60 E45 E35 E25 E65 E33 E37 E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E60 E45 E35 E42 E65 E33 E37">
       <formula1>$Y$61:$Y$62</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59">
       <formula1>$S$60:$S$63</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E61 E39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E61 E39 E21 E23">
       <formula1>$U$71:$U$87</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E66 E46:E58 E40:E41 E32 E22:E24 E26 E34 E36 E43:E44 E38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E66 E46:E58 E40:E41 E32 E43:E44 E38 E34 E36">
       <formula1>$V$61</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$59:$R$60</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>$T$60:$T$89</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$T$60:$T$88</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G22:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G31:G1048576">
       <formula1>$Z$67:$Z$204</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E6:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8">
       <formula1>$Y$46:$Y$48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14">
       <formula1>$Z$52:$Z$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
@@ -4518,11 +4414,35 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
       <formula1>$S$45:$S$48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20 E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14">
       <formula1>$Y$46:$Y$47</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
       <formula1>$W$46:$W$48</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G30">
+      <formula1>$Z$50:$Z$187</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16">
+      <formula1>$V$44</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24">
+      <formula1>$U$71:$U$87</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20">
+      <formula1>$S$60:$S$63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30">
+      <formula1>$Y$44:$Y$45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22">
+      <formula1>$W$61:$W$63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E19 E25 E28:E29">
+      <formula1>$Y$61:$Y$63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$AA$61:$AA$62</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4532,193 +4452,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C27"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4741,131 +4478,131 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>269</v>
-      </c>
       <c r="C1" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="E1" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="H1" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="I1" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="K1" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="L1" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="M1" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="N1" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="O1" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="P1" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="Q1" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="R1" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="S1" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="T1" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="U1" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="V1" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="W1" s="47" t="s">
         <v>252</v>
-      </c>
-      <c r="W1" s="47" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="48"/>
       <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="48"/>
       <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="49" t="s">
         <v>254</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>255</v>
       </c>
       <c r="G4" s="50">
         <v>1001</v>
@@ -4874,22 +4611,22 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="49" t="s">
         <v>254</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>255</v>
       </c>
       <c r="G5" s="50">
         <v>1001</v>
@@ -4898,40 +4635,40 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="H6" s="49" t="s">
         <v>257</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>258</v>
       </c>
       <c r="I6" s="51">
         <v>1</v>
       </c>
       <c r="J6" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="K6" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="L6" s="49" t="s">
         <v>260</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>261</v>
       </c>
       <c r="M6" s="51">
         <v>1</v>
@@ -4939,43 +4676,43 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="52"/>
@@ -4986,34 +4723,34 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="H9" s="49" t="s">
         <v>264</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>265</v>
       </c>
       <c r="I9" s="52">
         <v>1</v>
       </c>
       <c r="J9" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K9" s="50">
         <v>1</v>
@@ -5021,40 +4758,40 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="H10" s="49" t="s">
         <v>257</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>258</v>
       </c>
       <c r="I10" s="51">
         <v>1</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M10" s="51">
         <v>1</v>
@@ -5062,40 +4799,40 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="H11" s="49" t="s">
         <v>257</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>258</v>
       </c>
       <c r="I11" s="51">
         <v>1</v>
       </c>
       <c r="J11" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="K11" s="51" t="s">
+      <c r="L11" s="49" t="s">
         <v>260</v>
-      </c>
-      <c r="L11" s="49" t="s">
-        <v>261</v>
       </c>
       <c r="M11" s="51">
         <v>1</v>
@@ -5103,22 +4840,22 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G12" s="48">
         <v>1006</v>
@@ -5127,22 +4864,22 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G13" s="48">
         <v>1001</v>
@@ -5151,22 +4888,22 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G14" s="48">
         <v>1008</v>
@@ -5175,42 +4912,42 @@
     </row>
     <row r="15" spans="1:23">
       <c r="B15" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="I15" s="51" t="s">
         <v>289</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="B16" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="52"/>
@@ -5223,22 +4960,22 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C17" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" s="52" t="s">
         <v>292</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>293</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="51"/>
@@ -5249,212 +4986,212 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="52" t="s">
         <v>308</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" s="52" t="s">
+      <c r="H18" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="I18" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="J18" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="K18" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="L18" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="L18" s="49" t="s">
+      <c r="M18" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="M18" s="51" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" s="22" t="s">
+    </row>
+    <row r="19" spans="2:13" s="5" customFormat="1">
+      <c r="B19" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="49" t="s">
+      <c r="G19" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="H19" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="I19" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="I19" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="51"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="49" t="s">
+      <c r="J19" s="60"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="2:13" s="5" customFormat="1">
+      <c r="B20" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="H20" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="I20" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="I20" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="51"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="J20" s="60"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="62"/>
+    </row>
+    <row r="21" spans="2:13" s="5" customFormat="1">
+      <c r="B21" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="H21" s="60"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="2:13" s="5" customFormat="1">
+      <c r="B22" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="51"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="51"/>
+      <c r="D22" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="62"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C23" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>308</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="G23" s="52" t="s">
+      <c r="H23" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="I23" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="I23" s="51" t="s">
+      <c r="J23" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="K23" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="K23" s="51" t="s">
+      <c r="L23" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="L23" s="49" t="s">
-        <v>314</v>
-      </c>
       <c r="M23" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C24" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="49" t="s">
+      <c r="G24" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="H24" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="I24" s="51" t="s">
         <v>322</v>
-      </c>
-      <c r="I24" s="51" t="s">
-        <v>323</v>
       </c>
       <c r="J24" s="49"/>
       <c r="K24" s="51"/>
@@ -5463,28 +5200,28 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="D25" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="H25" s="49" t="s">
+      <c r="I25" s="51" t="s">
         <v>326</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>327</v>
       </c>
       <c r="J25" s="49"/>
       <c r="K25" s="51"/>
@@ -5493,22 +5230,22 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>29</v>
+        <v>253</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>295</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H26" s="49"/>
       <c r="I26" s="51"/>
@@ -5519,16 +5256,16 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>29</v>
+        <v>253</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>295</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="11"/>
@@ -5795,4 +5532,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -1675,7 +1675,7 @@
   <dimension ref="A1:AA204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F30"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="15" spans="1:26" s="35" customFormat="1">
       <c r="A15" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="55" t="s">
         <v>293</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="16" spans="1:26" s="35" customFormat="1">
       <c r="A16" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>298</v>
@@ -2247,7 +2247,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="17" spans="1:26" s="35" customFormat="1">
       <c r="A17" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>332</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="18" spans="1:26" s="35" customFormat="1">
       <c r="A18" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>332</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="19" spans="1:26" s="35" customFormat="1">
       <c r="A19" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>332</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="20" spans="1:26" s="30" customFormat="1">
       <c r="A20" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>300</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="21" spans="1:26" s="35" customFormat="1">
       <c r="A21" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>302</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="22" spans="1:26" s="22" customFormat="1">
       <c r="A22" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>302</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="23" spans="1:26" s="22" customFormat="1">
       <c r="A23" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>302</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="24" spans="1:26" s="22" customFormat="1">
       <c r="A24" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>302</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="25" spans="1:26" s="22" customFormat="1">
       <c r="A25" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>302</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="29" spans="1:26" s="35" customFormat="1">
       <c r="A29" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>302</v>
@@ -2747,7 +2747,7 @@
       <c r="Z29" s="44"/>
     </row>
     <row r="30" spans="1:26" s="35" customFormat="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="55" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="31" t="s">
@@ -5539,7 +5539,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
-    <sheet name="Execution_Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Validation part" sheetId="4" r:id="rId3"/>
+    <sheet name="API_Data" sheetId="6" r:id="rId2"/>
+    <sheet name="Credentials" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="309">
   <si>
     <t>Execution</t>
   </si>
@@ -72,15 +72,6 @@
     <t>Recharge_More_Credit</t>
   </si>
   <si>
-    <t>OPT IN</t>
-  </si>
-  <si>
-    <t>OPT OUT</t>
-  </si>
-  <si>
-    <t>RECHARGE</t>
-  </si>
-  <si>
     <t>LIVE USAGE DATA</t>
   </si>
   <si>
@@ -99,12 +90,6 @@
     <t>OPT_IN/OPT OUT</t>
   </si>
   <si>
-    <t>Long Code</t>
-  </si>
-  <si>
-    <t>Short Code</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -168,18 +153,12 @@
     <t>Parameter4</t>
   </si>
   <si>
-    <t>Recharge Coupon</t>
-  </si>
-  <si>
     <t>Call_TO_MSISDN</t>
   </si>
   <si>
     <t>CALL_DURATION</t>
   </si>
   <si>
-    <t>Product_ID (dropdown)</t>
-  </si>
-  <si>
     <t>RECEIVER_MSISDN</t>
   </si>
   <si>
@@ -195,36 +174,9 @@
     <t>Hide this field</t>
   </si>
   <si>
-    <t>CIS API</t>
-  </si>
-  <si>
-    <t>CS API</t>
-  </si>
-  <si>
-    <t>CIS EDR</t>
-  </si>
-  <si>
-    <t>SDP CDR</t>
-  </si>
-  <si>
-    <t>OCC CDR</t>
-  </si>
-  <si>
-    <t>AIR CDR</t>
-  </si>
-  <si>
-    <t>CCN CDR</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Sno</t>
-  </si>
-  <si>
     <t>971520001714</t>
   </si>
   <si>
@@ -661,13 +613,343 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Execution Control</t>
+  </si>
+  <si>
+    <t>TestCase_ID</t>
+  </si>
+  <si>
+    <t>Request_Name</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Parameter5</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Parameter6</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Parameter7</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Parameter8</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Parameter9</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Parameter10</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>API_GetAccountDetails</t>
+  </si>
+  <si>
+    <t>subscriberNumber</t>
+  </si>
+  <si>
+    <t>API_GetOffers</t>
+  </si>
+  <si>
+    <t>API_DeleteOffer</t>
+  </si>
+  <si>
+    <t>offerID</t>
+  </si>
+  <si>
+    <t>API_UpdateOffer</t>
+  </si>
+  <si>
+    <t>API_UpdateDA</t>
+  </si>
+  <si>
+    <t>transactionCurrency</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID</t>
+  </si>
+  <si>
+    <t>adjustmentAmountRelative</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnitType</t>
+  </si>
+  <si>
+    <t>API_DeleteDA</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>API_GetBalanceAndDate</t>
+  </si>
+  <si>
+    <t>API_AddPAM</t>
+  </si>
+  <si>
+    <t>pamServiceID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pamClassID</t>
+  </si>
+  <si>
+    <t>scheduleID</t>
+  </si>
+  <si>
+    <t>API_ReduceDA</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>API_AddDifferentDA</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_1</t>
+  </si>
+  <si>
+    <t>serviceClassNew</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_2</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_3</t>
+  </si>
+  <si>
+    <t>API_UpdateUsageThresholdsAndCounters</t>
+  </si>
+  <si>
+    <t>usageThresholdValueNew</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>usageThresholdID</t>
+  </si>
+  <si>
+    <t>50042101</t>
+  </si>
+  <si>
+    <t>API_DeleteSubscriber</t>
+  </si>
+  <si>
+    <t>API_InstallSubscriber</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>API_Update_IMSI</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>attributeName</t>
+  </si>
+  <si>
+    <t>IMSI</t>
+  </si>
+  <si>
+    <t>attributeUpdateAction</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>attributeValueString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424030046672675 </t>
+  </si>
+  <si>
+    <t>CIS_API_Credit_Amount</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>NACT_DebitCredit</t>
+  </si>
+  <si>
+    <t>To Credit</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>CIS_API_Debit_Amount</t>
+  </si>
+  <si>
+    <t>CIS_API_Product_Subscription</t>
+  </si>
+  <si>
+    <t>DACT_CallHomeforLess</t>
+  </si>
+  <si>
+    <t>CIS_API_View_History</t>
+  </si>
+  <si>
+    <t>TC-1092</t>
+  </si>
+  <si>
+    <t>971520002574</t>
+  </si>
+  <si>
+    <t>424030046672431</t>
+  </si>
+  <si>
+    <t>To Debit</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>Unix_System</t>
+  </si>
+  <si>
+    <t>IP_HostName</t>
+  </si>
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Wait_Time</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>10.95.214.9</t>
+  </si>
+  <si>
+    <t>atos</t>
+  </si>
+  <si>
+    <t>ericsson</t>
+  </si>
+  <si>
+    <t>/data/edr_enrichment/sftpcompleted</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>10.95.214.6</t>
+  </si>
+  <si>
+    <t>tasuser</t>
+  </si>
+  <si>
+    <t>Ericssondu@123</t>
+  </si>
+  <si>
+    <t>/var/opt/fds/CDR/archive/</t>
+  </si>
+  <si>
+    <t>OCC1</t>
+  </si>
+  <si>
+    <t>10.95.214.21</t>
+  </si>
+  <si>
+    <t>/home/tasuser</t>
+  </si>
+  <si>
+    <t>OCC2</t>
+  </si>
+  <si>
+    <t>10.95.214.22</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>10.95.214.166</t>
+  </si>
+  <si>
+    <t>/var/opt/air/datarecords/backup_CDR/</t>
+  </si>
+  <si>
+    <t>CCN0</t>
+  </si>
+  <si>
+    <t>10.95.213.132</t>
+  </si>
+  <si>
+    <t>CCNtasuser@123</t>
+  </si>
+  <si>
+    <t>/cluster/storage/no-backup/ccn/CcnStorage0/CCNCDR44/archive/</t>
+  </si>
+  <si>
+    <t>CCN1</t>
+  </si>
+  <si>
+    <t>/cluster/storage/no-backup/ccn/CcnStorage1/CCNCDR44/archive/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,8 +994,30 @@
       <sz val="9"/>
       <name val="Ericsson Hilda"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +1034,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -801,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -815,15 +1137,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -849,6 +1162,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,36 +1482,36 @@
   <dimension ref="A1:Z138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="27.85546875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="38.42578125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.54296875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.81640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.81640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="38.453125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1196,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1204,1059 +1530,1059 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="I1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="19"/>
+      <c r="N1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="13"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="13"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="13"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="13"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>69</v>
+      <c r="F4" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="18"/>
+      <c r="H4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="15"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="13"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="13"/>
+      <c r="O4" s="10"/>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>69</v>
+        <v>30</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="13"/>
+      <c r="O5" s="10"/>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="15" t="s">
-        <v>74</v>
+      <c r="T5" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="Y5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>69</v>
+        <v>35</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="18" t="s">
-        <v>80</v>
+      <c r="H6" s="10"/>
+      <c r="I6" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="J6" s="8">
         <v>20</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="13"/>
+      <c r="O6" s="10"/>
       <c r="S6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>77</v>
+        <v>38</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>77</v>
+        <v>25</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>211</v>
+        <v>29</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="13" t="s">
-        <v>80</v>
+      <c r="K7" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="13"/>
+      <c r="O7" s="10"/>
       <c r="S7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7" s="20" t="s">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>69</v>
+        <v>51</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
         <v>1</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>81</v>
+      <c r="O8" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z8" s="20" t="s">
-        <v>83</v>
+        <v>27</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>69</v>
+        <v>51</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="13"/>
+      <c r="O9" s="10"/>
       <c r="T9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z9" s="20" t="s">
-        <v>84</v>
+        <v>35</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="T10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z10" s="20" t="s">
-        <v>85</v>
+        <v>31</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="T11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z11" s="20" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="T12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z12" s="20" t="s">
-        <v>87</v>
+        <v>33</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="U13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="Z14" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="Z15" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="Z16" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="26:26">
+      <c r="Z17" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="26:26">
+      <c r="Z18" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="26:26" ht="15" thickBot="1">
+      <c r="Z19" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="26:26" ht="15" thickBot="1">
+      <c r="Z20" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="26:26" ht="15" thickBot="1">
+      <c r="Z21" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="26:26" ht="15" thickBot="1">
+      <c r="Z22" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="26:26" ht="15" thickBot="1">
+      <c r="Z23" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="26:26" ht="15" thickBot="1">
+      <c r="Z24" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="26:26" ht="15" thickBot="1">
+      <c r="Z25" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="26:26" ht="15" thickBot="1">
+      <c r="Z26" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="26:26" ht="15" thickBot="1">
+      <c r="Z27" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="26:26" ht="15" thickBot="1">
+      <c r="Z28" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="26:26" ht="15" thickBot="1">
+      <c r="Z29" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="Z14" s="20" t="s">
+    <row r="30" spans="26:26" ht="15" thickBot="1">
+      <c r="Z30" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="Z15" s="20" t="s">
+    <row r="31" spans="26:26" ht="15" thickBot="1">
+      <c r="Z31" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
-      <c r="Z16" s="20" t="s">
+    <row r="32" spans="26:26" ht="15" thickBot="1">
+      <c r="Z32" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="26:26">
-      <c r="Z17" s="20" t="s">
+    <row r="33" spans="26:26" ht="15" thickBot="1">
+      <c r="Z33" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="26:26">
-      <c r="Z18" s="20" t="s">
+    <row r="34" spans="26:26" ht="15" thickBot="1">
+      <c r="Z34" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z19" s="20" t="s">
+    <row r="35" spans="26:26" ht="15" thickBot="1">
+      <c r="Z35" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z20" s="21" t="s">
+    <row r="36" spans="26:26" ht="15" thickBot="1">
+      <c r="Z36" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z21" s="22" t="s">
+    <row r="37" spans="26:26" ht="15" thickBot="1">
+      <c r="Z37" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z22" s="22" t="s">
+    <row r="38" spans="26:26" ht="15" thickBot="1">
+      <c r="Z38" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z23" s="22" t="s">
+    <row r="39" spans="26:26" ht="15" thickBot="1">
+      <c r="Z39" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z24" s="22" t="s">
+    <row r="40" spans="26:26" ht="15" thickBot="1">
+      <c r="Z40" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z25" s="22" t="s">
+    <row r="41" spans="26:26" ht="15" thickBot="1">
+      <c r="Z41" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z26" s="22" t="s">
+    <row r="42" spans="26:26" ht="15" thickBot="1">
+      <c r="Z42" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z27" s="23" t="s">
+    <row r="43" spans="26:26" ht="15" thickBot="1">
+      <c r="Z43" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z28" s="23" t="s">
+    <row r="44" spans="26:26" ht="15" thickBot="1">
+      <c r="Z44" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z29" s="23" t="s">
+    <row r="45" spans="26:26" ht="15" thickBot="1">
+      <c r="Z45" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z30" s="23" t="s">
+    <row r="46" spans="26:26" ht="15" thickBot="1">
+      <c r="Z46" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z31" s="23" t="s">
+    <row r="47" spans="26:26" ht="15" thickBot="1">
+      <c r="Z47" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z32" s="23" t="s">
+    <row r="48" spans="26:26" ht="15" thickBot="1">
+      <c r="Z48" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z33" s="23" t="s">
+    <row r="49" spans="26:26" ht="15" thickBot="1">
+      <c r="Z49" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z34" s="23" t="s">
+    <row r="50" spans="26:26" ht="15" thickBot="1">
+      <c r="Z50" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z35" s="23" t="s">
+    <row r="51" spans="26:26" ht="15" thickBot="1">
+      <c r="Z51" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z36" s="23" t="s">
+    <row r="52" spans="26:26" ht="15" thickBot="1">
+      <c r="Z52" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z37" s="23" t="s">
+    <row r="53" spans="26:26" ht="15" thickBot="1">
+      <c r="Z53" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z38" s="23" t="s">
+    <row r="54" spans="26:26" ht="15" thickBot="1">
+      <c r="Z54" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z39" s="23" t="s">
+    <row r="55" spans="26:26" ht="15" thickBot="1">
+      <c r="Z55" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z40" s="23" t="s">
+    <row r="56" spans="26:26" ht="15" thickBot="1">
+      <c r="Z56" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z41" s="23" t="s">
+    <row r="57" spans="26:26" ht="15" thickBot="1">
+      <c r="Z57" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z42" s="23" t="s">
+    <row r="58" spans="26:26" ht="15" thickBot="1">
+      <c r="Z58" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z43" s="23" t="s">
+    <row r="59" spans="26:26" ht="15" thickBot="1">
+      <c r="Z59" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z44" s="23" t="s">
+    <row r="60" spans="26:26" ht="15" thickBot="1">
+      <c r="Z60" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z45" s="23" t="s">
+    <row r="61" spans="26:26" ht="15" thickBot="1">
+      <c r="Z61" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z46" s="23" t="s">
+    <row r="62" spans="26:26" ht="15" thickBot="1">
+      <c r="Z62" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z47" s="23" t="s">
+    <row r="63" spans="26:26" ht="15" thickBot="1">
+      <c r="Z63" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z48" s="23" t="s">
+    <row r="64" spans="26:26" ht="15" thickBot="1">
+      <c r="Z64" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z49" s="23" t="s">
+    <row r="65" spans="26:26" ht="15" thickBot="1">
+      <c r="Z65" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z50" s="23" t="s">
+    <row r="66" spans="26:26" ht="15" thickBot="1">
+      <c r="Z66" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z51" s="23" t="s">
+    <row r="67" spans="26:26" ht="15" thickBot="1">
+      <c r="Z67" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z52" s="23" t="s">
+    <row r="68" spans="26:26" ht="15" thickBot="1">
+      <c r="Z68" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z53" s="23" t="s">
+    <row r="69" spans="26:26" ht="15" thickBot="1">
+      <c r="Z69" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z54" s="23" t="s">
+    <row r="70" spans="26:26" ht="15" thickBot="1">
+      <c r="Z70" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z55" s="23" t="s">
+    <row r="71" spans="26:26" ht="15" thickBot="1">
+      <c r="Z71" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z56" s="23" t="s">
+    <row r="72" spans="26:26" ht="15" thickBot="1">
+      <c r="Z72" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z57" s="23" t="s">
+    <row r="73" spans="26:26" ht="15" thickBot="1">
+      <c r="Z73" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z58" s="23" t="s">
+    <row r="74" spans="26:26" ht="15" thickBot="1">
+      <c r="Z74" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z59" s="23" t="s">
+    <row r="75" spans="26:26" ht="15" thickBot="1">
+      <c r="Z75" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z60" s="23" t="s">
+    <row r="76" spans="26:26" ht="15" thickBot="1">
+      <c r="Z76" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z61" s="23" t="s">
+    <row r="77" spans="26:26" ht="15" thickBot="1">
+      <c r="Z77" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z62" s="23" t="s">
+    <row r="78" spans="26:26" ht="15" thickBot="1">
+      <c r="Z78" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z63" s="23" t="s">
+    <row r="79" spans="26:26" ht="15" thickBot="1">
+      <c r="Z79" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z64" s="23" t="s">
+    <row r="80" spans="26:26" ht="15" thickBot="1">
+      <c r="Z80" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z65" s="23" t="s">
+    <row r="81" spans="26:26" ht="15" thickBot="1">
+      <c r="Z81" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z66" s="23" t="s">
+    <row r="82" spans="26:26" ht="15" thickBot="1">
+      <c r="Z82" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z67" s="23" t="s">
+    <row r="83" spans="26:26" ht="15" thickBot="1">
+      <c r="Z83" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z68" s="23" t="s">
+    <row r="84" spans="26:26" ht="15" thickBot="1">
+      <c r="Z84" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z69" s="23" t="s">
+    <row r="85" spans="26:26" ht="15" thickBot="1">
+      <c r="Z85" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z70" s="23" t="s">
+    <row r="86" spans="26:26" ht="15" thickBot="1">
+      <c r="Z86" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z71" s="23" t="s">
+    <row r="87" spans="26:26" ht="15" thickBot="1">
+      <c r="Z87" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z72" s="23" t="s">
+    <row r="88" spans="26:26" ht="15" thickBot="1">
+      <c r="Z88" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z73" s="23" t="s">
+    <row r="89" spans="26:26" ht="15" thickBot="1">
+      <c r="Z89" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z74" s="23" t="s">
+    <row r="90" spans="26:26" ht="15" thickBot="1">
+      <c r="Z90" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z75" s="23" t="s">
+    <row r="91" spans="26:26" ht="15" thickBot="1">
+      <c r="Z91" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z76" s="23" t="s">
+    <row r="92" spans="26:26" ht="15" thickBot="1">
+      <c r="Z92" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="26:26" ht="15" thickBot="1">
+      <c r="Z93" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z77" s="23" t="s">
+    <row r="94" spans="26:26" ht="15" thickBot="1">
+      <c r="Z94" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z78" s="23" t="s">
+    <row r="95" spans="26:26" ht="15" thickBot="1">
+      <c r="Z95" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z79" s="23" t="s">
+    <row r="96" spans="26:26" ht="15" thickBot="1">
+      <c r="Z96" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z80" s="23" t="s">
+    <row r="97" spans="26:26" ht="15" thickBot="1">
+      <c r="Z97" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z81" s="23" t="s">
+    <row r="98" spans="26:26" ht="15" thickBot="1">
+      <c r="Z98" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z82" s="23" t="s">
+    <row r="99" spans="26:26" ht="15" thickBot="1">
+      <c r="Z99" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z83" s="23" t="s">
+    <row r="100" spans="26:26" ht="15" thickBot="1">
+      <c r="Z100" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z84" s="23" t="s">
+    <row r="101" spans="26:26" ht="15" thickBot="1">
+      <c r="Z101" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z85" s="23" t="s">
+    <row r="102" spans="26:26" ht="15" thickBot="1">
+      <c r="Z102" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z86" s="23" t="s">
+    <row r="103" spans="26:26" ht="15" thickBot="1">
+      <c r="Z103" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z87" s="23" t="s">
+    <row r="104" spans="26:26" ht="15" thickBot="1">
+      <c r="Z104" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z88" s="23" t="s">
+    <row r="105" spans="26:26" ht="15" thickBot="1">
+      <c r="Z105" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z89" s="23" t="s">
+    <row r="106" spans="26:26" ht="15" thickBot="1">
+      <c r="Z106" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z90" s="23" t="s">
+    <row r="107" spans="26:26" ht="15" thickBot="1">
+      <c r="Z107" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z91" s="23" t="s">
+    <row r="108" spans="26:26" ht="15" thickBot="1">
+      <c r="Z108" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z92" s="23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z93" s="23" t="s">
+    <row r="109" spans="26:26" ht="15" thickBot="1">
+      <c r="Z109" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z94" s="23" t="s">
+    <row r="110" spans="26:26" ht="15" thickBot="1">
+      <c r="Z110" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z95" s="23" t="s">
+    <row r="111" spans="26:26" ht="15" thickBot="1">
+      <c r="Z111" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z96" s="23" t="s">
+    <row r="112" spans="26:26" ht="15" thickBot="1">
+      <c r="Z112" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z97" s="23" t="s">
+    <row r="113" spans="26:26" ht="15" thickBot="1">
+      <c r="Z113" s="20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z98" s="23" t="s">
+    <row r="114" spans="26:26" ht="15" thickBot="1">
+      <c r="Z114" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z99" s="23" t="s">
+    <row r="115" spans="26:26" ht="15" thickBot="1">
+      <c r="Z115" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z100" s="23" t="s">
+    <row r="116" spans="26:26" ht="15" thickBot="1">
+      <c r="Z116" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z101" s="23" t="s">
+    <row r="117" spans="26:26" ht="15" thickBot="1">
+      <c r="Z117" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z102" s="23" t="s">
+    <row r="118" spans="26:26" ht="15" thickBot="1">
+      <c r="Z118" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z103" s="23" t="s">
+    <row r="119" spans="26:26" ht="15" thickBot="1">
+      <c r="Z119" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z104" s="23" t="s">
+    <row r="120" spans="26:26" ht="15" thickBot="1">
+      <c r="Z120" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z105" s="23" t="s">
+    <row r="121" spans="26:26" ht="15" thickBot="1">
+      <c r="Z121" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z106" s="23" t="s">
+    <row r="122" spans="26:26" ht="15" thickBot="1">
+      <c r="Z122" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z107" s="23" t="s">
+    <row r="123" spans="26:26" ht="15" thickBot="1">
+      <c r="Z123" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z108" s="23" t="s">
+    <row r="124" spans="26:26" ht="15" thickBot="1">
+      <c r="Z124" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="109" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z109" s="23" t="s">
+    <row r="125" spans="26:26" ht="15" thickBot="1">
+      <c r="Z125" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z110" s="23" t="s">
+    <row r="126" spans="26:26" ht="15" thickBot="1">
+      <c r="Z126" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z111" s="23" t="s">
+    <row r="127" spans="26:26" ht="15" thickBot="1">
+      <c r="Z127" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="26:26" ht="15" thickBot="1">
+      <c r="Z128" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z112" s="23" t="s">
+    <row r="129" spans="26:26" ht="15" thickBot="1">
+      <c r="Z129" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z113" s="23" t="s">
+    <row r="130" spans="26:26" ht="15" thickBot="1">
+      <c r="Z130" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="26:26" ht="15" thickBot="1">
+      <c r="Z131" s="20" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="114" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z114" s="23" t="s">
+    <row r="132" spans="26:26" ht="15" thickBot="1">
+      <c r="Z132" s="20" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z115" s="23" t="s">
+    <row r="133" spans="26:26" ht="15" thickBot="1">
+      <c r="Z133" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z116" s="23" t="s">
+    <row r="134" spans="26:26" ht="15" thickBot="1">
+      <c r="Z134" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z117" s="23" t="s">
+    <row r="135" spans="26:26" ht="15" thickBot="1">
+      <c r="Z135" s="20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z118" s="23" t="s">
+    <row r="136" spans="26:26" ht="15" thickBot="1">
+      <c r="Z136" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="119" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z119" s="23" t="s">
+    <row r="137" spans="26:26" ht="15" thickBot="1">
+      <c r="Z137" s="20" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="120" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z120" s="23" t="s">
+    <row r="138" spans="26:26" ht="15" thickBot="1">
+      <c r="Z138" s="20" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="121" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z121" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z122" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="123" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z123" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="124" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z124" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="125" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z125" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="126" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z126" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z127" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z128" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="129" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z129" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="130" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z130" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="131" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z131" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="132" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z132" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="133" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z133" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="134" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z134" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="135" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z135" s="23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="136" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z136" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="137" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z137" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="138" spans="26:26" ht="15.75" thickBot="1">
-      <c r="Z138" s="23" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2293,701 +2619,1287 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="27.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="27">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
+      <c r="J6" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M6" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="24">
+        <v>1</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1006</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1001</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1008</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H15" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="5" customFormat="1">
+      <c r="B19" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="2:13" s="5" customFormat="1">
+      <c r="B20" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="2:13" s="5" customFormat="1">
+      <c r="B21" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="2:13" s="5" customFormat="1">
+      <c r="B22" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="N10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="N11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="N12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="O13" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="C24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="2:13" s="5" customFormat="1">
+      <c r="B28" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="C29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="C30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="C31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="28"/>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="G36" s="23"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="24"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="28"/>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="26"/>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="G46" s="23"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="I48" s="27"/>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="I49" s="27"/>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="24"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="28"/>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="26"/>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" s="11"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="27"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$N$5:$N$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
-      <formula1>$P$6:$P$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>$M$5:$M$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>$S$6:$S$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>$Q$6:$Q$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>$O$6:$O$13</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$L$4:$L$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:M12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="3.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:13">
-      <c r="E4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="5:13">
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="5:13">
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="5:13">
-      <c r="E7" s="11">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13">
-      <c r="E8" s="11">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13">
-      <c r="E9" s="11">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13">
-      <c r="E10" s="11">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13">
-      <c r="E11" s="11">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13">
-      <c r="E12" s="11">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>67</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F12">
-      <formula1>$N$5:$N$12</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
@@ -933,9 +933,6 @@
     <t>10.95.213.132</t>
   </si>
   <si>
-    <t>CCNtasuser@123</t>
-  </si>
-  <si>
     <t>/cluster/storage/no-backup/ccn/CcnStorage0/CCNCDR44/archive/</t>
   </si>
   <si>
@@ -943,6 +940,9 @@
   </si>
   <si>
     <t>/cluster/storage/no-backup/ccn/CcnStorage1/CCNCDR44/archive/</t>
+  </si>
+  <si>
+    <t>tasuserCCN@123 </t>
   </si>
 </sst>
 </file>
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1493,7 +1493,7 @@
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.81640625" customWidth="1"/>
@@ -3726,8 +3726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3870,10 +3870,10 @@
         <v>292</v>
       </c>
       <c r="D7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" t="s">
         <v>305</v>
-      </c>
-      <c r="E7" t="s">
-        <v>306</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
         <v>304</v>
@@ -3890,10 +3890,10 @@
         <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3901,5 +3901,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -3727,7 +3727,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3776,7 +3776,7 @@
         <v>289</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3796,7 +3796,7 @@
         <v>294</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3836,7 +3836,7 @@
         <v>297</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3856,7 +3856,7 @@
         <v>302</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3876,7 +3876,7 @@
         <v>305</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="API_Data" sheetId="6" r:id="rId2"/>
     <sheet name="Credentials" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="autoNoTable"/>
 </workbook>
 </file>
 
@@ -949,7 +949,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1485,7 +1485,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -1514,7 +1514,7 @@
     <col min="26" max="26" width="38.453125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1">
+    <row r="1" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="P1" s="16"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="T10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="T11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="T12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="U13" s="7" t="s">
         <v>34</v>
       </c>
@@ -1960,627 +1960,627 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Z14" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Z15" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Z16" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="26:26">
+    <row r="17" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z17" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="26:26">
+    <row r="18" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z18" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="26:26" ht="15" thickBot="1">
+    <row r="19" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z19" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="26:26" ht="15" thickBot="1">
+    <row r="20" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z20" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="26:26" ht="15" thickBot="1">
+    <row r="21" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z21" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="26:26" ht="15" thickBot="1">
+    <row r="22" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z22" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="26:26" ht="15" thickBot="1">
+    <row r="23" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z23" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="26:26" ht="15" thickBot="1">
+    <row r="24" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z24" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="26:26" ht="15" thickBot="1">
+    <row r="25" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z25" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="26:26" ht="15" thickBot="1">
+    <row r="26" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z26" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="26:26" ht="15" thickBot="1">
+    <row r="27" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z27" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="26:26" ht="15" thickBot="1">
+    <row r="28" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z28" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="26:26" ht="15" thickBot="1">
+    <row r="29" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z29" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="26:26" ht="15" thickBot="1">
+    <row r="30" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z30" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="26:26" ht="15" thickBot="1">
+    <row r="31" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z31" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="26:26" ht="15" thickBot="1">
+    <row r="32" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z32" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="26:26" ht="15" thickBot="1">
+    <row r="33" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z33" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="26:26" ht="15" thickBot="1">
+    <row r="34" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z34" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="26:26" ht="15" thickBot="1">
+    <row r="35" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z35" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="26:26" ht="15" thickBot="1">
+    <row r="36" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z36" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="26:26" ht="15" thickBot="1">
+    <row r="37" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z37" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="26:26" ht="15" thickBot="1">
+    <row r="38" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z38" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="26:26" ht="15" thickBot="1">
+    <row r="39" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z39" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="26:26" ht="15" thickBot="1">
+    <row r="40" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z40" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="26:26" ht="15" thickBot="1">
+    <row r="41" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z41" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="26:26" ht="15" thickBot="1">
+    <row r="42" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z42" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="26:26" ht="15" thickBot="1">
+    <row r="43" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z43" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="26:26" ht="15" thickBot="1">
+    <row r="44" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z44" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="26:26" ht="15" thickBot="1">
+    <row r="45" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z45" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="26:26" ht="15" thickBot="1">
+    <row r="46" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z46" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="26:26" ht="15" thickBot="1">
+    <row r="47" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z47" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="26:26" ht="15" thickBot="1">
+    <row r="48" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z48" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="26:26" ht="15" thickBot="1">
+    <row r="49" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z49" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="26:26" ht="15" thickBot="1">
+    <row r="50" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z50" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="26:26" ht="15" thickBot="1">
+    <row r="51" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z51" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="26:26" ht="15" thickBot="1">
+    <row r="52" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z52" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="26:26" ht="15" thickBot="1">
+    <row r="53" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z53" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="26:26" ht="15" thickBot="1">
+    <row r="54" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z54" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="26:26" ht="15" thickBot="1">
+    <row r="55" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z55" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="26:26" ht="15" thickBot="1">
+    <row r="56" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z56" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="26:26" ht="15" thickBot="1">
+    <row r="57" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z57" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="26:26" ht="15" thickBot="1">
+    <row r="58" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z58" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="26:26" ht="15" thickBot="1">
+    <row r="59" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z59" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="26:26" ht="15" thickBot="1">
+    <row r="60" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z60" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="26:26" ht="15" thickBot="1">
+    <row r="61" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z61" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="26:26" ht="15" thickBot="1">
+    <row r="62" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z62" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="26:26" ht="15" thickBot="1">
+    <row r="63" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z63" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="26:26" ht="15" thickBot="1">
+    <row r="64" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z64" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="26:26" ht="15" thickBot="1">
+    <row r="65" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z65" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="26:26" ht="15" thickBot="1">
+    <row r="66" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z66" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="26:26" ht="15" thickBot="1">
+    <row r="67" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z67" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="26:26" ht="15" thickBot="1">
+    <row r="68" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z68" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="26:26" ht="15" thickBot="1">
+    <row r="69" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z69" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="26:26" ht="15" thickBot="1">
+    <row r="70" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z70" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="26:26" ht="15" thickBot="1">
+    <row r="71" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z71" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="26:26" ht="15" thickBot="1">
+    <row r="72" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z72" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="26:26" ht="15" thickBot="1">
+    <row r="73" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z73" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="26:26" ht="15" thickBot="1">
+    <row r="74" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z74" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="26:26" ht="15" thickBot="1">
+    <row r="75" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z75" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="26:26" ht="15" thickBot="1">
+    <row r="76" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z76" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="26:26" ht="15" thickBot="1">
+    <row r="77" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z77" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="26:26" ht="15" thickBot="1">
+    <row r="78" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z78" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="26:26" ht="15" thickBot="1">
+    <row r="79" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z79" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="26:26" ht="15" thickBot="1">
+    <row r="80" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z80" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="26:26" ht="15" thickBot="1">
+    <row r="81" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z81" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="26:26" ht="15" thickBot="1">
+    <row r="82" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z82" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="26:26" ht="15" thickBot="1">
+    <row r="83" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z83" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="26:26" ht="15" thickBot="1">
+    <row r="84" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z84" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="26:26" ht="15" thickBot="1">
+    <row r="85" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z85" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="26:26" ht="15" thickBot="1">
+    <row r="86" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z86" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="26:26" ht="15" thickBot="1">
+    <row r="87" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z87" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="26:26" ht="15" thickBot="1">
+    <row r="88" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z88" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="26:26" ht="15" thickBot="1">
+    <row r="89" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z89" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="26:26" ht="15" thickBot="1">
+    <row r="90" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z90" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="26:26" ht="15" thickBot="1">
+    <row r="91" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z91" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="26:26" ht="15" thickBot="1">
+    <row r="92" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z92" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="26:26" ht="15" thickBot="1">
+    <row r="93" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z93" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="26:26" ht="15" thickBot="1">
+    <row r="94" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z94" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="26:26" ht="15" thickBot="1">
+    <row r="95" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z95" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="26:26" ht="15" thickBot="1">
+    <row r="96" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z96" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="26:26" ht="15" thickBot="1">
+    <row r="97" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z97" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="26:26" ht="15" thickBot="1">
+    <row r="98" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z98" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="26:26" ht="15" thickBot="1">
+    <row r="99" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z99" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="26:26" ht="15" thickBot="1">
+    <row r="100" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z100" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="26:26" ht="15" thickBot="1">
+    <row r="101" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z101" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="26:26" ht="15" thickBot="1">
+    <row r="102" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z102" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="26:26" ht="15" thickBot="1">
+    <row r="103" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z103" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="26:26" ht="15" thickBot="1">
+    <row r="104" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z104" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="26:26" ht="15" thickBot="1">
+    <row r="105" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z105" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="26:26" ht="15" thickBot="1">
+    <row r="106" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z106" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="26:26" ht="15" thickBot="1">
+    <row r="107" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z107" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="26:26" ht="15" thickBot="1">
+    <row r="108" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z108" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="26:26" ht="15" thickBot="1">
+    <row r="109" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z109" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="26:26" ht="15" thickBot="1">
+    <row r="110" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z110" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="26:26" ht="15" thickBot="1">
+    <row r="111" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z111" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="26:26" ht="15" thickBot="1">
+    <row r="112" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z112" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="26:26" ht="15" thickBot="1">
+    <row r="113" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z113" s="20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="26:26" ht="15" thickBot="1">
+    <row r="114" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z114" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="26:26" ht="15" thickBot="1">
+    <row r="115" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z115" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="26:26" ht="15" thickBot="1">
+    <row r="116" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z116" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="26:26" ht="15" thickBot="1">
+    <row r="117" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z117" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="26:26" ht="15" thickBot="1">
+    <row r="118" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z118" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="26:26" ht="15" thickBot="1">
+    <row r="119" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z119" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="26:26" ht="15" thickBot="1">
+    <row r="120" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z120" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="26:26" ht="15" thickBot="1">
+    <row r="121" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z121" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="26:26" ht="15" thickBot="1">
+    <row r="122" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z122" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="26:26" ht="15" thickBot="1">
+    <row r="123" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z123" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="26:26" ht="15" thickBot="1">
+    <row r="124" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z124" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="26:26" ht="15" thickBot="1">
+    <row r="125" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z125" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="26:26" ht="15" thickBot="1">
+    <row r="126" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z126" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="26:26" ht="15" thickBot="1">
+    <row r="127" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z127" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="26:26" ht="15" thickBot="1">
+    <row r="128" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z128" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="26:26" ht="15" thickBot="1">
+    <row r="129" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z129" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="26:26" ht="15" thickBot="1">
+    <row r="130" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z130" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="131" spans="26:26" ht="15" thickBot="1">
+    <row r="131" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z131" s="20" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="26:26" ht="15" thickBot="1">
+    <row r="132" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z132" s="20" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="26:26" ht="15" thickBot="1">
+    <row r="133" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z133" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="134" spans="26:26" ht="15" thickBot="1">
+    <row r="134" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z134" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="135" spans="26:26" ht="15" thickBot="1">
+    <row r="135" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z135" s="20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="26:26" ht="15" thickBot="1">
+    <row r="136" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z136" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="137" spans="26:26" ht="15" thickBot="1">
+    <row r="137" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z137" s="20" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="26:26" ht="15" thickBot="1">
+    <row r="138" spans="26:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Z138" s="20" t="s">
         <v>194</v>
       </c>
@@ -2625,7 +2625,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.81640625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
@@ -2642,7 +2642,7 @@
     <col min="13" max="13" width="15.90625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>199</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="G2" s="23"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="G3" s="23"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="J8" s="25"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>218</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>218</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>218</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>218</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="5" customFormat="1">
+    <row r="19" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>218</v>
       </c>
@@ -3218,7 +3218,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="32"/>
     </row>
-    <row r="20" spans="2:13" s="5" customFormat="1">
+    <row r="20" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>218</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="32"/>
     </row>
-    <row r="21" spans="2:13" s="5" customFormat="1">
+    <row r="21" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>218</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="32"/>
     </row>
-    <row r="22" spans="2:13" s="5" customFormat="1">
+    <row r="22" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>218</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="32"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>272</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="27"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="27"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="L26" s="25"/>
       <c r="M26" s="27"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>6</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="2:13" s="5" customFormat="1">
+    <row r="28" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>277</v>
       </c>
@@ -3472,14 +3472,14 @@
       <c r="L28" s="30"/>
       <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="25"/>
       <c r="G29" s="26"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="25"/>
@@ -3491,14 +3491,14 @@
       <c r="L30" s="25"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="25"/>
       <c r="G31" s="24"/>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="25"/>
@@ -3508,7 +3508,7 @@
       <c r="J32" s="25"/>
       <c r="K32" s="28"/>
     </row>
-    <row r="33" spans="3:13">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="25"/>
@@ -3518,7 +3518,7 @@
       <c r="J33" s="25"/>
       <c r="K33" s="26"/>
     </row>
-    <row r="34" spans="3:13">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="25"/>
@@ -3530,7 +3530,7 @@
       <c r="L34" s="25"/>
       <c r="M34" s="27"/>
     </row>
-    <row r="35" spans="3:13">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C35" s="11"/>
       <c r="E35" s="11"/>
       <c r="G35" s="23"/>
@@ -3541,34 +3541,34 @@
       <c r="L35" s="25"/>
       <c r="M35" s="27"/>
     </row>
-    <row r="36" spans="3:13">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C36" s="11"/>
       <c r="E36" s="11"/>
       <c r="G36" s="23"/>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="3:13">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="25"/>
       <c r="G37" s="26"/>
       <c r="I37" s="24"/>
     </row>
-    <row r="38" spans="3:13">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
       <c r="I38" s="27"/>
     </row>
-    <row r="39" spans="3:13">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="25"/>
       <c r="G39" s="26"/>
       <c r="I39" s="27"/>
     </row>
-    <row r="40" spans="3:13">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="25"/>
@@ -3580,14 +3580,14 @@
       <c r="L40" s="25"/>
       <c r="M40" s="27"/>
     </row>
-    <row r="41" spans="3:13">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="25"/>
       <c r="G41" s="24"/>
       <c r="I41" s="24"/>
     </row>
-    <row r="42" spans="3:13">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="25"/>
@@ -3597,7 +3597,7 @@
       <c r="J42" s="25"/>
       <c r="K42" s="28"/>
     </row>
-    <row r="43" spans="3:13">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="25"/>
@@ -3607,7 +3607,7 @@
       <c r="J43" s="25"/>
       <c r="K43" s="26"/>
     </row>
-    <row r="44" spans="3:13">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="25"/>
@@ -3619,7 +3619,7 @@
       <c r="L44" s="25"/>
       <c r="M44" s="27"/>
     </row>
-    <row r="45" spans="3:13">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C45" s="11"/>
       <c r="E45" s="11"/>
       <c r="G45" s="23"/>
@@ -3630,34 +3630,34 @@
       <c r="L45" s="25"/>
       <c r="M45" s="27"/>
     </row>
-    <row r="46" spans="3:13">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C46" s="11"/>
       <c r="E46" s="11"/>
       <c r="G46" s="23"/>
       <c r="I46" s="24"/>
     </row>
-    <row r="47" spans="3:13">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="25"/>
       <c r="G47" s="26"/>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="3:13">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="25"/>
       <c r="G48" s="26"/>
       <c r="I48" s="27"/>
     </row>
-    <row r="49" spans="3:13">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="25"/>
       <c r="G49" s="26"/>
       <c r="I49" s="27"/>
     </row>
-    <row r="50" spans="3:13">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="25"/>
@@ -3669,14 +3669,14 @@
       <c r="L50" s="25"/>
       <c r="M50" s="27"/>
     </row>
-    <row r="51" spans="3:13">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="25"/>
       <c r="G51" s="24"/>
       <c r="I51" s="24"/>
     </row>
-    <row r="52" spans="3:13">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="25"/>
@@ -3686,7 +3686,7 @@
       <c r="J52" s="25"/>
       <c r="K52" s="28"/>
     </row>
-    <row r="53" spans="3:13">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="25"/>
@@ -3696,7 +3696,7 @@
       <c r="J53" s="25"/>
       <c r="K53" s="26"/>
     </row>
-    <row r="54" spans="3:13">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="25"/>
@@ -3708,7 +3708,7 @@
       <c r="L54" s="25"/>
       <c r="M54" s="27"/>
     </row>
-    <row r="55" spans="3:13">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C55" s="11"/>
       <c r="H55" s="25"/>
       <c r="I55" s="27"/>
@@ -3727,10 +3727,10 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
@@ -3739,7 +3739,7 @@
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>279</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -3776,10 +3776,10 @@
         <v>289</v>
       </c>
       <c r="F2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>290</v>
       </c>
@@ -3796,10 +3796,10 @@
         <v>294</v>
       </c>
       <c r="F3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>295</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>298</v>
       </c>
@@ -3836,10 +3836,10 @@
         <v>297</v>
       </c>
       <c r="F5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>300</v>
       </c>
@@ -3856,10 +3856,10 @@
         <v>302</v>
       </c>
       <c r="F6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>303</v>
       </c>
@@ -3876,10 +3876,10 @@
         <v>305</v>
       </c>
       <c r="F7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>306</v>
       </c>

--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
+    <sheet name="API_Data" sheetId="6" r:id="rId2"/>
+    <sheet name="Credentials" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="359">
   <si>
     <t>Execution</t>
   </si>
@@ -25,18 +27,906 @@
     <t>Test_Scenario</t>
   </si>
   <si>
+    <t>Test_Case</t>
+  </si>
+  <si>
     <t>MSISDN</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>TC_001</t>
   </si>
   <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>Recharge_More_Time</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>Recharge_More_International</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>Recharge_More_Data</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>Recharge_More_Credit</t>
+  </si>
+  <si>
+    <t>LIVE USAGE DATA</t>
+  </si>
+  <si>
+    <t>LIVE USAGE VOICE</t>
+  </si>
+  <si>
+    <t>LIVE USAGE SMS</t>
+  </si>
+  <si>
+    <t>P2P TRANSFER</t>
+  </si>
+  <si>
+    <t>BALANCE ENQUIRES</t>
+  </si>
+  <si>
+    <t>OPT_IN/OPT OUT</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>SMS_DU_TO_DU</t>
+  </si>
+  <si>
+    <t>SMS_DU_TO_Local</t>
+  </si>
+  <si>
+    <t>SMS_DU_International</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>DATA_REGULAR</t>
+  </si>
+  <si>
+    <t>DATA_SOCIAL</t>
+  </si>
+  <si>
+    <t>Voice_Roaming - Local_Du_Direct</t>
+  </si>
+  <si>
+    <t>Voice_Roaming - Local_Etisalat</t>
+  </si>
+  <si>
+    <t>Voice_Roaming - International_DU</t>
+  </si>
+  <si>
+    <t>Voice_Roaming - International_Other</t>
+  </si>
+  <si>
+    <t>Voice_Regular - International_Other</t>
+  </si>
+  <si>
+    <t>Voice_Regular - International_DU</t>
+  </si>
+  <si>
+    <t>Voice_Regular - Etisalat</t>
+  </si>
+  <si>
+    <t>Voice_Regular - Local_Du_Direct</t>
+  </si>
+  <si>
     <t>YES</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Parameter1</t>
+  </si>
+  <si>
+    <t>Parameter2</t>
+  </si>
+  <si>
+    <t>Parameter3</t>
+  </si>
+  <si>
+    <t>Parameter4</t>
+  </si>
+  <si>
+    <t>Call_TO_MSISDN</t>
+  </si>
+  <si>
+    <t>CALL_DURATION</t>
+  </si>
+  <si>
+    <t>RECEIVER_MSISDN</t>
+  </si>
+  <si>
+    <t>Message_To_Send</t>
+  </si>
+  <si>
+    <t>TRANSFER_TO_MSISDN</t>
+  </si>
+  <si>
+    <t>TRANSFER_AMOUNT</t>
+  </si>
+  <si>
+    <t>Hide this field</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>971520001714</t>
+  </si>
+  <si>
+    <t>Recharge_Coupon</t>
+  </si>
+  <si>
+    <t>SMS_COUNT</t>
+  </si>
+  <si>
+    <t>Test_Device</t>
+  </si>
+  <si>
+    <t>device1</t>
+  </si>
+  <si>
+    <t>USSD_OPT_IN</t>
+  </si>
+  <si>
+    <t>USSD_OPT_OUT</t>
+  </si>
+  <si>
+    <t>USSD_Recharge</t>
+  </si>
+  <si>
+    <t>USSD_Long_Code</t>
+  </si>
+  <si>
+    <t>USSD_Short_Code</t>
+  </si>
+  <si>
+    <t>189348653076336</t>
+  </si>
+  <si>
+    <t>971520002069</t>
+  </si>
+  <si>
+    <t>0520002069</t>
+  </si>
+  <si>
+    <t>200MB+200MB Social AED25_OnceOff</t>
+  </si>
+  <si>
+    <t>500MB+500MB Social AED55_OnceOff</t>
+  </si>
+  <si>
+    <t>1.1GB+1.1GB Social AED110_OnceOff</t>
+  </si>
+  <si>
+    <t>5GB+3GB Social AED210_OnceOff</t>
+  </si>
+  <si>
+    <t>25GB+15GB Social AED525_OnceOff</t>
+  </si>
+  <si>
+    <t>200MB+200MB Social AED25_Rec</t>
+  </si>
+  <si>
+    <t>500MB+500MB Social AED55_Rec</t>
+  </si>
+  <si>
+    <t>1.1GB+1.1GB Social AED110_Rec</t>
+  </si>
+  <si>
+    <t>5GB+3GB Social AED210_Rec</t>
+  </si>
+  <si>
+    <t>25GB+15GB Social AED525_Rec</t>
+  </si>
+  <si>
+    <t>Daily 60 MB for AED 2</t>
+  </si>
+  <si>
+    <t>Daily 150 MB for AED 4</t>
+  </si>
+  <si>
+    <t>Daily 100 MB for AED 3</t>
+  </si>
+  <si>
+    <t>2min&amp;30MB AED3 Day</t>
+  </si>
+  <si>
+    <t>25min&amp;250MB AED25 Week</t>
+  </si>
+  <si>
+    <t>15min&amp;750MB AED35 Mon</t>
+  </si>
+  <si>
+    <t>30min&amp;1.5GB AED50 Mon</t>
+  </si>
+  <si>
+    <t>100min&amp;3GB AED100 Mon</t>
+  </si>
+  <si>
+    <t>150min&amp;6GB AED150 Mon</t>
+  </si>
+  <si>
+    <t>Special Social 25GB Data Bundle Recurrent</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec1_FlexiChat_AED25</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec2_FlexiSocial_AED50</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec3_FlexiSocial_AED100</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec5_FlexiAll_AED100</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec6_FlexiAll_AED200</t>
+  </si>
+  <si>
+    <t>Zinger_Monthly_Rec7_FlexiAll_AED150</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec1_NatMin_AED1</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec2_FlexChat_AED2</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec3_FlexSocial_AED3</t>
+  </si>
+  <si>
+    <t>Zinger_Daily_Rec4_FlexAll_AED5</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily1_AED1</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily2_AED2</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily3_AED3</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffDaily4_AED5</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly1_AED25</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly2_AED50</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly3_AED100</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly5_AED100</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly6_AED200</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffMonthly7_AED150</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly1_AED20</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly2_AED50</t>
+  </si>
+  <si>
+    <t>ZNGR_OneOffWeekly3_AED100</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi3_AED2</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi5_AED3</t>
+  </si>
+  <si>
+    <t>AllValueBundleDaily_Flexi8_AED5</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_Flexi25_AED25</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_Flexi60_AED50</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_National50_AED25</t>
+  </si>
+  <si>
+    <t>AllValueBundleMonthly_National110_AED50</t>
+  </si>
+  <si>
+    <t>SFTier1</t>
+  </si>
+  <si>
+    <t>SFTier2</t>
+  </si>
+  <si>
+    <t>SFTier3</t>
+  </si>
+  <si>
+    <t>Weekly International SMS Bundle</t>
+  </si>
+  <si>
+    <t>Monthly International SMS Bundle</t>
+  </si>
+  <si>
+    <t>TPRenewal</t>
+  </si>
+  <si>
+    <t>TouristPBundle1</t>
+  </si>
+  <si>
+    <t>TouristPBundle2</t>
+  </si>
+  <si>
+    <t>TouristPBundle3</t>
+  </si>
+  <si>
+    <t>International Minutes2</t>
+  </si>
+  <si>
+    <t>IDDDailyBundle</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM1</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM2</t>
+  </si>
+  <si>
+    <t>SpecialIDDOfferCVM3</t>
+  </si>
+  <si>
+    <t>Daily Unlimited Social Bundle</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataD1</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataD2</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM1</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM2</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM3</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM4</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM1XL</t>
+  </si>
+  <si>
+    <t>NPPDataBndSub_NPPDataM2XL</t>
+  </si>
+  <si>
+    <t>NPPVBSub_NPPVoiceD1</t>
+  </si>
+  <si>
+    <t>NPPVBSub_NPPVoiceM1</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP1</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP2</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP3</t>
+  </si>
+  <si>
+    <t>NPPVPS_NPPVP4</t>
+  </si>
+  <si>
+    <t>GlobalZone</t>
+  </si>
+  <si>
+    <t>BB300MB</t>
+  </si>
+  <si>
+    <t>BB1GB</t>
+  </si>
+  <si>
+    <t>BB5GB</t>
+  </si>
+  <si>
+    <t>BB25GB</t>
+  </si>
+  <si>
+    <t>BBSoc</t>
+  </si>
+  <si>
+    <t>NPPBBAct</t>
+  </si>
+  <si>
+    <t>Start_Stop_Phase1</t>
+  </si>
+  <si>
+    <t>Start_Stop_Phase2</t>
+  </si>
+  <si>
+    <t>NewAloActivation</t>
+  </si>
+  <si>
+    <t>KBChatnCallRec</t>
+  </si>
+  <si>
+    <t>KDLifeStyleRec</t>
+  </si>
+  <si>
+    <t>KBChatnCallSingle</t>
+  </si>
+  <si>
+    <t>KDLifeStyleSingle</t>
+  </si>
+  <si>
+    <t>ICP_Mercury</t>
+  </si>
+  <si>
+    <t>IDD Rate Cutters</t>
+  </si>
+  <si>
+    <t>SpecialSocial25GBDataBundle</t>
+  </si>
+  <si>
+    <t>Nepal Offer</t>
+  </si>
+  <si>
+    <t>HappinessSIM</t>
+  </si>
+  <si>
+    <t>Data24hBundle</t>
+  </si>
+  <si>
+    <t>DailyRoamDataPack</t>
+  </si>
+  <si>
+    <t>WeeklyRoamDataPack</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDaily</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMonthly</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMPlus</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubDaily</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubWeekly</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubMonthly</t>
+  </si>
+  <si>
+    <t>RoamGCCDAct</t>
+  </si>
+  <si>
+    <t>RoamGCCDNRAct</t>
+  </si>
+  <si>
+    <t>RoamGCCWAct</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDRec</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDO</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSW</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSM</t>
+  </si>
+  <si>
+    <t>IntCommunity</t>
+  </si>
+  <si>
+    <t>SeamlessCallback</t>
+  </si>
+  <si>
+    <t>Campaign Management</t>
+  </si>
+  <si>
+    <t>Post Call Notification</t>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>BronzeMPromo</t>
+  </si>
+  <si>
+    <t>Roaming Hajj Bundles</t>
+  </si>
+  <si>
+    <t>Data Bundles-Roaming Data Bundles</t>
+  </si>
+  <si>
+    <t>NonstopDailyDBundle3AED</t>
+  </si>
+  <si>
+    <t>NonstopMonthlyDBundle50AED</t>
+  </si>
+  <si>
+    <t>HotSpotActive</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDailyRec</t>
+  </si>
+  <si>
+    <t>Local_PPU</t>
+  </si>
+  <si>
+    <t>Roaming_PPU_A_B_GCC</t>
+  </si>
+  <si>
+    <t>Data_Credit_Protection</t>
+  </si>
+  <si>
+    <t>Call Home for Less</t>
+  </si>
+  <si>
+    <t>PRODUCT NAME</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Execution Control</t>
+  </si>
+  <si>
+    <t>TestCase_ID</t>
+  </si>
+  <si>
+    <t>Request_Name</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Parameter5</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Parameter6</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Parameter7</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Parameter8</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Parameter9</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Parameter10</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>API_GetAccountDetails</t>
+  </si>
+  <si>
+    <t>subscriberNumber</t>
+  </si>
+  <si>
+    <t>API_GetOffers</t>
+  </si>
+  <si>
+    <t>API_DeleteOffer</t>
+  </si>
+  <si>
+    <t>offerID</t>
+  </si>
+  <si>
+    <t>API_UpdateOffer</t>
+  </si>
+  <si>
+    <t>API_UpdateDA</t>
+  </si>
+  <si>
+    <t>transactionCurrency</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID</t>
+  </si>
+  <si>
+    <t>adjustmentAmountRelative</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnitType</t>
+  </si>
+  <si>
+    <t>API_DeleteDA</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>API_GetBalanceAndDate</t>
+  </si>
+  <si>
+    <t>API_AddPAM</t>
+  </si>
+  <si>
+    <t>pamServiceID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pamClassID</t>
+  </si>
+  <si>
+    <t>scheduleID</t>
+  </si>
+  <si>
+    <t>API_ReduceDA</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>API_AddDifferentDA</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_1</t>
+  </si>
+  <si>
+    <t>serviceClassNew</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_2</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_3</t>
+  </si>
+  <si>
+    <t>API_UpdateUsageThresholdsAndCounters</t>
+  </si>
+  <si>
+    <t>usageThresholdValueNew</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>usageThresholdID</t>
+  </si>
+  <si>
+    <t>50042101</t>
+  </si>
+  <si>
+    <t>API_DeleteSubscriber</t>
+  </si>
+  <si>
+    <t>API_InstallSubscriber</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>API_Update_IMSI</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>attributeName</t>
+  </si>
+  <si>
+    <t>IMSI</t>
+  </si>
+  <si>
+    <t>attributeUpdateAction</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>attributeValueString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424030046672675 </t>
+  </si>
+  <si>
+    <t>CIS_API_Credit_Amount</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>NACT_DebitCredit</t>
+  </si>
+  <si>
+    <t>To Credit</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>CIS_API_Debit_Amount</t>
+  </si>
+  <si>
+    <t>CIS_API_Product_Subscription</t>
+  </si>
+  <si>
+    <t>DACT_CallHomeforLess</t>
+  </si>
+  <si>
+    <t>CIS_API_View_History</t>
+  </si>
+  <si>
     <t>971520002574</t>
   </si>
   <si>
+    <t>Unix_System</t>
+  </si>
+  <si>
+    <t>IP_HostName</t>
+  </si>
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Wait_Time</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>10.95.214.9</t>
+  </si>
+  <si>
+    <t>atos</t>
+  </si>
+  <si>
+    <t>ericsson</t>
+  </si>
+  <si>
+    <t>/data/edr_enrichment/sftpcompleted</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>10.95.214.6</t>
+  </si>
+  <si>
+    <t>tasuser</t>
+  </si>
+  <si>
+    <t>Ericssondu@123</t>
+  </si>
+  <si>
+    <t>/var/opt/fds/CDR/archive/</t>
+  </si>
+  <si>
+    <t>OCC1</t>
+  </si>
+  <si>
+    <t>10.95.214.21</t>
+  </si>
+  <si>
+    <t>/home/tasuser</t>
+  </si>
+  <si>
+    <t>OCC2</t>
+  </si>
+  <si>
+    <t>10.95.214.22</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>10.95.214.166</t>
+  </si>
+  <si>
+    <t>/var/opt/air/datarecords/backup_CDR/</t>
+  </si>
+  <si>
+    <t>CCN0</t>
+  </si>
+  <si>
+    <t>10.95.213.132</t>
+  </si>
+  <si>
+    <t>/cluster/storage/no-backup/ccn/CcnStorage0/CCNCDR44/archive/</t>
+  </si>
+  <si>
+    <t>CCN1</t>
+  </si>
+  <si>
+    <t>/cluster/storage/no-backup/ccn/CcnStorage1/CCNCDR44/archive/</t>
+  </si>
+  <si>
+    <t>tasuserCCN@123 </t>
+  </si>
+  <si>
     <t>USSD_API</t>
   </si>
   <si>
@@ -46,29 +936,170 @@
     <t>Menu_Options</t>
   </si>
   <si>
-    <t>135*20</t>
-  </si>
-  <si>
-    <t>1,2,1</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>135*35</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>10.95.215.6</t>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424030046672431 </t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>TC_000</t>
+  </si>
+  <si>
+    <t>Flavour#1 - 135# Main menu - Option-1(MSISDN should be belongs to PAYG2 -1001 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#1 - 135# Main menu - Option-2(MSISDN should be belongs to PAYG2 -1001 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#1 - 135# Main menu - Option-3(MSISDN should be belongs to PAYG2 -1001 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#1 - 135# Main menu - Option-4(MSISDN should be belongs to PAYG2 -1001 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#1 - 135# Main menu - Option-5(MSISDN should be belongs to PAYG2 -1001 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#1 - 135# Main menu - Option-6(MSISDN should be belongs to PAYG2 -1001 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#1 - 135# Main menu - Option-7(MSISDN should be belongs to PAYG2 -1001 service class)</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>TC_027</t>
+  </si>
+  <si>
+    <t>TC_028</t>
+  </si>
+  <si>
+    <t>TC_029</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>Flavour#2 - *135# Main menu - Option-1 (MSISDN should be belongs to Tourist -1004 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#2 - *135# Main menu - Option-2(MSISDN should be belongs to Tourist -1004 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#2 - *135# Main menu - Option-3 (MSISDN should be belongs to Tourist -1004 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#3 - *135# Main menu - Option-3 (MSISDN should be belongs to NPP Special-1003 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#3 - *135# Main menu - Option-4 (MSISDN should be belongs to NPP Special-1003 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#4 - *135# Main menu - Option-1 (MSISDN should be belongs to NPP Value-1005 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#4 - *135# Main menu - Option-2 (MSISDN should be belongs to NPP Value-1005 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#4 - *135# Main menu - Option-3 (MSISDN should be belongs to NPP Value-1005 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#4 - *135# Main menu - Option-4 (MSISDN should be belongs to NPP Value-1005 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#5 - *135# Main menu - Option-1 (MSISDN should be belongs to NPP Value-1051 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#5 - *135# Main menu - Option-2 (MSISDN should be belongs to NPP Value-1051 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#5 - *135# Main menu - Option-3 (MSISDN should be belongs to NPP Value-1051 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#5 - *135# Main menu - Option-4 (MSISDN should be belongs to NPP Value-1051 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#5 - *135# Main menu - Option-5 (MSISDN should be belongs to NPP Value-1051 service class)</t>
+  </si>
+  <si>
+    <t>Flavour#3 - *135# Main menu - Option-1 (MSISDN should be belongs to NPP Special-1003 service class)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +1107,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Ericsson Hilda"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Ericsson Hilda"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +1186,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -114,18 +1234,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,97 +1646,3439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:Z190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="88.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="11" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="20.453125" style="11" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="20.453125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7265625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="36.26953125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.90625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.36328125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="38.453125" hidden="1" customWidth="1"/>
+    <col min="27" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" hidden="1">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="1:26" s="5" customFormat="1" hidden="1">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="34"/>
+    </row>
+    <row r="4" spans="1:26" s="5" customFormat="1" hidden="1">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="34"/>
+    </row>
+    <row r="5" spans="1:26" s="2" customFormat="1" hidden="1">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J5" s="2">
+        <v>20</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="2" customFormat="1" hidden="1">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="39" customFormat="1">
+      <c r="A7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" ht="14" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:26" ht="14" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" s="39" customFormat="1">
+      <c r="A15" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" ht="14" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" ht="14" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" s="39" customFormat="1">
+      <c r="A19" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" s="39" customFormat="1">
+      <c r="A23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" ht="14" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" ht="14" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" s="39" customFormat="1" ht="14" customHeight="1">
+      <c r="A28" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:26" ht="15" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:26" hidden="1">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="10"/>
+      <c r="R34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" hidden="1">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="10"/>
+      <c r="R35" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" hidden="1">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="8">
+        <v>20</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="10"/>
+      <c r="S36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z36" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" hidden="1">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M37" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="N37" s="2"/>
+      <c r="O37" s="10"/>
+      <c r="S37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="T37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z37" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" hidden="1">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z38" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" hidden="1">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="10"/>
+      <c r="T39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z39" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15" customHeight="1">
+      <c r="T40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z40" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="T41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z41" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="T42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z42" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="T43" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z43" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="T44" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z44" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="T45" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z45" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="T46" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z46" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="T47" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z47" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="T48" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z48" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="20:26" ht="15" thickBot="1">
+      <c r="T49" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z49" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="20:26" ht="15" thickBot="1">
+      <c r="T50" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z50" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="20:26" ht="15" thickBot="1">
+      <c r="T51" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z51" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="20:26" ht="15" thickBot="1">
+      <c r="T52" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z52" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="20:26" ht="15" thickBot="1">
+      <c r="T53" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z53" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="20:26" ht="15" thickBot="1">
+      <c r="T54" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z54" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="20:26" ht="15" thickBot="1">
+      <c r="T55" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z55" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="20:26" ht="15" thickBot="1">
+      <c r="T56" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z56" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="20:26" ht="15" thickBot="1">
+      <c r="T57" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z57" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="20:26" ht="15" thickBot="1">
+      <c r="T58" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z58" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="20:26" ht="15" thickBot="1">
+      <c r="T59" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z59" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="20:26" ht="15" thickBot="1">
+      <c r="T60" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z60" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="20:26" ht="15" thickBot="1">
+      <c r="T61" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z61" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="20:26" ht="15" thickBot="1">
+      <c r="T62" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z62" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="20:26" ht="15" thickBot="1">
+      <c r="T63" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z63" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="20:26" ht="15" thickBot="1">
+      <c r="Z64" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="26:26" ht="15" thickBot="1">
+      <c r="Z65" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="26:26" ht="15" thickBot="1">
+      <c r="Z66" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="26:26" ht="15" thickBot="1">
+      <c r="Z67" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="26:26" ht="15" thickBot="1">
+      <c r="Z68" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="26:26" ht="15" thickBot="1">
+      <c r="Z69" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="26:26" ht="15" thickBot="1">
+      <c r="Z70" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="26:26" ht="15" thickBot="1">
+      <c r="Z71" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="26:26" ht="15" thickBot="1">
+      <c r="Z72" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="26:26" ht="15" thickBot="1">
+      <c r="Z73" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="26:26" ht="15" thickBot="1">
+      <c r="Z74" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="26:26" ht="15" thickBot="1">
+      <c r="Z75" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="26:26" ht="15" thickBot="1">
+      <c r="Z76" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="26:26" ht="15" thickBot="1">
+      <c r="Z77" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="26:26" ht="15" thickBot="1">
+      <c r="Z78" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="26:26" ht="15" thickBot="1">
+      <c r="Z79" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="26:26" ht="15" thickBot="1">
+      <c r="Z80" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="26:26" ht="15" thickBot="1">
+      <c r="Z81" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="26:26" ht="15" thickBot="1">
+      <c r="Z82" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="26:26" ht="15" thickBot="1">
+      <c r="Z83" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="26:26" ht="15" thickBot="1">
+      <c r="Z84" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="26:26" ht="15" thickBot="1">
+      <c r="Z85" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="26:26" ht="15" thickBot="1">
+      <c r="Z86" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="26:26" ht="15" thickBot="1">
+      <c r="Z87" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="26:26" ht="15" thickBot="1">
+      <c r="Z88" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="26:26" ht="15" thickBot="1">
+      <c r="Z89" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="26:26" ht="15" thickBot="1">
+      <c r="Z90" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="26:26" ht="15" thickBot="1">
+      <c r="Z91" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="26:26" ht="15" thickBot="1">
+      <c r="Z92" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="26:26" ht="15" thickBot="1">
+      <c r="Z93" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="26:26" ht="15" thickBot="1">
+      <c r="Z94" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="26:26" ht="15" thickBot="1">
+      <c r="Z95" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="26:26" ht="15" thickBot="1">
+      <c r="Z96" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="26:26" ht="15" thickBot="1">
+      <c r="Z97" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="26:26" ht="15" thickBot="1">
+      <c r="Z98" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="26:26" ht="15" thickBot="1">
+      <c r="Z99" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="26:26" ht="15" thickBot="1">
+      <c r="Z100" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="26:26" ht="15" thickBot="1">
+      <c r="Z101" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="26:26" ht="15" thickBot="1">
+      <c r="Z102" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="26:26" ht="15" thickBot="1">
+      <c r="Z103" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="26:26" ht="15" thickBot="1">
+      <c r="Z104" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="26:26" ht="15" thickBot="1">
+      <c r="Z105" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="26:26" ht="15" thickBot="1">
+      <c r="Z106" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="26:26" ht="15" thickBot="1">
+      <c r="Z107" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="26:26" ht="15" thickBot="1">
+      <c r="Z108" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="26:26" ht="15" thickBot="1">
+      <c r="Z109" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="26:26" ht="15" thickBot="1">
+      <c r="Z110" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="26:26" ht="15" thickBot="1">
+      <c r="Z111" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="26:26" ht="15" thickBot="1">
+      <c r="Z112" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="26:26" ht="15" thickBot="1">
+      <c r="Z113" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="26:26" ht="15" thickBot="1">
+      <c r="Z114" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="26:26" ht="15" thickBot="1">
+      <c r="Z115" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="26:26" ht="15" thickBot="1">
+      <c r="Z116" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="26:26" ht="15" thickBot="1">
+      <c r="Z117" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="26:26" ht="15" thickBot="1">
+      <c r="Z118" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="26:26" ht="15" thickBot="1">
+      <c r="Z119" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="26:26" ht="15" thickBot="1">
+      <c r="Z120" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="26:26" ht="15" thickBot="1">
+      <c r="Z121" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="26:26" ht="15" thickBot="1">
+      <c r="Z122" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="26:26" ht="15" thickBot="1">
+      <c r="Z123" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="26:26" ht="15" thickBot="1">
+      <c r="Z124" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="26:26" ht="15" thickBot="1">
+      <c r="Z125" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="26:26" ht="15" thickBot="1">
+      <c r="Z126" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="26:26" ht="15" thickBot="1">
+      <c r="Z127" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="26:26" ht="15" thickBot="1">
+      <c r="Z128" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="26:26" ht="15" thickBot="1">
+      <c r="Z129" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="26:26" ht="15" thickBot="1">
+      <c r="Z130" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="26:26" ht="15" thickBot="1">
+      <c r="Z131" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="26:26" ht="15" thickBot="1">
+      <c r="Z132" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="26:26" ht="15" thickBot="1">
+      <c r="Z133" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="26:26" ht="15" thickBot="1">
+      <c r="Z134" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="26:26" ht="15" thickBot="1">
+      <c r="Z135" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="26:26" ht="15" thickBot="1">
+      <c r="Z136" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="26:26" ht="15" thickBot="1">
+      <c r="Z137" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="26:26" ht="15" thickBot="1">
+      <c r="Z138" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="26:26" ht="15" thickBot="1">
+      <c r="Z139" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="26:26" ht="15" thickBot="1">
+      <c r="Z140" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="26:26" ht="15" thickBot="1">
+      <c r="Z141" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="26:26" ht="15" thickBot="1">
+      <c r="Z142" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="26:26" ht="15" thickBot="1">
+      <c r="Z143" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="26:26" ht="15" thickBot="1">
+      <c r="Z144" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="26:26" ht="15" thickBot="1">
+      <c r="Z145" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="26:26" ht="15" thickBot="1">
+      <c r="Z146" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="26:26" ht="15" thickBot="1">
+      <c r="Z147" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="26:26" ht="15" thickBot="1">
+      <c r="Z148" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="26:26" ht="15" thickBot="1">
+      <c r="Z149" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="26:26" ht="15" thickBot="1">
+      <c r="Z150" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="26:26" ht="15" thickBot="1">
+      <c r="Z151" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="26:26" ht="15" thickBot="1">
+      <c r="Z152" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="26:26" ht="15" thickBot="1">
+      <c r="Z153" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="26:26" ht="15" thickBot="1">
+      <c r="Z154" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="26:26" ht="15" thickBot="1">
+      <c r="Z155" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="26:26" ht="15" thickBot="1">
+      <c r="Z156" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="26:26" ht="15" thickBot="1">
+      <c r="Z157" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="26:26" ht="15" thickBot="1">
+      <c r="Z158" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="26:26" ht="15" thickBot="1">
+      <c r="Z159" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="26:26" ht="15" thickBot="1">
+      <c r="Z160" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="26:26" ht="15" thickBot="1">
+      <c r="Z161" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="26:26" ht="15" thickBot="1">
+      <c r="Z162" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="26:26" ht="15" thickBot="1">
+      <c r="Z163" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" spans="26:26" ht="15" thickBot="1">
+      <c r="Z164" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="26:26" ht="15" thickBot="1">
+      <c r="Z165" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" spans="26:26" ht="15" thickBot="1">
+      <c r="Z166" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="167" spans="26:26" ht="15" thickBot="1">
+      <c r="Z167" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="168" spans="26:26" ht="15" thickBot="1">
+      <c r="Z168" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="169" spans="26:26" ht="43.5">
+      <c r="Z169" s="35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="170" spans="26:26" ht="43.5">
+      <c r="Z170" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="26:26" ht="43.5">
+      <c r="Z171" s="36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="26:26" ht="43.5">
+      <c r="Z172" s="36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="173" spans="26:26" ht="43.5">
+      <c r="Z173" s="36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="174" spans="26:26" ht="43.5">
+      <c r="Z174" s="36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="175" spans="26:26" ht="43.5">
+      <c r="Z175" s="36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="176" spans="26:26" ht="43.5">
+      <c r="Z176" s="37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="177" spans="26:26" ht="43.5">
+      <c r="Z177" s="36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="178" spans="26:26" ht="43.5">
+      <c r="Z178" s="36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="179" spans="26:26" ht="43.5">
+      <c r="Z179" s="37" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180" spans="26:26" ht="43.5">
+      <c r="Z180" s="37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="181" spans="26:26" ht="43.5">
+      <c r="Z181" s="37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="182" spans="26:26" ht="43.5">
+      <c r="Z182" s="37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="183" spans="26:26" ht="43.5">
+      <c r="Z183" s="37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="184" spans="26:26" ht="43.5">
+      <c r="Z184" s="37" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="185" spans="26:26" ht="43.5">
+      <c r="Z185" s="37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="186" spans="26:26" ht="43.5">
+      <c r="Z186" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="187" spans="26:26" ht="43.5">
+      <c r="Z187" s="37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="188" spans="26:26" ht="43.5">
+      <c r="Z188" s="37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="189" spans="26:26" ht="43.5">
+      <c r="Z189" s="37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="190" spans="26:26" ht="43.5">
+      <c r="Z190" s="37" t="s">
+        <v>357</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 A1:A1048576">
-      <formula1>#REF!</formula1>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E36 E5">
+      <formula1>$U$36:$U$43</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37">
+      <formula1>$W$36:$W$38</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35">
+      <formula1>$Y$36:$Y$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34">
+      <formula1>$S$35:$S$38</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$R$34:$R$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>$T$35:$T$63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E14 E16:E18 E20:E22 E24:E27 E29:E33">
+      <formula1>$X$36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>$Z$169:$Z$190</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" style="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" hidden="1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:23" hidden="1">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:23" hidden="1">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:23" hidden="1">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:23" hidden="1">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M6" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" hidden="1">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:23" hidden="1">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" hidden="1">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="24">
+        <v>1</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" hidden="1">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" hidden="1">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" hidden="1">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1006</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:23" hidden="1">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1001</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:23" hidden="1">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1008</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:23" hidden="1">
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H15" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1">
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" hidden="1">
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" hidden="1">
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="5" customFormat="1" hidden="1">
+      <c r="B19" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" s="5" customFormat="1" hidden="1">
+      <c r="B20" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" s="5" customFormat="1" hidden="1">
+      <c r="B21" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" s="5" customFormat="1" hidden="1">
+      <c r="B22" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" s="5" customFormat="1" hidden="1">
+      <c r="B23" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" hidden="1">
+      <c r="B24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:13" hidden="1">
+      <c r="B25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" hidden="1">
+      <c r="B26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="5" customFormat="1" hidden="1">
+      <c r="B27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" s="38">
+        <v>1001</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1004</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1003</v>
+      </c>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1005</v>
+      </c>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1051</v>
+      </c>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="24"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="28"/>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="G41" s="23"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="I43" s="27"/>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="24"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="28"/>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="26"/>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="27"/>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="11"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Input_sheet_V2.xlsx
+++ b/Input_sheet_V2.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Execution_Sheet" sheetId="5" r:id="rId1"/>
+    <sheet name="API_Data" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="108">
   <si>
     <t>Execution</t>
   </si>
@@ -25,50 +26,326 @@
     <t>Test_Scenario</t>
   </si>
   <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>USSD_API</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>10.95.215.6</t>
+  </si>
+  <si>
+    <t>Parameter1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Parameter2</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Parameter3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Parameter5</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Parameter4</t>
+  </si>
+  <si>
+    <t>Parameter6</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Parameter7</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Parameter8</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Parameter9</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Parameter10</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>offerID</t>
+  </si>
+  <si>
+    <t>expiryDateTime</t>
+  </si>
+  <si>
+    <t>offerState</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>Test_Case</t>
+  </si>
+  <si>
+    <t>Check RRMC data migrated correctly in CS</t>
+  </si>
+  <si>
+    <t>Check RRMC data migrated correctly in CIS</t>
+  </si>
+  <si>
+    <t>CIS_DB_Validation</t>
+  </si>
+  <si>
+    <t>Check balance and announcement</t>
+  </si>
+  <si>
+    <t>Execution Control</t>
+  </si>
+  <si>
+    <t>TestCase_ID</t>
+  </si>
+  <si>
+    <t>Request_Name</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>API_GetAccountDetails</t>
+  </si>
+  <si>
+    <t>subscriberNumber</t>
+  </si>
+  <si>
+    <t>971520001714</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>API_GetOffers</t>
+  </si>
+  <si>
+    <t>API_DeleteOffer</t>
+  </si>
+  <si>
+    <t>API_UpdateOffer</t>
+  </si>
+  <si>
+    <t>API_UpdateDA</t>
+  </si>
+  <si>
+    <t>transactionCurrency</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID</t>
+  </si>
+  <si>
+    <t>adjustmentAmountRelative</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnitType</t>
+  </si>
+  <si>
+    <t>API_DeleteDA</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>API_GetBalanceAndDate</t>
+  </si>
+  <si>
+    <t>API_AddPAM</t>
+  </si>
+  <si>
+    <t>pamServiceID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pamClassID</t>
+  </si>
+  <si>
+    <t>scheduleID</t>
+  </si>
+  <si>
+    <t>API_ReduceDA</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>API_AddDifferentDA</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_1</t>
+  </si>
+  <si>
+    <t>serviceClassNew</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_2</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_3</t>
+  </si>
+  <si>
+    <t>API_UpdateUsageThresholdsAndCounters</t>
+  </si>
+  <si>
+    <t>usageThresholdValueNew</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>usageThresholdID</t>
+  </si>
+  <si>
+    <t>50042101</t>
+  </si>
+  <si>
+    <t>API_DeleteSubscriber</t>
+  </si>
+  <si>
+    <t>API_InstallSubscriber</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>API_Update_IMSI</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>attributeName</t>
+  </si>
+  <si>
+    <t>IMSI</t>
+  </si>
+  <si>
+    <t>attributeUpdateAction</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>attributeValueString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424030046672675 </t>
+  </si>
+  <si>
+    <t>CIS_API_Credit_Amount</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>NACT_DebitCredit</t>
+  </si>
+  <si>
+    <t>To Credit</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>CIS_API_Debit_Amount</t>
+  </si>
+  <si>
+    <t>CIS_API_Product_Subscription</t>
+  </si>
+  <si>
+    <t>DACT_CallHomeforLess</t>
+  </si>
+  <si>
+    <t>CIS_API_View_History</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>USSD_CODE</t>
+  </si>
+  <si>
+    <t>Menu_Options</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>adhoc</t>
+  </si>
+  <si>
     <t>MSISDN</t>
   </si>
   <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>971520002574</t>
-  </si>
-  <si>
-    <t>USSD_API</t>
-  </si>
-  <si>
-    <t>USSD_CODE</t>
-  </si>
-  <si>
-    <t>Menu_Options</t>
-  </si>
-  <si>
-    <t>135*20</t>
-  </si>
-  <si>
-    <t>1,2,1</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>135*35</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>10.95.215.6</t>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>expiry_date</t>
+  </si>
+  <si>
+    <t>2047-02-02 13:06:35</t>
+  </si>
+  <si>
+    <t>TC_004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +353,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +389,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,18 +419,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,97 +777,1223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="1">
+        <v>820</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="D5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="1">
+        <v>820</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 A1:A1048576">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W51"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t